--- a/results/current_run/values.xlsx
+++ b/results/current_run/values.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C3" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C4" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D4" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C5" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D5" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C6" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D6" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C7" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D7" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C8" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C9" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D9" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E9" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C10" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C11" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D11" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C12" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D12" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C13" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C14" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C15" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D15" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C16" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D16" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C17" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C18" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C19" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D19" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C20" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D20" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C21" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D21" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C22" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D22" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C23" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C24" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D24" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E24" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C25" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E25" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C26" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C27" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D27" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C28" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C29" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D29" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C30" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D30" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C31" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C32" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D32" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C33" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D33" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C34" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C35" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C36" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D36" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="37">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C37" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D37" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="38">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C38" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D38" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="39">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C39" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D39" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C40" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D40" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C41" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D41" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C42" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D42" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C43" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C44" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D44" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="45">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C45" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D45" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C46" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C47" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C48" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D48" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C49" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D49" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C50" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D50" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C51" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D51" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C52" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C53" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D53" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E53" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C54" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C55" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D55" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C56" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D56" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C57" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C58" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C59" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D59" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C60" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D60" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C61" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C62" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C63" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D63" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C64" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D64" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C65" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D65" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C66" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D66" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C67" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C68" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D68" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E68" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C69" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E69" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C70" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C71" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D71" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C72" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C73" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D73" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C74" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D74" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C75" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C76" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D76" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C77" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D77" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C78" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C79" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C80" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D80" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C81" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D81" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C82" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D82" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C83" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D83" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C84" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D84" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C85" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D85" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C86" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D86" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C87" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C88" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D88" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C89" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D89" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C90" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C91" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C92" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D92" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="93">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C93" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D93" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="94">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C94" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D94" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="95">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C95" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D95" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C96" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="97">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C97" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D97" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E97" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="98">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C98" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="99">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C99" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D99" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C100" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D100" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="101">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C101" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="102">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C102" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="103">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C103" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D103" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="104">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C104" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D104" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="105">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C105" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="106">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C106" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="107">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C107" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D107" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C108" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D108" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="109">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C109" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D109" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="110">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C110" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D110" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="111">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C111" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C112" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D112" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E112" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="113">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C113" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E113" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="114">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C114" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="115">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C115" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D115" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C116" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="117">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C117" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D117" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="118">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C118" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D118" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="119">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C119" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C120" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D120" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="121">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C121" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D121" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="122">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C122" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="123">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C123" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C124" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D124" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="125">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C125" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D125" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="126">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C126" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D126" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C127" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D127" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="128">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C128" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D128" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="129">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C129" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D129" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="130">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C130" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D130" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="131">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C131" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="132">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C132" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D132" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="133">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C133" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D133" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
     <row r="134">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C134" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="135">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C135" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="136">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C136" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D136" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="137">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C137" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D137" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="138">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C138" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D138" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="139">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C139" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D139" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C140" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="141">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C141" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D141" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E141" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="142">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C142" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="143">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C143" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D143" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C144" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D144" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="145">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C145" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D145" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="146">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C146" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="147">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C147" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D147" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C148" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D148" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="149">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C149" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="150">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C150" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="151">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C151" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D151" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C152" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D152" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="153">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C153" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D153" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="154">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C154" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D154" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="155">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C155" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C156" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D156" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E156" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="157">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C157" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D157" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E157" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="158">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C158" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="159">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C159" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D159" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C160" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E160" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="161">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C161" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D161" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="162">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C162" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D162" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="163">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C163" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D163" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C164" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D164" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="165">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C165" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D165" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="166">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C166" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="167">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C167" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C168" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D168" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="169">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C169" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D169" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="170">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C170" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D170" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="171">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C171" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D171" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C172" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D172" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="173">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C173" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D173" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="174">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C174" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D174" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="175">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C175" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D175" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C176" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D176" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="177">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C177" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D177" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
     <row r="178">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C178" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="179">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C179" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C180" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D180" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="181">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C181" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D181" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="182">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C182" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D182" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="183">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C183" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D183" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C184" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D184" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="185">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C185" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D185" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E185" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="186">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C186" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E186" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="187">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C187" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D187" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C188" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D188" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="189">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C189" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D189" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E189" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="190">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C190" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D190" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E190" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="191">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C191" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D191" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E191" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C192" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D192" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="193">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C193" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E193" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="194">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C194" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="195">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C195" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D195" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C196" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D196" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="197">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C197" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D197" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="198">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C198" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D198" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="199">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C199" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E199" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C200" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D200" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E200" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="201">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C201" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D201" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E201" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="202">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C202" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="203">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C203" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D203" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E203" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="204">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C204" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D204" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E204" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="205">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C205" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D205" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E205" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="206">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C206" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D206" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="207">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C207" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D207" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="208">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C208" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D208" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E208" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="209">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C209" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D209" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E209" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="210">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C210" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D210" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="211">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C211" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D211" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="212">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C212" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D212" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="213">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C213" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D213" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="214">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C214" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D214" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="215">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C215" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D215" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E215" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="216">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C216" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D216" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="217">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C217" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D217" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E217" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="218">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C218" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D218" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="219">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C219" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D219" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E219" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="220">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C220" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D220" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="221">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C221" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D221" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
     <row r="222">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C222" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D222" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="223">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C223" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D223" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="224">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C224" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D224" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E224" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="225">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C225" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D225" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="226">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C226" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D226" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="227">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C227" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D227" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="228">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C228" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D228" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="229">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C229" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D229" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E229" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="230">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C230" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D230" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E230" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="231">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C231" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D231" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E231" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="232">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C232" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D232" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E232" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="233">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C233" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D233" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E233" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="234">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C234" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E234" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="235">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C235" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D235" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E235" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="236">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C236" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D236" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E236" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="237">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C237" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D237" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E237" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="238">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C238" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D238" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E238" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="239">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C239" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D239" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E239" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="240">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C240" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D240" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="241">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C241" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D241" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="242">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C242" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D242" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E242" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="243">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C243" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E243" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="244">
@@ -5065,16 +5065,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C244" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D244" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E244" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="245">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C245" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D245" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E245" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="246">
@@ -5103,16 +5103,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C246" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D246" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E246" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="247">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C247" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D247" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E247" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="248">
@@ -5141,16 +5141,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C248" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D248" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E248" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="249">
@@ -5160,16 +5160,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C249" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D249" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E249" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="250">
@@ -5179,16 +5179,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C250" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D250" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="251">
@@ -5198,16 +5198,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C251" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D251" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E251" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="252">
@@ -5217,16 +5217,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C252" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D252" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E252" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="253">
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C253" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D253" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E253" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="254">
@@ -5255,16 +5255,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C254" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E254" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="255">
@@ -5274,16 +5274,16 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C255" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="256">
@@ -5293,16 +5293,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C256" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D256" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="257">
@@ -5312,16 +5312,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C257" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D257" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="258">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C258" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D258" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="259">
@@ -5350,16 +5350,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C259" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D259" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="260">
@@ -5369,16 +5369,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C260" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D260" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E260" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="261">
@@ -5388,16 +5388,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C261" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D261" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E261" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="262">
@@ -5407,16 +5407,16 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C262" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D262" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E262" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="263">
@@ -5426,16 +5426,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C263" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D263" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E263" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="264">
@@ -5445,16 +5445,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C264" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D264" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="265">
@@ -5464,16 +5464,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C265" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D265" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
     <row r="266">
@@ -5483,16 +5483,16 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C266" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D266" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E266" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="267">
@@ -5502,16 +5502,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C267" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D267" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E267" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="268">
@@ -5521,16 +5521,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C268" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D268" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="269">
@@ -5540,16 +5540,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C269" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D269" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E269" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="270">
@@ -5559,16 +5559,16 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C270" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D270" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E270" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="271">
@@ -5578,16 +5578,16 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C271" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D271" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E271" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="272">
@@ -5597,16 +5597,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C272" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D272" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E272" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="273">
@@ -5616,16 +5616,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C273" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D273" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E273" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="274">
@@ -5635,16 +5635,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C274" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D274" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E274" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="275">
@@ -5654,16 +5654,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C275" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D275" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E275" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="276">
@@ -5673,16 +5673,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C276" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D276" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E276" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="277">
@@ -5692,16 +5692,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C277" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D277" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E277" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="278">
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C278" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D278" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E278" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="279">
@@ -5730,16 +5730,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C279" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D279" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E279" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="280">
@@ -5749,16 +5749,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C280" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D280" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E280" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="281">
@@ -5768,16 +5768,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C281" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D281" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E281" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="282">
@@ -5787,16 +5787,16 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C282" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D282" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E282" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="283">
@@ -5806,16 +5806,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C283" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D283" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E283" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="284">
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C284" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D284" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E284" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="285">
@@ -5844,16 +5844,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C285" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D285" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E285" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="286">
@@ -5863,16 +5863,16 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C286" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D286" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E286" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="287">
@@ -5882,16 +5882,16 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C287" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D287" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E287" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="288">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C288" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D288" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E288" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="289">
@@ -5920,16 +5920,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C289" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D289" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E289" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="290">
@@ -5939,16 +5939,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C290" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D290" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E290" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="291">
@@ -5958,16 +5958,16 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C291" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D291" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E291" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="292">
@@ -5977,16 +5977,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C292" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D292" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E292" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="293">
@@ -5996,16 +5996,16 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C293" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D293" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E293" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="294">
@@ -6015,16 +6015,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C294" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D294" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E294" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="295">
@@ -6034,16 +6034,16 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C295" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D295" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E295" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="296">
@@ -6053,16 +6053,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C296" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D296" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E296" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="297">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C297" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D297" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E297" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="298">
@@ -6091,16 +6091,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C298" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D298" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E298" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="299">
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C299" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D299" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E299" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="300">
@@ -6129,16 +6129,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C300" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D300" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E300" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="301">
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C301" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D301" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E301" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="302">
@@ -6167,16 +6167,16 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C302" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D302" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E302" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="303">
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C303" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D303" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E303" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="304">
@@ -6205,16 +6205,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C304" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D304" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E304" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="305">
@@ -6224,16 +6224,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C305" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D305" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E305" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="306">
@@ -6243,16 +6243,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C306" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D306" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E306" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="307">
@@ -6262,16 +6262,16 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C307" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D307" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E307" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="308">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C308" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D308" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E308" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="309">
@@ -6300,16 +6300,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C309" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D309" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E309" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
     <row r="310">
@@ -6319,16 +6319,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C310" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D310" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E310" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="311">
@@ -6338,16 +6338,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C311" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D311" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E311" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="312">
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C312" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D312" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E312" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="313">
@@ -6376,16 +6376,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C313" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D313" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E313" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="314">
@@ -6395,16 +6395,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C314" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D314" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E314" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="315">
@@ -6414,16 +6414,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C315" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D315" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E315" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="316">
@@ -6433,16 +6433,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C316" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D316" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E316" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="317">
@@ -6452,16 +6452,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C317" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D317" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E317" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="318">
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C318" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D318" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E318" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="319">
@@ -6490,16 +6490,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C319" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D319" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E319" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="320">
@@ -6509,16 +6509,16 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C320" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D320" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E320" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="321">
@@ -6528,16 +6528,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C321" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D321" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E321" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="322">
@@ -6547,16 +6547,16 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C322" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D322" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E322" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="323">
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C323" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D323" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E323" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="324">
@@ -6585,16 +6585,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C324" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D324" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E324" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="325">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C325" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D325" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E325" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="326">
@@ -6623,16 +6623,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C326" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D326" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E326" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="327">
@@ -6642,16 +6642,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C327" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D327" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E327" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="328">
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C328" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D328" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E328" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="329">
@@ -6680,16 +6680,16 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C329" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D329" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E329" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="330">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C330" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D330" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E330" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="331">
@@ -6718,16 +6718,16 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C331" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D331" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E331" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="332">
@@ -6737,16 +6737,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C332" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D332" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E332" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="333">
@@ -6756,16 +6756,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C333" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D333" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E333" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="334">
@@ -6775,16 +6775,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C334" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D334" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E334" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="335">
@@ -6794,16 +6794,16 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C335" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D335" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E335" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="336">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C336" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D336" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E336" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="337">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C337" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D337" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E337" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="338">
@@ -6851,16 +6851,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C338" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D338" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E338" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="339">
@@ -6870,16 +6870,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C339" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D339" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E339" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="340">
@@ -6889,16 +6889,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C340" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D340" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E340" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="341">
@@ -6908,16 +6908,16 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C341" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D341" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E341" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="342">
@@ -6927,16 +6927,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C342" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D342" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E342" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="343">
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C343" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D343" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E343" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="344">
@@ -6965,16 +6965,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C344" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D344" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E344" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="345">
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C345" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D345" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E345" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="346">
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C346" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D346" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E346" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="347">
@@ -7022,16 +7022,16 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C347" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D347" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="348">
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C348" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D348" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="349">
@@ -7060,16 +7060,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C349" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D349" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="350">
@@ -7079,16 +7079,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C350" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D350" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E350" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="351">
@@ -7098,16 +7098,16 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C351" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D351" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E351" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="352">
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C352" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D352" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E352" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="353">
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C353" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D353" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E353" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
     <row r="354">
@@ -7155,16 +7155,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>714.4639714539431</v>
+        <v>741.1594965592144</v>
       </c>
       <c r="C354" t="n">
-        <v>720.6799999999999</v>
+        <v>748.0100000000001</v>
       </c>
       <c r="D354" t="n">
-        <v>5.7735345764171</v>
+        <v>6.415791354778088</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4424939696397227</v>
+        <v>0.4347120860076334</v>
       </c>
     </row>
     <row r="355">
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>699.5785552358136</v>
+        <v>716.8739128524863</v>
       </c>
       <c r="C355" t="n">
-        <v>707.86</v>
+        <v>724.6400000000001</v>
       </c>
       <c r="D355" t="n">
-        <v>7.834919645560537</v>
+        <v>7.324797042111564</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4412901054022852</v>
       </c>
     </row>
     <row r="356">
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>694.2916153631836</v>
+        <v>716.0794392260069</v>
       </c>
       <c r="C356" t="n">
-        <v>703.14</v>
+        <v>723.54</v>
       </c>
       <c r="D356" t="n">
-        <v>8.400618627799618</v>
+        <v>7.018939343289639</v>
       </c>
       <c r="E356" t="n">
-        <v>0.4477660090167429</v>
+        <v>0.4416214307034899</v>
       </c>
     </row>
     <row r="357">
@@ -7212,16 +7212,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>673.8747666966276</v>
+        <v>687.0125097653905</v>
       </c>
       <c r="C357" t="n">
-        <v>689.6799999999999</v>
+        <v>694.29</v>
       </c>
       <c r="D357" t="n">
-        <v>15.31502373664767</v>
+        <v>6.826877766585991</v>
       </c>
       <c r="E357" t="n">
-        <v>0.4902095667247132</v>
+        <v>0.4506124680235016</v>
       </c>
     </row>
     <row r="358">
@@ -7231,16 +7231,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>645.8646846604713</v>
+        <v>675.5567124487674</v>
       </c>
       <c r="C358" t="n">
-        <v>657.53</v>
+        <v>686.89</v>
       </c>
       <c r="D358" t="n">
-        <v>11.20363058234858</v>
+        <v>10.88044616754641</v>
       </c>
       <c r="E358" t="n">
-        <v>0.4616847571801282</v>
+        <v>0.4528413836861523</v>
       </c>
     </row>
     <row r="359">
@@ -7250,16 +7250,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>644.0824815678586</v>
+        <v>671.475157404625</v>
       </c>
       <c r="C359" t="n">
-        <v>649.0999999999999</v>
+        <v>686.24</v>
       </c>
       <c r="D359" t="n">
-        <v>4.553294518334607</v>
+        <v>14.27359688407209</v>
       </c>
       <c r="E359" t="n">
-        <v>0.4642239138066342</v>
+        <v>0.4912457113030266</v>
       </c>
     </row>
     <row r="360">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>641.8220528852468</v>
+        <v>657.0970289727635</v>
       </c>
       <c r="C360" t="n">
-        <v>645.87</v>
+        <v>668.0999999999999</v>
       </c>
       <c r="D360" t="n">
-        <v>3.582750309380355</v>
+        <v>10.50598111963602</v>
       </c>
       <c r="E360" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.4969899076004111</v>
       </c>
     </row>
     <row r="361">
@@ -7288,16 +7288,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>637.8531850678777</v>
+        <v>644.980751532839</v>
       </c>
       <c r="C361" t="n">
-        <v>652.79</v>
+        <v>650.11</v>
       </c>
       <c r="D361" t="n">
-        <v>14.43857144419749</v>
+        <v>4.665328770221878</v>
       </c>
       <c r="E361" t="n">
-        <v>0.498243487924834</v>
+        <v>0.4639196969391643</v>
       </c>
     </row>
     <row r="362">
@@ -7307,16 +7307,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>635.8410032003043</v>
+        <v>643.4670000647455</v>
       </c>
       <c r="C362" t="n">
-        <v>644.8199999999999</v>
+        <v>648.9300000000001</v>
       </c>
       <c r="D362" t="n">
-        <v>8.475275184778194</v>
+        <v>4.998905612984747</v>
       </c>
       <c r="E362" t="n">
-        <v>0.5037216149174844</v>
+        <v>0.4640943222697549</v>
       </c>
     </row>
     <row r="363">
@@ -7326,16 +7326,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>634.7421885563123</v>
+        <v>638.2712889872217</v>
       </c>
       <c r="C363" t="n">
-        <v>651.53</v>
+        <v>644.38</v>
       </c>
       <c r="D363" t="n">
-        <v>16.28583057223176</v>
+        <v>5.643246208580773</v>
       </c>
       <c r="E363" t="n">
-        <v>0.5019808714558328</v>
+        <v>0.4654648041974658</v>
       </c>
     </row>
     <row r="364">
@@ -7345,16 +7345,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>633.4789981779559</v>
+        <v>629.7113386284474</v>
       </c>
       <c r="C364" t="n">
-        <v>649.2</v>
+        <v>639.47</v>
       </c>
       <c r="D364" t="n">
-        <v>15.21878028059128</v>
+        <v>9.253328310851986</v>
       </c>
       <c r="E364" t="n">
-        <v>0.5022215414528942</v>
+        <v>0.5053330607006169</v>
       </c>
     </row>
     <row r="365">
@@ -7364,16 +7364,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>623.865570713717</v>
+        <v>624.7421940032791</v>
       </c>
       <c r="C365" t="n">
-        <v>628.33</v>
+        <v>631.4399999999999</v>
       </c>
       <c r="D365" t="n">
-        <v>3.99394934837996</v>
+        <v>6.228262805805821</v>
       </c>
       <c r="E365" t="n">
-        <v>0.4704799379030197</v>
+        <v>0.4695431909150679</v>
       </c>
     </row>
     <row r="366">
@@ -7383,16 +7383,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>620.4311032846613</v>
+        <v>618.242888444827</v>
       </c>
       <c r="C366" t="n">
-        <v>635.86</v>
+        <v>635.3599999999999</v>
       </c>
       <c r="D366" t="n">
-        <v>14.92219596436489</v>
+        <v>16.61054054266507</v>
       </c>
       <c r="E366" t="n">
-        <v>0.5067007509739052</v>
+        <v>0.5065710125078458</v>
       </c>
     </row>
     <row r="367">
@@ -7402,16 +7402,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>619.9479528233686</v>
+        <v>617.9515820682266</v>
       </c>
       <c r="C367" t="n">
-        <v>636.37</v>
+        <v>633.99</v>
       </c>
       <c r="D367" t="n">
-        <v>15.91578038099097</v>
+        <v>15.53133472414368</v>
       </c>
       <c r="E367" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.507083207629797</v>
       </c>
     </row>
     <row r="368">
@@ -7421,16 +7421,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>617.427816347717</v>
+        <v>615.7863533567418</v>
       </c>
       <c r="C368" t="n">
-        <v>627.96</v>
+        <v>630.61</v>
       </c>
       <c r="D368" t="n">
-        <v>10.02338372411261</v>
+        <v>14.31536456698313</v>
       </c>
       <c r="E368" t="n">
-        <v>0.5087999281704964</v>
+        <v>0.5082820762751099</v>
       </c>
     </row>
     <row r="369">
@@ -7440,16 +7440,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>614.6900889410122</v>
+        <v>592.9136020270452</v>
       </c>
       <c r="C369" t="n">
-        <v>635.2</v>
+        <v>602.9200000000001</v>
       </c>
       <c r="D369" t="n">
-        <v>20.00329185370892</v>
+        <v>9.492216250742366</v>
       </c>
       <c r="E369" t="n">
-        <v>0.5066192052789301</v>
+        <v>0.5141817222126204</v>
       </c>
     </row>
     <row r="370">
@@ -7459,16 +7459,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>612.9762090296732</v>
+        <v>584.6585901895818</v>
       </c>
       <c r="C370" t="n">
-        <v>620.4300000000001</v>
+        <v>590.4499999999999</v>
       </c>
       <c r="D370" t="n">
-        <v>6.981112310707663</v>
+        <v>5.309520233960994</v>
       </c>
       <c r="E370" t="n">
-        <v>0.4726786596191526</v>
+        <v>0.4818895764572367</v>
       </c>
     </row>
     <row r="371">
@@ -7478,16 +7478,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>608.5730112837994</v>
+        <v>563.0745232202402</v>
       </c>
       <c r="C371" t="n">
-        <v>624.9000000000001</v>
+        <v>568.87</v>
       </c>
       <c r="D371" t="n">
-        <v>15.81716755676365</v>
+        <v>5.307087203302544</v>
       </c>
       <c r="E371" t="n">
-        <v>0.5098211594370259</v>
+        <v>0.4883895764572367</v>
       </c>
     </row>
     <row r="372">
@@ -7497,16 +7497,16 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>605.0933876178512</v>
+        <v>562.7353106478192</v>
       </c>
       <c r="C372" t="n">
-        <v>611.38</v>
+        <v>582.79</v>
       </c>
       <c r="D372" t="n">
-        <v>5.811207818915086</v>
+        <v>19.53200366144775</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4754045632336105</v>
+        <v>0.5226856907329414</v>
       </c>
     </row>
     <row r="373">
@@ -7516,16 +7516,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>603.9831507466141</v>
+        <v>558.0197177916504</v>
       </c>
       <c r="C373" t="n">
-        <v>610.6400000000001</v>
+        <v>565.63</v>
       </c>
       <c r="D373" t="n">
-        <v>6.181221798586115</v>
+        <v>7.120916728277964</v>
       </c>
       <c r="E373" t="n">
-        <v>0.4756274547998754</v>
+        <v>0.4893654800716945</v>
       </c>
     </row>
     <row r="374">
@@ -7535,16 +7535,16 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>603.977108826266</v>
+        <v>553.0909640825413</v>
       </c>
       <c r="C374" t="n">
-        <v>615.0799999999999</v>
+        <v>558.63</v>
       </c>
       <c r="D374" t="n">
-        <v>10.62842027197549</v>
+        <v>5.047562003652059</v>
       </c>
       <c r="E374" t="n">
-        <v>0.4744709017584415</v>
+        <v>0.4914739138066342</v>
       </c>
     </row>
     <row r="375">
@@ -7554,16 +7554,16 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>598.738908051162</v>
+        <v>544.020776022953</v>
       </c>
       <c r="C375" t="n">
-        <v>613.8800000000001</v>
+        <v>568.4400000000001</v>
       </c>
       <c r="D375" t="n">
-        <v>14.6282318531684</v>
+        <v>23.8926794117916</v>
       </c>
       <c r="E375" t="n">
-        <v>0.5128600956697618</v>
+        <v>0.5265445652554215</v>
       </c>
     </row>
     <row r="376">
@@ -7573,16 +7573,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>586.7726116299656</v>
+        <v>539.6530924023612</v>
       </c>
       <c r="C376" t="n">
-        <v>593.1900000000001</v>
+        <v>555.14</v>
       </c>
       <c r="D376" t="n">
-        <v>5.936504891138177</v>
+        <v>14.95617393452855</v>
       </c>
       <c r="E376" t="n">
-        <v>0.480883478896261</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="377">
@@ -7592,16 +7592,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>582.1432129673108</v>
+        <v>539.0398118132944</v>
       </c>
       <c r="C377" t="n">
-        <v>598.72</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D377" t="n">
-        <v>16.05917987560318</v>
+        <v>23.50184307781221</v>
       </c>
       <c r="E377" t="n">
-        <v>0.517607157086159</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="378">
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>580.6722094071139</v>
+        <v>516.7684854905078</v>
       </c>
       <c r="C378" t="n">
-        <v>595.3</v>
+        <v>540.8199999999999</v>
       </c>
       <c r="D378" t="n">
-        <v>14.10915331531799</v>
+        <v>23.51618725249409</v>
       </c>
       <c r="E378" t="n">
-        <v>0.5186372775680868</v>
+        <v>0.5353272569980015</v>
       </c>
     </row>
     <row r="379">
@@ -7630,16 +7630,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>554.0258503954243</v>
+        <v>515.2850231239822</v>
       </c>
       <c r="C379" t="n">
-        <v>568.15</v>
+        <v>523.37</v>
       </c>
       <c r="D379" t="n">
-        <v>13.59733461616421</v>
+        <v>7.583065554041942</v>
       </c>
       <c r="E379" t="n">
-        <v>0.5268149884114603</v>
+        <v>0.5019113219758966</v>
       </c>
     </row>
     <row r="380">
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>548.4778809276488</v>
+        <v>512.9843190078529</v>
       </c>
       <c r="C380" t="n">
-        <v>553.73</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D380" t="n">
-        <v>4.759350051286271</v>
+        <v>9.693529367497023</v>
       </c>
       <c r="E380" t="n">
-        <v>0.4927690210649358</v>
+        <v>0.5021516246500077</v>
       </c>
     </row>
     <row r="381">
@@ -7668,16 +7668,16 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>537.4617339333225</v>
+        <v>508.8518934539807</v>
       </c>
       <c r="C381" t="n">
-        <v>551.21</v>
+        <v>513.92</v>
       </c>
       <c r="D381" t="n">
-        <v>13.21606832775177</v>
+        <v>4.563346561098848</v>
       </c>
       <c r="E381" t="n">
-        <v>0.5321977389257123</v>
+        <v>0.5047599849203575</v>
       </c>
     </row>
     <row r="382">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>517.4006289239048</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C382" t="n">
-        <v>523.1800000000001</v>
+        <v>528.35</v>
       </c>
       <c r="D382" t="n">
-        <v>5.277400357998282</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E382" t="n">
-        <v>0.5019707180969663</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="383">
@@ -7706,16 +7706,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>514.0593470113548</v>
+        <v>498.5976270454856</v>
       </c>
       <c r="C383" t="n">
-        <v>530.03</v>
+        <v>514.5699999999999</v>
       </c>
       <c r="D383" t="n">
-        <v>15.43235607252292</v>
+        <v>15.42941941188607</v>
       </c>
       <c r="E383" t="n">
-        <v>0.5382969161223037</v>
+        <v>0.5429535426283276</v>
       </c>
     </row>
     <row r="384">
@@ -7725,16 +7725,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>513.2208427170859</v>
+        <v>497.6544468361855</v>
       </c>
       <c r="C384" t="n">
-        <v>530.5</v>
+        <v>512.59</v>
       </c>
       <c r="D384" t="n">
-        <v>16.74100193305681</v>
+        <v>14.43039257648457</v>
       </c>
       <c r="E384" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.505160587329996</v>
       </c>
     </row>
     <row r="385">
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>504.1794458690901</v>
+        <v>477.7095001814274</v>
       </c>
       <c r="C385" t="n">
-        <v>514.55</v>
+        <v>495</v>
       </c>
       <c r="D385" t="n">
-        <v>9.865803108669473</v>
+        <v>16.74154840641747</v>
       </c>
       <c r="E385" t="n">
-        <v>0.5047510222403691</v>
+        <v>0.5489514121552157</v>
       </c>
     </row>
     <row r="386">
@@ -7763,16 +7763,16 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>495.9134819667995</v>
+        <v>470.4595595911504</v>
       </c>
       <c r="C386" t="n">
-        <v>521.03</v>
+        <v>494.1999999999999</v>
       </c>
       <c r="D386" t="n">
-        <v>24.57522993282904</v>
+        <v>23.19135132405255</v>
       </c>
       <c r="E386" t="n">
-        <v>0.5412881003714956</v>
+        <v>0.5490890847970025</v>
       </c>
     </row>
     <row r="387">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>474.6940371249442</v>
+        <v>458.5587007788365</v>
       </c>
       <c r="C387" t="n">
-        <v>484.97</v>
+        <v>468.6900000000001</v>
       </c>
       <c r="D387" t="n">
-        <v>9.762485288019681</v>
+        <v>9.612734945911129</v>
       </c>
       <c r="E387" t="n">
-        <v>0.5134775870361377</v>
+        <v>0.5185642752524174</v>
       </c>
     </row>
     <row r="388">
@@ -7801,16 +7801,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>456.1155487766938</v>
+        <v>457.7029672438631</v>
       </c>
       <c r="C388" t="n">
-        <v>464.28</v>
+        <v>460.98</v>
       </c>
       <c r="D388" t="n">
-        <v>7.644558634800721</v>
+        <v>2.756146191727848</v>
       </c>
       <c r="E388" t="n">
-        <v>0.5198925885054294</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="389">
@@ -7820,16 +7820,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>454.9773773701907</v>
+        <v>448.9633992588602</v>
       </c>
       <c r="C389" t="n">
-        <v>457.48</v>
+        <v>453.12</v>
       </c>
       <c r="D389" t="n">
-        <v>1.980681848532848</v>
+        <v>3.633527503207397</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5219407812765138</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="390">
@@ -7839,16 +7839,16 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>451.9331452118215</v>
+        <v>429.2001237917626</v>
       </c>
       <c r="C390" t="n">
-        <v>454.36</v>
+        <v>437.34</v>
       </c>
       <c r="D390" t="n">
-        <v>1.903974247865876</v>
+        <v>7.611588821025015</v>
       </c>
       <c r="E390" t="n">
-        <v>0.5228805403126583</v>
+        <v>0.5282873872124526</v>
       </c>
     </row>
     <row r="391">
@@ -7858,16 +7858,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>412.7948448730946</v>
+        <v>408.8868349667484</v>
       </c>
       <c r="C391" t="n">
-        <v>416.86</v>
+        <v>414.72</v>
       </c>
       <c r="D391" t="n">
-        <v>3.531090888385336</v>
+        <v>5.298525530258864</v>
       </c>
       <c r="E391" t="n">
-        <v>0.5340642385201223</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="392">
@@ -7877,16 +7877,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>384.5994867665973</v>
+        <v>384.4143580792469</v>
       </c>
       <c r="C392" t="n">
-        <v>390.24</v>
+        <v>388.66</v>
       </c>
       <c r="D392" t="n">
-        <v>5.09850023643417</v>
+        <v>3.703153020170054</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5420129969685501</v>
+        <v>0.542488900583008</v>
       </c>
     </row>
     <row r="393">
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>384.595204376166</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C393" t="n">
-        <v>392.6999999999999</v>
+        <v>380.23</v>
       </c>
       <c r="D393" t="n">
-        <v>7.563342794364625</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E393" t="n">
-        <v>0.5414528294692849</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="394">
@@ -7915,16 +7915,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>369.0824316111401</v>
+        <v>364.834794283984</v>
       </c>
       <c r="C394" t="n">
-        <v>371.9</v>
+        <v>369.34</v>
       </c>
       <c r="D394" t="n">
-        <v>2.270031295505732</v>
+        <v>3.956716741968446</v>
       </c>
       <c r="E394" t="n">
-        <v>0.5475370933540924</v>
+        <v>0.5484889740475981</v>
       </c>
     </row>
     <row r="395">
@@ -7934,16 +7934,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>361.3701330338841</v>
+        <v>348.1964484070973</v>
       </c>
       <c r="C395" t="n">
-        <v>365.68</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="D395" t="n">
-        <v>3.760275582429772</v>
+        <v>8.431399968252716</v>
       </c>
       <c r="E395" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5521516246500078</v>
       </c>
     </row>
     <row r="396">
@@ -7953,16 +7953,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>360.5562058301591</v>
+        <v>332.717484744285</v>
       </c>
       <c r="C396" t="n">
-        <v>365.5</v>
+        <v>345.5</v>
       </c>
       <c r="D396" t="n">
-        <v>4.394148569287283</v>
+        <v>12.22684555877585</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5556696969391643</v>
       </c>
     </row>
     <row r="397">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>330.6586914297016</v>
+        <v>322.2880086010547</v>
       </c>
       <c r="C397" t="n">
-        <v>338.22</v>
+        <v>335.71</v>
       </c>
       <c r="D397" t="n">
-        <v>7.003165761399226</v>
+        <v>12.86309256594979</v>
       </c>
       <c r="E397" t="n">
-        <v>0.5581428088991996</v>
+        <v>0.5588988329955852</v>
       </c>
     </row>
   </sheetData>

--- a/results/current_run/values.xlsx
+++ b/results/current_run/values.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C2" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C3" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D3" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C4" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D4" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C5" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C6" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D6" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C7" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D7" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C8" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D8" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C9" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D9" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C10" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C11" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C12" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C13" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D13" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C14" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D14" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C15" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D15" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E15" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C16" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D16" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C17" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D17" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C18" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C19" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D19" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C20" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D20" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C21" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D21" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C22" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C23" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C24" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C25" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D25" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C26" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D26" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C27" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D27" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C28" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D28" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C29" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D29" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C30" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D30" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E30" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C31" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C32" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E32" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C33" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D33" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C34" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C35" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D35" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C36" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D36" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="37">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C37" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D37" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="38">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C38" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D38" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="39">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C39" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D39" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C40" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D40" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E40" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C41" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D41" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C42" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D42" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C43" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D43" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C44" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D44" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="45">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C45" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D45" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C46" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C47" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D47" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C48" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D48" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C49" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C50" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D50" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C51" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D51" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C52" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D52" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C53" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D53" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C54" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C55" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C56" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C57" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D57" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C58" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D58" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C59" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D59" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E59" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C60" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D60" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C61" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D61" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C62" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C63" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D63" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C64" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D64" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C65" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D65" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C66" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C67" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C68" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C69" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D69" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C70" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D70" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C71" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D71" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C72" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D72" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C73" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D73" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C74" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D74" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E74" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C75" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D75" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C76" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E76" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C77" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D77" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C78" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C79" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D79" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C80" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D80" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C81" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D81" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C82" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D82" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C83" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D83" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C84" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D84" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E84" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C85" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D85" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C86" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D86" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C87" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D87" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C88" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D88" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C89" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D89" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C90" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C91" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D91" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C92" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D92" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="93">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C93" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="94">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C94" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D94" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="95">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C95" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D95" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C96" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D96" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="97">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C97" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D97" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="98">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C98" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="99">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C99" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C100" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="101">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C101" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D101" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="102">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C102" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D102" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="103">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C103" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D103" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E103" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="104">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C104" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D104" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="105">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C105" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D105" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="106">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C106" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="107">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C107" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D107" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C108" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D108" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="109">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C109" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D109" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="110">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C110" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="111">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C111" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C112" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="113">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C113" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D113" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="114">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C114" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D114" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="115">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C115" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D115" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C116" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D116" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="117">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C117" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D117" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="118">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C118" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D118" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E118" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="119">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C119" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D119" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C120" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E120" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="121">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C121" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D121" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="122">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C122" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="123">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C123" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D123" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C124" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D124" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="125">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C125" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D125" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="126">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C126" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D126" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C127" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D127" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="128">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C128" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D128" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E128" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="129">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C129" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D129" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="130">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C130" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D130" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="131">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C131" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D131" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="132">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C132" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D132" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="133">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C133" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D133" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
     <row r="134">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C134" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="135">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C135" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D135" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="136">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C136" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D136" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="137">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C137" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="138">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C138" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D138" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="139">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C139" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D139" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C140" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D140" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="141">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C141" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D141" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="142">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C142" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="143">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C143" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C144" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="145">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C145" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D145" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="146">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C146" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D146" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="147">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C147" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D147" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E147" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C148" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D148" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="149">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C149" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D149" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="150">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C150" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="151">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C151" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D151" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C152" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D152" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="153">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C153" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D153" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="154">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C154" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="155">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C155" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C156" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D156" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="157">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C157" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D157" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="158">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C158" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D158" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="159">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C159" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D159" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C160" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D160" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="161">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C161" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D161" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="162">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C162" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D162" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E162" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="163">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C163" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D163" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C164" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D164" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E164" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="165">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C165" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D165" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="166">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C166" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="167">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C167" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D167" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C168" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D168" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="169">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C169" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D169" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="170">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C170" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D170" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="171">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C171" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D171" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C172" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D172" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E172" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="173">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C173" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D173" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="174">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C174" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D174" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="175">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C175" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D175" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C176" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D176" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="177">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C177" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D177" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
     <row r="178">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C178" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D178" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="179">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C179" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D179" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C180" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D180" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="181">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C181" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D181" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="182">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C182" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D182" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="183">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C183" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D183" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C184" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D184" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="185">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C185" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D185" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="186">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C186" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="187">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C187" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D187" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C188" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="189">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C189" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D189" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E189" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="190">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C190" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D190" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E190" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="191">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C191" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D191" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E191" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C192" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D192" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="193">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C193" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D193" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E193" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="194">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C194" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="195">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C195" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D195" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C196" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D196" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E196" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="197">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C197" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D197" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="198">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C198" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D198" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="199">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C199" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E199" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C200" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D200" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E200" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="201">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C201" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D201" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="202">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C202" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D202" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="203">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C203" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D203" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E203" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="204">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C204" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D204" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="205">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C205" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D205" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E205" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="206">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C206" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D206" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E206" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="207">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C207" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D207" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="208">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C208" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D208" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E208" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="209">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C209" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D209" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E209" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="210">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C210" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D210" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="211">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C211" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D211" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="212">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C212" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D212" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="213">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C213" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D213" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="214">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C214" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D214" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="215">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C215" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D215" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E215" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="216">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C216" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D216" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E216" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="217">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C217" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D217" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E217" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="218">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C218" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D218" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="219">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C219" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D219" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E219" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="220">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C220" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D220" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="221">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C221" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D221" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
     <row r="222">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C222" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D222" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="223">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C223" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D223" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="224">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C224" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D224" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E224" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="225">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C225" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D225" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="226">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C226" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D226" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="227">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C227" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D227" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="228">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C228" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D228" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="229">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C229" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D229" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E229" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="230">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C230" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D230" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E230" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="231">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C231" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D231" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E231" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="232">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C232" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D232" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E232" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="233">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C233" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D233" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E233" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="234">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C234" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D234" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E234" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="235">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C235" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D235" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E235" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="236">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C236" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D236" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E236" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="237">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C237" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D237" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E237" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="238">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C238" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D238" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E238" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="239">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C239" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D239" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E239" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="240">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C240" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D240" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E240" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="241">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C241" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D241" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="242">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C242" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E242" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="243">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C243" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E243" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="244">
@@ -5065,16 +5065,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C244" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D244" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E244" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="245">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C245" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D245" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E245" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="246">
@@ -5103,16 +5103,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C246" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D246" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E246" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="247">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C247" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D247" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E247" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="248">
@@ -5141,16 +5141,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C248" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D248" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="249">
@@ -5160,16 +5160,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C249" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D249" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E249" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="250">
@@ -5179,16 +5179,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C250" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D250" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E250" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="251">
@@ -5198,16 +5198,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C251" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D251" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E251" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="252">
@@ -5217,16 +5217,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C252" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E252" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="253">
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C253" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D253" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E253" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="254">
@@ -5255,16 +5255,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C254" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E254" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="255">
@@ -5274,16 +5274,16 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C255" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D255" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="256">
@@ -5293,16 +5293,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C256" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D256" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="257">
@@ -5312,16 +5312,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C257" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D257" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="258">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C258" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D258" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="259">
@@ -5350,16 +5350,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C259" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D259" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="260">
@@ -5369,16 +5369,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C260" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D260" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E260" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="261">
@@ -5388,16 +5388,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C261" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D261" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E261" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="262">
@@ -5407,16 +5407,16 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C262" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D262" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E262" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="263">
@@ -5426,16 +5426,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C263" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D263" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E263" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="264">
@@ -5445,16 +5445,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C264" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D264" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="265">
@@ -5464,16 +5464,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C265" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D265" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
     <row r="266">
@@ -5483,16 +5483,16 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C266" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D266" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E266" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="267">
@@ -5502,16 +5502,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C267" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D267" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E267" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="268">
@@ -5521,16 +5521,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C268" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D268" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="269">
@@ -5540,16 +5540,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C269" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D269" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E269" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="270">
@@ -5559,16 +5559,16 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C270" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D270" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E270" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="271">
@@ -5578,16 +5578,16 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C271" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D271" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E271" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="272">
@@ -5597,16 +5597,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C272" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D272" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E272" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="273">
@@ -5616,16 +5616,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C273" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D273" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E273" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="274">
@@ -5635,16 +5635,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C274" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D274" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E274" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="275">
@@ -5654,16 +5654,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C275" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D275" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E275" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="276">
@@ -5673,16 +5673,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C276" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D276" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E276" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="277">
@@ -5692,16 +5692,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C277" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D277" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E277" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="278">
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C278" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D278" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E278" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="279">
@@ -5730,16 +5730,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C279" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D279" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E279" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="280">
@@ -5749,16 +5749,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C280" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D280" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E280" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="281">
@@ -5768,16 +5768,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C281" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D281" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E281" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="282">
@@ -5787,16 +5787,16 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C282" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D282" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E282" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="283">
@@ -5806,16 +5806,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C283" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D283" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E283" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="284">
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C284" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D284" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E284" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="285">
@@ -5844,16 +5844,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C285" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D285" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E285" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="286">
@@ -5863,16 +5863,16 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C286" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D286" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E286" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="287">
@@ -5882,16 +5882,16 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C287" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D287" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E287" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="288">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C288" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D288" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E288" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="289">
@@ -5920,16 +5920,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C289" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D289" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E289" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="290">
@@ -5939,16 +5939,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C290" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D290" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E290" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="291">
@@ -5958,16 +5958,16 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C291" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D291" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E291" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="292">
@@ -5977,16 +5977,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C292" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D292" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E292" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="293">
@@ -5996,16 +5996,16 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C293" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D293" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E293" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="294">
@@ -6015,16 +6015,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C294" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D294" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E294" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="295">
@@ -6034,16 +6034,16 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C295" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D295" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E295" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="296">
@@ -6053,16 +6053,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C296" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D296" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E296" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="297">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C297" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D297" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E297" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="298">
@@ -6091,16 +6091,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C298" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D298" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E298" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="299">
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C299" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D299" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E299" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="300">
@@ -6129,16 +6129,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C300" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D300" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E300" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="301">
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C301" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D301" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E301" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="302">
@@ -6167,16 +6167,16 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C302" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D302" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E302" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="303">
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C303" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D303" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E303" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="304">
@@ -6205,16 +6205,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C304" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D304" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E304" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="305">
@@ -6224,16 +6224,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C305" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D305" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E305" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="306">
@@ -6243,16 +6243,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C306" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D306" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E306" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="307">
@@ -6262,16 +6262,16 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C307" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D307" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E307" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="308">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C308" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D308" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E308" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="309">
@@ -6300,16 +6300,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C309" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D309" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E309" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
     <row r="310">
@@ -6319,16 +6319,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C310" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D310" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E310" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="311">
@@ -6338,16 +6338,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C311" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D311" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E311" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="312">
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C312" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D312" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E312" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="313">
@@ -6376,16 +6376,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C313" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D313" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E313" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="314">
@@ -6395,16 +6395,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C314" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D314" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E314" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="315">
@@ -6414,16 +6414,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C315" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D315" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E315" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="316">
@@ -6433,16 +6433,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C316" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D316" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E316" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="317">
@@ -6452,16 +6452,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C317" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D317" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E317" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="318">
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C318" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D318" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E318" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="319">
@@ -6490,16 +6490,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C319" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D319" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E319" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="320">
@@ -6509,16 +6509,16 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C320" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D320" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E320" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="321">
@@ -6528,16 +6528,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C321" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D321" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E321" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="322">
@@ -6547,16 +6547,16 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C322" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D322" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E322" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="323">
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C323" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D323" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E323" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="324">
@@ -6585,16 +6585,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C324" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D324" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E324" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="325">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C325" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D325" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E325" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="326">
@@ -6623,16 +6623,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C326" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D326" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E326" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="327">
@@ -6642,16 +6642,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C327" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D327" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="328">
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C328" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D328" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E328" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="329">
@@ -6680,16 +6680,16 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C329" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D329" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E329" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="330">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C330" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D330" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E330" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="331">
@@ -6718,16 +6718,16 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C331" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D331" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E331" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="332">
@@ -6737,16 +6737,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C332" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D332" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E332" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="333">
@@ -6756,16 +6756,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C333" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D333" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E333" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="334">
@@ -6775,16 +6775,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C334" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D334" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E334" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="335">
@@ -6794,16 +6794,16 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C335" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D335" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E335" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="336">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C336" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D336" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="337">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C337" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D337" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E337" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="338">
@@ -6851,16 +6851,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C338" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D338" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E338" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="339">
@@ -6870,16 +6870,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C339" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D339" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E339" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="340">
@@ -6889,16 +6889,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C340" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D340" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E340" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="341">
@@ -6908,16 +6908,16 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C341" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D341" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E341" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="342">
@@ -6927,16 +6927,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C342" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D342" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E342" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="343">
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C343" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D343" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E343" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="344">
@@ -6965,16 +6965,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C344" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D344" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E344" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="345">
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C345" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D345" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E345" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="346">
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C346" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D346" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E346" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="347">
@@ -7022,16 +7022,16 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C347" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D347" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="348">
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C348" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D348" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E348" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="349">
@@ -7060,16 +7060,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C349" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D349" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="350">
@@ -7079,16 +7079,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C350" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D350" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E350" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="351">
@@ -7098,16 +7098,16 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C351" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D351" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E351" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="352">
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C352" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D352" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E352" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="353">
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C353" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D353" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E353" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
     <row r="354">
@@ -7155,16 +7155,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>741.1594965592144</v>
+        <v>748.9426248685658</v>
       </c>
       <c r="C354" t="n">
-        <v>748.0100000000001</v>
+        <v>755.0699999999999</v>
       </c>
       <c r="D354" t="n">
-        <v>6.415791354778088</v>
+        <v>5.695069892326424</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4347120860076334</v>
+        <v>0.432305239107839</v>
       </c>
     </row>
     <row r="355">
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>716.8739128524863</v>
+        <v>713.530795015162</v>
       </c>
       <c r="C355" t="n">
-        <v>724.6400000000001</v>
+        <v>728.22</v>
       </c>
       <c r="D355" t="n">
-        <v>7.324797042111564</v>
+        <v>14.21096772196295</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4412901054022852</v>
+        <v>0.4782372628751687</v>
       </c>
     </row>
     <row r="356">
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>716.0794392260069</v>
+        <v>704.8239720924624</v>
       </c>
       <c r="C356" t="n">
-        <v>723.54</v>
+        <v>714.23</v>
       </c>
       <c r="D356" t="n">
-        <v>7.018939343289639</v>
+        <v>8.961421463610456</v>
       </c>
       <c r="E356" t="n">
-        <v>0.4416214307034899</v>
+        <v>0.4446064439271161</v>
       </c>
     </row>
     <row r="357">
@@ -7212,16 +7212,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>687.0125097653905</v>
+        <v>697.1258928486933</v>
       </c>
       <c r="C357" t="n">
-        <v>694.29</v>
+        <v>704.1900000000001</v>
       </c>
       <c r="D357" t="n">
-        <v>6.826877766585991</v>
+        <v>6.616657407350157</v>
       </c>
       <c r="E357" t="n">
-        <v>0.4506124680235016</v>
+        <v>0.4474497439565019</v>
       </c>
     </row>
     <row r="358">
@@ -7231,16 +7231,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>675.5567124487674</v>
+        <v>685.8526644679508</v>
       </c>
       <c r="C358" t="n">
-        <v>686.89</v>
+        <v>695.01</v>
       </c>
       <c r="D358" t="n">
-        <v>10.88044616754641</v>
+        <v>8.668912183367256</v>
       </c>
       <c r="E358" t="n">
-        <v>0.4528413836861523</v>
+        <v>0.4884233486818099</v>
       </c>
     </row>
     <row r="359">
@@ -7250,16 +7250,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>671.475157404625</v>
+        <v>676.4676071586331</v>
       </c>
       <c r="C359" t="n">
-        <v>686.24</v>
+        <v>683.51</v>
       </c>
       <c r="D359" t="n">
-        <v>14.27359688407209</v>
+        <v>6.588714181747694</v>
       </c>
       <c r="E359" t="n">
-        <v>0.4912457113030266</v>
+        <v>0.4536786596191527</v>
       </c>
     </row>
     <row r="360">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>657.0970289727635</v>
+        <v>656.7492603820327</v>
       </c>
       <c r="C360" t="n">
-        <v>668.0999999999999</v>
+        <v>668.37</v>
       </c>
       <c r="D360" t="n">
-        <v>10.50598111963602</v>
+        <v>11.16250071738435</v>
       </c>
       <c r="E360" t="n">
-        <v>0.4969899076004111</v>
+        <v>0.458238900583008</v>
       </c>
     </row>
     <row r="361">
@@ -7288,16 +7288,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>644.980751532839</v>
+        <v>634.2989664443187</v>
       </c>
       <c r="C361" t="n">
-        <v>650.11</v>
+        <v>650.53</v>
       </c>
       <c r="D361" t="n">
-        <v>4.665328770221878</v>
+        <v>15.72921261663805</v>
       </c>
       <c r="E361" t="n">
-        <v>0.4639196969391643</v>
+        <v>0.5018209390432558</v>
       </c>
     </row>
     <row r="362">
@@ -7307,16 +7307,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>643.4670000647455</v>
+        <v>632.7194103048288</v>
       </c>
       <c r="C362" t="n">
-        <v>648.9300000000001</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="D362" t="n">
-        <v>4.998905612984747</v>
+        <v>13.6356790343767</v>
       </c>
       <c r="E362" t="n">
-        <v>0.4640943222697549</v>
+        <v>0.464910660794586</v>
       </c>
     </row>
     <row r="363">
@@ -7326,16 +7326,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>638.2712889872217</v>
+        <v>631.5748807008862</v>
       </c>
       <c r="C363" t="n">
-        <v>644.38</v>
+        <v>637.8099999999999</v>
       </c>
       <c r="D363" t="n">
-        <v>5.643246208580773</v>
+        <v>5.767494782897476</v>
       </c>
       <c r="E363" t="n">
-        <v>0.4654648041974658</v>
+        <v>0.4676245162162728</v>
       </c>
     </row>
     <row r="364">
@@ -7345,16 +7345,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>629.7113386284474</v>
+        <v>628.4849228477487</v>
       </c>
       <c r="C364" t="n">
-        <v>639.47</v>
+        <v>644.9000000000001</v>
       </c>
       <c r="D364" t="n">
-        <v>9.253328310851986</v>
+        <v>15.91156043007556</v>
       </c>
       <c r="E364" t="n">
-        <v>0.5053330607006169</v>
+        <v>0.5035167221757858</v>
       </c>
     </row>
     <row r="365">
@@ -7364,16 +7364,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>624.7421940032791</v>
+        <v>624.923807804578</v>
       </c>
       <c r="C365" t="n">
-        <v>631.4399999999999</v>
+        <v>641.54</v>
       </c>
       <c r="D365" t="n">
-        <v>6.228262805805821</v>
+        <v>16.11120228782163</v>
       </c>
       <c r="E365" t="n">
-        <v>0.4695431909150679</v>
+        <v>0.5049899076004112</v>
       </c>
     </row>
     <row r="366">
@@ -7383,16 +7383,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>618.242888444827</v>
+        <v>619.7819886501072</v>
       </c>
       <c r="C366" t="n">
-        <v>635.3599999999999</v>
+        <v>636.37</v>
       </c>
       <c r="D366" t="n">
-        <v>16.61054054266507</v>
+        <v>16.08191425745539</v>
       </c>
       <c r="E366" t="n">
-        <v>0.5065710125078458</v>
+        <v>0.5060970924373198</v>
       </c>
     </row>
     <row r="367">
@@ -7402,16 +7402,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>617.9515820682266</v>
+        <v>604.6947303101833</v>
       </c>
       <c r="C367" t="n">
-        <v>633.99</v>
+        <v>611.6</v>
       </c>
       <c r="D367" t="n">
-        <v>15.53133472414368</v>
+        <v>6.429750595287119</v>
       </c>
       <c r="E367" t="n">
-        <v>0.507083207629797</v>
+        <v>0.4755190945295258</v>
       </c>
     </row>
     <row r="368">
@@ -7421,16 +7421,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>615.7863533567418</v>
+        <v>595.4032848157719</v>
       </c>
       <c r="C368" t="n">
-        <v>630.61</v>
+        <v>606.65</v>
       </c>
       <c r="D368" t="n">
-        <v>14.31536456698313</v>
+        <v>10.76988819960144</v>
       </c>
       <c r="E368" t="n">
-        <v>0.5082820762751099</v>
+        <v>0.4768269846264991</v>
       </c>
     </row>
     <row r="369">
@@ -7440,16 +7440,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>592.9136020270452</v>
+        <v>584.5660430278126</v>
       </c>
       <c r="C369" t="n">
-        <v>602.9200000000001</v>
+        <v>602.6</v>
       </c>
       <c r="D369" t="n">
-        <v>9.492216250742366</v>
+        <v>17.5175184898001</v>
       </c>
       <c r="E369" t="n">
-        <v>0.5141817222126204</v>
+        <v>0.5164384823873639</v>
       </c>
     </row>
     <row r="370">
@@ -7459,16 +7459,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>584.6585901895818</v>
+        <v>577.8306297245134</v>
       </c>
       <c r="C370" t="n">
-        <v>590.4499999999999</v>
+        <v>592.5699999999999</v>
       </c>
       <c r="D370" t="n">
-        <v>5.309520233960994</v>
+        <v>14.21991070876181</v>
       </c>
       <c r="E370" t="n">
-        <v>0.4818895764572367</v>
+        <v>0.5194595667247133</v>
       </c>
     </row>
     <row r="371">
@@ -7478,16 +7478,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>563.0745232202402</v>
+        <v>577.1350622834508</v>
       </c>
       <c r="C371" t="n">
-        <v>568.87</v>
+        <v>582.35</v>
       </c>
       <c r="D371" t="n">
-        <v>5.307087203302544</v>
+        <v>4.730608381055898</v>
       </c>
       <c r="E371" t="n">
-        <v>0.4883895764572367</v>
+        <v>0.4843293354933812</v>
       </c>
     </row>
     <row r="372">
@@ -7497,16 +7497,16 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>562.7353106478192</v>
+        <v>566.8157869658967</v>
       </c>
       <c r="C372" t="n">
-        <v>582.79</v>
+        <v>573.96</v>
       </c>
       <c r="D372" t="n">
-        <v>19.53200366144775</v>
+        <v>6.657537386532404</v>
       </c>
       <c r="E372" t="n">
-        <v>0.5226856907329414</v>
+        <v>0.4866756475709598</v>
       </c>
     </row>
     <row r="373">
@@ -7516,16 +7516,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>558.0197177916504</v>
+        <v>565.238944473932</v>
       </c>
       <c r="C373" t="n">
-        <v>565.63</v>
+        <v>576.86</v>
       </c>
       <c r="D373" t="n">
-        <v>7.120916728277964</v>
+        <v>11.13479223524116</v>
       </c>
       <c r="E373" t="n">
-        <v>0.4893654800716945</v>
+        <v>0.4862632908269105</v>
       </c>
     </row>
     <row r="374">
@@ -7535,16 +7535,16 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>553.0909640825413</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C374" t="n">
-        <v>558.63</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D374" t="n">
-        <v>5.047562003652059</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E374" t="n">
-        <v>0.4914739138066342</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="375">
@@ -7554,16 +7554,16 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>544.020776022953</v>
+        <v>543.742837806579</v>
       </c>
       <c r="C375" t="n">
-        <v>568.4400000000001</v>
+        <v>552.6500000000001</v>
       </c>
       <c r="D375" t="n">
-        <v>23.8926794117916</v>
+        <v>8.375678530310772</v>
       </c>
       <c r="E375" t="n">
-        <v>0.5265445652554215</v>
+        <v>0.5314836631102555</v>
       </c>
     </row>
     <row r="376">
@@ -7573,16 +7573,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>539.6530924023612</v>
+        <v>539.049858680931</v>
       </c>
       <c r="C376" t="n">
-        <v>555.14</v>
+        <v>563.0699999999999</v>
       </c>
       <c r="D376" t="n">
-        <v>14.95617393452855</v>
+        <v>23.49179621017552</v>
       </c>
       <c r="E376" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5283451088933879</v>
       </c>
     </row>
     <row r="377">
@@ -7592,16 +7592,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>539.0398118132944</v>
+        <v>537.6169406603333</v>
       </c>
       <c r="C377" t="n">
-        <v>563.0699999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D377" t="n">
-        <v>23.50184307781221</v>
+        <v>17.23239796571311</v>
       </c>
       <c r="E377" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.530661373953629</v>
       </c>
     </row>
     <row r="378">
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>516.7684854905078</v>
+        <v>533.3548139718703</v>
       </c>
       <c r="C378" t="n">
-        <v>540.8199999999999</v>
+        <v>538.76</v>
       </c>
       <c r="D378" t="n">
-        <v>23.51618725249409</v>
+        <v>4.907907970920121</v>
       </c>
       <c r="E378" t="n">
-        <v>0.5353272569980015</v>
+        <v>0.497278057209514</v>
       </c>
     </row>
     <row r="379">
@@ -7630,16 +7630,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>515.2850231239822</v>
+        <v>513.7919155695594</v>
       </c>
       <c r="C379" t="n">
-        <v>523.37</v>
+        <v>529.79</v>
       </c>
       <c r="D379" t="n">
-        <v>7.583065554041942</v>
+        <v>15.49764342877028</v>
       </c>
       <c r="E379" t="n">
-        <v>0.5019113219758966</v>
+        <v>0.500441001670284</v>
       </c>
     </row>
     <row r="380">
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>512.9843190078529</v>
+        <v>504.9878001555981</v>
       </c>
       <c r="C380" t="n">
-        <v>523.1799999999999</v>
+        <v>514.64</v>
       </c>
       <c r="D380" t="n">
-        <v>9.693529367497023</v>
+        <v>9.147475930595276</v>
       </c>
       <c r="E380" t="n">
-        <v>0.5021516246500077</v>
+        <v>0.5047239138066343</v>
       </c>
     </row>
     <row r="381">
@@ -7668,16 +7668,16 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>508.8518934539807</v>
+        <v>502.578543626893</v>
       </c>
       <c r="C381" t="n">
-        <v>513.92</v>
+        <v>521.04</v>
       </c>
       <c r="D381" t="n">
-        <v>4.563346561098848</v>
+        <v>17.92045162565931</v>
       </c>
       <c r="E381" t="n">
-        <v>0.5047599849203575</v>
+        <v>0.5410047474476049</v>
       </c>
     </row>
     <row r="382">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>502.7153388118036</v>
+        <v>498.786067679523</v>
       </c>
       <c r="C382" t="n">
-        <v>528.35</v>
+        <v>510.69</v>
       </c>
       <c r="D382" t="n">
-        <v>25.09557790710199</v>
+        <v>11.3980186476342</v>
       </c>
       <c r="E382" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5059136728427788</v>
       </c>
     </row>
     <row r="383">
@@ -7706,16 +7706,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>498.5976270454856</v>
+        <v>496.6652775146578</v>
       </c>
       <c r="C383" t="n">
-        <v>514.5699999999999</v>
+        <v>507.91</v>
       </c>
       <c r="D383" t="n">
-        <v>15.42941941188607</v>
+        <v>10.73815225945792</v>
       </c>
       <c r="E383" t="n">
-        <v>0.5429535426283276</v>
+        <v>0.5065702258842129</v>
       </c>
     </row>
     <row r="384">
@@ -7725,16 +7725,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>497.6544468361855</v>
+        <v>490.2832006769898</v>
       </c>
       <c r="C384" t="n">
-        <v>512.59</v>
+        <v>494.9499999999999</v>
       </c>
       <c r="D384" t="n">
-        <v>14.43039257648457</v>
+        <v>4.156144686311936</v>
       </c>
       <c r="E384" t="n">
-        <v>0.505160587329996</v>
+        <v>0.5106546366982005</v>
       </c>
     </row>
     <row r="385">
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>477.7095001814274</v>
+        <v>473.4752162033121</v>
       </c>
       <c r="C385" t="n">
-        <v>495</v>
+        <v>484.65</v>
       </c>
       <c r="D385" t="n">
-        <v>16.74154840641747</v>
+        <v>10.66102675035116</v>
       </c>
       <c r="E385" t="n">
-        <v>0.5489514121552157</v>
+        <v>0.5137570463367547</v>
       </c>
     </row>
     <row r="386">
@@ -7763,16 +7763,16 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>470.4595595911504</v>
+        <v>472.5532056438726</v>
       </c>
       <c r="C386" t="n">
-        <v>494.1999999999999</v>
+        <v>477.3299999999999</v>
       </c>
       <c r="D386" t="n">
-        <v>23.19135132405255</v>
+        <v>4.261013286869703</v>
       </c>
       <c r="E386" t="n">
-        <v>0.5490890847970025</v>
+        <v>0.5157810692577069</v>
       </c>
     </row>
     <row r="387">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>458.5587007788365</v>
+        <v>465.3804596838903</v>
       </c>
       <c r="C387" t="n">
-        <v>468.6900000000001</v>
+        <v>484.49</v>
       </c>
       <c r="D387" t="n">
-        <v>9.612734945911129</v>
+        <v>18.55724619164182</v>
       </c>
       <c r="E387" t="n">
-        <v>0.5185642752524174</v>
+        <v>0.552294124467881</v>
       </c>
     </row>
     <row r="388">
@@ -7801,16 +7801,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>457.7029672438631</v>
+        <v>441.4767172560266</v>
       </c>
       <c r="C388" t="n">
-        <v>460.98</v>
+        <v>445.86</v>
       </c>
       <c r="D388" t="n">
-        <v>2.756146191727848</v>
+        <v>3.857841962696841</v>
       </c>
       <c r="E388" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="389">
@@ -7820,16 +7820,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>448.9633992588602</v>
+        <v>423.4411518262795</v>
       </c>
       <c r="C389" t="n">
-        <v>453.12</v>
+        <v>449.01</v>
       </c>
       <c r="D389" t="n">
-        <v>3.633527503207397</v>
+        <v>25.00614764314041</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5627005305801349</v>
       </c>
     </row>
     <row r="390">
@@ -7839,16 +7839,16 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>429.2001237917626</v>
+        <v>412.7520109483367</v>
       </c>
       <c r="C390" t="n">
-        <v>437.34</v>
+        <v>416.86</v>
       </c>
       <c r="D390" t="n">
-        <v>7.611588821025015</v>
+        <v>3.573813330627773</v>
       </c>
       <c r="E390" t="n">
-        <v>0.5282873872124526</v>
+        <v>0.53417572103555</v>
       </c>
     </row>
     <row r="391">
@@ -7858,16 +7858,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>408.8868349667484</v>
+        <v>383.8108993715164</v>
       </c>
       <c r="C391" t="n">
-        <v>414.72</v>
+        <v>386.2</v>
       </c>
       <c r="D391" t="n">
-        <v>5.298525530258864</v>
+        <v>1.845873041447471</v>
       </c>
       <c r="E391" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5432275870361376</v>
       </c>
     </row>
     <row r="392">
@@ -7877,16 +7877,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>384.4143580792469</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C392" t="n">
-        <v>388.66</v>
+        <v>388.17</v>
       </c>
       <c r="D392" t="n">
-        <v>3.703153020170054</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E392" t="n">
-        <v>0.542488900583008</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="393">
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>376.570043037836</v>
+        <v>382.8218502485891</v>
       </c>
       <c r="C393" t="n">
-        <v>380.23</v>
+        <v>390.6</v>
       </c>
       <c r="D393" t="n">
-        <v>3.114928904954519</v>
+        <v>7.236064391821189</v>
       </c>
       <c r="E393" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5420853595897668</v>
       </c>
     </row>
     <row r="394">
@@ -7915,16 +7915,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>364.834794283984</v>
+        <v>360.6255481245139</v>
       </c>
       <c r="C394" t="n">
-        <v>369.34</v>
+        <v>365.5</v>
       </c>
       <c r="D394" t="n">
-        <v>3.956716741968446</v>
+        <v>4.32480627493249</v>
       </c>
       <c r="E394" t="n">
-        <v>0.5484889740475981</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="395">
@@ -7934,16 +7934,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>348.1964484070973</v>
+        <v>350.7478663574591</v>
       </c>
       <c r="C395" t="n">
-        <v>357.1799999999999</v>
+        <v>357.01</v>
       </c>
       <c r="D395" t="n">
-        <v>8.431399968252716</v>
+        <v>5.70993081307159</v>
       </c>
       <c r="E395" t="n">
-        <v>0.5521516246500078</v>
+        <v>0.5522028294692849</v>
       </c>
     </row>
     <row r="396">
@@ -7953,16 +7953,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>332.717484744285</v>
+        <v>335.8726027395005</v>
       </c>
       <c r="C396" t="n">
-        <v>345.5</v>
+        <v>343.37</v>
       </c>
       <c r="D396" t="n">
-        <v>12.22684555877585</v>
+        <v>6.940805656419609</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5556696969391643</v>
+        <v>0.5565916040799225</v>
       </c>
     </row>
     <row r="397">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>322.2880086010547</v>
+        <v>306.3701667131874</v>
       </c>
       <c r="C397" t="n">
-        <v>335.71</v>
+        <v>319.27</v>
       </c>
       <c r="D397" t="n">
-        <v>12.86309256594979</v>
+        <v>12.33598264658814</v>
       </c>
       <c r="E397" t="n">
-        <v>0.5588988329955852</v>
+        <v>0.5638506402245008</v>
       </c>
     </row>
   </sheetData>

--- a/results/current_run/values.xlsx
+++ b/results/current_run/values.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>748.9426248685658</v>
+        <v>754.9467241298212</v>
       </c>
       <c r="C2" t="n">
-        <v>755.0699999999999</v>
+        <v>758.22</v>
       </c>
       <c r="D2" t="n">
-        <v>5.695069892326424</v>
+        <v>2.841919426251668</v>
       </c>
       <c r="E2" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4313564439271161</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>713.530795015162</v>
+        <v>741.9320177566148</v>
       </c>
       <c r="C3" t="n">
-        <v>728.22</v>
+        <v>745.6500000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.21096772196295</v>
+        <v>3.283022728638298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.434959514746981</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.8239720924624</v>
+        <v>719.6209677547686</v>
       </c>
       <c r="C4" t="n">
-        <v>714.23</v>
+        <v>722.8100000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>8.961421463610456</v>
+        <v>2.747193212412144</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.4418390328192702</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>697.1258928486933</v>
+        <v>718.459250050605</v>
       </c>
       <c r="C5" t="n">
-        <v>704.1900000000001</v>
+        <v>721.11</v>
       </c>
       <c r="D5" t="n">
-        <v>6.616657407350157</v>
+        <v>2.208398868383059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4423510810120413</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>685.8526644679508</v>
+        <v>699.0936806569616</v>
       </c>
       <c r="C6" t="n">
-        <v>695.01</v>
+        <v>702.74</v>
       </c>
       <c r="D6" t="n">
-        <v>8.668912183367256</v>
+        <v>3.198435129496271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4478842135421617</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>676.4676071586331</v>
+        <v>695.6184472113298</v>
       </c>
       <c r="C7" t="n">
-        <v>683.51</v>
+        <v>698.63</v>
       </c>
       <c r="D7" t="n">
-        <v>6.588714181747694</v>
+        <v>2.562430623320816</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.4491221653493906</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>656.7492603820327</v>
+        <v>689.547281640644</v>
       </c>
       <c r="C8" t="n">
-        <v>668.37</v>
+        <v>693.1400000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>11.16250071738435</v>
+        <v>3.141812694153704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.458238900583008</v>
+        <v>0.4509056652024615</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>634.2989664443187</v>
+        <v>683.3140512308804</v>
       </c>
       <c r="C9" t="n">
-        <v>650.53</v>
+        <v>686.59</v>
       </c>
       <c r="D9" t="n">
-        <v>15.72921261663805</v>
+        <v>2.823200097746133</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.452748671373487</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>632.7194103048288</v>
+        <v>683.2710770643097</v>
       </c>
       <c r="C10" t="n">
-        <v>646.8200000000001</v>
+        <v>687.3100000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>13.6356790343767</v>
+        <v>3.586261246391536</v>
       </c>
       <c r="E10" t="n">
-        <v>0.464910660794586</v>
+        <v>0.452661689298847</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>631.5748807008862</v>
+        <v>654.0728414374249</v>
       </c>
       <c r="C11" t="n">
-        <v>637.8099999999999</v>
+        <v>656.86</v>
       </c>
       <c r="D11" t="n">
-        <v>5.767494782897476</v>
+        <v>2.325455071924445</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.4617034906505955</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>628.4849228477487</v>
+        <v>652.9054178130892</v>
       </c>
       <c r="C12" t="n">
-        <v>644.9000000000001</v>
+        <v>662.0400000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>15.91156043007556</v>
+        <v>8.673975522590002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.4606066643208864</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>624.923807804578</v>
+        <v>647.7927651617159</v>
       </c>
       <c r="C13" t="n">
-        <v>641.54</v>
+        <v>650.4599999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>16.11120228782163</v>
+        <v>2.203603636790036</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.4636312014939689</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>619.7819886501072</v>
+        <v>645.1799408642522</v>
       </c>
       <c r="C14" t="n">
-        <v>636.37</v>
+        <v>648.12</v>
       </c>
       <c r="D14" t="n">
-        <v>16.08191425745539</v>
+        <v>2.475699679772489</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.4643594559753089</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.6947303101833</v>
+        <v>637.1054367985981</v>
       </c>
       <c r="C15" t="n">
-        <v>611.6</v>
+        <v>640.9400000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>6.429750595287119</v>
+        <v>3.367751570874665</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.4668116305271749</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>595.4032848157719</v>
+        <v>633.002551363174</v>
       </c>
       <c r="C16" t="n">
-        <v>606.65</v>
+        <v>636.8099999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>10.76988819960144</v>
+        <v>3.339522915790458</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.4679257210355499</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>584.5660430278126</v>
+        <v>631.5277966642741</v>
       </c>
       <c r="C17" t="n">
-        <v>602.6</v>
+        <v>635.02</v>
       </c>
       <c r="D17" t="n">
-        <v>17.5175184898001</v>
+        <v>3.023791646427104</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.468411689298847</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>577.8306297245134</v>
+        <v>627.3676701571021</v>
       </c>
       <c r="C18" t="n">
-        <v>592.5699999999999</v>
+        <v>630.59</v>
       </c>
       <c r="D18" t="n">
-        <v>14.21991070876181</v>
+        <v>2.752713701644934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.4696161412530051</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.1350622834508</v>
+        <v>622.7441319313422</v>
       </c>
       <c r="C19" t="n">
-        <v>582.35</v>
+        <v>630.76</v>
       </c>
       <c r="D19" t="n">
-        <v>4.730608381055898</v>
+        <v>7.546120058465738</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.4697480101921764</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>566.8157869658967</v>
+        <v>612.4050260089775</v>
       </c>
       <c r="C20" t="n">
-        <v>573.96</v>
+        <v>615.35</v>
       </c>
       <c r="D20" t="n">
-        <v>6.657537386532404</v>
+        <v>2.470767488323731</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.4742065026987882</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>565.238944473932</v>
+        <v>608.5320168792625</v>
       </c>
       <c r="C21" t="n">
-        <v>576.86</v>
+        <v>611.66</v>
       </c>
       <c r="D21" t="n">
-        <v>11.13479223524116</v>
+        <v>2.652482098497114</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.4755010222403692</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.8338280736956</v>
+        <v>608.4421051581051</v>
       </c>
       <c r="C22" t="n">
-        <v>588.1600000000001</v>
+        <v>610.8099999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>23.80556712008529</v>
+        <v>1.892320869316527</v>
       </c>
       <c r="E22" t="n">
-        <v>0.520604806219277</v>
+        <v>0.4755739725783063</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>543.742837806579</v>
+        <v>607.6551234148013</v>
       </c>
       <c r="C23" t="n">
-        <v>552.6500000000001</v>
+        <v>610.3599999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>8.375678530310772</v>
+        <v>2.229167070451547</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.4757095147469809</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>539.049858680931</v>
+        <v>601.3886729393686</v>
       </c>
       <c r="C24" t="n">
-        <v>563.0699999999999</v>
+        <v>604.7</v>
       </c>
       <c r="D24" t="n">
-        <v>23.49179621017552</v>
+        <v>2.833912726607455</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.4774143340240894</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>537.6169406603333</v>
+        <v>597.0690736844426</v>
       </c>
       <c r="C25" t="n">
-        <v>555.38</v>
+        <v>600.05</v>
       </c>
       <c r="D25" t="n">
-        <v>17.23239796571311</v>
+        <v>2.502111379123512</v>
       </c>
       <c r="E25" t="n">
-        <v>0.530661373953629</v>
+        <v>0.4788149364337279</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>533.3548139718703</v>
+        <v>591.4298384757864</v>
       </c>
       <c r="C26" t="n">
-        <v>538.76</v>
+        <v>599.59</v>
       </c>
       <c r="D26" t="n">
-        <v>4.907907970920121</v>
+        <v>7.681024959804602</v>
       </c>
       <c r="E26" t="n">
-        <v>0.497278057209514</v>
+        <v>0.4791365644090438</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>513.7919155695594</v>
+        <v>580.6070824292607</v>
       </c>
       <c r="C27" t="n">
-        <v>529.79</v>
+        <v>589.35</v>
       </c>
       <c r="D27" t="n">
-        <v>15.49764342877028</v>
+        <v>8.260416328105155</v>
       </c>
       <c r="E27" t="n">
-        <v>0.500441001670284</v>
+        <v>0.4825012426341393</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.9878001555981</v>
+        <v>579.5843850497621</v>
       </c>
       <c r="C28" t="n">
-        <v>514.64</v>
+        <v>582.36</v>
       </c>
       <c r="D28" t="n">
-        <v>9.147475930595276</v>
+        <v>2.291288626792694</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.4843263234451885</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>502.578543626893</v>
+        <v>556.4170923211703</v>
       </c>
       <c r="C29" t="n">
-        <v>521.04</v>
+        <v>558.6700000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>17.92045162565931</v>
+        <v>1.76162888697438</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.4912787918554147</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>498.786067679523</v>
+        <v>553.909409852663</v>
       </c>
       <c r="C30" t="n">
-        <v>510.69</v>
+        <v>556.9</v>
       </c>
       <c r="D30" t="n">
-        <v>11.3980186476342</v>
+        <v>2.49859514919295</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.4919949981439837</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496.6652775146578</v>
+        <v>527.9504556820058</v>
       </c>
       <c r="C31" t="n">
-        <v>507.91</v>
+        <v>535.46</v>
       </c>
       <c r="D31" t="n">
-        <v>10.73815225945792</v>
+        <v>7.011091488524926</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.4984528294692849</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>490.2832006769898</v>
+        <v>498.5170296267376</v>
       </c>
       <c r="C32" t="n">
-        <v>494.9499999999999</v>
+        <v>500.52</v>
       </c>
       <c r="D32" t="n">
-        <v>4.156144686311936</v>
+        <v>1.49415308596178</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.5088172873006102</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>473.4752162033121</v>
+        <v>497.8603382327751</v>
       </c>
       <c r="C33" t="n">
-        <v>484.65</v>
+        <v>500.52</v>
       </c>
       <c r="D33" t="n">
-        <v>10.66102675035116</v>
+        <v>2.15058757425276</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.5090741929720766</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.5532056438726</v>
+        <v>494.0625765249632</v>
       </c>
       <c r="C34" t="n">
-        <v>477.3299999999999</v>
+        <v>496.77</v>
       </c>
       <c r="D34" t="n">
-        <v>4.261013286869703</v>
+        <v>2.197317031109697</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5101064439271162</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>465.3804596838903</v>
+        <v>461.1419328165539</v>
       </c>
       <c r="C35" t="n">
-        <v>484.49</v>
+        <v>463.36</v>
       </c>
       <c r="D35" t="n">
-        <v>18.55724619164182</v>
+        <v>1.697897486506923</v>
       </c>
       <c r="E35" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5201696969391645</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>441.4767172560266</v>
+        <v>450.2422745177233</v>
       </c>
       <c r="C36" t="n">
-        <v>445.86</v>
+        <v>452.24</v>
       </c>
       <c r="D36" t="n">
-        <v>3.857841962696841</v>
+        <v>1.474389461505584</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5233360207710774</v>
       </c>
     </row>
     <row r="37">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.4411518262795</v>
+        <v>445.1639703999844</v>
       </c>
       <c r="C37" t="n">
-        <v>449.01</v>
+        <v>447.23</v>
       </c>
       <c r="D37" t="n">
-        <v>25.00614764314041</v>
+        <v>1.541184543100017</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.5248450569156556</v>
       </c>
     </row>
     <row r="38">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>412.7520109483367</v>
+        <v>414.8472760954892</v>
       </c>
       <c r="C38" t="n">
         <v>416.86</v>
       </c>
       <c r="D38" t="n">
-        <v>3.573813330627773</v>
+        <v>1.478731257233686</v>
       </c>
       <c r="E38" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5339926472771015</v>
       </c>
     </row>
     <row r="39">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>383.8108993715164</v>
+        <v>412.8142848028558</v>
       </c>
       <c r="C39" t="n">
-        <v>386.2</v>
+        <v>415.14</v>
       </c>
       <c r="D39" t="n">
-        <v>1.845873041447471</v>
+        <v>1.79102140381943</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.5346937933247066</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>383.5048555676498</v>
+        <v>399.0834976513067</v>
       </c>
       <c r="C40" t="n">
-        <v>388.17</v>
+        <v>406.46</v>
       </c>
       <c r="D40" t="n">
-        <v>4.122327145049604</v>
+        <v>6.838913756661603</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5375885920317298</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.8218502485891</v>
+        <v>393.9248781542731</v>
       </c>
       <c r="C41" t="n">
-        <v>390.6</v>
+        <v>395.6</v>
       </c>
       <c r="D41" t="n">
-        <v>7.236064391821189</v>
+        <v>1.134725583991985</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.5403962617349328</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>360.6255481245139</v>
+        <v>391.0364377631087</v>
       </c>
       <c r="C42" t="n">
-        <v>365.5</v>
+        <v>393.47</v>
       </c>
       <c r="D42" t="n">
-        <v>4.32480627493249</v>
+        <v>1.892341335132839</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5412209017584415</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>350.7478663574591</v>
+        <v>361.6433441505062</v>
       </c>
       <c r="C43" t="n">
-        <v>357.01</v>
+        <v>363.65</v>
       </c>
       <c r="D43" t="n">
-        <v>5.70993081307159</v>
+        <v>1.456453020024572</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.5502028294692849</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.8726027395005</v>
+        <v>330.7093021793629</v>
       </c>
       <c r="C44" t="n">
-        <v>343.37</v>
+        <v>338.02</v>
       </c>
       <c r="D44" t="n">
-        <v>6.940805656419609</v>
+        <v>6.752494770774079</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.558203049863055</v>
       </c>
     </row>
     <row r="45">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>306.3701667131874</v>
+        <v>325.2011402898097</v>
       </c>
       <c r="C45" t="n">
-        <v>319.27</v>
+        <v>331.97</v>
       </c>
       <c r="D45" t="n">
-        <v>12.33598264658814</v>
+        <v>6.209114712046334</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5597449981439837</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>748.9426248685658</v>
+        <v>711.3008006714327</v>
       </c>
       <c r="C46" t="n">
-        <v>755.0699999999999</v>
+        <v>718.37</v>
       </c>
       <c r="D46" t="n">
-        <v>5.695069892326424</v>
+        <v>6.626020668948022</v>
       </c>
       <c r="E46" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4431786596191526</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>713.530795015162</v>
+        <v>705.1920626094984</v>
       </c>
       <c r="C47" t="n">
-        <v>728.22</v>
+        <v>712.71</v>
       </c>
       <c r="D47" t="n">
-        <v>14.21096772196295</v>
+        <v>7.072873115249175</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.4450642752524174</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>704.8239720924624</v>
+        <v>702.7867363163681</v>
       </c>
       <c r="C48" t="n">
-        <v>714.23</v>
+        <v>710.3199999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>8.961421463610456</v>
+        <v>7.087630939381434</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.4456327442503604</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>697.1258928486933</v>
+        <v>696.2010345158419</v>
       </c>
       <c r="C49" t="n">
-        <v>704.1900000000001</v>
+        <v>705.8900000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>6.616657407350157</v>
+        <v>9.242027788394497</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4469376957637309</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>685.8526644679508</v>
+        <v>690.1246140338334</v>
       </c>
       <c r="C50" t="n">
-        <v>695.01</v>
+        <v>702.9799999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>8.668912183367256</v>
+        <v>12.4075717643786</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4478142017878273</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>676.4676071586331</v>
+        <v>678.6632850964843</v>
       </c>
       <c r="C51" t="n">
-        <v>683.51</v>
+        <v>686.62</v>
       </c>
       <c r="D51" t="n">
-        <v>6.588714181747694</v>
+        <v>7.503943605048427</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.4527712984672278</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>656.7492603820327</v>
+        <v>678.1142354190301</v>
       </c>
       <c r="C52" t="n">
-        <v>668.37</v>
+        <v>685.48</v>
       </c>
       <c r="D52" t="n">
-        <v>11.16250071738435</v>
+        <v>6.912679294844683</v>
       </c>
       <c r="E52" t="n">
-        <v>0.458238900583008</v>
+        <v>0.4530852861251766</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>634.2989664443187</v>
+        <v>669.8679271640757</v>
       </c>
       <c r="C53" t="n">
-        <v>650.53</v>
+        <v>679.1500000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>15.72921261663805</v>
+        <v>8.82726399705161</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.4548088388727524</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>632.7194103048288</v>
+        <v>654.0617321651329</v>
       </c>
       <c r="C54" t="n">
-        <v>646.8200000000001</v>
+        <v>667.9699999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>13.6356790343767</v>
+        <v>13.45009152611472</v>
       </c>
       <c r="E54" t="n">
-        <v>0.464910660794586</v>
+        <v>0.4581763087522704</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>631.5748807008862</v>
+        <v>648.1435638649521</v>
       </c>
       <c r="C55" t="n">
-        <v>637.8099999999999</v>
+        <v>661.6800000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>5.767494782897476</v>
+        <v>13.07618217422407</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.4602539608239719</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>628.4849228477487</v>
+        <v>643.20738139279</v>
       </c>
       <c r="C56" t="n">
-        <v>644.9000000000001</v>
+        <v>660</v>
       </c>
       <c r="D56" t="n">
-        <v>15.91156043007556</v>
+        <v>16.33183004456411</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.4607885626458937</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>624.923807804578</v>
+        <v>640.3210680419178</v>
       </c>
       <c r="C57" t="n">
-        <v>641.54</v>
+        <v>653.67</v>
       </c>
       <c r="D57" t="n">
-        <v>16.11120228782163</v>
+        <v>12.88626534665587</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.4626666114263815</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>619.7819886501072</v>
+        <v>638.5697180255471</v>
       </c>
       <c r="C58" t="n">
-        <v>636.37</v>
+        <v>649</v>
       </c>
       <c r="D58" t="n">
-        <v>16.08191425745539</v>
+        <v>9.966027940164265</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.4642540342885619</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>604.6947303101833</v>
+        <v>634.4689607953966</v>
       </c>
       <c r="C59" t="n">
-        <v>611.6</v>
+        <v>641.85</v>
       </c>
       <c r="D59" t="n">
-        <v>6.429750595287119</v>
+        <v>6.914812352213229</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.466226852390237</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>595.4032848157719</v>
+        <v>631.8762900573006</v>
       </c>
       <c r="C60" t="n">
-        <v>606.65</v>
+        <v>638.48</v>
       </c>
       <c r="D60" t="n">
-        <v>10.76988819960144</v>
+        <v>6.136438644232125</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.4672712984672279</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>584.5660430278126</v>
+        <v>621.4707121417854</v>
       </c>
       <c r="C61" t="n">
-        <v>602.6</v>
+        <v>627.49</v>
       </c>
       <c r="D61" t="n">
-        <v>17.5175184898001</v>
+        <v>5.548735704619634</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.4705521535950562</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>577.8306297245134</v>
+        <v>617.5440541086399</v>
       </c>
       <c r="C62" t="n">
-        <v>592.5699999999999</v>
+        <v>633.22</v>
       </c>
       <c r="D62" t="n">
-        <v>14.21991070876181</v>
+        <v>15.20693884502339</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.4690070463367547</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>577.1350622834508</v>
+        <v>616.8103162167309</v>
       </c>
       <c r="C63" t="n">
-        <v>582.35</v>
+        <v>624.6900000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>4.730608381055898</v>
+        <v>7.408288256180082</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.471395527089032</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>566.8157869658967</v>
+        <v>612.3586548448146</v>
       </c>
       <c r="C64" t="n">
-        <v>573.96</v>
+        <v>626.29</v>
       </c>
       <c r="D64" t="n">
-        <v>6.657537386532404</v>
+        <v>13.46043383320945</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.4709113219758967</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>565.238944473932</v>
+        <v>609.619892466555</v>
       </c>
       <c r="C65" t="n">
-        <v>576.86</v>
+        <v>626.41</v>
       </c>
       <c r="D65" t="n">
-        <v>11.13479223524116</v>
+        <v>16.31876894141312</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.4713385920317298</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>563.8338280736956</v>
+        <v>609.4001006960897</v>
       </c>
       <c r="C66" t="n">
-        <v>588.1600000000001</v>
+        <v>625.4100000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>23.80556712008529</v>
+        <v>15.5385398479351</v>
       </c>
       <c r="E66" t="n">
-        <v>0.520604806219277</v>
+        <v>0.4713594559753089</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>543.742837806579</v>
+        <v>605.0942721489575</v>
       </c>
       <c r="C67" t="n">
-        <v>552.6500000000001</v>
+        <v>611.72</v>
       </c>
       <c r="D67" t="n">
-        <v>8.375678530310772</v>
+        <v>6.150425697447409</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.4753021535950562</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>539.049858680931</v>
+        <v>602.9807130944652</v>
       </c>
       <c r="C68" t="n">
-        <v>563.0699999999999</v>
+        <v>609.37</v>
       </c>
       <c r="D68" t="n">
-        <v>23.49179621017552</v>
+        <v>5.913276920614468</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.4760099849203573</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>537.6169406603333</v>
+        <v>584.8928698866596</v>
       </c>
       <c r="C69" t="n">
-        <v>555.38</v>
+        <v>597.24</v>
       </c>
       <c r="D69" t="n">
-        <v>17.23239796571311</v>
+        <v>11.86743712812616</v>
       </c>
       <c r="E69" t="n">
-        <v>0.530661373953629</v>
+        <v>0.4796929852142157</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>533.3548139718703</v>
+        <v>577.4526215230702</v>
       </c>
       <c r="C70" t="n">
-        <v>538.76</v>
+        <v>585.67</v>
       </c>
       <c r="D70" t="n">
-        <v>4.907907970920121</v>
+        <v>7.734229937792566</v>
       </c>
       <c r="E70" t="n">
-        <v>0.497278057209514</v>
+        <v>0.4831485391372249</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>513.7919155695594</v>
+        <v>576.3933525414996</v>
       </c>
       <c r="C71" t="n">
-        <v>529.79</v>
+        <v>591.9400000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>15.49764342877028</v>
+        <v>15.06520667722393</v>
       </c>
       <c r="E71" t="n">
-        <v>0.500441001670284</v>
+        <v>0.4814407812765138</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>504.9878001555981</v>
+        <v>548.255177430722</v>
       </c>
       <c r="C72" t="n">
-        <v>514.64</v>
+        <v>554.99</v>
       </c>
       <c r="D72" t="n">
-        <v>9.147475930595276</v>
+        <v>6.242433066285312</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.4923895029926466</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>502.578543626893</v>
+        <v>541.7794689886204</v>
       </c>
       <c r="C73" t="n">
-        <v>521.04</v>
+        <v>555.38</v>
       </c>
       <c r="D73" t="n">
-        <v>17.92045162565931</v>
+        <v>13.10807818191044</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.4924528294692848</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>498.786067679523</v>
+        <v>536.001395529888</v>
       </c>
       <c r="C74" t="n">
-        <v>510.69</v>
+        <v>558.05</v>
       </c>
       <c r="D74" t="n">
-        <v>11.3980186476342</v>
+        <v>21.55667551663441</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.4919289534775129</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>496.6652775146578</v>
+        <v>529.6767967768982</v>
       </c>
       <c r="C75" t="n">
-        <v>507.91</v>
+        <v>538.9300000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>10.73815225945792</v>
+        <v>8.755976370711616</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.4972268523902369</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>490.2832006769898</v>
+        <v>528.4795532855416</v>
       </c>
       <c r="C76" t="n">
-        <v>494.9499999999999</v>
+        <v>536.1600000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>4.156144686311936</v>
+        <v>7.182385524718928</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.4980611897396345</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>473.4752162033121</v>
+        <v>512.0366290702965</v>
       </c>
       <c r="C77" t="n">
-        <v>484.65</v>
+        <v>522.97</v>
       </c>
       <c r="D77" t="n">
-        <v>10.66102675035116</v>
+        <v>10.43133684839767</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.5020340813058997</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>472.5532056438726</v>
+        <v>507.366437015249</v>
       </c>
       <c r="C78" t="n">
-        <v>477.3299999999999</v>
+        <v>512.47</v>
       </c>
       <c r="D78" t="n">
-        <v>4.261013286869703</v>
+        <v>4.598336646612913</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5052263381381066</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>465.3804596838903</v>
+        <v>484.884061119402</v>
       </c>
       <c r="C79" t="n">
-        <v>484.49</v>
+        <v>500.76</v>
       </c>
       <c r="D79" t="n">
-        <v>18.55724619164182</v>
+        <v>15.36703424389978</v>
       </c>
       <c r="E79" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5089046366982005</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>441.4767172560266</v>
+        <v>479.2429088822121</v>
       </c>
       <c r="C80" t="n">
-        <v>445.86</v>
+        <v>493.22</v>
       </c>
       <c r="D80" t="n">
-        <v>3.857841962696841</v>
+        <v>13.46591539675233</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5111757210355499</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>423.4411518262795</v>
+        <v>448.9605537223082</v>
       </c>
       <c r="C81" t="n">
-        <v>449.01</v>
+        <v>453.12</v>
       </c>
       <c r="D81" t="n">
-        <v>25.00614764314041</v>
+        <v>3.63637303975941</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.5230732379324057</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>412.7520109483367</v>
+        <v>441.4441149568528</v>
       </c>
       <c r="C82" t="n">
-        <v>416.86</v>
+        <v>445.86</v>
       </c>
       <c r="D82" t="n">
-        <v>3.573813330627773</v>
+        <v>3.890625058226858</v>
       </c>
       <c r="E82" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5252599849203574</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>383.8108993715164</v>
+        <v>408.8174926723937</v>
       </c>
       <c r="C83" t="n">
-        <v>386.2</v>
+        <v>414.72</v>
       </c>
       <c r="D83" t="n">
-        <v>1.845873041447471</v>
+        <v>5.367867824613658</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.5346395029926466</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>383.5048555676498</v>
+        <v>376.570043037836</v>
       </c>
       <c r="C84" t="n">
-        <v>388.17</v>
+        <v>380.23</v>
       </c>
       <c r="D84" t="n">
-        <v>4.122327145049604</v>
+        <v>3.114928904954519</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5450280572095141</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>382.8218502485891</v>
+        <v>375.192017263844</v>
       </c>
       <c r="C85" t="n">
-        <v>390.6</v>
+        <v>380.75</v>
       </c>
       <c r="D85" t="n">
-        <v>7.236064391821189</v>
+        <v>5.013111305452465</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.54487143070349</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>360.6255481245139</v>
+        <v>372.2040830032429</v>
       </c>
       <c r="C86" t="n">
-        <v>365.5</v>
+        <v>377.58</v>
       </c>
       <c r="D86" t="n">
-        <v>4.32480627493249</v>
+        <v>4.830090746776416</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5458262499805984</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>350.7478663574591</v>
+        <v>352.0175100262682</v>
       </c>
       <c r="C87" t="n">
-        <v>357.01</v>
+        <v>365.41</v>
       </c>
       <c r="D87" t="n">
-        <v>5.70993081307159</v>
+        <v>12.84253692386877</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.549953049863055</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>335.8726027395005</v>
+        <v>346.7598054011861</v>
       </c>
       <c r="C88" t="n">
-        <v>343.37</v>
+        <v>359.1799999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>6.940805656419609</v>
+        <v>11.86864538380242</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.5515492150114534</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>306.3701667131874</v>
+        <v>300.0233286877483</v>
       </c>
       <c r="C89" t="n">
-        <v>319.27</v>
+        <v>311.95</v>
       </c>
       <c r="D89" t="n">
-        <v>12.33598264658814</v>
+        <v>11.36061585275012</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5660554595016093</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>748.9426248685658</v>
+        <v>744.5697232839781</v>
       </c>
       <c r="C90" t="n">
-        <v>755.0699999999999</v>
+        <v>748.8700000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>5.695069892326424</v>
+        <v>3.866006739917484</v>
       </c>
       <c r="E90" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4342699761046067</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>713.530795015162</v>
+        <v>685.7372528459061</v>
       </c>
       <c r="C91" t="n">
-        <v>728.22</v>
+        <v>689.96</v>
       </c>
       <c r="D91" t="n">
-        <v>14.21096772196295</v>
+        <v>3.770733202085696</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.452013952008221</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>704.8239720924624</v>
+        <v>658.9051860672547</v>
       </c>
       <c r="C92" t="n">
-        <v>714.23</v>
+        <v>663.5</v>
       </c>
       <c r="D92" t="n">
-        <v>8.961421463610456</v>
+        <v>4.134647027460552</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.4601669052847418</v>
       </c>
     </row>
     <row r="93">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>697.1258928486933</v>
+        <v>655.1038075125814</v>
       </c>
       <c r="C93" t="n">
-        <v>704.1900000000001</v>
+        <v>658.89</v>
       </c>
       <c r="D93" t="n">
-        <v>6.616657407350157</v>
+        <v>3.32482010167542</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4613723857431609</v>
       </c>
     </row>
     <row r="94">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>685.8526644679508</v>
+        <v>644.0844868727601</v>
       </c>
       <c r="C94" t="n">
-        <v>695.01</v>
+        <v>648.01</v>
       </c>
       <c r="D94" t="n">
-        <v>8.668912183367256</v>
+        <v>3.460863633063003</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4646494941768958</v>
       </c>
     </row>
     <row r="95">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>676.4676071586331</v>
+        <v>641.7711620184457</v>
       </c>
       <c r="C95" t="n">
-        <v>683.51</v>
+        <v>645.8600000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>6.588714181747694</v>
+        <v>3.623357823257563</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.46548015829679</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>656.7492603820327</v>
+        <v>631.6915081664855</v>
       </c>
       <c r="C96" t="n">
-        <v>668.37</v>
+        <v>635.13</v>
       </c>
       <c r="D96" t="n">
-        <v>11.16250071738435</v>
+        <v>2.969779747506897</v>
       </c>
       <c r="E96" t="n">
-        <v>0.458238900583008</v>
+        <v>0.4687120860076334</v>
       </c>
     </row>
     <row r="97">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>634.2989664443187</v>
+        <v>629.7310047205225</v>
       </c>
       <c r="C97" t="n">
-        <v>650.53</v>
+        <v>634.48</v>
       </c>
       <c r="D97" t="n">
-        <v>15.72921261663805</v>
+        <v>4.280087410337364</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.4689078691401635</v>
       </c>
     </row>
     <row r="98">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>632.7194103048288</v>
+        <v>623.3740591932947</v>
       </c>
       <c r="C98" t="n">
-        <v>646.8200000000001</v>
+        <v>627.0599999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>13.6356790343767</v>
+        <v>3.214981071564547</v>
       </c>
       <c r="E98" t="n">
-        <v>0.464910660794586</v>
+        <v>0.4709597351407512</v>
       </c>
     </row>
     <row r="99">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>631.5748807008862</v>
+        <v>606.7087392925124</v>
       </c>
       <c r="C99" t="n">
-        <v>637.8099999999999</v>
+        <v>611.03</v>
       </c>
       <c r="D99" t="n">
-        <v>5.767494782897476</v>
+        <v>3.845289585335284</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.4759711221522117</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>628.4849228477487</v>
+        <v>605.464356541513</v>
       </c>
       <c r="C100" t="n">
-        <v>644.9000000000001</v>
+        <v>614.21</v>
       </c>
       <c r="D100" t="n">
-        <v>15.91156043007556</v>
+        <v>8.270630167660109</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.4750132908269105</v>
       </c>
     </row>
     <row r="101">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>624.923807804578</v>
+        <v>604.1959729255058</v>
       </c>
       <c r="C101" t="n">
-        <v>641.54</v>
+        <v>607.6800000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>16.11120228782163</v>
+        <v>3.007229989955957</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.4767970845383415</v>
       </c>
     </row>
     <row r="102">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>619.7819886501072</v>
+        <v>575.9604279654181</v>
       </c>
       <c r="C102" t="n">
-        <v>636.37</v>
+        <v>584.26</v>
       </c>
       <c r="D102" t="n">
-        <v>16.08191425745539</v>
+        <v>7.815537659417647</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.4840343751642598</v>
       </c>
     </row>
     <row r="103">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>604.6947303101833</v>
+        <v>575.8346305166664</v>
       </c>
       <c r="C103" t="n">
-        <v>611.6</v>
+        <v>588.3200000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>6.429750595287119</v>
+        <v>12.00274107349415</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.4826284098395464</v>
       </c>
     </row>
     <row r="104">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>595.4032848157719</v>
+        <v>572.8003060132966</v>
       </c>
       <c r="C104" t="n">
-        <v>606.65</v>
+        <v>577.28</v>
       </c>
       <c r="D104" t="n">
-        <v>10.76988819960144</v>
+        <v>3.993837542776298</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.4858564439271162</v>
       </c>
     </row>
     <row r="105">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>584.5660430278126</v>
+        <v>560.347589719403</v>
       </c>
       <c r="C105" t="n">
-        <v>602.6</v>
+        <v>564.4100000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>17.5175184898001</v>
+        <v>3.572396989770121</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.4900132908269105</v>
       </c>
     </row>
     <row r="106">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>577.8306297245134</v>
+        <v>559.1113183247243</v>
       </c>
       <c r="C106" t="n">
-        <v>592.5699999999999</v>
+        <v>568.13</v>
       </c>
       <c r="D106" t="n">
-        <v>14.21991070876181</v>
+        <v>8.529788866376482</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.4888928088991996</v>
       </c>
     </row>
     <row r="107">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>577.1350622834508</v>
+        <v>554.3838648512985</v>
       </c>
       <c r="C107" t="n">
-        <v>582.35</v>
+        <v>557.97</v>
       </c>
       <c r="D107" t="n">
-        <v>4.730608381055898</v>
+        <v>3.09436517259687</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.4917699761046066</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>566.8157869658967</v>
+        <v>552.722175936044</v>
       </c>
       <c r="C108" t="n">
-        <v>573.96</v>
+        <v>556.98</v>
       </c>
       <c r="D108" t="n">
-        <v>6.657537386532404</v>
+        <v>3.765572821321884</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.4922512426341394</v>
       </c>
     </row>
     <row r="109">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>565.238944473932</v>
+        <v>552.1897486903528</v>
       </c>
       <c r="C109" t="n">
-        <v>576.86</v>
+        <v>555.9399999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>11.13479223524116</v>
+        <v>3.25768681400093</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.4925644956461875</v>
       </c>
     </row>
     <row r="110">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>563.8338280736956</v>
+        <v>542.2390718093053</v>
       </c>
       <c r="C110" t="n">
-        <v>588.1600000000001</v>
+        <v>546.02</v>
       </c>
       <c r="D110" t="n">
-        <v>23.80556712008529</v>
+        <v>3.28548674823687</v>
       </c>
       <c r="E110" t="n">
-        <v>0.520604806219277</v>
+        <v>0.4954414424578243</v>
       </c>
     </row>
     <row r="111">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>543.742837806579</v>
+        <v>538.9289643535543</v>
       </c>
       <c r="C111" t="n">
-        <v>552.6500000000001</v>
+        <v>543.3</v>
       </c>
       <c r="D111" t="n">
-        <v>8.375678530310772</v>
+        <v>3.874663921883819</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.4963717245618502</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>539.049858680931</v>
+        <v>533.5654207654514</v>
       </c>
       <c r="C112" t="n">
-        <v>563.0699999999999</v>
+        <v>537.1900000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>23.49179621017552</v>
+        <v>3.126367148541042</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.4982120860076334</v>
       </c>
     </row>
     <row r="113">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>537.6169406603333</v>
+        <v>529.9850804515888</v>
       </c>
       <c r="C113" t="n">
-        <v>555.38</v>
+        <v>543.98</v>
       </c>
       <c r="D113" t="n">
-        <v>17.23239796571311</v>
+        <v>13.49875264312638</v>
       </c>
       <c r="E113" t="n">
-        <v>0.530661373953629</v>
+        <v>0.4961669052847418</v>
       </c>
     </row>
     <row r="114">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>533.3548139718703</v>
+        <v>527.5928741352599</v>
       </c>
       <c r="C114" t="n">
-        <v>538.76</v>
+        <v>540.09</v>
       </c>
       <c r="D114" t="n">
-        <v>4.907907970920121</v>
+        <v>11.99997034646688</v>
       </c>
       <c r="E114" t="n">
-        <v>0.497278057209514</v>
+        <v>0.4971555182732813</v>
       </c>
     </row>
     <row r="115">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>513.7919155695594</v>
+        <v>523.3248084890272</v>
       </c>
       <c r="C115" t="n">
-        <v>529.79</v>
+        <v>527.45</v>
       </c>
       <c r="D115" t="n">
-        <v>15.49764342877028</v>
+        <v>3.624045690025418</v>
       </c>
       <c r="E115" t="n">
-        <v>0.500441001670284</v>
+        <v>0.5011458209473924</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>504.9878001555981</v>
+        <v>523.2952853012598</v>
       </c>
       <c r="C116" t="n">
-        <v>514.64</v>
+        <v>531.64</v>
       </c>
       <c r="D116" t="n">
-        <v>9.147475930595276</v>
+        <v>7.84483092598558</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.4998837727546214</v>
       </c>
     </row>
     <row r="117">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>502.578543626893</v>
+        <v>516.496606153091</v>
       </c>
       <c r="C117" t="n">
-        <v>521.04</v>
+        <v>519.3099999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>17.92045162565931</v>
+        <v>2.309979292491152</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.5034145544178596</v>
       </c>
     </row>
     <row r="118">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>498.786067679523</v>
+        <v>502.5545309041819</v>
       </c>
       <c r="C118" t="n">
-        <v>510.69</v>
+        <v>506.2</v>
       </c>
       <c r="D118" t="n">
-        <v>11.3980186476342</v>
+        <v>3.137922672461087</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.507546423357031</v>
       </c>
     </row>
     <row r="119">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>496.6652775146578</v>
+        <v>474.8086104732122</v>
       </c>
       <c r="C119" t="n">
-        <v>507.91</v>
+        <v>478.19</v>
       </c>
       <c r="D119" t="n">
-        <v>10.73815225945792</v>
+        <v>2.865406356442822</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.5159831703449828</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>490.2832006769898</v>
+        <v>464.4393895500428</v>
       </c>
       <c r="C120" t="n">
-        <v>494.9499999999999</v>
+        <v>472.4299999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>4.156144686311936</v>
+        <v>7.472892339853173</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.5177181101040189</v>
       </c>
     </row>
     <row r="121">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>473.4752162033121</v>
+        <v>455.6893829729086</v>
       </c>
       <c r="C121" t="n">
-        <v>484.65</v>
+        <v>457.71</v>
       </c>
       <c r="D121" t="n">
-        <v>10.66102675035116</v>
+        <v>1.498648255806108</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.5219687712853295</v>
       </c>
     </row>
     <row r="122">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>472.5532056438726</v>
+        <v>419.6946133641762</v>
       </c>
       <c r="C122" t="n">
-        <v>477.3299999999999</v>
+        <v>422.31</v>
       </c>
       <c r="D122" t="n">
-        <v>4.261013286869703</v>
+        <v>2.082572140177684</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5328144956461875</v>
       </c>
     </row>
     <row r="123">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>465.3804596838903</v>
+        <v>414.1320289737459</v>
       </c>
       <c r="C123" t="n">
-        <v>484.49</v>
+        <v>416.86</v>
       </c>
       <c r="D123" t="n">
-        <v>18.55724619164182</v>
+        <v>2.193698038101261</v>
       </c>
       <c r="E123" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5342729881527994</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>441.4767172560266</v>
+        <v>413.9030911642758</v>
       </c>
       <c r="C124" t="n">
-        <v>445.86</v>
+        <v>416.86</v>
       </c>
       <c r="D124" t="n">
-        <v>3.857841962696841</v>
+        <v>2.422452773812942</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5344560619112478</v>
       </c>
     </row>
     <row r="125">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>423.4411518262795</v>
+        <v>396.930591114416</v>
       </c>
       <c r="C125" t="n">
-        <v>449.01</v>
+        <v>404.3</v>
       </c>
       <c r="D125" t="n">
-        <v>25.00614764314041</v>
+        <v>6.831169691142653</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.5382391944413684</v>
       </c>
     </row>
     <row r="126">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>412.7520109483367</v>
+        <v>385.6847561078272</v>
       </c>
       <c r="C126" t="n">
-        <v>416.86</v>
+        <v>397.1</v>
       </c>
       <c r="D126" t="n">
-        <v>3.573813330627773</v>
+        <v>10.8748360230327</v>
       </c>
       <c r="E126" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5404078691401635</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>383.8108993715164</v>
+        <v>370.7988964632677</v>
       </c>
       <c r="C127" t="n">
-        <v>386.2</v>
+        <v>382.66</v>
       </c>
       <c r="D127" t="n">
-        <v>1.845873041447471</v>
+        <v>11.31634627000176</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.5447572667305249</v>
       </c>
     </row>
     <row r="128">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>383.5048555676498</v>
+        <v>350.2769117406023</v>
       </c>
       <c r="C128" t="n">
-        <v>388.17</v>
+        <v>352.52</v>
       </c>
       <c r="D128" t="n">
-        <v>4.122327145049604</v>
+        <v>1.689252679414195</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5538355799835369</v>
       </c>
     </row>
     <row r="129">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>382.8218502485891</v>
+        <v>347.8858440991917</v>
       </c>
       <c r="C129" t="n">
-        <v>390.6</v>
+        <v>350.86</v>
       </c>
       <c r="D129" t="n">
-        <v>7.236064391821189</v>
+        <v>2.419820320824756</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.554335579983537</v>
       </c>
     </row>
     <row r="130">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>360.6255481245139</v>
+        <v>326.6929614280064</v>
       </c>
       <c r="C130" t="n">
-        <v>365.5</v>
+        <v>329.37</v>
       </c>
       <c r="D130" t="n">
-        <v>4.32480627493249</v>
+        <v>2.116230100443807</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.560808471549802</v>
       </c>
     </row>
     <row r="131">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>350.7478663574591</v>
+        <v>322.0732507595238</v>
       </c>
       <c r="C131" t="n">
-        <v>357.01</v>
+        <v>329.33</v>
       </c>
       <c r="D131" t="n">
-        <v>5.70993081307159</v>
+        <v>6.695928720733664</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.5608205197425731</v>
       </c>
     </row>
     <row r="132">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>335.8726027395005</v>
+        <v>302.857203359283</v>
       </c>
       <c r="C132" t="n">
-        <v>343.37</v>
+        <v>309.87</v>
       </c>
       <c r="D132" t="n">
-        <v>6.940805656419609</v>
+        <v>6.44611467519124</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.5666819655257057</v>
       </c>
     </row>
     <row r="133">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>306.3701667131874</v>
+        <v>285.6187023585296</v>
       </c>
       <c r="C133" t="n">
-        <v>319.27</v>
+        <v>287.99</v>
       </c>
       <c r="D133" t="n">
-        <v>12.33598264658814</v>
+        <v>1.798025314498941</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5732723269714888</v>
       </c>
     </row>
     <row r="134">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>748.9426248685658</v>
+        <v>746.2513940106551</v>
       </c>
       <c r="C134" t="n">
-        <v>755.0699999999999</v>
+        <v>754.13</v>
       </c>
       <c r="D134" t="n">
-        <v>5.695069892326424</v>
+        <v>7.446017617706966</v>
       </c>
       <c r="E134" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4325883716379595</v>
       </c>
     </row>
     <row r="135">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>713.530795015162</v>
+        <v>691.700546990392</v>
       </c>
       <c r="C135" t="n">
-        <v>728.22</v>
+        <v>707.37</v>
       </c>
       <c r="D135" t="n">
-        <v>14.21096772196295</v>
+        <v>15.1845717561363</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.4848812534717012</v>
       </c>
     </row>
     <row r="136">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>704.8239720924624</v>
+        <v>687.0448983248115</v>
       </c>
       <c r="C136" t="n">
-        <v>714.23</v>
+        <v>698.3900000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>8.961421463610456</v>
+        <v>10.89572414692421</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.4493775282644655</v>
       </c>
     </row>
     <row r="137">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>697.1258928486933</v>
+        <v>673.6748337603676</v>
       </c>
       <c r="C137" t="n">
-        <v>704.1900000000001</v>
+        <v>686.3099999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>6.616657407350157</v>
+        <v>12.18215015715103</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4530160824813331</v>
       </c>
     </row>
     <row r="138">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>685.8526644679508</v>
+        <v>664.7569046150412</v>
       </c>
       <c r="C138" t="n">
-        <v>695.01</v>
+        <v>669.55</v>
       </c>
       <c r="D138" t="n">
-        <v>8.668912183367256</v>
+        <v>4.335031109706264</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4580642752524174</v>
       </c>
     </row>
     <row r="139">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>676.4676071586331</v>
+        <v>664.5498790859112</v>
       </c>
       <c r="C139" t="n">
-        <v>683.51</v>
+        <v>679.96</v>
       </c>
       <c r="D139" t="n">
-        <v>6.588714181747694</v>
+        <v>14.91698363652075</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.4931372775680867</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>656.7492603820327</v>
+        <v>659.638492693242</v>
       </c>
       <c r="C140" t="n">
-        <v>668.37</v>
+        <v>675.9200000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>11.16250071738435</v>
+        <v>15.78715316172009</v>
       </c>
       <c r="E140" t="n">
-        <v>0.458238900583008</v>
+        <v>0.4943541450379662</v>
       </c>
     </row>
     <row r="141">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>634.2989664443187</v>
+        <v>657.7979714587722</v>
       </c>
       <c r="C141" t="n">
-        <v>650.53</v>
+        <v>675.05</v>
       </c>
       <c r="D141" t="n">
-        <v>15.72921261663805</v>
+        <v>16.75741234799707</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.4946161932307374</v>
       </c>
     </row>
     <row r="142">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>632.7194103048288</v>
+        <v>651.6066507098026</v>
       </c>
       <c r="C142" t="n">
-        <v>646.8200000000001</v>
+        <v>666.89</v>
       </c>
       <c r="D142" t="n">
-        <v>13.6356790343767</v>
+        <v>14.78627526564139</v>
       </c>
       <c r="E142" t="n">
-        <v>0.464910660794586</v>
+        <v>0.4970740245560386</v>
       </c>
     </row>
     <row r="143">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>631.5748807008862</v>
+        <v>646.8615602041366</v>
       </c>
       <c r="C143" t="n">
-        <v>637.8099999999999</v>
+        <v>653.6600000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>5.767494782897476</v>
+        <v>6.335589376032751</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.4628504198307306</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>628.4849228477487</v>
+        <v>634.6070928021687</v>
       </c>
       <c r="C144" t="n">
-        <v>644.9000000000001</v>
+        <v>651.48</v>
       </c>
       <c r="D144" t="n">
-        <v>15.91156043007556</v>
+        <v>16.37119160701024</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.5017155908210988</v>
       </c>
     </row>
     <row r="145">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>624.923807804578</v>
+        <v>630.6395790641282</v>
       </c>
       <c r="C145" t="n">
-        <v>641.54</v>
+        <v>642.1200000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>16.11120228782163</v>
+        <v>11.01409461242678</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.4663263234451885</v>
       </c>
     </row>
     <row r="146">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>619.7819886501072</v>
+        <v>622.6324427011516</v>
       </c>
       <c r="C146" t="n">
-        <v>636.37</v>
+        <v>627.8399999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>16.08191425745539</v>
+        <v>4.737106746781396</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.4704505520669928</v>
       </c>
     </row>
     <row r="147">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>604.6947303101833</v>
+        <v>619.8772666302842</v>
       </c>
       <c r="C147" t="n">
-        <v>611.6</v>
+        <v>640.35</v>
       </c>
       <c r="D147" t="n">
-        <v>6.429750595287119</v>
+        <v>19.96766536925609</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.5050680004596531</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>595.4032848157719</v>
+        <v>619.8007303609936</v>
       </c>
       <c r="C148" t="n">
-        <v>606.65</v>
+        <v>636.37</v>
       </c>
       <c r="D148" t="n">
-        <v>10.76988819960144</v>
+        <v>16.06316817542594</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.5061014635804287</v>
       </c>
     </row>
     <row r="149">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>584.5660430278126</v>
+        <v>614.2302989538364</v>
       </c>
       <c r="C149" t="n">
-        <v>602.6</v>
+        <v>620.4300000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>17.5175184898001</v>
+        <v>5.726841590188373</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.4728594559753089</v>
       </c>
     </row>
     <row r="150">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>577.8306297245134</v>
+        <v>611.5290335804523</v>
       </c>
       <c r="C150" t="n">
-        <v>592.5699999999999</v>
+        <v>622.8099999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>14.21991070876181</v>
+        <v>10.77061528655792</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.5103511329897735</v>
       </c>
     </row>
     <row r="151">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>577.1350622834508</v>
+        <v>602.9829872377505</v>
       </c>
       <c r="C151" t="n">
-        <v>582.35</v>
+        <v>613.84</v>
       </c>
       <c r="D151" t="n">
-        <v>4.730608381055898</v>
+        <v>10.34395982203085</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.5130529402186891</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>566.8157869658967</v>
+        <v>594.3160298886883</v>
       </c>
       <c r="C152" t="n">
-        <v>573.96</v>
+        <v>605.61</v>
       </c>
       <c r="D152" t="n">
-        <v>6.657537386532404</v>
+        <v>10.81664679991475</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.4773233113969957</v>
       </c>
     </row>
     <row r="153">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>565.238944473932</v>
+        <v>587.4716971214763</v>
       </c>
       <c r="C153" t="n">
-        <v>576.86</v>
+        <v>594.48</v>
       </c>
       <c r="D153" t="n">
-        <v>11.13479223524116</v>
+        <v>6.527627157488167</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.48067572103555</v>
       </c>
     </row>
     <row r="154">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>563.8338280736956</v>
+        <v>586.7978440421186</v>
       </c>
       <c r="C154" t="n">
-        <v>588.1600000000001</v>
+        <v>602.84</v>
       </c>
       <c r="D154" t="n">
-        <v>23.80556712008529</v>
+        <v>15.52578976465068</v>
       </c>
       <c r="E154" t="n">
-        <v>0.520604806219277</v>
+        <v>0.5163661932307374</v>
       </c>
     </row>
     <row r="155">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>543.742837806579</v>
+        <v>581.6566809391121</v>
       </c>
       <c r="C155" t="n">
-        <v>552.6500000000001</v>
+        <v>587.1900000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>8.375678530310772</v>
+        <v>5.050447556719825</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.48287150416808</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>539.049858680931</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C156" t="n">
-        <v>563.0699999999999</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>23.49179621017552</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="157">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>537.6169406603333</v>
+        <v>554.3220808012776</v>
       </c>
       <c r="C157" t="n">
-        <v>555.38</v>
+        <v>570.88</v>
       </c>
       <c r="D157" t="n">
-        <v>17.23239796571311</v>
+        <v>16.03192649946753</v>
       </c>
       <c r="E157" t="n">
-        <v>0.530661373953629</v>
+        <v>0.5259926992548337</v>
       </c>
     </row>
     <row r="158">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>533.3548139718703</v>
+        <v>549.8478918710441</v>
       </c>
       <c r="C158" t="n">
-        <v>538.76</v>
+        <v>566.73</v>
       </c>
       <c r="D158" t="n">
-        <v>4.907907970920121</v>
+        <v>16.35486542970106</v>
       </c>
       <c r="E158" t="n">
-        <v>0.497278057209514</v>
+        <v>0.5272426992548337</v>
       </c>
     </row>
     <row r="159">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>513.7919155695594</v>
+        <v>546.7025137290774</v>
       </c>
       <c r="C159" t="n">
-        <v>529.79</v>
+        <v>556.02</v>
       </c>
       <c r="D159" t="n">
-        <v>15.49764342877028</v>
+        <v>8.787017668053318</v>
       </c>
       <c r="E159" t="n">
-        <v>0.500441001670284</v>
+        <v>0.5304686028692915</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>504.9878001555981</v>
+        <v>544.1578621582693</v>
       </c>
       <c r="C160" t="n">
-        <v>514.64</v>
+        <v>568.22</v>
       </c>
       <c r="D160" t="n">
-        <v>9.147475930595276</v>
+        <v>23.53534393765666</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.5267939040741109</v>
       </c>
     </row>
     <row r="161">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>502.578543626893</v>
+        <v>543.5176419464901</v>
       </c>
       <c r="C161" t="n">
-        <v>521.04</v>
+        <v>554.12</v>
       </c>
       <c r="D161" t="n">
-        <v>17.92045162565931</v>
+        <v>10.10952570596826</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.492832347541574</v>
       </c>
     </row>
     <row r="162">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>498.786067679523</v>
+        <v>539.6263587818344</v>
       </c>
       <c r="C162" t="n">
-        <v>510.69</v>
+        <v>555.14</v>
       </c>
       <c r="D162" t="n">
-        <v>11.3980186476342</v>
+        <v>14.98290755505533</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="163">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>496.6652775146578</v>
+        <v>519.8309538857159</v>
       </c>
       <c r="C163" t="n">
-        <v>507.91</v>
+        <v>530.26</v>
       </c>
       <c r="D163" t="n">
-        <v>10.73815225945792</v>
+        <v>9.929027019754566</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.5000190945295259</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>490.2832006769898</v>
+        <v>513.2208427170859</v>
       </c>
       <c r="C164" t="n">
-        <v>494.9499999999999</v>
+        <v>530.5</v>
       </c>
       <c r="D164" t="n">
-        <v>4.156144686311936</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.5381553498572433</v>
       </c>
     </row>
     <row r="165">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>473.4752162033121</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C165" t="n">
-        <v>484.65</v>
+        <v>528.35</v>
       </c>
       <c r="D165" t="n">
-        <v>10.66102675035116</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="166">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>472.5532056438726</v>
+        <v>487.6162628590631</v>
       </c>
       <c r="C166" t="n">
-        <v>477.3299999999999</v>
+        <v>497.48</v>
       </c>
       <c r="D166" t="n">
-        <v>4.261013286869703</v>
+        <v>9.353844552431568</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5098925885054294</v>
       </c>
     </row>
     <row r="167">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>465.3804596838903</v>
+        <v>486.6140950357849</v>
       </c>
       <c r="C167" t="n">
-        <v>484.49</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>18.55724619164182</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E167" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5439655908210987</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>441.4767172560266</v>
+        <v>466.1644492610225</v>
       </c>
       <c r="C168" t="n">
-        <v>445.86</v>
+        <v>469.54</v>
       </c>
       <c r="D168" t="n">
-        <v>3.857841962696841</v>
+        <v>2.85724248782151</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5183082511560319</v>
       </c>
     </row>
     <row r="169">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>423.4411518262795</v>
+        <v>452.7877523963552</v>
       </c>
       <c r="C169" t="n">
-        <v>449.01</v>
+        <v>457.81</v>
       </c>
       <c r="D169" t="n">
-        <v>25.00614764314041</v>
+        <v>4.500406219958658</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.5218413836861523</v>
       </c>
     </row>
     <row r="170">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>412.7520109483367</v>
+        <v>435.5002918254692</v>
       </c>
       <c r="C170" t="n">
-        <v>416.86</v>
+        <v>444.8</v>
       </c>
       <c r="D170" t="n">
-        <v>3.573813330627773</v>
+        <v>8.773948116145766</v>
       </c>
       <c r="E170" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5257600583849475</v>
       </c>
     </row>
     <row r="171">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>383.8108993715164</v>
+        <v>416.7372384053406</v>
       </c>
       <c r="C171" t="n">
-        <v>386.2</v>
+        <v>422.14</v>
       </c>
       <c r="D171" t="n">
-        <v>1.845873041447471</v>
+        <v>4.87017623506965</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.5325853595897667</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>383.5048555676498</v>
+        <v>401.521080126082</v>
       </c>
       <c r="C172" t="n">
-        <v>388.17</v>
+        <v>405.88</v>
       </c>
       <c r="D172" t="n">
-        <v>4.122327145049604</v>
+        <v>3.821436923966766</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5374829499512126</v>
       </c>
     </row>
     <row r="173">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>382.8218502485891</v>
+        <v>387.9612325449802</v>
       </c>
       <c r="C173" t="n">
-        <v>390.6</v>
+        <v>391.02</v>
       </c>
       <c r="D173" t="n">
-        <v>7.236064391821189</v>
+        <v>2.516808601454056</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.5419588535656704</v>
       </c>
     </row>
     <row r="174">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>360.6255481245139</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C174" t="n">
-        <v>365.5</v>
+        <v>388.17</v>
       </c>
       <c r="D174" t="n">
-        <v>4.32480627493249</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="175">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>350.7478663574591</v>
+        <v>374.6143218188762</v>
       </c>
       <c r="C175" t="n">
-        <v>357.01</v>
+        <v>382.6</v>
       </c>
       <c r="D175" t="n">
-        <v>5.70993081307159</v>
+        <v>7.441183182979835</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.5444949981439837</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>335.8726027395005</v>
+        <v>360.4198420418903</v>
       </c>
       <c r="C176" t="n">
-        <v>343.37</v>
+        <v>365.5</v>
       </c>
       <c r="D176" t="n">
-        <v>6.940805656419609</v>
+        <v>4.530512357556052</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="177">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>306.3701667131874</v>
+        <v>313.2905888629746</v>
       </c>
       <c r="C177" t="n">
-        <v>319.27</v>
+        <v>323.11</v>
       </c>
       <c r="D177" t="n">
-        <v>12.33598264658814</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5624136728427789</v>
       </c>
     </row>
     <row r="178">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>748.9426248685658</v>
+        <v>746.2513940106551</v>
       </c>
       <c r="C178" t="n">
-        <v>755.0699999999999</v>
+        <v>754.13</v>
       </c>
       <c r="D178" t="n">
-        <v>5.695069892326424</v>
+        <v>7.446017617706966</v>
       </c>
       <c r="E178" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4325883716379595</v>
       </c>
     </row>
     <row r="179">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>713.530795015162</v>
+        <v>691.700546990392</v>
       </c>
       <c r="C179" t="n">
-        <v>728.22</v>
+        <v>707.37</v>
       </c>
       <c r="D179" t="n">
-        <v>14.21096772196295</v>
+        <v>15.1845717561363</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.4848812534717012</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>704.8239720924624</v>
+        <v>687.0448983248115</v>
       </c>
       <c r="C180" t="n">
-        <v>714.23</v>
+        <v>698.3900000000001</v>
       </c>
       <c r="D180" t="n">
-        <v>8.961421463610456</v>
+        <v>10.89572414692421</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.4493775282644655</v>
       </c>
     </row>
     <row r="181">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>697.1258928486933</v>
+        <v>673.6748337603676</v>
       </c>
       <c r="C181" t="n">
-        <v>704.1900000000001</v>
+        <v>686.3099999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>6.616657407350157</v>
+        <v>12.18215015715103</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4530160824813331</v>
       </c>
     </row>
     <row r="182">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>685.8526644679508</v>
+        <v>664.7569046150412</v>
       </c>
       <c r="C182" t="n">
-        <v>695.01</v>
+        <v>669.55</v>
       </c>
       <c r="D182" t="n">
-        <v>8.668912183367256</v>
+        <v>4.335031109706264</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4580642752524174</v>
       </c>
     </row>
     <row r="183">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>676.4676071586331</v>
+        <v>664.5498790859112</v>
       </c>
       <c r="C183" t="n">
-        <v>683.51</v>
+        <v>679.96</v>
       </c>
       <c r="D183" t="n">
-        <v>6.588714181747694</v>
+        <v>14.91698363652075</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.4931372775680867</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>656.7492603820327</v>
+        <v>659.638492693242</v>
       </c>
       <c r="C184" t="n">
-        <v>668.37</v>
+        <v>675.9200000000001</v>
       </c>
       <c r="D184" t="n">
-        <v>11.16250071738435</v>
+        <v>15.78715316172009</v>
       </c>
       <c r="E184" t="n">
-        <v>0.458238900583008</v>
+        <v>0.4943541450379662</v>
       </c>
     </row>
     <row r="185">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>634.2989664443187</v>
+        <v>657.7979714587722</v>
       </c>
       <c r="C185" t="n">
-        <v>650.53</v>
+        <v>675.05</v>
       </c>
       <c r="D185" t="n">
-        <v>15.72921261663805</v>
+        <v>16.75741234799707</v>
       </c>
       <c r="E185" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.4946161932307374</v>
       </c>
     </row>
     <row r="186">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>632.7194103048288</v>
+        <v>651.6066507098026</v>
       </c>
       <c r="C186" t="n">
-        <v>646.8200000000001</v>
+        <v>666.89</v>
       </c>
       <c r="D186" t="n">
-        <v>13.6356790343767</v>
+        <v>14.78627526564139</v>
       </c>
       <c r="E186" t="n">
-        <v>0.464910660794586</v>
+        <v>0.4970740245560386</v>
       </c>
     </row>
     <row r="187">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>631.5748807008862</v>
+        <v>646.8615602041366</v>
       </c>
       <c r="C187" t="n">
-        <v>637.8099999999999</v>
+        <v>653.6600000000001</v>
       </c>
       <c r="D187" t="n">
-        <v>5.767494782897476</v>
+        <v>6.335589376032751</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.4628504198307306</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>628.4849228477487</v>
+        <v>634.6070928021687</v>
       </c>
       <c r="C188" t="n">
-        <v>644.9000000000001</v>
+        <v>651.48</v>
       </c>
       <c r="D188" t="n">
-        <v>15.91156043007556</v>
+        <v>16.37119160701024</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.5017155908210988</v>
       </c>
     </row>
     <row r="189">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>624.923807804578</v>
+        <v>630.6395790641282</v>
       </c>
       <c r="C189" t="n">
-        <v>641.54</v>
+        <v>642.1200000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>16.11120228782163</v>
+        <v>11.01409461242678</v>
       </c>
       <c r="E189" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.4663263234451885</v>
       </c>
     </row>
     <row r="190">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>619.7819886501072</v>
+        <v>622.5439522769168</v>
       </c>
       <c r="C190" t="n">
-        <v>636.37</v>
+        <v>627.8399999999999</v>
       </c>
       <c r="D190" t="n">
-        <v>16.08191425745539</v>
+        <v>4.825420194818606</v>
       </c>
       <c r="E190" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.4706275282644656</v>
       </c>
     </row>
     <row r="191">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>604.6947303101833</v>
+        <v>619.8772666302842</v>
       </c>
       <c r="C191" t="n">
-        <v>611.6</v>
+        <v>640.35</v>
       </c>
       <c r="D191" t="n">
-        <v>6.429750595287119</v>
+        <v>19.96766536925609</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.5050680004596531</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>595.4032848157719</v>
+        <v>619.7628433450092</v>
       </c>
       <c r="C192" t="n">
-        <v>606.65</v>
+        <v>636.37</v>
       </c>
       <c r="D192" t="n">
-        <v>10.76988819960144</v>
+        <v>16.10088985935044</v>
       </c>
       <c r="E192" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.5062667956403759</v>
       </c>
     </row>
     <row r="193">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>584.5660430278126</v>
+        <v>614.2302989538364</v>
       </c>
       <c r="C193" t="n">
-        <v>602.6</v>
+        <v>620.4300000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>17.5175184898001</v>
+        <v>5.726841590188373</v>
       </c>
       <c r="E193" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.4728594559753089</v>
       </c>
     </row>
     <row r="194">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>577.8306297245134</v>
+        <v>611.5206567380523</v>
       </c>
       <c r="C194" t="n">
-        <v>592.5699999999999</v>
+        <v>622.8099999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>14.21991070876181</v>
+        <v>10.778992128958</v>
       </c>
       <c r="E194" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.5103511329897735</v>
       </c>
     </row>
     <row r="195">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>577.1350622834508</v>
+        <v>602.9829872377505</v>
       </c>
       <c r="C195" t="n">
-        <v>582.35</v>
+        <v>613.84</v>
       </c>
       <c r="D195" t="n">
-        <v>4.730608381055898</v>
+        <v>10.34395982203085</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.5130529402186891</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>566.8157869658967</v>
+        <v>594.3160298886883</v>
       </c>
       <c r="C196" t="n">
-        <v>573.96</v>
+        <v>605.61</v>
       </c>
       <c r="D196" t="n">
-        <v>6.657537386532404</v>
+        <v>10.81664679991475</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.4773233113969957</v>
       </c>
     </row>
     <row r="197">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>565.238944473932</v>
+        <v>587.4716971214763</v>
       </c>
       <c r="C197" t="n">
-        <v>576.86</v>
+        <v>594.48</v>
       </c>
       <c r="D197" t="n">
-        <v>11.13479223524116</v>
+        <v>6.527627157488167</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.48067572103555</v>
       </c>
     </row>
     <row r="198">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>563.8338280736956</v>
+        <v>586.7978440421186</v>
       </c>
       <c r="C198" t="n">
-        <v>588.1600000000001</v>
+        <v>602.84</v>
       </c>
       <c r="D198" t="n">
-        <v>23.80556712008529</v>
+        <v>15.52578976465068</v>
       </c>
       <c r="E198" t="n">
-        <v>0.520604806219277</v>
+        <v>0.5163661932307374</v>
       </c>
     </row>
     <row r="199">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>543.742837806579</v>
+        <v>581.6566809391121</v>
       </c>
       <c r="C199" t="n">
-        <v>552.6500000000001</v>
+        <v>587.1900000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>8.375678530310772</v>
+        <v>5.050447556719825</v>
       </c>
       <c r="E199" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.48287150416808</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>539.049858680931</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C200" t="n">
-        <v>563.0699999999999</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D200" t="n">
-        <v>23.49179621017552</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E200" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="201">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>537.6169406603333</v>
+        <v>554.3220808012776</v>
       </c>
       <c r="C201" t="n">
-        <v>555.38</v>
+        <v>570.88</v>
       </c>
       <c r="D201" t="n">
-        <v>17.23239796571311</v>
+        <v>16.03192649946753</v>
       </c>
       <c r="E201" t="n">
-        <v>0.530661373953629</v>
+        <v>0.5259926992548337</v>
       </c>
     </row>
     <row r="202">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>533.3548139718703</v>
+        <v>549.8478918710441</v>
       </c>
       <c r="C202" t="n">
-        <v>538.76</v>
+        <v>566.73</v>
       </c>
       <c r="D202" t="n">
-        <v>4.907907970920121</v>
+        <v>16.35486542970106</v>
       </c>
       <c r="E202" t="n">
-        <v>0.497278057209514</v>
+        <v>0.5272426992548337</v>
       </c>
     </row>
     <row r="203">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>513.7919155695594</v>
+        <v>546.7025137290774</v>
       </c>
       <c r="C203" t="n">
-        <v>529.79</v>
+        <v>556.02</v>
       </c>
       <c r="D203" t="n">
-        <v>15.49764342877028</v>
+        <v>8.787017668053318</v>
       </c>
       <c r="E203" t="n">
-        <v>0.500441001670284</v>
+        <v>0.5304686028692915</v>
       </c>
     </row>
     <row r="204">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>504.9878001555981</v>
+        <v>544.1578621582693</v>
       </c>
       <c r="C204" t="n">
-        <v>514.64</v>
+        <v>568.22</v>
       </c>
       <c r="D204" t="n">
-        <v>9.147475930595276</v>
+        <v>23.53534393765666</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.5267939040741109</v>
       </c>
     </row>
     <row r="205">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>502.578543626893</v>
+        <v>543.5176419464901</v>
       </c>
       <c r="C205" t="n">
-        <v>521.04</v>
+        <v>554.12</v>
       </c>
       <c r="D205" t="n">
-        <v>17.92045162565931</v>
+        <v>10.10952570596826</v>
       </c>
       <c r="E205" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.492832347541574</v>
       </c>
     </row>
     <row r="206">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>498.786067679523</v>
+        <v>539.6263587818344</v>
       </c>
       <c r="C206" t="n">
-        <v>510.69</v>
+        <v>555.14</v>
       </c>
       <c r="D206" t="n">
-        <v>11.3980186476342</v>
+        <v>14.98290755505533</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="207">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>496.6652775146578</v>
+        <v>519.8309538857159</v>
       </c>
       <c r="C207" t="n">
-        <v>507.91</v>
+        <v>530.26</v>
       </c>
       <c r="D207" t="n">
-        <v>10.73815225945792</v>
+        <v>9.929027019754566</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.5000190945295259</v>
       </c>
     </row>
     <row r="208">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>490.2832006769898</v>
+        <v>513.2208427170859</v>
       </c>
       <c r="C208" t="n">
-        <v>494.9499999999999</v>
+        <v>530.5</v>
       </c>
       <c r="D208" t="n">
-        <v>4.156144686311936</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E208" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.5381553498572433</v>
       </c>
     </row>
     <row r="209">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>473.4752162033121</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C209" t="n">
-        <v>484.65</v>
+        <v>528.35</v>
       </c>
       <c r="D209" t="n">
-        <v>10.66102675035116</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E209" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="210">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>472.5532056438726</v>
+        <v>487.6162628590631</v>
       </c>
       <c r="C210" t="n">
-        <v>477.3299999999999</v>
+        <v>497.48</v>
       </c>
       <c r="D210" t="n">
-        <v>4.261013286869703</v>
+        <v>9.353844552431568</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5098925885054294</v>
       </c>
     </row>
     <row r="211">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>465.3804596838903</v>
+        <v>486.6140950357849</v>
       </c>
       <c r="C211" t="n">
-        <v>484.49</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D211" t="n">
-        <v>18.55724619164182</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E211" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5439655908210987</v>
       </c>
     </row>
     <row r="212">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>441.4767172560266</v>
+        <v>466.1644492610225</v>
       </c>
       <c r="C212" t="n">
-        <v>445.86</v>
+        <v>469.54</v>
       </c>
       <c r="D212" t="n">
-        <v>3.857841962696841</v>
+        <v>2.85724248782151</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5183082511560319</v>
       </c>
     </row>
     <row r="213">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>423.4411518262795</v>
+        <v>452.7793755539551</v>
       </c>
       <c r="C213" t="n">
-        <v>449.01</v>
+        <v>457.81</v>
       </c>
       <c r="D213" t="n">
-        <v>25.00614764314041</v>
+        <v>4.508783062358739</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.5218413836861523</v>
       </c>
     </row>
     <row r="214">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>412.7520109483367</v>
+        <v>435.5002918254692</v>
       </c>
       <c r="C214" t="n">
-        <v>416.86</v>
+        <v>444.8</v>
       </c>
       <c r="D214" t="n">
-        <v>3.573813330627773</v>
+        <v>8.773948116145766</v>
       </c>
       <c r="E214" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5257600583849475</v>
       </c>
     </row>
     <row r="215">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>383.8108993715164</v>
+        <v>416.7372384053406</v>
       </c>
       <c r="C215" t="n">
-        <v>386.2</v>
+        <v>422.14</v>
       </c>
       <c r="D215" t="n">
-        <v>1.845873041447471</v>
+        <v>4.87017623506965</v>
       </c>
       <c r="E215" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.5325853595897667</v>
       </c>
     </row>
     <row r="216">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>383.5048555676498</v>
+        <v>401.521080126082</v>
       </c>
       <c r="C216" t="n">
-        <v>388.17</v>
+        <v>405.88</v>
       </c>
       <c r="D216" t="n">
-        <v>4.122327145049604</v>
+        <v>3.821436923966766</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5374829499512126</v>
       </c>
     </row>
     <row r="217">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>382.8218502485891</v>
+        <v>387.9612325449802</v>
       </c>
       <c r="C217" t="n">
-        <v>390.6</v>
+        <v>391.02</v>
       </c>
       <c r="D217" t="n">
-        <v>7.236064391821189</v>
+        <v>2.516808601454056</v>
       </c>
       <c r="E217" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.5419588535656704</v>
       </c>
     </row>
     <row r="218">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>360.6255481245139</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C218" t="n">
-        <v>365.5</v>
+        <v>388.17</v>
       </c>
       <c r="D218" t="n">
-        <v>4.32480627493249</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="219">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>350.7478663574591</v>
+        <v>374.6143218188762</v>
       </c>
       <c r="C219" t="n">
-        <v>357.01</v>
+        <v>382.6</v>
       </c>
       <c r="D219" t="n">
-        <v>5.70993081307159</v>
+        <v>7.441183182979835</v>
       </c>
       <c r="E219" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.5444949981439837</v>
       </c>
     </row>
     <row r="220">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>335.8726027395005</v>
+        <v>360.4198420418903</v>
       </c>
       <c r="C220" t="n">
-        <v>343.37</v>
+        <v>365.5</v>
       </c>
       <c r="D220" t="n">
-        <v>6.940805656419609</v>
+        <v>4.530512357556052</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="221">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>306.3701667131874</v>
+        <v>313.2905888629746</v>
       </c>
       <c r="C221" t="n">
-        <v>319.27</v>
+        <v>323.11</v>
       </c>
       <c r="D221" t="n">
-        <v>12.33598264658814</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5624136728427789</v>
       </c>
     </row>
     <row r="222">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>748.9426248685658</v>
+        <v>737.1765405062429</v>
       </c>
       <c r="C222" t="n">
-        <v>755.0699999999999</v>
+        <v>744.87</v>
       </c>
       <c r="D222" t="n">
-        <v>5.695069892326424</v>
+        <v>7.258081965492734</v>
       </c>
       <c r="E222" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4353775282644656</v>
       </c>
     </row>
     <row r="223">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>713.530795015162</v>
+        <v>691.700546990392</v>
       </c>
       <c r="C223" t="n">
-        <v>728.22</v>
+        <v>707.37</v>
       </c>
       <c r="D223" t="n">
-        <v>14.21096772196295</v>
+        <v>15.1845717561363</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.4848812534717012</v>
       </c>
     </row>
     <row r="224">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>704.8239720924624</v>
+        <v>685.364334629727</v>
       </c>
       <c r="C224" t="n">
-        <v>714.23</v>
+        <v>696.9200000000001</v>
       </c>
       <c r="D224" t="n">
-        <v>8.961421463610456</v>
+        <v>11.10584507092427</v>
       </c>
       <c r="E224" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.449820299348803</v>
       </c>
     </row>
     <row r="225">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>697.1258928486933</v>
+        <v>673.6748337603676</v>
       </c>
       <c r="C225" t="n">
-        <v>704.1900000000001</v>
+        <v>686.3099999999999</v>
       </c>
       <c r="D225" t="n">
-        <v>6.616657407350157</v>
+        <v>12.18215015715103</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4530160824813331</v>
       </c>
     </row>
     <row r="226">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>685.8526644679508</v>
+        <v>664.7569046150412</v>
       </c>
       <c r="C226" t="n">
-        <v>695.01</v>
+        <v>669.55</v>
       </c>
       <c r="D226" t="n">
-        <v>8.668912183367256</v>
+        <v>4.335031109706264</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4580642752524174</v>
       </c>
     </row>
     <row r="227">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>676.4676071586331</v>
+        <v>664.5498790859112</v>
       </c>
       <c r="C227" t="n">
-        <v>683.51</v>
+        <v>679.96</v>
       </c>
       <c r="D227" t="n">
-        <v>6.588714181747694</v>
+        <v>14.91698363652075</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.4931372775680867</v>
       </c>
     </row>
     <row r="228">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>656.7492603820327</v>
+        <v>659.638492693242</v>
       </c>
       <c r="C228" t="n">
-        <v>668.37</v>
+        <v>675.9200000000001</v>
       </c>
       <c r="D228" t="n">
-        <v>11.16250071738435</v>
+        <v>15.78715316172009</v>
       </c>
       <c r="E228" t="n">
-        <v>0.458238900583008</v>
+        <v>0.4943541450379662</v>
       </c>
     </row>
     <row r="229">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>634.2989664443187</v>
+        <v>657.4138046262633</v>
       </c>
       <c r="C229" t="n">
-        <v>650.53</v>
+        <v>675.05</v>
       </c>
       <c r="D229" t="n">
-        <v>15.72921261663805</v>
+        <v>17.14157918050592</v>
       </c>
       <c r="E229" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.4946161932307374</v>
       </c>
     </row>
     <row r="230">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>632.7194103048288</v>
+        <v>651.6066507098026</v>
       </c>
       <c r="C230" t="n">
-        <v>646.8200000000001</v>
+        <v>666.89</v>
       </c>
       <c r="D230" t="n">
-        <v>13.6356790343767</v>
+        <v>14.78627526564139</v>
       </c>
       <c r="E230" t="n">
-        <v>0.464910660794586</v>
+        <v>0.4970740245560386</v>
       </c>
     </row>
     <row r="231">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>631.5748807008862</v>
+        <v>646.8615602041366</v>
       </c>
       <c r="C231" t="n">
-        <v>637.8099999999999</v>
+        <v>653.6600000000001</v>
       </c>
       <c r="D231" t="n">
-        <v>5.767494782897476</v>
+        <v>6.335589376032751</v>
       </c>
       <c r="E231" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.4628504198307306</v>
       </c>
     </row>
     <row r="232">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>628.4849228477487</v>
+        <v>634.6070928021687</v>
       </c>
       <c r="C232" t="n">
-        <v>644.9000000000001</v>
+        <v>651.48</v>
       </c>
       <c r="D232" t="n">
-        <v>15.91156043007556</v>
+        <v>16.37119160701024</v>
       </c>
       <c r="E232" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.5017155908210988</v>
       </c>
     </row>
     <row r="233">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>624.923807804578</v>
+        <v>630.6395790641282</v>
       </c>
       <c r="C233" t="n">
-        <v>641.54</v>
+        <v>642.1200000000001</v>
       </c>
       <c r="D233" t="n">
-        <v>16.11120228782163</v>
+        <v>11.01409461242678</v>
       </c>
       <c r="E233" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.4663263234451885</v>
       </c>
     </row>
     <row r="234">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>619.7819886501072</v>
+        <v>619.8772666302842</v>
       </c>
       <c r="C234" t="n">
-        <v>636.37</v>
+        <v>640.35</v>
       </c>
       <c r="D234" t="n">
-        <v>16.08191425745539</v>
+        <v>19.96766536925609</v>
       </c>
       <c r="E234" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.5050680004596531</v>
       </c>
     </row>
     <row r="235">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>604.6947303101833</v>
+        <v>619.7628433450092</v>
       </c>
       <c r="C235" t="n">
-        <v>611.6</v>
+        <v>636.37</v>
       </c>
       <c r="D235" t="n">
-        <v>6.429750595287119</v>
+        <v>16.10088985935044</v>
       </c>
       <c r="E235" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.5062667956403759</v>
       </c>
     </row>
     <row r="236">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>595.4032848157719</v>
+        <v>613.9477551284388</v>
       </c>
       <c r="C236" t="n">
-        <v>606.65</v>
+        <v>620.4300000000001</v>
       </c>
       <c r="D236" t="n">
-        <v>10.76988819960144</v>
+        <v>6.009385415586007</v>
       </c>
       <c r="E236" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.4728594559753089</v>
       </c>
     </row>
     <row r="237">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>584.5660430278126</v>
+        <v>611.3591150726717</v>
       </c>
       <c r="C237" t="n">
-        <v>602.6</v>
+        <v>622.8099999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>17.5175184898001</v>
+        <v>10.94053379433858</v>
       </c>
       <c r="E237" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.5103511329897735</v>
       </c>
     </row>
     <row r="238">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>577.8306297245134</v>
+        <v>608.1771852622354</v>
       </c>
       <c r="C238" t="n">
-        <v>592.5699999999999</v>
+        <v>614.0599999999999</v>
       </c>
       <c r="D238" t="n">
-        <v>14.21991070876181</v>
+        <v>5.408036607090491</v>
       </c>
       <c r="E238" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.4747781306741041</v>
       </c>
     </row>
     <row r="239">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>577.1350622834508</v>
+        <v>602.9829872377505</v>
       </c>
       <c r="C239" t="n">
-        <v>582.35</v>
+        <v>613.84</v>
       </c>
       <c r="D239" t="n">
-        <v>4.730608381055898</v>
+        <v>10.34395982203085</v>
       </c>
       <c r="E239" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.5130529402186891</v>
       </c>
     </row>
     <row r="240">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>566.8157869658967</v>
+        <v>594.3160298886883</v>
       </c>
       <c r="C240" t="n">
-        <v>573.96</v>
+        <v>605.61</v>
       </c>
       <c r="D240" t="n">
-        <v>6.657537386532404</v>
+        <v>10.81664679991475</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.4773233113969957</v>
       </c>
     </row>
     <row r="241">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>565.238944473932</v>
+        <v>586.7978440421186</v>
       </c>
       <c r="C241" t="n">
-        <v>576.86</v>
+        <v>602.84</v>
       </c>
       <c r="D241" t="n">
-        <v>11.13479223524116</v>
+        <v>15.52578976465068</v>
       </c>
       <c r="E241" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.5163661932307374</v>
       </c>
     </row>
     <row r="242">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>563.8338280736956</v>
+        <v>581.6566809391121</v>
       </c>
       <c r="C242" t="n">
-        <v>588.1600000000001</v>
+        <v>587.1900000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>23.80556712008529</v>
+        <v>5.050447556719825</v>
       </c>
       <c r="E242" t="n">
-        <v>0.520604806219277</v>
+        <v>0.48287150416808</v>
       </c>
     </row>
     <row r="243">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>543.742837806579</v>
+        <v>569.4490217796994</v>
       </c>
       <c r="C243" t="n">
-        <v>552.6500000000001</v>
+        <v>576.96</v>
       </c>
       <c r="D243" t="n">
-        <v>8.375678530310772</v>
+        <v>7.025025390831343</v>
       </c>
       <c r="E243" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.4859528294692849</v>
       </c>
     </row>
     <row r="244">
@@ -5065,16 +5065,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>539.049858680931</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C244" t="n">
-        <v>563.0699999999999</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D244" t="n">
-        <v>23.49179621017552</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E244" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="245">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>537.6169406603333</v>
+        <v>554.3220808012776</v>
       </c>
       <c r="C245" t="n">
-        <v>555.38</v>
+        <v>570.88</v>
       </c>
       <c r="D245" t="n">
-        <v>17.23239796571311</v>
+        <v>16.03192649946753</v>
       </c>
       <c r="E245" t="n">
-        <v>0.530661373953629</v>
+        <v>0.5259926992548337</v>
       </c>
     </row>
     <row r="246">
@@ -5103,16 +5103,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>533.3548139718703</v>
+        <v>549.8478918710441</v>
       </c>
       <c r="C246" t="n">
-        <v>538.76</v>
+        <v>566.73</v>
       </c>
       <c r="D246" t="n">
-        <v>4.907907970920121</v>
+        <v>16.35486542970106</v>
       </c>
       <c r="E246" t="n">
-        <v>0.497278057209514</v>
+        <v>0.5272426992548337</v>
       </c>
     </row>
     <row r="247">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>513.7919155695594</v>
+        <v>546.7025137290774</v>
       </c>
       <c r="C247" t="n">
-        <v>529.79</v>
+        <v>556.02</v>
       </c>
       <c r="D247" t="n">
-        <v>15.49764342877028</v>
+        <v>8.787017668053318</v>
       </c>
       <c r="E247" t="n">
-        <v>0.500441001670284</v>
+        <v>0.5304686028692915</v>
       </c>
     </row>
     <row r="248">
@@ -5141,16 +5141,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>504.9878001555981</v>
+        <v>544.1578621582693</v>
       </c>
       <c r="C248" t="n">
-        <v>514.64</v>
+        <v>568.22</v>
       </c>
       <c r="D248" t="n">
-        <v>9.147475930595276</v>
+        <v>23.53534393765666</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.5267939040741109</v>
       </c>
     </row>
     <row r="249">
@@ -5160,16 +5160,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>502.578543626893</v>
+        <v>543.5176419464901</v>
       </c>
       <c r="C249" t="n">
-        <v>521.04</v>
+        <v>554.12</v>
       </c>
       <c r="D249" t="n">
-        <v>17.92045162565931</v>
+        <v>10.10952570596826</v>
       </c>
       <c r="E249" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.492832347541574</v>
       </c>
     </row>
     <row r="250">
@@ -5179,16 +5179,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>498.786067679523</v>
+        <v>539.6263587818344</v>
       </c>
       <c r="C250" t="n">
-        <v>510.69</v>
+        <v>555.14</v>
       </c>
       <c r="D250" t="n">
-        <v>11.3980186476342</v>
+        <v>14.98290755505533</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="251">
@@ -5198,16 +5198,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>496.6652775146578</v>
+        <v>519.8309538857159</v>
       </c>
       <c r="C251" t="n">
-        <v>507.91</v>
+        <v>530.26</v>
       </c>
       <c r="D251" t="n">
-        <v>10.73815225945792</v>
+        <v>9.929027019754566</v>
       </c>
       <c r="E251" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.5000190945295259</v>
       </c>
     </row>
     <row r="252">
@@ -5217,16 +5217,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>490.2832006769898</v>
+        <v>513.2208427170859</v>
       </c>
       <c r="C252" t="n">
-        <v>494.9499999999999</v>
+        <v>530.5</v>
       </c>
       <c r="D252" t="n">
-        <v>4.156144686311936</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E252" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.5381553498572433</v>
       </c>
     </row>
     <row r="253">
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>473.4752162033121</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C253" t="n">
-        <v>484.65</v>
+        <v>528.35</v>
       </c>
       <c r="D253" t="n">
-        <v>10.66102675035116</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E253" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="254">
@@ -5255,16 +5255,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>472.5532056438726</v>
+        <v>487.6162628590631</v>
       </c>
       <c r="C254" t="n">
-        <v>477.3299999999999</v>
+        <v>497.48</v>
       </c>
       <c r="D254" t="n">
-        <v>4.261013286869703</v>
+        <v>9.353844552431568</v>
       </c>
       <c r="E254" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5098925885054294</v>
       </c>
     </row>
     <row r="255">
@@ -5274,16 +5274,16 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>465.3804596838903</v>
+        <v>486.6140950357849</v>
       </c>
       <c r="C255" t="n">
-        <v>484.49</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D255" t="n">
-        <v>18.55724619164182</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E255" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5439655908210987</v>
       </c>
     </row>
     <row r="256">
@@ -5293,16 +5293,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>441.4767172560266</v>
+        <v>466.1644492610225</v>
       </c>
       <c r="C256" t="n">
-        <v>445.86</v>
+        <v>469.54</v>
       </c>
       <c r="D256" t="n">
-        <v>3.857841962696841</v>
+        <v>2.85724248782151</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5183082511560319</v>
       </c>
     </row>
     <row r="257">
@@ -5312,16 +5312,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>423.4411518262795</v>
+        <v>452.6178338885745</v>
       </c>
       <c r="C257" t="n">
-        <v>449.01</v>
+        <v>457.81</v>
       </c>
       <c r="D257" t="n">
-        <v>25.00614764314041</v>
+        <v>4.670324727739316</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.5218413836861523</v>
       </c>
     </row>
     <row r="258">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>412.7520109483367</v>
+        <v>435.5002918254692</v>
       </c>
       <c r="C258" t="n">
-        <v>416.86</v>
+        <v>444.8</v>
       </c>
       <c r="D258" t="n">
-        <v>3.573813330627773</v>
+        <v>8.773948116145766</v>
       </c>
       <c r="E258" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5257600583849475</v>
       </c>
     </row>
     <row r="259">
@@ -5350,16 +5350,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>383.8108993715164</v>
+        <v>416.7372384053406</v>
       </c>
       <c r="C259" t="n">
-        <v>386.2</v>
+        <v>422.14</v>
       </c>
       <c r="D259" t="n">
-        <v>1.845873041447471</v>
+        <v>4.87017623506965</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.5325853595897667</v>
       </c>
     </row>
     <row r="260">
@@ -5369,16 +5369,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>383.5048555676498</v>
+        <v>401.521080126082</v>
       </c>
       <c r="C260" t="n">
-        <v>388.17</v>
+        <v>405.88</v>
       </c>
       <c r="D260" t="n">
-        <v>4.122327145049604</v>
+        <v>3.821436923966766</v>
       </c>
       <c r="E260" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5374829499512126</v>
       </c>
     </row>
     <row r="261">
@@ -5388,16 +5388,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>382.8218502485891</v>
+        <v>387.9612325449802</v>
       </c>
       <c r="C261" t="n">
-        <v>390.6</v>
+        <v>391.02</v>
       </c>
       <c r="D261" t="n">
-        <v>7.236064391821189</v>
+        <v>2.516808601454056</v>
       </c>
       <c r="E261" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.5419588535656704</v>
       </c>
     </row>
     <row r="262">
@@ -5407,16 +5407,16 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>360.6255481245139</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C262" t="n">
-        <v>365.5</v>
+        <v>388.17</v>
       </c>
       <c r="D262" t="n">
-        <v>4.32480627493249</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E262" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="263">
@@ -5426,16 +5426,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>350.7478663574591</v>
+        <v>374.6143218188762</v>
       </c>
       <c r="C263" t="n">
-        <v>357.01</v>
+        <v>382.6</v>
       </c>
       <c r="D263" t="n">
-        <v>5.70993081307159</v>
+        <v>7.441183182979835</v>
       </c>
       <c r="E263" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.5444949981439837</v>
       </c>
     </row>
     <row r="264">
@@ -5445,16 +5445,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>335.8726027395005</v>
+        <v>360.4198420418903</v>
       </c>
       <c r="C264" t="n">
-        <v>343.37</v>
+        <v>365.5</v>
       </c>
       <c r="D264" t="n">
-        <v>6.940805656419609</v>
+        <v>4.530512357556052</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="265">
@@ -5464,16 +5464,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>306.3701667131874</v>
+        <v>313.2905888629746</v>
       </c>
       <c r="C265" t="n">
-        <v>319.27</v>
+        <v>323.11</v>
       </c>
       <c r="D265" t="n">
-        <v>12.33598264658814</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5624136728427789</v>
       </c>
     </row>
     <row r="266">
@@ -5483,16 +5483,16 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>748.9426248685658</v>
+        <v>737.1765405062429</v>
       </c>
       <c r="C266" t="n">
-        <v>755.0699999999999</v>
+        <v>744.87</v>
       </c>
       <c r="D266" t="n">
-        <v>5.695069892326424</v>
+        <v>7.258081965492734</v>
       </c>
       <c r="E266" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4353775282644656</v>
       </c>
     </row>
     <row r="267">
@@ -5502,16 +5502,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>713.530795015162</v>
+        <v>691.700546990392</v>
       </c>
       <c r="C267" t="n">
-        <v>728.22</v>
+        <v>707.37</v>
       </c>
       <c r="D267" t="n">
-        <v>14.21096772196295</v>
+        <v>15.1845717561363</v>
       </c>
       <c r="E267" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.4848812534717012</v>
       </c>
     </row>
     <row r="268">
@@ -5521,16 +5521,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>704.8239720924624</v>
+        <v>687.0448983248115</v>
       </c>
       <c r="C268" t="n">
-        <v>714.23</v>
+        <v>698.3900000000001</v>
       </c>
       <c r="D268" t="n">
-        <v>8.961421463610456</v>
+        <v>10.89572414692421</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.4493775282644655</v>
       </c>
     </row>
     <row r="269">
@@ -5540,16 +5540,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>697.1258928486933</v>
+        <v>673.6748337603676</v>
       </c>
       <c r="C269" t="n">
-        <v>704.1900000000001</v>
+        <v>686.3099999999999</v>
       </c>
       <c r="D269" t="n">
-        <v>6.616657407350157</v>
+        <v>12.18215015715103</v>
       </c>
       <c r="E269" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4530160824813331</v>
       </c>
     </row>
     <row r="270">
@@ -5559,16 +5559,16 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>685.8526644679508</v>
+        <v>664.5498790859112</v>
       </c>
       <c r="C270" t="n">
-        <v>695.01</v>
+        <v>679.96</v>
       </c>
       <c r="D270" t="n">
-        <v>8.668912183367256</v>
+        <v>14.91698363652075</v>
       </c>
       <c r="E270" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4931372775680867</v>
       </c>
     </row>
     <row r="271">
@@ -5578,16 +5578,16 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>676.4676071586331</v>
+        <v>659.638492693242</v>
       </c>
       <c r="C271" t="n">
-        <v>683.51</v>
+        <v>675.9200000000001</v>
       </c>
       <c r="D271" t="n">
-        <v>6.588714181747694</v>
+        <v>15.78715316172009</v>
       </c>
       <c r="E271" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.4943541450379662</v>
       </c>
     </row>
     <row r="272">
@@ -5597,16 +5597,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>656.7492603820327</v>
+        <v>657.7979714587722</v>
       </c>
       <c r="C272" t="n">
-        <v>668.37</v>
+        <v>675.05</v>
       </c>
       <c r="D272" t="n">
-        <v>11.16250071738435</v>
+        <v>16.75741234799707</v>
       </c>
       <c r="E272" t="n">
-        <v>0.458238900583008</v>
+        <v>0.4946161932307374</v>
       </c>
     </row>
     <row r="273">
@@ -5616,16 +5616,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>634.2989664443187</v>
+        <v>651.6066507098026</v>
       </c>
       <c r="C273" t="n">
-        <v>650.53</v>
+        <v>666.89</v>
       </c>
       <c r="D273" t="n">
-        <v>15.72921261663805</v>
+        <v>14.78627526564139</v>
       </c>
       <c r="E273" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.4970740245560386</v>
       </c>
     </row>
     <row r="274">
@@ -5635,16 +5635,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>632.7194103048288</v>
+        <v>640.3249433025106</v>
       </c>
       <c r="C274" t="n">
-        <v>646.8200000000001</v>
+        <v>645.87</v>
       </c>
       <c r="D274" t="n">
-        <v>13.6356790343767</v>
+        <v>5.07985989211643</v>
       </c>
       <c r="E274" t="n">
-        <v>0.464910660794586</v>
+        <v>0.4651968053728993</v>
       </c>
     </row>
     <row r="275">
@@ -5654,16 +5654,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>631.5748807008862</v>
+        <v>634.6070928021687</v>
       </c>
       <c r="C275" t="n">
-        <v>637.8099999999999</v>
+        <v>651.48</v>
       </c>
       <c r="D275" t="n">
-        <v>5.767494782897476</v>
+        <v>16.37119160701024</v>
       </c>
       <c r="E275" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.5017155908210988</v>
       </c>
     </row>
     <row r="276">
@@ -5673,16 +5673,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>628.4849228477487</v>
+        <v>630.6395790641282</v>
       </c>
       <c r="C276" t="n">
-        <v>644.9000000000001</v>
+        <v>642.1200000000001</v>
       </c>
       <c r="D276" t="n">
-        <v>15.91156043007556</v>
+        <v>11.01409461242678</v>
       </c>
       <c r="E276" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.4663263234451885</v>
       </c>
     </row>
     <row r="277">
@@ -5692,16 +5692,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>624.923807804578</v>
+        <v>619.8772666302842</v>
       </c>
       <c r="C277" t="n">
-        <v>641.54</v>
+        <v>640.35</v>
       </c>
       <c r="D277" t="n">
-        <v>16.11120228782163</v>
+        <v>19.96766536925609</v>
       </c>
       <c r="E277" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.5050680004596531</v>
       </c>
     </row>
     <row r="278">
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>619.7819886501072</v>
+        <v>619.7628433450092</v>
       </c>
       <c r="C278" t="n">
         <v>636.37</v>
       </c>
       <c r="D278" t="n">
-        <v>16.08191425745539</v>
+        <v>16.10088985935044</v>
       </c>
       <c r="E278" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.5062667956403759</v>
       </c>
     </row>
     <row r="279">
@@ -5730,16 +5730,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>604.6947303101833</v>
+        <v>614.2302989538364</v>
       </c>
       <c r="C279" t="n">
-        <v>611.6</v>
+        <v>620.4300000000001</v>
       </c>
       <c r="D279" t="n">
-        <v>6.429750595287119</v>
+        <v>5.726841590188373</v>
       </c>
       <c r="E279" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.4728594559753089</v>
       </c>
     </row>
     <row r="280">
@@ -5749,16 +5749,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>595.4032848157719</v>
+        <v>608.1771852622354</v>
       </c>
       <c r="C280" t="n">
-        <v>606.65</v>
+        <v>614.0599999999999</v>
       </c>
       <c r="D280" t="n">
-        <v>10.76988819960144</v>
+        <v>5.408036607090491</v>
       </c>
       <c r="E280" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.4747781306741041</v>
       </c>
     </row>
     <row r="281">
@@ -5768,16 +5768,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>584.5660430278126</v>
+        <v>594.3160298886883</v>
       </c>
       <c r="C281" t="n">
-        <v>602.6</v>
+        <v>605.61</v>
       </c>
       <c r="D281" t="n">
-        <v>17.5175184898001</v>
+        <v>10.81664679991475</v>
       </c>
       <c r="E281" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.4773233113969957</v>
       </c>
     </row>
     <row r="282">
@@ -5787,16 +5787,16 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>577.8306297245134</v>
+        <v>587.4716971214763</v>
       </c>
       <c r="C282" t="n">
-        <v>592.5699999999999</v>
+        <v>594.48</v>
       </c>
       <c r="D282" t="n">
-        <v>14.21991070876181</v>
+        <v>6.527627157488167</v>
       </c>
       <c r="E282" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.48067572103555</v>
       </c>
     </row>
     <row r="283">
@@ -5806,16 +5806,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>577.1350622834508</v>
+        <v>586.7978440421186</v>
       </c>
       <c r="C283" t="n">
-        <v>582.35</v>
+        <v>602.84</v>
       </c>
       <c r="D283" t="n">
-        <v>4.730608381055898</v>
+        <v>15.52578976465068</v>
       </c>
       <c r="E283" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.5163661932307374</v>
       </c>
     </row>
     <row r="284">
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>566.8157869658967</v>
+        <v>563.8338280736956</v>
       </c>
       <c r="C284" t="n">
-        <v>573.96</v>
+        <v>588.1600000000001</v>
       </c>
       <c r="D284" t="n">
-        <v>6.657537386532404</v>
+        <v>23.80556712008529</v>
       </c>
       <c r="E284" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.520604806219277</v>
       </c>
     </row>
     <row r="285">
@@ -5844,16 +5844,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>565.238944473932</v>
+        <v>554.3220808012776</v>
       </c>
       <c r="C285" t="n">
-        <v>576.86</v>
+        <v>570.88</v>
       </c>
       <c r="D285" t="n">
-        <v>11.13479223524116</v>
+        <v>16.03192649946753</v>
       </c>
       <c r="E285" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.5259926992548337</v>
       </c>
     </row>
     <row r="286">
@@ -5863,16 +5863,16 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>563.8338280736956</v>
+        <v>549.8478918710441</v>
       </c>
       <c r="C286" t="n">
-        <v>588.1600000000001</v>
+        <v>566.73</v>
       </c>
       <c r="D286" t="n">
-        <v>23.80556712008529</v>
+        <v>16.35486542970106</v>
       </c>
       <c r="E286" t="n">
-        <v>0.520604806219277</v>
+        <v>0.5272426992548337</v>
       </c>
     </row>
     <row r="287">
@@ -5882,16 +5882,16 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>543.742837806579</v>
+        <v>546.7025137290774</v>
       </c>
       <c r="C287" t="n">
-        <v>552.6500000000001</v>
+        <v>556.02</v>
       </c>
       <c r="D287" t="n">
-        <v>8.375678530310772</v>
+        <v>8.787017668053318</v>
       </c>
       <c r="E287" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.5304686028692915</v>
       </c>
     </row>
     <row r="288">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>539.049858680931</v>
+        <v>544.1578621582693</v>
       </c>
       <c r="C288" t="n">
-        <v>563.0699999999999</v>
+        <v>568.22</v>
       </c>
       <c r="D288" t="n">
-        <v>23.49179621017552</v>
+        <v>23.53534393765666</v>
       </c>
       <c r="E288" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.5267939040741109</v>
       </c>
     </row>
     <row r="289">
@@ -5920,16 +5920,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>537.6169406603333</v>
+        <v>543.5176419464901</v>
       </c>
       <c r="C289" t="n">
-        <v>555.38</v>
+        <v>554.12</v>
       </c>
       <c r="D289" t="n">
-        <v>17.23239796571311</v>
+        <v>10.10952570596826</v>
       </c>
       <c r="E289" t="n">
-        <v>0.530661373953629</v>
+        <v>0.492832347541574</v>
       </c>
     </row>
     <row r="290">
@@ -5939,16 +5939,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>533.3548139718703</v>
+        <v>539.6263587818344</v>
       </c>
       <c r="C290" t="n">
-        <v>538.76</v>
+        <v>555.14</v>
       </c>
       <c r="D290" t="n">
-        <v>4.907907970920121</v>
+        <v>14.98290755505533</v>
       </c>
       <c r="E290" t="n">
-        <v>0.497278057209514</v>
+        <v>0.5307336631102555</v>
       </c>
     </row>
     <row r="291">
@@ -5958,16 +5958,16 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>513.7919155695594</v>
+        <v>533.2546246382069</v>
       </c>
       <c r="C291" t="n">
-        <v>529.79</v>
+        <v>546.49</v>
       </c>
       <c r="D291" t="n">
-        <v>15.49764342877028</v>
+        <v>12.70203627699607</v>
       </c>
       <c r="E291" t="n">
-        <v>0.500441001670284</v>
+        <v>0.5333390847970024</v>
       </c>
     </row>
     <row r="292">
@@ -5977,16 +5977,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>504.9878001555981</v>
+        <v>520.8396401999867</v>
       </c>
       <c r="C292" t="n">
-        <v>514.64</v>
+        <v>530.55</v>
       </c>
       <c r="D292" t="n">
-        <v>9.147475930595276</v>
+        <v>9.210428054881426</v>
       </c>
       <c r="E292" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.4999317451319354</v>
       </c>
     </row>
     <row r="293">
@@ -5996,16 +5996,16 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>502.578543626893</v>
+        <v>519.8309538857159</v>
       </c>
       <c r="C293" t="n">
-        <v>521.04</v>
+        <v>530.26</v>
       </c>
       <c r="D293" t="n">
-        <v>17.92045162565931</v>
+        <v>9.929027019754566</v>
       </c>
       <c r="E293" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.5000190945295259</v>
       </c>
     </row>
     <row r="294">
@@ -6015,16 +6015,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>498.786067679523</v>
+        <v>513.2208427170859</v>
       </c>
       <c r="C294" t="n">
-        <v>510.69</v>
+        <v>530.5</v>
       </c>
       <c r="D294" t="n">
-        <v>11.3980186476342</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E294" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.5381553498572433</v>
       </c>
     </row>
     <row r="295">
@@ -6034,16 +6034,16 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>496.6652775146578</v>
+        <v>502.7153388118036</v>
       </c>
       <c r="C295" t="n">
-        <v>507.91</v>
+        <v>528.35</v>
       </c>
       <c r="D295" t="n">
-        <v>10.73815225945792</v>
+        <v>25.09557790710199</v>
       </c>
       <c r="E295" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.539083281094387</v>
       </c>
     </row>
     <row r="296">
@@ -6053,16 +6053,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>490.2832006769898</v>
+        <v>487.6162628590631</v>
       </c>
       <c r="C296" t="n">
-        <v>494.9499999999999</v>
+        <v>497.48</v>
       </c>
       <c r="D296" t="n">
-        <v>4.156144686311936</v>
+        <v>9.353844552431568</v>
       </c>
       <c r="E296" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.5098925885054294</v>
       </c>
     </row>
     <row r="297">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>473.4752162033121</v>
+        <v>486.6140950357849</v>
       </c>
       <c r="C297" t="n">
-        <v>484.65</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D297" t="n">
-        <v>10.66102675035116</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E297" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.5439655908210987</v>
       </c>
     </row>
     <row r="298">
@@ -6091,16 +6091,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>472.5532056438726</v>
+        <v>481.1491340129195</v>
       </c>
       <c r="C298" t="n">
-        <v>477.3299999999999</v>
+        <v>495</v>
       </c>
       <c r="D298" t="n">
-        <v>4.261013286869703</v>
+        <v>13.30173752526313</v>
       </c>
       <c r="E298" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5491284618172786</v>
       </c>
     </row>
     <row r="299">
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>465.3804596838903</v>
+        <v>441.7324879484918</v>
       </c>
       <c r="C299" t="n">
-        <v>484.49</v>
+        <v>445.86</v>
       </c>
       <c r="D299" t="n">
-        <v>18.55724619164182</v>
+        <v>3.602071270231676</v>
       </c>
       <c r="E299" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5254407812765137</v>
       </c>
     </row>
     <row r="300">
@@ -6129,16 +6129,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>441.4767172560266</v>
+        <v>435.5002918254692</v>
       </c>
       <c r="C300" t="n">
-        <v>445.86</v>
+        <v>444.8</v>
       </c>
       <c r="D300" t="n">
-        <v>3.857841962696841</v>
+        <v>8.773948116145766</v>
       </c>
       <c r="E300" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5257600583849475</v>
       </c>
     </row>
     <row r="301">
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>423.4411518262795</v>
+        <v>434.6258568353122</v>
       </c>
       <c r="C301" t="n">
-        <v>449.01</v>
+        <v>443.69</v>
       </c>
       <c r="D301" t="n">
-        <v>25.00614764314041</v>
+        <v>8.538048768953509</v>
       </c>
       <c r="E301" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.5260943957343451</v>
       </c>
     </row>
     <row r="302">
@@ -6167,16 +6167,16 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>412.7520109483367</v>
+        <v>416.7372384053406</v>
       </c>
       <c r="C302" t="n">
-        <v>416.86</v>
+        <v>422.14</v>
       </c>
       <c r="D302" t="n">
-        <v>3.573813330627773</v>
+        <v>4.87017623506965</v>
       </c>
       <c r="E302" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5325853595897667</v>
       </c>
     </row>
     <row r="303">
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>383.8108993715164</v>
+        <v>401.521080126082</v>
       </c>
       <c r="C303" t="n">
-        <v>386.2</v>
+        <v>405.88</v>
       </c>
       <c r="D303" t="n">
-        <v>1.845873041447471</v>
+        <v>3.821436923966766</v>
       </c>
       <c r="E303" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.5374829499512126</v>
       </c>
     </row>
     <row r="304">
@@ -6205,16 +6205,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>383.5048555676498</v>
+        <v>387.9612325449802</v>
       </c>
       <c r="C304" t="n">
-        <v>388.17</v>
+        <v>391.02</v>
       </c>
       <c r="D304" t="n">
-        <v>4.122327145049604</v>
+        <v>2.516808601454056</v>
       </c>
       <c r="E304" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5419588535656704</v>
       </c>
     </row>
     <row r="305">
@@ -6224,16 +6224,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>382.8218502485891</v>
+        <v>383.5048555676498</v>
       </c>
       <c r="C305" t="n">
-        <v>390.6</v>
+        <v>388.17</v>
       </c>
       <c r="D305" t="n">
-        <v>7.236064391821189</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E305" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.5428172873006101</v>
       </c>
     </row>
     <row r="306">
@@ -6243,16 +6243,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>360.6255481245139</v>
+        <v>374.6143218188762</v>
       </c>
       <c r="C306" t="n">
-        <v>365.5</v>
+        <v>382.6</v>
       </c>
       <c r="D306" t="n">
-        <v>4.32480627493249</v>
+        <v>7.441183182979835</v>
       </c>
       <c r="E306" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5444949981439837</v>
       </c>
     </row>
     <row r="307">
@@ -6262,16 +6262,16 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>350.7478663574591</v>
+        <v>360.4198420418903</v>
       </c>
       <c r="C307" t="n">
-        <v>357.01</v>
+        <v>365.5</v>
       </c>
       <c r="D307" t="n">
-        <v>5.70993081307159</v>
+        <v>4.530512357556052</v>
       </c>
       <c r="E307" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.5496456005536222</v>
       </c>
     </row>
     <row r="308">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>335.8726027395005</v>
+        <v>322.4078528288225</v>
       </c>
       <c r="C308" t="n">
-        <v>343.37</v>
+        <v>330</v>
       </c>
       <c r="D308" t="n">
-        <v>6.940805656419609</v>
+        <v>7.031528458663866</v>
       </c>
       <c r="E308" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.5606187125136575</v>
       </c>
     </row>
     <row r="309">
@@ -6300,16 +6300,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>306.3701667131874</v>
+        <v>313.2905888629746</v>
       </c>
       <c r="C309" t="n">
-        <v>319.27</v>
+        <v>323.11</v>
       </c>
       <c r="D309" t="n">
-        <v>12.33598264658814</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E309" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5624136728427789</v>
       </c>
     </row>
     <row r="310">
@@ -6319,16 +6319,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>748.9426248685658</v>
+        <v>659.7691330257861</v>
       </c>
       <c r="C310" t="n">
-        <v>755.0699999999999</v>
+        <v>667.95</v>
       </c>
       <c r="D310" t="n">
-        <v>5.695069892326424</v>
+        <v>7.722503845009079</v>
       </c>
       <c r="E310" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4583631292048123</v>
       </c>
     </row>
     <row r="311">
@@ -6338,16 +6338,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>713.530795015162</v>
+        <v>568.171965841905</v>
       </c>
       <c r="C311" t="n">
-        <v>728.22</v>
+        <v>578.14</v>
       </c>
       <c r="D311" t="n">
-        <v>14.21096772196295</v>
+        <v>9.482339483195156</v>
       </c>
       <c r="E311" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.4856946748997873</v>
       </c>
     </row>
     <row r="312">
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>704.8239720924624</v>
+        <v>564.7549222564568</v>
       </c>
       <c r="C312" t="n">
-        <v>714.23</v>
+        <v>580.5699999999999</v>
       </c>
       <c r="D312" t="n">
-        <v>8.961421463610456</v>
+        <v>15.33011499635431</v>
       </c>
       <c r="E312" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.4849627471889439</v>
       </c>
     </row>
     <row r="313">
@@ -6376,16 +6376,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>697.1258928486933</v>
+        <v>541.0076923131569</v>
       </c>
       <c r="C313" t="n">
-        <v>704.1900000000001</v>
+        <v>555.29</v>
       </c>
       <c r="D313" t="n">
-        <v>6.616657407350157</v>
+        <v>13.78954740806437</v>
       </c>
       <c r="E313" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4927602787787177</v>
       </c>
     </row>
     <row r="314">
@@ -6395,16 +6395,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>685.8526644679508</v>
+        <v>533.9391012439723</v>
       </c>
       <c r="C314" t="n">
-        <v>695.01</v>
+        <v>546.7900000000001</v>
       </c>
       <c r="D314" t="n">
-        <v>8.668912183367256</v>
+        <v>12.35557823628521</v>
       </c>
       <c r="E314" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4953205197425731</v>
       </c>
     </row>
     <row r="315">
@@ -6414,16 +6414,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>676.4676071586331</v>
+        <v>533.17673879874</v>
       </c>
       <c r="C315" t="n">
-        <v>683.51</v>
+        <v>545.5699999999999</v>
       </c>
       <c r="D315" t="n">
-        <v>6.588714181747694</v>
+        <v>11.89775400799414</v>
       </c>
       <c r="E315" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.4955071932659348</v>
       </c>
     </row>
     <row r="316">
@@ -6433,16 +6433,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>656.7492603820327</v>
+        <v>531.3767230761358</v>
       </c>
       <c r="C316" t="n">
-        <v>668.37</v>
+        <v>537.0400000000001</v>
       </c>
       <c r="D316" t="n">
-        <v>11.16250071738435</v>
+        <v>5.165480794365639</v>
       </c>
       <c r="E316" t="n">
-        <v>0.458238900583008</v>
+        <v>0.4977961294986707</v>
       </c>
     </row>
     <row r="317">
@@ -6452,16 +6452,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>634.2989664443187</v>
+        <v>518.2638289814732</v>
       </c>
       <c r="C317" t="n">
-        <v>650.53</v>
+        <v>524.41</v>
       </c>
       <c r="D317" t="n">
-        <v>15.72921261663805</v>
+        <v>5.644389875804496</v>
       </c>
       <c r="E317" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.5017811427222968</v>
       </c>
     </row>
     <row r="318">
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>632.7194103048288</v>
+        <v>518.0903715861878</v>
       </c>
       <c r="C318" t="n">
-        <v>646.8200000000001</v>
+        <v>534.36</v>
       </c>
       <c r="D318" t="n">
-        <v>13.6356790343767</v>
+        <v>15.73235537368164</v>
       </c>
       <c r="E318" t="n">
-        <v>0.464910660794586</v>
+        <v>0.5372730401305317</v>
       </c>
     </row>
     <row r="319">
@@ -6490,16 +6490,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>631.5748807008862</v>
+        <v>515.191379294916</v>
       </c>
       <c r="C319" t="n">
-        <v>637.8099999999999</v>
+        <v>528.55</v>
       </c>
       <c r="D319" t="n">
-        <v>5.767494782897476</v>
+        <v>12.85808655031353</v>
       </c>
       <c r="E319" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.5005341547704897</v>
       </c>
     </row>
     <row r="320">
@@ -6509,16 +6509,16 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>628.4849228477487</v>
+        <v>513.5648376854983</v>
       </c>
       <c r="C320" t="n">
-        <v>644.9000000000001</v>
+        <v>532.02</v>
       </c>
       <c r="D320" t="n">
-        <v>15.91156043007556</v>
+        <v>17.95557607333683</v>
       </c>
       <c r="E320" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.4995862411648476</v>
       </c>
     </row>
     <row r="321">
@@ -6528,16 +6528,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>624.923807804578</v>
+        <v>501.9793429825743</v>
       </c>
       <c r="C321" t="n">
-        <v>641.54</v>
+        <v>519.3900000000001</v>
       </c>
       <c r="D321" t="n">
-        <v>16.11120228782163</v>
+        <v>16.9074473557496</v>
       </c>
       <c r="E321" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.5032096616761612</v>
       </c>
     </row>
     <row r="322">
@@ -6547,16 +6547,16 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>619.7819886501072</v>
+        <v>489.4247282519104</v>
       </c>
       <c r="C322" t="n">
-        <v>636.37</v>
+        <v>509.23</v>
       </c>
       <c r="D322" t="n">
-        <v>16.08191425745539</v>
+        <v>19.29863797533488</v>
       </c>
       <c r="E322" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.5066337727546213</v>
       </c>
     </row>
     <row r="323">
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>604.6947303101833</v>
+        <v>487.4830155158953</v>
       </c>
       <c r="C323" t="n">
-        <v>611.6</v>
+        <v>502.06</v>
       </c>
       <c r="D323" t="n">
-        <v>6.429750595287119</v>
+        <v>14.06819107279585</v>
       </c>
       <c r="E323" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.5087934113088382</v>
       </c>
     </row>
     <row r="324">
@@ -6585,16 +6585,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>595.4032848157719</v>
+        <v>486.6933085583046</v>
       </c>
       <c r="C324" t="n">
-        <v>606.65</v>
+        <v>503.2</v>
       </c>
       <c r="D324" t="n">
-        <v>10.76988819960144</v>
+        <v>15.99842447763897</v>
       </c>
       <c r="E324" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.5082669640564139</v>
       </c>
     </row>
     <row r="325">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>584.5660430278126</v>
+        <v>479.9694262142314</v>
       </c>
       <c r="C325" t="n">
-        <v>602.6</v>
+        <v>490.84</v>
       </c>
       <c r="D325" t="n">
-        <v>17.5175184898001</v>
+        <v>10.35858393014587</v>
       </c>
       <c r="E325" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.5119898556226788</v>
       </c>
     </row>
     <row r="326">
@@ -6623,16 +6623,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>577.8306297245134</v>
+        <v>476.8920257125076</v>
       </c>
       <c r="C326" t="n">
-        <v>592.5699999999999</v>
+        <v>490.39</v>
       </c>
       <c r="D326" t="n">
-        <v>14.21991070876181</v>
+        <v>12.98612695317442</v>
       </c>
       <c r="E326" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.5118473343179477</v>
       </c>
     </row>
     <row r="327">
@@ -6642,16 +6642,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>577.1350622834508</v>
+        <v>476.7690841087619</v>
       </c>
       <c r="C327" t="n">
-        <v>582.35</v>
+        <v>499.86</v>
       </c>
       <c r="D327" t="n">
-        <v>4.730608381055898</v>
+        <v>22.54354628190392</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.5473696093341756</v>
       </c>
     </row>
     <row r="328">
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>566.8157869658967</v>
+        <v>455.8264712794411</v>
       </c>
       <c r="C328" t="n">
-        <v>573.96</v>
+        <v>470.21</v>
       </c>
       <c r="D328" t="n">
-        <v>6.657537386532404</v>
+        <v>13.86514193575608</v>
       </c>
       <c r="E328" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.5183867848028141</v>
       </c>
     </row>
     <row r="329">
@@ -6680,16 +6680,16 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>565.238944473932</v>
+        <v>447.939864494313</v>
       </c>
       <c r="C329" t="n">
-        <v>576.86</v>
+        <v>464.23</v>
       </c>
       <c r="D329" t="n">
-        <v>11.13479223524116</v>
+        <v>15.76994751606493</v>
       </c>
       <c r="E329" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.5201879896220911</v>
       </c>
     </row>
     <row r="330">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>563.8338280736956</v>
+        <v>446.1009520907336</v>
       </c>
       <c r="C330" t="n">
-        <v>588.1600000000001</v>
+        <v>458.93</v>
       </c>
       <c r="D330" t="n">
-        <v>23.80556712008529</v>
+        <v>12.30726353410209</v>
       </c>
       <c r="E330" t="n">
-        <v>0.520604806219277</v>
+        <v>0.5217843751642599</v>
       </c>
     </row>
     <row r="331">
@@ -6718,16 +6718,16 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>543.742837806579</v>
+        <v>445.9757608881743</v>
       </c>
       <c r="C331" t="n">
-        <v>552.6500000000001</v>
+        <v>461.52</v>
       </c>
       <c r="D331" t="n">
-        <v>8.375678530310772</v>
+        <v>15.02350616187446</v>
       </c>
       <c r="E331" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.5207329499512126</v>
       </c>
     </row>
     <row r="332">
@@ -6737,16 +6737,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>539.049858680931</v>
+        <v>441.438631759303</v>
       </c>
       <c r="C332" t="n">
-        <v>563.0699999999999</v>
+        <v>469.01</v>
       </c>
       <c r="D332" t="n">
-        <v>23.49179621017552</v>
+        <v>27.01441146562674</v>
       </c>
       <c r="E332" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.5569567750702906</v>
       </c>
     </row>
     <row r="333">
@@ -6756,16 +6756,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>537.6169406603333</v>
+        <v>439.1943771736477</v>
       </c>
       <c r="C333" t="n">
-        <v>555.38</v>
+        <v>448.3</v>
       </c>
       <c r="D333" t="n">
-        <v>17.23239796571311</v>
+        <v>8.580808404170758</v>
       </c>
       <c r="E333" t="n">
-        <v>0.530661373953629</v>
+        <v>0.5248144221815976</v>
       </c>
     </row>
     <row r="334">
@@ -6775,16 +6775,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>533.3548139718703</v>
+        <v>437.8606121727942</v>
       </c>
       <c r="C334" t="n">
-        <v>538.76</v>
+        <v>463.9200000000001</v>
       </c>
       <c r="D334" t="n">
-        <v>4.907907970920121</v>
+        <v>25.50108099336394</v>
       </c>
       <c r="E334" t="n">
-        <v>0.497278057209514</v>
+        <v>0.5583068338419628</v>
       </c>
     </row>
     <row r="335">
@@ -6794,16 +6794,16 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>513.7919155695594</v>
+        <v>437.2761529609782</v>
       </c>
       <c r="C335" t="n">
-        <v>529.79</v>
+        <v>452.18</v>
       </c>
       <c r="D335" t="n">
-        <v>15.49764342877028</v>
+        <v>14.3802126050859</v>
       </c>
       <c r="E335" t="n">
-        <v>0.500441001670284</v>
+        <v>0.5236344339359319</v>
       </c>
     </row>
     <row r="336">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>504.9878001555981</v>
+        <v>430.8653729560323</v>
       </c>
       <c r="C336" t="n">
-        <v>514.64</v>
+        <v>457.58</v>
       </c>
       <c r="D336" t="n">
-        <v>9.147475930595276</v>
+        <v>26.15422749781313</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.5603995461546279</v>
       </c>
     </row>
     <row r="337">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>502.578543626893</v>
+        <v>430.7656405697825</v>
       </c>
       <c r="C337" t="n">
-        <v>521.04</v>
+        <v>445.09</v>
       </c>
       <c r="D337" t="n">
-        <v>17.92045162565931</v>
+        <v>13.79868672123012</v>
       </c>
       <c r="E337" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.5256727089873572</v>
       </c>
     </row>
     <row r="338">
@@ -6851,16 +6851,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>498.786067679523</v>
+        <v>424.2629815450508</v>
       </c>
       <c r="C338" t="n">
-        <v>510.69</v>
+        <v>435.09</v>
       </c>
       <c r="D338" t="n">
-        <v>11.3980186476342</v>
+        <v>10.29823643065181</v>
       </c>
       <c r="E338" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.5287820242973778</v>
       </c>
     </row>
     <row r="339">
@@ -6870,16 +6870,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>496.6652775146578</v>
+        <v>419.0700014998366</v>
       </c>
       <c r="C339" t="n">
-        <v>507.91</v>
+        <v>433.6</v>
       </c>
       <c r="D339" t="n">
-        <v>10.73815225945792</v>
+        <v>14.00058460692687</v>
       </c>
       <c r="E339" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.529413893236549</v>
       </c>
     </row>
     <row r="340">
@@ -6889,16 +6889,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>490.2832006769898</v>
+        <v>412.6232607012064</v>
       </c>
       <c r="C340" t="n">
-        <v>494.9499999999999</v>
+        <v>416.86</v>
       </c>
       <c r="D340" t="n">
-        <v>4.156144686311936</v>
+        <v>3.702283236882334</v>
       </c>
       <c r="E340" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.5344560619112478</v>
       </c>
     </row>
     <row r="341">
@@ -6908,16 +6908,16 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>473.4752162033121</v>
+        <v>410.3442909695107</v>
       </c>
       <c r="C341" t="n">
-        <v>484.65</v>
+        <v>416.86</v>
       </c>
       <c r="D341" t="n">
-        <v>10.66102675035116</v>
+        <v>5.981252968578058</v>
       </c>
       <c r="E341" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.5344560619112478</v>
       </c>
     </row>
     <row r="342">
@@ -6927,16 +6927,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>472.5532056438726</v>
+        <v>392.4931167243221</v>
       </c>
       <c r="C342" t="n">
-        <v>477.3299999999999</v>
+        <v>406.9</v>
       </c>
       <c r="D342" t="n">
-        <v>4.261013286869703</v>
+        <v>13.86942721376666</v>
       </c>
       <c r="E342" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5374560619112478</v>
       </c>
     </row>
     <row r="343">
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>465.3804596838903</v>
+        <v>378.7913525858347</v>
       </c>
       <c r="C343" t="n">
-        <v>484.49</v>
+        <v>384.66</v>
       </c>
       <c r="D343" t="n">
-        <v>18.55724619164182</v>
+        <v>5.324492557073255</v>
       </c>
       <c r="E343" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5441548570919708</v>
       </c>
     </row>
     <row r="344">
@@ -6965,16 +6965,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>441.4767172560266</v>
+        <v>370.546229777819</v>
       </c>
       <c r="C344" t="n">
-        <v>445.86</v>
+        <v>383.38</v>
       </c>
       <c r="D344" t="n">
-        <v>3.857841962696841</v>
+        <v>12.25102127843606</v>
       </c>
       <c r="E344" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5827489437449895</v>
       </c>
     </row>
     <row r="345">
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>423.4411518262795</v>
+        <v>368.5531576920682</v>
       </c>
       <c r="C345" t="n">
-        <v>449.01</v>
+        <v>382.42</v>
       </c>
       <c r="D345" t="n">
-        <v>25.00614764314041</v>
+        <v>13.32219582580307</v>
       </c>
       <c r="E345" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.544646482128703</v>
       </c>
     </row>
     <row r="346">
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>412.7520109483367</v>
+        <v>358.7072048362691</v>
       </c>
       <c r="C346" t="n">
-        <v>416.86</v>
+        <v>370.64</v>
       </c>
       <c r="D346" t="n">
-        <v>3.573813330627773</v>
+        <v>11.38469775594839</v>
       </c>
       <c r="E346" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5480974077825378</v>
       </c>
     </row>
     <row r="347">
@@ -7022,16 +7022,16 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>383.8108993715164</v>
+        <v>354.9344595702853</v>
       </c>
       <c r="C347" t="n">
-        <v>386.2</v>
+        <v>358.33</v>
       </c>
       <c r="D347" t="n">
-        <v>1.845873041447471</v>
+        <v>2.843454849731176</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.5520855799835369</v>
       </c>
     </row>
     <row r="348">
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>383.5048555676498</v>
+        <v>313.449468124871</v>
       </c>
       <c r="C348" t="n">
-        <v>388.17</v>
+        <v>319.53</v>
       </c>
       <c r="D348" t="n">
-        <v>4.122327145049604</v>
+        <v>5.51675954815757</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5637723269714888</v>
       </c>
     </row>
     <row r="349">
@@ -7060,16 +7060,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>382.8218502485891</v>
+        <v>305.6300494222968</v>
       </c>
       <c r="C349" t="n">
-        <v>390.6</v>
+        <v>322.22</v>
       </c>
       <c r="D349" t="n">
-        <v>7.236064391821189</v>
+        <v>16.02698849169559</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.5629620860076334</v>
       </c>
     </row>
     <row r="350">
@@ -7079,16 +7079,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>360.6255481245139</v>
+        <v>266.6926415010731</v>
       </c>
       <c r="C350" t="n">
-        <v>365.5</v>
+        <v>272.69</v>
       </c>
       <c r="D350" t="n">
-        <v>4.32480627493249</v>
+        <v>5.419477738220518</v>
       </c>
       <c r="E350" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5778807607064286</v>
       </c>
     </row>
     <row r="351">
@@ -7098,16 +7098,16 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>350.7478663574591</v>
+        <v>251.613619319945</v>
       </c>
       <c r="C351" t="n">
-        <v>357.01</v>
+        <v>261.09</v>
       </c>
       <c r="D351" t="n">
-        <v>5.70993081307159</v>
+        <v>8.89528628432063</v>
       </c>
       <c r="E351" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.5810943957343451</v>
       </c>
     </row>
     <row r="352">
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>335.8726027395005</v>
+        <v>230.7313877987083</v>
       </c>
       <c r="C352" t="n">
-        <v>343.37</v>
+        <v>239.68</v>
       </c>
       <c r="D352" t="n">
-        <v>6.940805656419609</v>
+        <v>8.360788669500892</v>
       </c>
       <c r="E352" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.587823531790766</v>
       </c>
     </row>
     <row r="353">
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>306.3701667131874</v>
+        <v>192.8874216415352</v>
       </c>
       <c r="C353" t="n">
-        <v>319.27</v>
+        <v>204.31</v>
       </c>
       <c r="D353" t="n">
-        <v>12.33598264658814</v>
+        <v>10.82410121221621</v>
       </c>
       <c r="E353" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5984771462485972</v>
       </c>
     </row>
     <row r="354">
@@ -7155,16 +7155,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>748.9426248685658</v>
+        <v>723.8910719991961</v>
       </c>
       <c r="C354" t="n">
-        <v>755.0699999999999</v>
+        <v>731.78</v>
       </c>
       <c r="D354" t="n">
-        <v>5.695069892326424</v>
+        <v>7.449788497811096</v>
       </c>
       <c r="E354" t="n">
-        <v>0.432305239107839</v>
+        <v>0.4391395029926466</v>
       </c>
     </row>
     <row r="355">
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>713.530795015162</v>
+        <v>691.6612034949559</v>
       </c>
       <c r="C355" t="n">
-        <v>728.22</v>
+        <v>708.12</v>
       </c>
       <c r="D355" t="n">
-        <v>14.21096772196295</v>
+        <v>15.97414115518684</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4782372628751687</v>
+        <v>0.4846553498572434</v>
       </c>
     </row>
     <row r="356">
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>704.8239720924624</v>
+        <v>657.3930593213209</v>
       </c>
       <c r="C356" t="n">
-        <v>714.23</v>
+        <v>671.66</v>
       </c>
       <c r="D356" t="n">
-        <v>8.961421463610456</v>
+        <v>13.77166727122545</v>
       </c>
       <c r="E356" t="n">
-        <v>0.4446064439271161</v>
+        <v>0.495273407453482</v>
       </c>
     </row>
     <row r="357">
@@ -7212,16 +7212,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>697.1258928486933</v>
+        <v>656.2755443335342</v>
       </c>
       <c r="C357" t="n">
-        <v>704.1900000000001</v>
+        <v>671.65</v>
       </c>
       <c r="D357" t="n">
-        <v>6.616657407350157</v>
+        <v>14.87881537684952</v>
       </c>
       <c r="E357" t="n">
-        <v>0.4474497439565019</v>
+        <v>0.4956402896162795</v>
       </c>
     </row>
     <row r="358">
@@ -7231,16 +7231,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>685.8526644679508</v>
+        <v>650.3936737913627</v>
       </c>
       <c r="C358" t="n">
-        <v>695.01</v>
+        <v>665.76</v>
       </c>
       <c r="D358" t="n">
-        <v>8.668912183367256</v>
+        <v>14.86909489639385</v>
       </c>
       <c r="E358" t="n">
-        <v>0.4884233486818099</v>
+        <v>0.4972313122433732</v>
       </c>
     </row>
     <row r="359">
@@ -7250,16 +7250,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>676.4676071586331</v>
+        <v>649.8777356043781</v>
       </c>
       <c r="C359" t="n">
-        <v>683.51</v>
+        <v>662.24</v>
       </c>
       <c r="D359" t="n">
-        <v>6.588714181747694</v>
+        <v>11.9023621832551</v>
       </c>
       <c r="E359" t="n">
-        <v>0.4536786596191527</v>
+        <v>0.4599022123667283</v>
       </c>
     </row>
     <row r="360">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>656.7492603820327</v>
+        <v>640.0536270944374</v>
       </c>
       <c r="C360" t="n">
-        <v>668.37</v>
+        <v>656.8299999999999</v>
       </c>
       <c r="D360" t="n">
-        <v>11.16250071738435</v>
+        <v>16.27626876052451</v>
       </c>
       <c r="E360" t="n">
-        <v>0.458238900583008</v>
+        <v>0.5001041450379663</v>
       </c>
     </row>
     <row r="361">
@@ -7288,16 +7288,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>634.2989664443187</v>
+        <v>630.9752811968646</v>
       </c>
       <c r="C361" t="n">
-        <v>650.53</v>
+        <v>638.6800000000001</v>
       </c>
       <c r="D361" t="n">
-        <v>15.72921261663805</v>
+        <v>7.237356335112033</v>
       </c>
       <c r="E361" t="n">
-        <v>0.5018209390432558</v>
+        <v>0.4673624680235017</v>
       </c>
     </row>
     <row r="362">
@@ -7307,16 +7307,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>632.7194103048288</v>
+        <v>628.4265356830439</v>
       </c>
       <c r="C362" t="n">
-        <v>646.8200000000001</v>
+        <v>640.03</v>
       </c>
       <c r="D362" t="n">
-        <v>13.6356790343767</v>
+        <v>11.13650847543859</v>
       </c>
       <c r="E362" t="n">
-        <v>0.464910660794586</v>
+        <v>0.4669558415174777</v>
       </c>
     </row>
     <row r="363">
@@ -7326,16 +7326,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>631.5748807008862</v>
+        <v>622.7821212654987</v>
       </c>
       <c r="C363" t="n">
-        <v>637.8099999999999</v>
+        <v>633.52</v>
       </c>
       <c r="D363" t="n">
-        <v>5.767494782897476</v>
+        <v>10.2309083684818</v>
       </c>
       <c r="E363" t="n">
-        <v>0.4676245162162728</v>
+        <v>0.5069703660194532</v>
       </c>
     </row>
     <row r="364">
@@ -7345,16 +7345,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>628.4849228477487</v>
+        <v>620.5135049300364</v>
       </c>
       <c r="C364" t="n">
-        <v>644.9000000000001</v>
+        <v>630.8199999999999</v>
       </c>
       <c r="D364" t="n">
-        <v>15.91156043007556</v>
+        <v>9.79855658757613</v>
       </c>
       <c r="E364" t="n">
-        <v>0.5035167221757858</v>
+        <v>0.5079384823873638</v>
       </c>
     </row>
     <row r="365">
@@ -7364,16 +7364,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>624.923807804578</v>
+        <v>612.4222694494674</v>
       </c>
       <c r="C365" t="n">
-        <v>641.54</v>
+        <v>626.29</v>
       </c>
       <c r="D365" t="n">
-        <v>16.11120228782163</v>
+        <v>13.39681922855659</v>
       </c>
       <c r="E365" t="n">
-        <v>0.5049899076004112</v>
+        <v>0.4709113219758967</v>
       </c>
     </row>
     <row r="366">
@@ -7383,16 +7383,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>619.7819886501072</v>
+        <v>611.6338218898319</v>
       </c>
       <c r="C366" t="n">
-        <v>636.37</v>
+        <v>617.8899999999999</v>
       </c>
       <c r="D366" t="n">
-        <v>16.08191425745539</v>
+        <v>5.782734390307791</v>
       </c>
       <c r="E366" t="n">
-        <v>0.5060970924373198</v>
+        <v>0.4734437198601166</v>
       </c>
     </row>
     <row r="367">
@@ -7402,16 +7402,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>604.6947303101833</v>
+        <v>603.4395141025072</v>
       </c>
       <c r="C367" t="n">
-        <v>611.6</v>
+        <v>608.9400000000001</v>
       </c>
       <c r="D367" t="n">
-        <v>6.429750595287119</v>
+        <v>5.024165598144008</v>
       </c>
       <c r="E367" t="n">
-        <v>0.4755190945295258</v>
+        <v>0.4763202993488029</v>
       </c>
     </row>
     <row r="368">
@@ -7421,16 +7421,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>595.4032848157719</v>
+        <v>590.2040889248691</v>
       </c>
       <c r="C368" t="n">
-        <v>606.65</v>
+        <v>605.72</v>
       </c>
       <c r="D368" t="n">
-        <v>10.76988819960144</v>
+        <v>15.03862089626413</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4768269846264991</v>
+        <v>0.4772901788668752</v>
       </c>
     </row>
     <row r="369">
@@ -7440,16 +7440,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>584.5660430278126</v>
+        <v>583.5193839545533</v>
       </c>
       <c r="C369" t="n">
-        <v>602.6</v>
+        <v>598.8</v>
       </c>
       <c r="D369" t="n">
-        <v>17.5175184898001</v>
+        <v>14.763032984746</v>
       </c>
       <c r="E369" t="n">
-        <v>0.5164384823873639</v>
+        <v>0.5175830607006169</v>
       </c>
     </row>
     <row r="370">
@@ -7459,16 +7459,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>577.8306297245134</v>
+        <v>582.1197978621275</v>
       </c>
       <c r="C370" t="n">
-        <v>592.5699999999999</v>
+        <v>586.3999999999999</v>
       </c>
       <c r="D370" t="n">
-        <v>14.21991070876181</v>
+        <v>3.797092681897061</v>
       </c>
       <c r="E370" t="n">
-        <v>0.5194595667247133</v>
+        <v>0.4831094559753089</v>
       </c>
     </row>
     <row r="371">
@@ -7478,16 +7478,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>577.1350622834508</v>
+        <v>580.8813219995844</v>
       </c>
       <c r="C371" t="n">
-        <v>582.35</v>
+        <v>597.6700000000001</v>
       </c>
       <c r="D371" t="n">
-        <v>4.730608381055898</v>
+        <v>16.30911317417879</v>
       </c>
       <c r="E371" t="n">
-        <v>0.4843293354933812</v>
+        <v>0.4795648262368429</v>
       </c>
     </row>
     <row r="372">
@@ -7497,16 +7497,16 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>566.8157869658967</v>
+        <v>563.4508212409687</v>
       </c>
       <c r="C372" t="n">
-        <v>573.96</v>
+        <v>574.67</v>
       </c>
       <c r="D372" t="n">
-        <v>6.657537386532404</v>
+        <v>10.73253617052583</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4866756475709598</v>
+        <v>0.4866425885054294</v>
       </c>
     </row>
     <row r="373">
@@ -7516,16 +7516,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>565.238944473932</v>
+        <v>560.241615733059</v>
       </c>
       <c r="C373" t="n">
-        <v>576.86</v>
+        <v>574.62</v>
       </c>
       <c r="D373" t="n">
-        <v>11.13479223524116</v>
+        <v>13.85351807371029</v>
       </c>
       <c r="E373" t="n">
-        <v>0.4862632908269105</v>
+        <v>0.5248661932307372</v>
       </c>
     </row>
     <row r="374">
@@ -7535,16 +7535,16 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>563.8338280736956</v>
+        <v>555.2997187401767</v>
       </c>
       <c r="C374" t="n">
-        <v>588.1600000000001</v>
+        <v>569.72</v>
       </c>
       <c r="D374" t="n">
-        <v>23.80556712008529</v>
+        <v>13.89383961845865</v>
       </c>
       <c r="E374" t="n">
-        <v>0.520604806219277</v>
+        <v>0.5264416413647368</v>
       </c>
     </row>
     <row r="375">
@@ -7554,16 +7554,16 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>543.742837806579</v>
+        <v>549.3706947007101</v>
       </c>
       <c r="C375" t="n">
-        <v>552.6500000000001</v>
+        <v>557.13</v>
       </c>
       <c r="D375" t="n">
-        <v>8.375678530310772</v>
+        <v>7.267379578254294</v>
       </c>
       <c r="E375" t="n">
-        <v>0.5314836631102555</v>
+        <v>0.4919257210355498</v>
       </c>
     </row>
     <row r="376">
@@ -7573,16 +7573,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>539.049858680931</v>
+        <v>546.8241969853495</v>
       </c>
       <c r="C376" t="n">
-        <v>563.0699999999999</v>
+        <v>566.0899999999999</v>
       </c>
       <c r="D376" t="n">
-        <v>23.49179621017552</v>
+        <v>18.73808720343546</v>
       </c>
       <c r="E376" t="n">
-        <v>0.5283451088933879</v>
+        <v>0.527715811214869</v>
       </c>
     </row>
     <row r="377">
@@ -7592,16 +7592,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>537.6169406603333</v>
+        <v>546.7481262319652</v>
       </c>
       <c r="C377" t="n">
-        <v>555.38</v>
+        <v>559.34</v>
       </c>
       <c r="D377" t="n">
-        <v>17.23239796571311</v>
+        <v>12.10079450600597</v>
       </c>
       <c r="E377" t="n">
-        <v>0.530661373953629</v>
+        <v>0.4910792620287913</v>
       </c>
     </row>
     <row r="378">
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>533.3548139718703</v>
+        <v>530.3405681622529</v>
       </c>
       <c r="C378" t="n">
-        <v>538.76</v>
+        <v>554.75</v>
       </c>
       <c r="D378" t="n">
-        <v>4.907907970920121</v>
+        <v>23.87830036388166</v>
       </c>
       <c r="E378" t="n">
-        <v>0.497278057209514</v>
+        <v>0.5311314738654713</v>
       </c>
     </row>
     <row r="379">
@@ -7630,16 +7630,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>513.7919155695594</v>
+        <v>523.5730042461787</v>
       </c>
       <c r="C379" t="n">
-        <v>529.79</v>
+        <v>529.6800000000001</v>
       </c>
       <c r="D379" t="n">
-        <v>15.49764342877028</v>
+        <v>5.606982756852906</v>
       </c>
       <c r="E379" t="n">
-        <v>0.500441001670284</v>
+        <v>0.5000129969685502</v>
       </c>
     </row>
     <row r="380">
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>504.9878001555981</v>
+        <v>520.681884496968</v>
       </c>
       <c r="C380" t="n">
-        <v>514.64</v>
+        <v>530.55</v>
       </c>
       <c r="D380" t="n">
-        <v>9.147475930595276</v>
+        <v>9.368364554256189</v>
       </c>
       <c r="E380" t="n">
-        <v>0.5047239138066343</v>
+        <v>0.4997509487757791</v>
       </c>
     </row>
     <row r="381">
@@ -7668,16 +7668,16 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>502.578543626893</v>
+        <v>513.7711142338334</v>
       </c>
       <c r="C381" t="n">
-        <v>521.04</v>
+        <v>537.87</v>
       </c>
       <c r="D381" t="n">
-        <v>17.92045162565931</v>
+        <v>23.56266995495175</v>
       </c>
       <c r="E381" t="n">
-        <v>0.5410047474476049</v>
+        <v>0.5362158112148689</v>
       </c>
     </row>
     <row r="382">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>498.786067679523</v>
+        <v>506.8164262491015</v>
       </c>
       <c r="C382" t="n">
-        <v>510.69</v>
+        <v>516.66</v>
       </c>
       <c r="D382" t="n">
-        <v>11.3980186476342</v>
+        <v>9.339458270826812</v>
       </c>
       <c r="E382" t="n">
-        <v>0.5059136728427788</v>
+        <v>0.5041154800716945</v>
       </c>
     </row>
     <row r="383">
@@ -7706,16 +7706,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>496.6652775146578</v>
+        <v>503.3573279802235</v>
       </c>
       <c r="C383" t="n">
-        <v>507.91</v>
+        <v>512.64</v>
       </c>
       <c r="D383" t="n">
-        <v>10.73815225945792</v>
+        <v>8.739317948203029</v>
       </c>
       <c r="E383" t="n">
-        <v>0.5065702258842129</v>
+        <v>0.5433540715733762</v>
       </c>
     </row>
     <row r="384">
@@ -7725,16 +7725,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>490.2832006769898</v>
+        <v>492.5029396319478</v>
       </c>
       <c r="C384" t="n">
-        <v>494.9499999999999</v>
+        <v>501.37</v>
       </c>
       <c r="D384" t="n">
-        <v>4.156144686311936</v>
+        <v>8.358339466293772</v>
       </c>
       <c r="E384" t="n">
-        <v>0.5106546366982005</v>
+        <v>0.5087209017584415</v>
       </c>
     </row>
     <row r="385">
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>473.4752162033121</v>
+        <v>476.8198971889211</v>
       </c>
       <c r="C385" t="n">
-        <v>484.65</v>
+        <v>481.54</v>
       </c>
       <c r="D385" t="n">
-        <v>10.66102675035116</v>
+        <v>4.205409017754175</v>
       </c>
       <c r="E385" t="n">
-        <v>0.5137570463367547</v>
+        <v>0.5146937933247065</v>
       </c>
     </row>
     <row r="386">
@@ -7763,16 +7763,16 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>472.5532056438726</v>
+        <v>466.369410876586</v>
       </c>
       <c r="C386" t="n">
-        <v>477.3299999999999</v>
+        <v>479.47</v>
       </c>
       <c r="D386" t="n">
-        <v>4.261013286869703</v>
+        <v>12.58527183611339</v>
       </c>
       <c r="E386" t="n">
-        <v>0.5157810692577069</v>
+        <v>0.5153172873006101</v>
       </c>
     </row>
     <row r="387">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>465.3804596838903</v>
+        <v>456.773702658428</v>
       </c>
       <c r="C387" t="n">
-        <v>484.49</v>
+        <v>460.98</v>
       </c>
       <c r="D387" t="n">
-        <v>18.55724619164182</v>
+        <v>3.685410777162951</v>
       </c>
       <c r="E387" t="n">
-        <v>0.552294124467881</v>
+        <v>0.5208865644090439</v>
       </c>
     </row>
     <row r="388">
@@ -7801,16 +7801,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>441.4767172560266</v>
+        <v>445.0904379610316</v>
       </c>
       <c r="C388" t="n">
-        <v>445.86</v>
+        <v>448.84</v>
       </c>
       <c r="D388" t="n">
-        <v>3.857841962696841</v>
+        <v>3.225199644409507</v>
       </c>
       <c r="E388" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5243623945589116</v>
       </c>
     </row>
     <row r="389">
@@ -7820,16 +7820,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>423.4411518262795</v>
+        <v>428.3128944429651</v>
       </c>
       <c r="C389" t="n">
-        <v>449.01</v>
+        <v>436.15</v>
       </c>
       <c r="D389" t="n">
-        <v>25.00614764314041</v>
+        <v>7.308459736087441</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5627005305801349</v>
+        <v>0.5286458209473924</v>
       </c>
     </row>
     <row r="390">
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>412.7520109483367</v>
+        <v>413.2190264889622</v>
       </c>
       <c r="C390" t="n">
         <v>416.86</v>
       </c>
       <c r="D390" t="n">
-        <v>3.573813330627773</v>
+        <v>3.106797790002267</v>
       </c>
       <c r="E390" t="n">
         <v>0.53417572103555</v>
@@ -7858,16 +7858,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>383.8108993715164</v>
+        <v>400.2364126809198</v>
       </c>
       <c r="C391" t="n">
-        <v>386.2</v>
+        <v>431.76</v>
       </c>
       <c r="D391" t="n">
-        <v>1.845873041447471</v>
+        <v>30.95541066449182</v>
       </c>
       <c r="E391" t="n">
-        <v>0.5432275870361376</v>
+        <v>0.568176654588363</v>
       </c>
     </row>
     <row r="392">
@@ -7877,16 +7877,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>383.5048555676498</v>
+        <v>389.6690184706665</v>
       </c>
       <c r="C392" t="n">
-        <v>388.17</v>
+        <v>395.61</v>
       </c>
       <c r="D392" t="n">
-        <v>4.122327145049604</v>
+        <v>5.400586002244453</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5403955270890322</v>
       </c>
     </row>
     <row r="393">
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>382.8218502485891</v>
+        <v>386.4888127433324</v>
       </c>
       <c r="C393" t="n">
-        <v>390.6</v>
+        <v>390.95</v>
       </c>
       <c r="D393" t="n">
-        <v>7.236064391821189</v>
+        <v>3.919207318764544</v>
       </c>
       <c r="E393" t="n">
-        <v>0.5420853595897668</v>
+        <v>0.5419799379030198</v>
       </c>
     </row>
     <row r="394">
@@ -7915,16 +7915,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>360.6255481245139</v>
+        <v>373.38279281122</v>
       </c>
       <c r="C394" t="n">
-        <v>365.5</v>
+        <v>375.8</v>
       </c>
       <c r="D394" t="n">
-        <v>4.32480627493249</v>
+        <v>1.870663997864955</v>
       </c>
       <c r="E394" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.546543190915068</v>
       </c>
     </row>
     <row r="395">
@@ -7934,16 +7934,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>350.7478663574591</v>
+        <v>357.8432109087294</v>
       </c>
       <c r="C395" t="n">
-        <v>357.01</v>
+        <v>365.4</v>
       </c>
       <c r="D395" t="n">
-        <v>5.70993081307159</v>
+        <v>7.007113370235079</v>
       </c>
       <c r="E395" t="n">
-        <v>0.5522028294692849</v>
+        <v>0.5496757210355498</v>
       </c>
     </row>
     <row r="396">
@@ -7953,16 +7953,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>335.8726027395005</v>
+        <v>344.8542140766753</v>
       </c>
       <c r="C396" t="n">
-        <v>343.37</v>
+        <v>353.51</v>
       </c>
       <c r="D396" t="n">
-        <v>6.940805656419609</v>
+        <v>8.102528876987936</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5565916040799225</v>
+        <v>0.5532570463367548</v>
       </c>
     </row>
     <row r="397">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>306.3701667131874</v>
+        <v>315.4648205796485</v>
       </c>
       <c r="C397" t="n">
-        <v>319.27</v>
+        <v>323.29</v>
       </c>
       <c r="D397" t="n">
-        <v>12.33598264658814</v>
+        <v>7.262819964376172</v>
       </c>
       <c r="E397" t="n">
-        <v>0.5638506402245008</v>
+        <v>0.5623594559753089</v>
       </c>
     </row>
   </sheetData>

--- a/results/current_run/values.xlsx
+++ b/results/current_run/values.xlsx
@@ -6319,16 +6319,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>659.7691330257861</v>
+        <v>687.0977694501842</v>
       </c>
       <c r="C310" t="n">
-        <v>667.95</v>
+        <v>695.24</v>
       </c>
       <c r="D310" t="n">
-        <v>7.722503845009079</v>
+        <v>7.692087300129097</v>
       </c>
       <c r="E310" t="n">
-        <v>0.4583631292048123</v>
+        <v>0.45014324968674</v>
       </c>
     </row>
     <row r="311">
@@ -6338,16 +6338,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>568.171965841905</v>
+        <v>639.2028703057206</v>
       </c>
       <c r="C311" t="n">
-        <v>578.14</v>
+        <v>649.13</v>
       </c>
       <c r="D311" t="n">
-        <v>9.482339483195156</v>
+        <v>9.462634475741691</v>
       </c>
       <c r="E311" t="n">
-        <v>0.4856946748997873</v>
+        <v>0.4644952185377538</v>
       </c>
     </row>
     <row r="312">
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>564.7549222564568</v>
+        <v>624.7975106925441</v>
       </c>
       <c r="C312" t="n">
-        <v>580.5699999999999</v>
+        <v>632.88</v>
       </c>
       <c r="D312" t="n">
-        <v>15.33011499635431</v>
+        <v>7.613282584363324</v>
       </c>
       <c r="E312" t="n">
-        <v>0.4849627471889439</v>
+        <v>0.4692067230925584</v>
       </c>
     </row>
     <row r="313">
@@ -6376,16 +6376,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>541.0076923131569</v>
+        <v>621.5757974402883</v>
       </c>
       <c r="C313" t="n">
-        <v>555.29</v>
+        <v>629.8299999999999</v>
       </c>
       <c r="D313" t="n">
-        <v>13.78954740806437</v>
+        <v>7.784077161920271</v>
       </c>
       <c r="E313" t="n">
-        <v>0.4927602787787177</v>
+        <v>0.4701253977913536</v>
       </c>
     </row>
     <row r="314">
@@ -6395,16 +6395,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>533.9391012439723</v>
+        <v>606.7059500194827</v>
       </c>
       <c r="C314" t="n">
-        <v>546.7900000000001</v>
+        <v>612.3200000000001</v>
       </c>
       <c r="D314" t="n">
-        <v>12.35557823628521</v>
+        <v>5.138747753457724</v>
       </c>
       <c r="E314" t="n">
-        <v>0.4953205197425731</v>
+        <v>0.4753022270596463</v>
       </c>
     </row>
     <row r="315">
@@ -6414,16 +6414,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>533.17673879874</v>
+        <v>582.792418544394</v>
       </c>
       <c r="C315" t="n">
-        <v>545.5699999999999</v>
+        <v>590.9300000000001</v>
       </c>
       <c r="D315" t="n">
-        <v>11.89775400799414</v>
+        <v>7.656017253818266</v>
       </c>
       <c r="E315" t="n">
-        <v>0.4955071932659348</v>
+        <v>0.4815642017878273</v>
       </c>
     </row>
     <row r="316">
@@ -6433,16 +6433,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>531.3767230761358</v>
+        <v>578.6542493986558</v>
       </c>
       <c r="C316" t="n">
-        <v>537.0400000000001</v>
+        <v>590.0599999999999</v>
       </c>
       <c r="D316" t="n">
-        <v>5.165480794365639</v>
+        <v>10.9234632141317</v>
       </c>
       <c r="E316" t="n">
-        <v>0.4977961294986707</v>
+        <v>0.4822873872124527</v>
       </c>
     </row>
     <row r="317">
@@ -6452,16 +6452,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>518.2638289814732</v>
+        <v>570.5504126598556</v>
       </c>
       <c r="C317" t="n">
-        <v>524.41</v>
+        <v>585.37</v>
       </c>
       <c r="D317" t="n">
-        <v>5.644389875804496</v>
+        <v>14.33606809868569</v>
       </c>
       <c r="E317" t="n">
-        <v>0.5017811427222968</v>
+        <v>0.4835192414587059</v>
       </c>
     </row>
     <row r="318">
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>518.0903715861878</v>
+        <v>568.6354466940367</v>
       </c>
       <c r="C318" t="n">
-        <v>534.36</v>
+        <v>575.4200000000001</v>
       </c>
       <c r="D318" t="n">
-        <v>15.73235537368164</v>
+        <v>6.298422545257079</v>
       </c>
       <c r="E318" t="n">
-        <v>0.5372730401305317</v>
+        <v>0.4861307607064285</v>
       </c>
     </row>
     <row r="319">
@@ -6490,16 +6490,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>515.191379294916</v>
+        <v>542.1516516602954</v>
       </c>
       <c r="C319" t="n">
-        <v>528.55</v>
+        <v>559.48</v>
       </c>
       <c r="D319" t="n">
-        <v>12.85808655031353</v>
+        <v>16.79882236099051</v>
       </c>
       <c r="E319" t="n">
-        <v>0.5005341547704897</v>
+        <v>0.5295259787141344</v>
       </c>
     </row>
     <row r="320">
@@ -6509,16 +6509,16 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>513.5648376854983</v>
+        <v>538.1532059912894</v>
       </c>
       <c r="C320" t="n">
-        <v>532.02</v>
+        <v>554.4100000000001</v>
       </c>
       <c r="D320" t="n">
-        <v>17.95557607333683</v>
+        <v>15.763768669691</v>
       </c>
       <c r="E320" t="n">
-        <v>0.4995862411648476</v>
+        <v>0.4930253390196816</v>
       </c>
     </row>
     <row r="321">
@@ -6528,16 +6528,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>501.9793429825743</v>
+        <v>532.9535628627069</v>
       </c>
       <c r="C321" t="n">
-        <v>519.3900000000001</v>
+        <v>544.13</v>
       </c>
       <c r="D321" t="n">
-        <v>16.9074473557496</v>
+        <v>10.68031541273124</v>
       </c>
       <c r="E321" t="n">
-        <v>0.5032096616761612</v>
+        <v>0.4961217245618502</v>
       </c>
     </row>
     <row r="322">
@@ -6547,16 +6547,16 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>489.4247282519104</v>
+        <v>514.0399644046379</v>
       </c>
       <c r="C322" t="n">
-        <v>509.23</v>
+        <v>525.0599999999999</v>
       </c>
       <c r="D322" t="n">
-        <v>19.29863797533488</v>
+        <v>10.51835296865504</v>
       </c>
       <c r="E322" t="n">
-        <v>0.5066337727546213</v>
+        <v>0.5016826267070162</v>
       </c>
     </row>
     <row r="323">
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>487.4830155158953</v>
+        <v>509.9485564054464</v>
       </c>
       <c r="C323" t="n">
-        <v>502.06</v>
+        <v>527.04</v>
       </c>
       <c r="D323" t="n">
-        <v>14.06819107279585</v>
+        <v>16.55214880890436</v>
       </c>
       <c r="E323" t="n">
-        <v>0.5087934113088382</v>
+        <v>0.5392947856491916</v>
       </c>
     </row>
     <row r="324">
@@ -6585,16 +6585,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>486.6933085583046</v>
+        <v>492.1571130231339</v>
       </c>
       <c r="C324" t="n">
-        <v>503.2</v>
+        <v>516.8800000000001</v>
       </c>
       <c r="D324" t="n">
-        <v>15.99842447763897</v>
+        <v>24.18034887649472</v>
       </c>
       <c r="E324" t="n">
-        <v>0.5082669640564139</v>
+        <v>0.5425381003714955</v>
       </c>
     </row>
     <row r="325">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>479.9694262142314</v>
+        <v>486.9254067529641</v>
       </c>
       <c r="C325" t="n">
-        <v>490.84</v>
+        <v>506.08</v>
       </c>
       <c r="D325" t="n">
-        <v>10.35858393014587</v>
+        <v>18.60880213461619</v>
       </c>
       <c r="E325" t="n">
-        <v>0.5119898556226788</v>
+        <v>0.5457911124196884</v>
       </c>
     </row>
     <row r="326">
@@ -6623,16 +6623,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>476.8920257125076</v>
+        <v>485.8107809218753</v>
       </c>
       <c r="C326" t="n">
-        <v>490.39</v>
+        <v>498.8000000000001</v>
       </c>
       <c r="D326" t="n">
-        <v>12.98612695317442</v>
+        <v>12.47944373910509</v>
       </c>
       <c r="E326" t="n">
-        <v>0.5118473343179477</v>
+        <v>0.5097753390196814</v>
       </c>
     </row>
     <row r="327">
@@ -6642,16 +6642,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>476.7690841087619</v>
+        <v>474.4615564208515</v>
       </c>
       <c r="C327" t="n">
-        <v>499.86</v>
+        <v>491.46</v>
       </c>
       <c r="D327" t="n">
-        <v>22.54354628190392</v>
+        <v>16.48645739675535</v>
       </c>
       <c r="E327" t="n">
-        <v>0.5473696093341756</v>
+        <v>0.5119861823931755</v>
       </c>
     </row>
     <row r="328">
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>455.8264712794411</v>
+        <v>472.0393236019287</v>
       </c>
       <c r="C328" t="n">
-        <v>470.21</v>
+        <v>490.33</v>
       </c>
       <c r="D328" t="n">
-        <v>13.86514193575608</v>
+        <v>17.77834985423234</v>
       </c>
       <c r="E328" t="n">
-        <v>0.5183867848028141</v>
+        <v>0.5123265438389586</v>
       </c>
     </row>
     <row r="329">
@@ -6680,16 +6680,16 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>447.939864494313</v>
+        <v>468.7854057628346</v>
       </c>
       <c r="C329" t="n">
-        <v>464.23</v>
+        <v>490.61</v>
       </c>
       <c r="D329" t="n">
-        <v>15.76994751606493</v>
+        <v>21.31253510443431</v>
       </c>
       <c r="E329" t="n">
-        <v>0.5201879896220911</v>
+        <v>0.5120591327311127</v>
       </c>
     </row>
     <row r="330">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>446.1009520907336</v>
+        <v>467.7483642585978</v>
       </c>
       <c r="C330" t="n">
-        <v>458.93</v>
+        <v>489.96</v>
       </c>
       <c r="D330" t="n">
-        <v>12.30726353410209</v>
+        <v>21.66098920729582</v>
       </c>
       <c r="E330" t="n">
-        <v>0.5217843751642599</v>
+        <v>0.5506465341064353</v>
       </c>
     </row>
     <row r="331">
@@ -6718,16 +6718,16 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>445.9757608881743</v>
+        <v>467.3321530860428</v>
       </c>
       <c r="C331" t="n">
-        <v>461.52</v>
+        <v>486.51</v>
       </c>
       <c r="D331" t="n">
-        <v>15.02350616187446</v>
+        <v>18.66455056406476</v>
       </c>
       <c r="E331" t="n">
-        <v>0.5207329499512126</v>
+        <v>0.5132963498924409</v>
       </c>
     </row>
     <row r="332">
@@ -6737,16 +6737,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>441.438631759303</v>
+        <v>463.5559115911472</v>
       </c>
       <c r="C332" t="n">
-        <v>469.01</v>
+        <v>476.61</v>
       </c>
       <c r="D332" t="n">
-        <v>27.01441146562674</v>
+        <v>12.53792734400296</v>
       </c>
       <c r="E332" t="n">
-        <v>0.5569567750702906</v>
+        <v>0.5161610648498314</v>
       </c>
     </row>
     <row r="333">
@@ -6756,16 +6756,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>439.1943771736477</v>
+        <v>448.8621717500974</v>
       </c>
       <c r="C333" t="n">
-        <v>448.3</v>
+        <v>466.17</v>
       </c>
       <c r="D333" t="n">
-        <v>8.580808404170758</v>
+        <v>16.75001605314549</v>
       </c>
       <c r="E333" t="n">
-        <v>0.5248144221815976</v>
+        <v>0.5578121967570377</v>
       </c>
     </row>
     <row r="334">
@@ -6775,16 +6775,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>437.8606121727942</v>
+        <v>447.5263824538883</v>
       </c>
       <c r="C334" t="n">
-        <v>463.9200000000001</v>
+        <v>452.17</v>
       </c>
       <c r="D334" t="n">
-        <v>25.50108099336394</v>
+        <v>4.119797026369025</v>
       </c>
       <c r="E334" t="n">
-        <v>0.5583068338419628</v>
+        <v>0.5238205197425732</v>
       </c>
     </row>
     <row r="335">
@@ -6794,16 +6794,16 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>437.2761529609782</v>
+        <v>444.7914588701034</v>
       </c>
       <c r="C335" t="n">
-        <v>452.18</v>
+        <v>466.86</v>
       </c>
       <c r="D335" t="n">
-        <v>14.3802126050859</v>
+        <v>21.54914530894917</v>
       </c>
       <c r="E335" t="n">
-        <v>0.5236344339359319</v>
+        <v>0.5193958209473925</v>
       </c>
     </row>
     <row r="336">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>430.8653729560323</v>
+        <v>436.6488234932271</v>
       </c>
       <c r="C336" t="n">
-        <v>457.58</v>
+        <v>446.86</v>
       </c>
       <c r="D336" t="n">
-        <v>26.15422749781313</v>
+        <v>9.685939663198418</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5603995461546279</v>
+        <v>0.5252368435744861</v>
       </c>
     </row>
     <row r="337">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>430.7656405697825</v>
+        <v>435.1115561915138</v>
       </c>
       <c r="C337" t="n">
-        <v>445.09</v>
+        <v>444.21</v>
       </c>
       <c r="D337" t="n">
-        <v>13.79868672123012</v>
+        <v>8.572225698382162</v>
       </c>
       <c r="E337" t="n">
-        <v>0.5256727089873572</v>
+        <v>0.526218110104019</v>
       </c>
     </row>
     <row r="338">
@@ -6851,16 +6851,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>424.2629815450508</v>
+        <v>416.9387312146736</v>
       </c>
       <c r="C338" t="n">
-        <v>435.09</v>
+        <v>421.37</v>
       </c>
       <c r="D338" t="n">
-        <v>10.29823643065181</v>
+        <v>3.898632294381914</v>
       </c>
       <c r="E338" t="n">
-        <v>0.5287820242973778</v>
+        <v>0.5326364909444539</v>
       </c>
     </row>
     <row r="339">
@@ -6870,16 +6870,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>419.0700014998366</v>
+        <v>410.1955285131258</v>
       </c>
       <c r="C339" t="n">
-        <v>433.6</v>
+        <v>420.98</v>
       </c>
       <c r="D339" t="n">
-        <v>14.00058460692687</v>
+        <v>10.25171752605019</v>
       </c>
       <c r="E339" t="n">
-        <v>0.529413893236549</v>
+        <v>0.532753960823972</v>
       </c>
     </row>
     <row r="340">
@@ -6889,16 +6889,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>412.6232607012064</v>
+        <v>406.2897588172229</v>
       </c>
       <c r="C340" t="n">
-        <v>416.86</v>
+        <v>413.34</v>
       </c>
       <c r="D340" t="n">
-        <v>3.702283236882334</v>
+        <v>6.514724879902035</v>
       </c>
       <c r="E340" t="n">
-        <v>0.5344560619112478</v>
+        <v>0.5355163028751033</v>
       </c>
     </row>
     <row r="341">
@@ -6908,16 +6908,16 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>410.3442909695107</v>
+        <v>406.1260411352837</v>
       </c>
       <c r="C341" t="n">
-        <v>416.86</v>
+        <v>432.21</v>
       </c>
       <c r="D341" t="n">
-        <v>5.981252968578058</v>
+        <v>25.51591775229659</v>
       </c>
       <c r="E341" t="n">
-        <v>0.5344560619112478</v>
+        <v>0.5680411124196882</v>
       </c>
     </row>
     <row r="342">
@@ -6927,16 +6927,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>392.4931167243221</v>
+        <v>386.1445956430459</v>
       </c>
       <c r="C342" t="n">
-        <v>406.9</v>
+        <v>393.1299999999999</v>
       </c>
       <c r="D342" t="n">
-        <v>13.86942721376666</v>
+        <v>6.444081045557034</v>
       </c>
       <c r="E342" t="n">
-        <v>0.5374560619112478</v>
+        <v>0.5413233113969957</v>
       </c>
     </row>
     <row r="343">
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>378.7913525858347</v>
+        <v>375.3045325125074</v>
       </c>
       <c r="C343" t="n">
         <v>384.66</v>
       </c>
       <c r="D343" t="n">
-        <v>5.324492557073255</v>
+        <v>8.811427859610104</v>
       </c>
       <c r="E343" t="n">
-        <v>0.5441548570919708</v>
+        <v>0.5440396278824498</v>
       </c>
     </row>
     <row r="344">
@@ -6965,16 +6965,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>370.546229777819</v>
+        <v>369.7388113685045</v>
       </c>
       <c r="C344" t="n">
-        <v>383.38</v>
+        <v>378.42</v>
       </c>
       <c r="D344" t="n">
-        <v>12.25102127843606</v>
+        <v>8.135154256331257</v>
       </c>
       <c r="E344" t="n">
-        <v>0.5827489437449895</v>
+        <v>0.5460343751642599</v>
       </c>
     </row>
     <row r="345">
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>368.5531576920682</v>
+        <v>363.6271039393766</v>
       </c>
       <c r="C345" t="n">
-        <v>382.42</v>
+        <v>373.93</v>
       </c>
       <c r="D345" t="n">
-        <v>13.32219582580307</v>
+        <v>9.755690072176714</v>
       </c>
       <c r="E345" t="n">
-        <v>0.544646482128703</v>
+        <v>0.5472059884466578</v>
       </c>
     </row>
     <row r="346">
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>358.7072048362691</v>
+        <v>344.9516230636558</v>
       </c>
       <c r="C346" t="n">
-        <v>370.64</v>
+        <v>348.01</v>
       </c>
       <c r="D346" t="n">
-        <v>11.38469775594839</v>
+        <v>2.503365996384139</v>
       </c>
       <c r="E346" t="n">
-        <v>0.5480974077825378</v>
+        <v>0.5550109399600284</v>
       </c>
     </row>
     <row r="347">
@@ -7022,16 +7022,16 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>354.9344595702853</v>
+        <v>321.3839577211536</v>
       </c>
       <c r="C347" t="n">
-        <v>358.33</v>
+        <v>326.16</v>
       </c>
       <c r="D347" t="n">
-        <v>2.843454849731176</v>
+        <v>4.214447736182893</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5520855799835369</v>
+        <v>0.5615945426635252</v>
       </c>
     </row>
     <row r="348">
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>313.449468124871</v>
+        <v>308.2430766034227</v>
       </c>
       <c r="C348" t="n">
-        <v>319.53</v>
+        <v>330</v>
       </c>
       <c r="D348" t="n">
-        <v>5.51675954815757</v>
+        <v>21.19650212014946</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5637723269714888</v>
+        <v>0.5604212764278508</v>
       </c>
     </row>
     <row r="349">
@@ -7060,16 +7060,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>305.6300494222968</v>
+        <v>277.7882104698809</v>
       </c>
       <c r="C349" t="n">
-        <v>322.22</v>
+        <v>285.11</v>
       </c>
       <c r="D349" t="n">
-        <v>16.02698849169559</v>
+        <v>6.74764973326813</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5629620860076334</v>
+        <v>0.5741397968510069</v>
       </c>
     </row>
     <row r="350">
@@ -7079,16 +7079,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>266.6926415010731</v>
+        <v>264.9157281832173</v>
       </c>
       <c r="C350" t="n">
-        <v>272.69</v>
+        <v>277.99</v>
       </c>
       <c r="D350" t="n">
-        <v>5.419477738220518</v>
+        <v>12.49826778249414</v>
       </c>
       <c r="E350" t="n">
-        <v>0.5778807607064286</v>
+        <v>0.5760040342885618</v>
       </c>
     </row>
     <row r="351">
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>230.7313877987083</v>
+        <v>250.882291099466</v>
       </c>
       <c r="C352" t="n">
-        <v>239.68</v>
+        <v>266.94</v>
       </c>
       <c r="D352" t="n">
-        <v>8.360788669500892</v>
+        <v>15.47809621211676</v>
       </c>
       <c r="E352" t="n">
-        <v>0.587823531790766</v>
+        <v>0.5796126884172719</v>
       </c>
     </row>
     <row r="353">
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>192.8874216415352</v>
+        <v>242.8529596850586</v>
       </c>
       <c r="C353" t="n">
-        <v>204.31</v>
+        <v>254.15</v>
       </c>
       <c r="D353" t="n">
-        <v>10.82410121221621</v>
+        <v>10.71375829064409</v>
       </c>
       <c r="E353" t="n">
-        <v>0.5984771462485972</v>
+        <v>0.5832820242973776</v>
       </c>
     </row>
     <row r="354">
@@ -7155,16 +7155,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>723.8910719991961</v>
+        <v>756.4852208523547</v>
       </c>
       <c r="C354" t="n">
-        <v>731.78</v>
+        <v>762.98</v>
       </c>
       <c r="D354" t="n">
-        <v>7.449788497811096</v>
+        <v>6.064856438657986</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4391395029926466</v>
+        <v>0.4299227089873572</v>
       </c>
     </row>
     <row r="355">
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>691.6612034949559</v>
+        <v>755.2214964083039</v>
       </c>
       <c r="C355" t="n">
-        <v>708.12</v>
+        <v>762.78</v>
       </c>
       <c r="D355" t="n">
-        <v>15.97414115518684</v>
+        <v>7.128520641744938</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4846553498572434</v>
+        <v>0.4299829499512125</v>
       </c>
     </row>
     <row r="356">
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>657.3930593213209</v>
+        <v>736.1539434342196</v>
       </c>
       <c r="C356" t="n">
-        <v>671.66</v>
+        <v>746.16</v>
       </c>
       <c r="D356" t="n">
-        <v>13.77166727122545</v>
+        <v>9.571431461847435</v>
       </c>
       <c r="E356" t="n">
-        <v>0.495273407453482</v>
+        <v>0.4346251039329934</v>
       </c>
     </row>
     <row r="357">
@@ -7212,16 +7212,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>656.2755443335342</v>
+        <v>699.2269867174933</v>
       </c>
       <c r="C357" t="n">
-        <v>671.65</v>
+        <v>707.86</v>
       </c>
       <c r="D357" t="n">
-        <v>14.87881537684952</v>
+        <v>8.18648816388076</v>
       </c>
       <c r="E357" t="n">
-        <v>0.4956402896162795</v>
+        <v>0.4465251186259113</v>
       </c>
     </row>
     <row r="358">
@@ -7231,16 +7231,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>650.3936737913627</v>
+        <v>684.2873431731787</v>
       </c>
       <c r="C358" t="n">
-        <v>665.76</v>
+        <v>694.89</v>
       </c>
       <c r="D358" t="n">
-        <v>14.86909489639385</v>
+        <v>10.15240815544782</v>
       </c>
       <c r="E358" t="n">
-        <v>0.4972313122433732</v>
+        <v>0.4502486713734871</v>
       </c>
     </row>
     <row r="359">
@@ -7250,16 +7250,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>649.8777356043781</v>
+        <v>682.6032745435086</v>
       </c>
       <c r="C359" t="n">
-        <v>662.24</v>
+        <v>698.05</v>
       </c>
       <c r="D359" t="n">
-        <v>11.9023621832551</v>
+        <v>14.95922004786248</v>
       </c>
       <c r="E359" t="n">
-        <v>0.4599022123667283</v>
+        <v>0.4875054086289154</v>
       </c>
     </row>
     <row r="360">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>640.0536270944374</v>
+        <v>662.2250782640233</v>
       </c>
       <c r="C360" t="n">
-        <v>656.8299999999999</v>
+        <v>677.8599999999999</v>
       </c>
       <c r="D360" t="n">
-        <v>16.27626876052451</v>
+        <v>15.14133272464413</v>
       </c>
       <c r="E360" t="n">
-        <v>0.5001041450379663</v>
+        <v>0.4935890113324124</v>
       </c>
     </row>
     <row r="361">
@@ -7288,16 +7288,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>630.9752811968646</v>
+        <v>650.684335768564</v>
       </c>
       <c r="C361" t="n">
-        <v>638.6800000000001</v>
+        <v>667.4300000000001</v>
       </c>
       <c r="D361" t="n">
-        <v>7.237356335112033</v>
+        <v>16.2484725166067</v>
       </c>
       <c r="E361" t="n">
-        <v>0.4673624680235017</v>
+        <v>0.4971917148293269</v>
       </c>
     </row>
     <row r="362">
@@ -7307,16 +7307,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>628.4265356830439</v>
+        <v>650.4354106749602</v>
       </c>
       <c r="C362" t="n">
-        <v>640.03</v>
+        <v>661.0899999999999</v>
       </c>
       <c r="D362" t="n">
-        <v>11.13650847543859</v>
+        <v>10.19397685701617</v>
       </c>
       <c r="E362" t="n">
-        <v>0.4669558415174777</v>
+        <v>0.4606124680235018</v>
       </c>
     </row>
     <row r="363">
@@ -7326,16 +7326,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>622.7821212654987</v>
+        <v>650.3686121437706</v>
       </c>
       <c r="C363" t="n">
-        <v>633.52</v>
+        <v>666.5899999999999</v>
       </c>
       <c r="D363" t="n">
-        <v>10.2309083684818</v>
+        <v>15.72394312935168</v>
       </c>
       <c r="E363" t="n">
-        <v>0.5069703660194532</v>
+        <v>0.4974447268775196</v>
       </c>
     </row>
     <row r="364">
@@ -7345,16 +7345,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>620.5135049300364</v>
+        <v>644.5270208613639</v>
       </c>
       <c r="C364" t="n">
-        <v>630.8199999999999</v>
+        <v>656.2</v>
       </c>
       <c r="D364" t="n">
-        <v>9.79855658757613</v>
+        <v>11.21061343817063</v>
       </c>
       <c r="E364" t="n">
-        <v>0.5079384823873638</v>
+        <v>0.4623657004654647</v>
       </c>
     </row>
     <row r="365">
@@ -7364,16 +7364,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>612.4222694494674</v>
+        <v>641.2249783371202</v>
       </c>
       <c r="C365" t="n">
-        <v>626.29</v>
+        <v>647.24</v>
       </c>
       <c r="D365" t="n">
-        <v>13.39681922855659</v>
+        <v>5.550237508109242</v>
       </c>
       <c r="E365" t="n">
-        <v>0.4709113219758967</v>
+        <v>0.4647841547704896</v>
       </c>
     </row>
     <row r="366">
@@ -7383,16 +7383,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>611.6338218898319</v>
+        <v>636.3290063658281</v>
       </c>
       <c r="C366" t="n">
-        <v>617.8899999999999</v>
+        <v>652.27</v>
       </c>
       <c r="D366" t="n">
-        <v>5.782734390307791</v>
+        <v>15.43969679151413</v>
       </c>
       <c r="E366" t="n">
-        <v>0.4734437198601166</v>
+        <v>0.5012968426577136</v>
       </c>
     </row>
     <row r="367">
@@ -7402,16 +7402,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>603.4395141025072</v>
+        <v>635.4613571551788</v>
       </c>
       <c r="C367" t="n">
-        <v>608.9400000000001</v>
+        <v>648.4299999999999</v>
       </c>
       <c r="D367" t="n">
-        <v>5.024165598144008</v>
+        <v>12.50439792014175</v>
       </c>
       <c r="E367" t="n">
-        <v>0.4763202993488029</v>
+        <v>0.4642449246793937</v>
       </c>
     </row>
     <row r="368">
@@ -7421,16 +7421,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>590.2040889248691</v>
+        <v>626.3675080222406</v>
       </c>
       <c r="C368" t="n">
-        <v>605.72</v>
+        <v>632.8499999999999</v>
       </c>
       <c r="D368" t="n">
-        <v>15.03862089626413</v>
+        <v>6.01337348563944</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4772901788668752</v>
+        <v>0.4691184921198873</v>
       </c>
     </row>
     <row r="369">
@@ -7440,16 +7440,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>583.5193839545533</v>
+        <v>616.9162046572601</v>
       </c>
       <c r="C369" t="n">
-        <v>598.8</v>
+        <v>634.27</v>
       </c>
       <c r="D369" t="n">
-        <v>14.763032984746</v>
+        <v>16.84661567610332</v>
       </c>
       <c r="E369" t="n">
-        <v>0.5175830607006169</v>
+        <v>0.5071796666365558</v>
       </c>
     </row>
     <row r="370">
@@ -7459,16 +7459,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>582.1197978621275</v>
+        <v>615.7084129985518</v>
       </c>
       <c r="C370" t="n">
-        <v>586.3999999999999</v>
+        <v>630.38</v>
       </c>
       <c r="D370" t="n">
-        <v>3.797092681897061</v>
+        <v>14.2017245334247</v>
       </c>
       <c r="E370" t="n">
-        <v>0.4831094559753089</v>
+        <v>0.4698624680235017</v>
       </c>
     </row>
     <row r="371">
@@ -7478,16 +7478,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>580.8813219995844</v>
+        <v>615.1025285581059</v>
       </c>
       <c r="C371" t="n">
-        <v>597.6700000000001</v>
+        <v>620.4300000000001</v>
       </c>
       <c r="D371" t="n">
-        <v>16.30911317417879</v>
+        <v>4.854611985918904</v>
       </c>
       <c r="E371" t="n">
-        <v>0.4795648262368429</v>
+        <v>0.4728594559753089</v>
       </c>
     </row>
     <row r="372">
@@ -7497,16 +7497,16 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>563.4508212409687</v>
+        <v>602.74167102379</v>
       </c>
       <c r="C372" t="n">
-        <v>574.67</v>
+        <v>608.9100000000001</v>
       </c>
       <c r="D372" t="n">
-        <v>10.73253617052583</v>
+        <v>5.691999640716709</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4866425885054294</v>
+        <v>0.4763293354933812</v>
       </c>
     </row>
     <row r="373">
@@ -7516,16 +7516,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>560.241615733059</v>
+        <v>602.1871512337858</v>
       </c>
       <c r="C373" t="n">
-        <v>574.62</v>
+        <v>622.3199999999999</v>
       </c>
       <c r="D373" t="n">
-        <v>13.85351807371029</v>
+        <v>19.62253083921905</v>
       </c>
       <c r="E373" t="n">
-        <v>0.5248661932307372</v>
+        <v>0.510317926995063</v>
       </c>
     </row>
     <row r="374">
@@ -7535,16 +7535,16 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>555.2997187401767</v>
+        <v>587.9728422055481</v>
       </c>
       <c r="C374" t="n">
-        <v>569.72</v>
+        <v>599.1800000000001</v>
       </c>
       <c r="D374" t="n">
-        <v>13.89383961845865</v>
+        <v>10.72789773606704</v>
       </c>
       <c r="E374" t="n">
-        <v>0.5264416413647368</v>
+        <v>0.4792600583849476</v>
       </c>
     </row>
     <row r="375">
@@ -7554,16 +7554,16 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>549.3706947007101</v>
+        <v>579.8609093088702</v>
       </c>
       <c r="C375" t="n">
-        <v>557.13</v>
+        <v>601.12</v>
       </c>
       <c r="D375" t="n">
-        <v>7.267379578254294</v>
+        <v>20.74192608473427</v>
       </c>
       <c r="E375" t="n">
-        <v>0.4919257210355498</v>
+        <v>0.5171646063955919</v>
       </c>
     </row>
     <row r="376">
@@ -7573,16 +7573,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>546.8241969853495</v>
+        <v>578.410424649429</v>
       </c>
       <c r="C376" t="n">
-        <v>566.0899999999999</v>
+        <v>584.11</v>
       </c>
       <c r="D376" t="n">
-        <v>18.73808720343546</v>
+        <v>5.215956931915656</v>
       </c>
       <c r="E376" t="n">
-        <v>0.527715811214869</v>
+        <v>0.4836184186552971</v>
       </c>
     </row>
     <row r="377">
@@ -7592,16 +7592,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>546.7481262319652</v>
+        <v>565.5641340747733</v>
       </c>
       <c r="C377" t="n">
-        <v>559.34</v>
+        <v>580.08</v>
       </c>
       <c r="D377" t="n">
-        <v>12.10079450600597</v>
+        <v>13.99264431030926</v>
       </c>
       <c r="E377" t="n">
-        <v>0.4910792620287913</v>
+        <v>0.5232216149174843</v>
       </c>
     </row>
     <row r="378">
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>530.3405681622529</v>
+        <v>561.1369334009919</v>
       </c>
       <c r="C378" t="n">
-        <v>554.75</v>
+        <v>577.75</v>
       </c>
       <c r="D378" t="n">
-        <v>23.87830036388166</v>
+        <v>16.08904363234216</v>
       </c>
       <c r="E378" t="n">
-        <v>0.5311314738654713</v>
+        <v>0.5240229666659415</v>
       </c>
     </row>
     <row r="379">
@@ -7630,16 +7630,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>523.5730042461787</v>
+        <v>559.9865016333449</v>
       </c>
       <c r="C379" t="n">
-        <v>529.6800000000001</v>
+        <v>580.1600000000001</v>
       </c>
       <c r="D379" t="n">
-        <v>5.606982756852906</v>
+        <v>19.65002050724754</v>
       </c>
       <c r="E379" t="n">
-        <v>0.5000129969685502</v>
+        <v>0.5234778594076401</v>
       </c>
     </row>
     <row r="380">
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>520.681884496968</v>
+        <v>558.3262871278411</v>
       </c>
       <c r="C380" t="n">
-        <v>530.55</v>
+        <v>573.11</v>
       </c>
       <c r="D380" t="n">
-        <v>9.368364554256189</v>
+        <v>14.25811151877542</v>
       </c>
       <c r="E380" t="n">
-        <v>0.4997509487757791</v>
+        <v>0.5256013533835436</v>
       </c>
     </row>
     <row r="381">
@@ -7668,16 +7668,16 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>513.7711142338334</v>
+        <v>522.9032339495668</v>
       </c>
       <c r="C381" t="n">
-        <v>537.87</v>
+        <v>531.55</v>
       </c>
       <c r="D381" t="n">
-        <v>23.56266995495175</v>
+        <v>8.108926965636105</v>
       </c>
       <c r="E381" t="n">
-        <v>0.5362158112148689</v>
+        <v>0.5378390847970025</v>
       </c>
     </row>
     <row r="382">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>506.8164262491015</v>
+        <v>515.1246655029394</v>
       </c>
       <c r="C382" t="n">
-        <v>516.66</v>
+        <v>526.03</v>
       </c>
       <c r="D382" t="n">
-        <v>9.339458270826812</v>
+        <v>10.40404130614563</v>
       </c>
       <c r="E382" t="n">
-        <v>0.5041154800716945</v>
+        <v>0.501293190915068</v>
       </c>
     </row>
     <row r="383">
@@ -7706,16 +7706,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>503.3573279802235</v>
+        <v>503.6157866361768</v>
       </c>
       <c r="C383" t="n">
-        <v>512.64</v>
+        <v>513.24</v>
       </c>
       <c r="D383" t="n">
-        <v>8.739317948203029</v>
+        <v>9.119067763269591</v>
       </c>
       <c r="E383" t="n">
-        <v>0.5433540715733762</v>
+        <v>0.5051456005536222</v>
       </c>
     </row>
     <row r="384">
@@ -7725,16 +7725,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>492.5029396319478</v>
+        <v>498.0626315194168</v>
       </c>
       <c r="C384" t="n">
-        <v>501.37</v>
+        <v>505.29</v>
       </c>
       <c r="D384" t="n">
-        <v>8.358339466293772</v>
+        <v>6.719828301716404</v>
       </c>
       <c r="E384" t="n">
-        <v>0.5087209017584415</v>
+        <v>0.5075401788668752</v>
       </c>
     </row>
     <row r="385">
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>476.8198971889211</v>
+        <v>492.7980948636493</v>
       </c>
       <c r="C385" t="n">
-        <v>481.54</v>
+        <v>497.52</v>
       </c>
       <c r="D385" t="n">
-        <v>4.205409017754175</v>
+        <v>4.21202459603801</v>
       </c>
       <c r="E385" t="n">
-        <v>0.5146937933247065</v>
+        <v>0.5098805403126583</v>
       </c>
     </row>
     <row r="386">
@@ -7763,16 +7763,16 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>466.369410876586</v>
+        <v>491.4610894751419</v>
       </c>
       <c r="C386" t="n">
-        <v>479.47</v>
+        <v>496.88</v>
       </c>
       <c r="D386" t="n">
-        <v>12.58527183611339</v>
+        <v>4.909018009817192</v>
       </c>
       <c r="E386" t="n">
-        <v>0.5153172873006101</v>
+        <v>0.5098925150408393</v>
       </c>
     </row>
     <row r="387">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>456.773702658428</v>
+        <v>481.8940043485213</v>
       </c>
       <c r="C387" t="n">
-        <v>460.98</v>
+        <v>505.77</v>
       </c>
       <c r="D387" t="n">
-        <v>3.685410777162951</v>
+        <v>23.33039150644076</v>
       </c>
       <c r="E387" t="n">
-        <v>0.5208865644090439</v>
+        <v>0.5456041450379663</v>
       </c>
     </row>
     <row r="388">
@@ -7801,16 +7801,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>445.0904379610316</v>
+        <v>474.2249873744527</v>
       </c>
       <c r="C388" t="n">
-        <v>448.84</v>
+        <v>484.24</v>
       </c>
       <c r="D388" t="n">
-        <v>3.225199644409507</v>
+        <v>9.501132085234612</v>
       </c>
       <c r="E388" t="n">
-        <v>0.5243623945589116</v>
+        <v>0.5138805403126584</v>
       </c>
     </row>
     <row r="389">
@@ -7820,16 +7820,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>428.3128944429651</v>
+        <v>445.5449402873398</v>
       </c>
       <c r="C389" t="n">
-        <v>436.15</v>
+        <v>449.36</v>
       </c>
       <c r="D389" t="n">
-        <v>7.308459736087441</v>
+        <v>3.290673148251129</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5286458209473924</v>
+        <v>0.524386564409044</v>
       </c>
     </row>
     <row r="390">
@@ -7839,16 +7839,16 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>413.2190264889622</v>
+        <v>406.1233648534667</v>
       </c>
       <c r="C390" t="n">
-        <v>416.86</v>
+        <v>414.89</v>
       </c>
       <c r="D390" t="n">
-        <v>3.106797790002267</v>
+        <v>8.231585711128119</v>
       </c>
       <c r="E390" t="n">
-        <v>0.53417572103555</v>
+        <v>0.5350494354052238</v>
       </c>
     </row>
     <row r="391">
@@ -7858,16 +7858,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>400.2364126809198</v>
+        <v>401.7267862087056</v>
       </c>
       <c r="C391" t="n">
-        <v>431.76</v>
+        <v>405.88</v>
       </c>
       <c r="D391" t="n">
-        <v>30.95541066449182</v>
+        <v>3.615730841343203</v>
       </c>
       <c r="E391" t="n">
-        <v>0.568176654588363</v>
+        <v>0.5374829499512126</v>
       </c>
     </row>
     <row r="392">
@@ -7877,16 +7877,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>389.6690184706665</v>
+        <v>385.0902155597405</v>
       </c>
       <c r="C392" t="n">
-        <v>395.61</v>
+        <v>388.75</v>
       </c>
       <c r="D392" t="n">
-        <v>5.400586002244453</v>
+        <v>3.117322648110227</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5403955270890322</v>
+        <v>0.542461792149273</v>
       </c>
     </row>
     <row r="393">
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>386.4888127433324</v>
+        <v>374.6143218188762</v>
       </c>
       <c r="C393" t="n">
-        <v>390.95</v>
+        <v>382.6</v>
       </c>
       <c r="D393" t="n">
-        <v>3.919207318764544</v>
+        <v>7.441183182979835</v>
       </c>
       <c r="E393" t="n">
-        <v>0.5419799379030198</v>
+        <v>0.5444949981439837</v>
       </c>
     </row>
     <row r="394">
@@ -7915,16 +7915,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>373.38279281122</v>
+        <v>371.5425458023483</v>
       </c>
       <c r="C394" t="n">
-        <v>375.8</v>
+        <v>379.9299999999999</v>
       </c>
       <c r="D394" t="n">
-        <v>1.870663997864955</v>
+        <v>7.842154982640192</v>
       </c>
       <c r="E394" t="n">
-        <v>0.546543190915068</v>
+        <v>0.5452992150114535</v>
       </c>
     </row>
     <row r="395">
@@ -7934,16 +7934,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>357.8432109087294</v>
+        <v>361.5758391165076</v>
       </c>
       <c r="C395" t="n">
-        <v>365.4</v>
+        <v>365.68</v>
       </c>
       <c r="D395" t="n">
-        <v>7.007113370235079</v>
+        <v>3.55456949980621</v>
       </c>
       <c r="E395" t="n">
-        <v>0.5496757210355498</v>
+        <v>0.5495913836861523</v>
       </c>
     </row>
     <row r="396">
@@ -7953,16 +7953,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>344.8542140766753</v>
+        <v>357.6215971157677</v>
       </c>
       <c r="C396" t="n">
-        <v>353.51</v>
+        <v>363.23</v>
       </c>
       <c r="D396" t="n">
-        <v>8.102528876987936</v>
+        <v>5.058254345095128</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5532570463367548</v>
+        <v>0.5501485391372249</v>
       </c>
     </row>
     <row r="397">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>315.4648205796485</v>
+        <v>344.8542140766753</v>
       </c>
       <c r="C397" t="n">
-        <v>323.29</v>
+        <v>353.51</v>
       </c>
       <c r="D397" t="n">
-        <v>7.262819964376172</v>
+        <v>8.102528876987936</v>
       </c>
       <c r="E397" t="n">
-        <v>0.5623594559753089</v>
+        <v>0.5532570463367548</v>
       </c>
     </row>
   </sheetData>

--- a/results/current_run/values.xlsx
+++ b/results/current_run/values.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>754.9467241298212</v>
+        <v>752.682487066388</v>
       </c>
       <c r="C2" t="n">
-        <v>758.22</v>
+        <v>756.25</v>
       </c>
       <c r="D2" t="n">
-        <v>2.841919426251668</v>
+        <v>3.145281494497633</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4313564439271161</v>
+        <v>0.422231439114317</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>741.9320177566148</v>
+        <v>741.9414711952379</v>
       </c>
       <c r="C3" t="n">
         <v>745.6500000000001</v>
@@ -495,7 +495,7 @@
         <v>3.283022728638298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.434959514746981</v>
+        <v>0.4255060761238937</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.6209677547686</v>
+        <v>719.6302447954924</v>
       </c>
       <c r="C4" t="n">
         <v>722.8100000000001</v>
@@ -514,7 +514,7 @@
         <v>2.747193212412144</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4418390328192702</v>
+        <v>0.4325619920954725</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.459250050605</v>
+        <v>718.4685139618879</v>
       </c>
       <c r="C5" t="n">
         <v>721.11</v>
@@ -533,7 +533,7 @@
         <v>2.208398868383059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4423510810120413</v>
+        <v>0.4330871697290838</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>699.0936806569616</v>
+        <v>699.1028026930514</v>
       </c>
       <c r="C6" t="n">
         <v>702.74</v>
@@ -552,7 +552,7 @@
         <v>3.198435129496271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4478842135421617</v>
+        <v>0.4387621774522844</v>
       </c>
     </row>
     <row r="7">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>695.6184472113298</v>
+        <v>695.6275375050657</v>
       </c>
       <c r="C7" t="n">
         <v>698.63</v>
@@ -571,7 +571,7 @@
         <v>2.562430623320816</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4491221653493906</v>
+        <v>0.4400318716135447</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>689.547281640644</v>
+        <v>689.5563262036143</v>
       </c>
       <c r="C8" t="n">
         <v>693.1400000000001</v>
@@ -590,7 +590,7 @@
         <v>3.141812694153704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4509056652024615</v>
+        <v>0.441861102232079</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>683.3140512308804</v>
+        <v>683.3230485372823</v>
       </c>
       <c r="C9" t="n">
         <v>686.59</v>
@@ -609,7 +609,7 @@
         <v>2.823200097746133</v>
       </c>
       <c r="E9" t="n">
-        <v>0.452748671373487</v>
+        <v>0.4437513649715923</v>
       </c>
     </row>
     <row r="10">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.2710770643097</v>
+        <v>683.2800766010212</v>
       </c>
       <c r="C10" t="n">
         <v>687.3100000000001</v>
@@ -628,7 +628,7 @@
         <v>3.586261246391536</v>
       </c>
       <c r="E10" t="n">
-        <v>0.452661689298847</v>
+        <v>0.4436621525873461</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>654.0728414374249</v>
+        <v>671.5253482201853</v>
       </c>
       <c r="C11" t="n">
-        <v>656.86</v>
+        <v>680.77</v>
       </c>
       <c r="D11" t="n">
-        <v>2.325455071924445</v>
+        <v>8.79862715670739</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4617034906505955</v>
+        <v>0.4460246231073247</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>652.9054178130892</v>
+        <v>654.0816091330762</v>
       </c>
       <c r="C12" t="n">
-        <v>662.0400000000001</v>
+        <v>656.86</v>
       </c>
       <c r="D12" t="n">
-        <v>8.673975522590002</v>
+        <v>2.325455071924445</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4606066643208864</v>
+        <v>0.4529357949993958</v>
       </c>
     </row>
     <row r="13">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>647.7927651617159</v>
+        <v>647.8014834288839</v>
       </c>
       <c r="C13" t="n">
         <v>650.4599999999999</v>
@@ -685,7 +685,7 @@
         <v>2.203603636790036</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4636312014939689</v>
+        <v>0.4549129343259328</v>
       </c>
     </row>
     <row r="14">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>645.1799408642522</v>
+        <v>645.1886404582284</v>
       </c>
       <c r="C14" t="n">
         <v>648.12</v>
@@ -704,7 +704,7 @@
         <v>2.475699679772489</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4643594559753089</v>
+        <v>0.455659861999102</v>
       </c>
     </row>
     <row r="15">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.1054367985981</v>
+        <v>637.1140735163038</v>
       </c>
       <c r="C15" t="n">
         <v>640.9400000000001</v>
@@ -723,7 +723,7 @@
         <v>3.367751570874665</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4668116305271749</v>
+        <v>0.4581749128215286</v>
       </c>
     </row>
     <row r="16">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>633.002551363174</v>
+        <v>633.0111595144563</v>
       </c>
       <c r="C16" t="n">
         <v>636.8099999999999</v>
@@ -742,7 +742,7 @@
         <v>3.339522915790458</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4679257210355499</v>
+        <v>0.4593175697531953</v>
       </c>
     </row>
     <row r="17">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>631.5277966642741</v>
+        <v>631.5363923548317</v>
       </c>
       <c r="C17" t="n">
         <v>635.02</v>
@@ -761,7 +761,7 @@
         <v>3.023791646427104</v>
       </c>
       <c r="E17" t="n">
-        <v>0.468411689298847</v>
+        <v>0.4598159987411923</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>627.3676701571021</v>
+        <v>631.4308394193918</v>
       </c>
       <c r="C18" t="n">
-        <v>630.59</v>
+        <v>639.9400000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>2.752713701644934</v>
+        <v>8.050809955556893</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4696161412530051</v>
+        <v>0.4583506250513107</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>622.7441319313422</v>
+        <v>627.3762349642764</v>
       </c>
       <c r="C19" t="n">
-        <v>630.76</v>
+        <v>630.59</v>
       </c>
       <c r="D19" t="n">
-        <v>7.546120058465738</v>
+        <v>2.752713701644934</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4697480101921764</v>
+        <v>0.4610513340787903</v>
       </c>
     </row>
     <row r="20">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>612.4050260089775</v>
+        <v>612.4134731145762</v>
       </c>
       <c r="C20" t="n">
         <v>615.35</v>
@@ -818,7 +818,7 @@
         <v>2.470767488323731</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4742065026987882</v>
+        <v>0.4657593971001063</v>
       </c>
     </row>
     <row r="21">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.5320168792625</v>
+        <v>608.5404307920525</v>
       </c>
       <c r="C21" t="n">
         <v>611.66</v>
@@ -837,7 +837,7 @@
         <v>2.652482098497114</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4755010222403692</v>
+        <v>0.4670871094504458</v>
       </c>
     </row>
     <row r="22">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>608.4421051581051</v>
+        <v>608.4505172003735</v>
       </c>
       <c r="C22" t="n">
         <v>610.8099999999999</v>
@@ -856,7 +856,7 @@
         <v>1.892320869316527</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4755739725783063</v>
+        <v>0.4671619303098685</v>
       </c>
     </row>
     <row r="23">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>607.6551234148013</v>
+        <v>607.6635319816296</v>
       </c>
       <c r="C23" t="n">
         <v>610.3599999999999</v>
@@ -875,7 +875,7 @@
         <v>2.229167070451547</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4757095147469809</v>
+        <v>0.4673009479187656</v>
       </c>
     </row>
     <row r="24">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>601.3886729393686</v>
+        <v>601.397037792882</v>
       </c>
       <c r="C24" t="n">
         <v>604.7</v>
@@ -894,7 +894,7 @@
         <v>2.833912726607455</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4774143340240894</v>
+        <v>0.4690494805106717</v>
       </c>
     </row>
     <row r="25">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>597.0690736844426</v>
+        <v>597.0774026250738</v>
       </c>
       <c r="C25" t="n">
         <v>600.05</v>
@@ -913,7 +913,7 @@
         <v>2.502111379123512</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4788149364337279</v>
+        <v>0.4704859958026087</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>591.4298384757864</v>
+        <v>579.5925726727776</v>
       </c>
       <c r="C26" t="n">
-        <v>599.59</v>
+        <v>582.36</v>
       </c>
       <c r="D26" t="n">
-        <v>7.681024959804602</v>
+        <v>2.291288626792694</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4791365644090438</v>
+        <v>0.4761387004297477</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>580.6070824292607</v>
+        <v>558.5060991170592</v>
       </c>
       <c r="C27" t="n">
-        <v>589.35</v>
+        <v>567.55</v>
       </c>
       <c r="D27" t="n">
-        <v>8.260416328105155</v>
+        <v>8.562899429434896</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4825012426341393</v>
+        <v>0.4810014535058418</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.5843850497621</v>
+        <v>556.4251016757649</v>
       </c>
       <c r="C28" t="n">
-        <v>582.36</v>
+        <v>558.6700000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>2.291288626792694</v>
+        <v>1.76162888697438</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4843263234451885</v>
+        <v>0.4832694372607489</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>556.4170923211703</v>
+        <v>553.9174008429939</v>
       </c>
       <c r="C29" t="n">
-        <v>558.6700000000001</v>
+        <v>556.9</v>
       </c>
       <c r="D29" t="n">
-        <v>1.76162888697438</v>
+        <v>2.49859514919295</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4912787918554147</v>
+        <v>0.4840040078131272</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>553.909409852663</v>
+        <v>545.6539687207093</v>
       </c>
       <c r="C30" t="n">
-        <v>556.9</v>
+        <v>554.11</v>
       </c>
       <c r="D30" t="n">
-        <v>2.49859514919295</v>
+        <v>7.971165362302489</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4919949981439837</v>
+        <v>0.4848659169882895</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.9504556820058</v>
+        <v>498.5245892763209</v>
       </c>
       <c r="C31" t="n">
-        <v>535.46</v>
+        <v>500.52</v>
       </c>
       <c r="D31" t="n">
-        <v>7.011091488524926</v>
+        <v>1.49415308596178</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4984528294692849</v>
+        <v>0.5012576377173596</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>498.5170296267376</v>
+        <v>497.8678912950335</v>
       </c>
       <c r="C32" t="n">
         <v>500.52</v>
       </c>
       <c r="D32" t="n">
-        <v>1.49415308596178</v>
+        <v>2.15058757425276</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5088172873006102</v>
+        <v>0.5015211307137353</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>497.8603382327751</v>
+        <v>494.0701031192483</v>
       </c>
       <c r="C33" t="n">
-        <v>500.52</v>
+        <v>496.77</v>
       </c>
       <c r="D33" t="n">
-        <v>2.15058757425276</v>
+        <v>2.197317031109697</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5090741929720766</v>
+        <v>0.5025798496419812</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>494.0625765249632</v>
+        <v>482.0207907711774</v>
       </c>
       <c r="C34" t="n">
-        <v>496.77</v>
+        <v>489.98</v>
       </c>
       <c r="D34" t="n">
-        <v>2.197317031109697</v>
+        <v>7.454531757926386</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5101064439271162</v>
+        <v>0.5046774708962288</v>
       </c>
     </row>
     <row r="35">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>461.1419328165539</v>
+        <v>461.1492013787105</v>
       </c>
       <c r="C35" t="n">
         <v>463.36</v>
@@ -1103,7 +1103,7 @@
         <v>1.697897486506923</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5201696969391645</v>
+        <v>0.5129011347825434</v>
       </c>
     </row>
     <row r="36">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>450.2422745177233</v>
+        <v>450.2494618920894</v>
       </c>
       <c r="C36" t="n">
         <v>452.24</v>
@@ -1122,7 +1122,7 @@
         <v>1.474389461505584</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5233360207710774</v>
+        <v>0.5161486464050185</v>
       </c>
     </row>
     <row r="37">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>445.1639703999844</v>
+        <v>445.1711190811159</v>
       </c>
       <c r="C37" t="n">
         <v>447.23</v>
@@ -1141,7 +1141,7 @@
         <v>1.541184543100017</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5248450569156556</v>
+        <v>0.517696375784073</v>
       </c>
     </row>
     <row r="38">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>414.8472760954892</v>
+        <v>414.8541902230218</v>
       </c>
       <c r="C38" t="n">
         <v>416.86</v>
@@ -1160,7 +1160,7 @@
         <v>1.478731257233686</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5339926472771015</v>
+        <v>0.5270785197445301</v>
       </c>
     </row>
     <row r="39">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>412.8142848028558</v>
+        <v>412.8211809522846</v>
       </c>
       <c r="C39" t="n">
         <v>415.14</v>
@@ -1179,7 +1179,7 @@
         <v>1.79102140381943</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5346937933247066</v>
+        <v>0.52779764389592</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>399.0834976513067</v>
+        <v>393.9316280865631</v>
       </c>
       <c r="C40" t="n">
-        <v>406.46</v>
+        <v>395.6</v>
       </c>
       <c r="D40" t="n">
-        <v>6.838913756661603</v>
+        <v>1.134725583991985</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5375885920317298</v>
+        <v>0.53364632944487</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>393.9248781542731</v>
+        <v>391.0431665507828</v>
       </c>
       <c r="C41" t="n">
-        <v>395.6</v>
+        <v>393.47</v>
       </c>
       <c r="D41" t="n">
-        <v>1.134725583991985</v>
+        <v>1.892341335132839</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5403962617349328</v>
+        <v>0.5344921140843661</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>391.0364377631087</v>
+        <v>376.9811018429668</v>
       </c>
       <c r="C42" t="n">
-        <v>393.47</v>
+        <v>384.66</v>
       </c>
       <c r="D42" t="n">
-        <v>1.892341335132839</v>
+        <v>7.141396857991345</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5412209017584415</v>
+        <v>0.5375012990418319</v>
       </c>
     </row>
     <row r="43">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.6433441505062</v>
+        <v>361.6498426323415</v>
       </c>
       <c r="C43" t="n">
         <v>363.65</v>
@@ -1255,7 +1255,7 @@
         <v>1.456453020024572</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5502028294692849</v>
+        <v>0.543704347633949</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>330.7093021793629</v>
+        <v>349.3267301150349</v>
       </c>
       <c r="C44" t="n">
-        <v>338.02</v>
+        <v>356.75</v>
       </c>
       <c r="D44" t="n">
-        <v>6.752494770774079</v>
+        <v>6.877146404891468</v>
       </c>
       <c r="E44" t="n">
-        <v>0.558203049863055</v>
+        <v>0.5461234800736515</v>
       </c>
     </row>
     <row r="45">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>325.2011402898097</v>
+        <v>325.2073941006533</v>
       </c>
       <c r="C45" t="n">
         <v>331.97</v>
@@ -1293,7 +1293,7 @@
         <v>6.209114712046334</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5597449981439837</v>
+        <v>0.5534911873003067</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.3008006714327</v>
+        <v>698.6613776035771</v>
       </c>
       <c r="C46" t="n">
-        <v>718.37</v>
+        <v>706.6800000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>6.626020668948022</v>
+        <v>7.58105565738483</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4431786596191526</v>
+        <v>0.4375667390382152</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>705.1920626094984</v>
+        <v>695.602356415494</v>
       </c>
       <c r="C47" t="n">
-        <v>712.71</v>
+        <v>703.6400000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>7.072873115249175</v>
+        <v>7.599157106474371</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4450642752524174</v>
+        <v>0.4384864780317126</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>702.7867363163681</v>
+        <v>695.1189013162775</v>
       </c>
       <c r="C48" t="n">
-        <v>710.3199999999999</v>
+        <v>702.3199999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>7.087630939381434</v>
+        <v>6.762018988544424</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4456327442503604</v>
+        <v>0.4390796951779713</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>696.2010345158419</v>
+        <v>686.5324915493268</v>
       </c>
       <c r="C49" t="n">
-        <v>705.8900000000001</v>
+        <v>693.02</v>
       </c>
       <c r="D49" t="n">
-        <v>9.242027788394497</v>
+        <v>6.045741157071568</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4469376957637309</v>
+        <v>0.4417672936016849</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>690.1246140338334</v>
+        <v>678.817535789447</v>
       </c>
       <c r="C50" t="n">
-        <v>702.9799999999999</v>
+        <v>686.58</v>
       </c>
       <c r="D50" t="n">
-        <v>12.4075717643786</v>
+        <v>7.318688018317432</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4478142017878273</v>
+        <v>0.4437761922356203</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>678.6632850964843</v>
+        <v>675.678379487537</v>
       </c>
       <c r="C51" t="n">
-        <v>686.62</v>
+        <v>683.54</v>
       </c>
       <c r="D51" t="n">
-        <v>7.503943605048427</v>
+        <v>7.416924581233807</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4527712984672278</v>
+        <v>0.4446959312291178</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>678.1142354190301</v>
+        <v>655.3071981715949</v>
       </c>
       <c r="C52" t="n">
-        <v>685.48</v>
+        <v>668.16</v>
       </c>
       <c r="D52" t="n">
-        <v>6.912679294844683</v>
+        <v>12.40346632575708</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4530852861251766</v>
+        <v>0.4493355026480015</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>669.8679271640757</v>
+        <v>642.2702748476987</v>
       </c>
       <c r="C53" t="n">
-        <v>679.1500000000001</v>
+        <v>652.3900000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>8.82726399705161</v>
+        <v>9.665220681096208</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4548088388727524</v>
+        <v>0.4545044712051569</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>654.0617321651329</v>
+        <v>641.3107960199317</v>
       </c>
       <c r="C54" t="n">
-        <v>667.9699999999999</v>
+        <v>658.0599999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>13.45009152611472</v>
+        <v>16.29660725240767</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4581763087522704</v>
+        <v>0.4525967276606224</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>648.1435638649521</v>
+        <v>639.6869810905617</v>
       </c>
       <c r="C55" t="n">
-        <v>661.6800000000001</v>
+        <v>653.27</v>
       </c>
       <c r="D55" t="n">
-        <v>13.07618217422407</v>
+        <v>13.1289717270506</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4602539608239719</v>
+        <v>0.4540471823875977</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>643.20738139279</v>
+        <v>627.438450317871</v>
       </c>
       <c r="C56" t="n">
-        <v>660</v>
+        <v>640.3199999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>16.33183004456411</v>
+        <v>12.42350188188529</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4607885626458937</v>
+        <v>0.4580478002436373</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>640.3210680419178</v>
+        <v>626.6974164544981</v>
       </c>
       <c r="C57" t="n">
-        <v>653.67</v>
+        <v>639.9299999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>12.88626534665587</v>
+        <v>12.77441526333047</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4626666114263815</v>
+        <v>0.4581682821713483</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>638.5697180255471</v>
+        <v>620.8766664981036</v>
       </c>
       <c r="C58" t="n">
-        <v>649</v>
+        <v>627.77</v>
       </c>
       <c r="D58" t="n">
-        <v>9.966027940164265</v>
+        <v>6.431389252817991</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4642540342885619</v>
+        <v>0.4619442490783759</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>634.4689607953966</v>
+        <v>612.4984016237853</v>
       </c>
       <c r="C59" t="n">
-        <v>641.85</v>
+        <v>626.29</v>
       </c>
       <c r="D59" t="n">
-        <v>6.914812352213229</v>
+        <v>13.3293280573788</v>
       </c>
       <c r="E59" t="n">
-        <v>0.466226852390237</v>
+        <v>0.4622703188358297</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>631.8762900573006</v>
+        <v>610.8334385238735</v>
       </c>
       <c r="C60" t="n">
-        <v>638.48</v>
+        <v>619.1800000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>6.136438644232125</v>
+        <v>7.881982937545037</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4672712984672279</v>
+        <v>0.4645785385816046</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>621.4707121417854</v>
+        <v>600.4874931148062</v>
       </c>
       <c r="C61" t="n">
-        <v>627.49</v>
+        <v>618</v>
       </c>
       <c r="D61" t="n">
-        <v>5.548735704619634</v>
+        <v>17.0470908502855</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4705521535950562</v>
+        <v>0.4654160349083751</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>617.5440541086399</v>
+        <v>599.8724611401116</v>
       </c>
       <c r="C62" t="n">
-        <v>633.22</v>
+        <v>605.85</v>
       </c>
       <c r="D62" t="n">
-        <v>15.20693884502339</v>
+        <v>5.508842310803339</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4690070463367547</v>
+        <v>0.4686965490851573</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>616.8103162167309</v>
+        <v>593.5885969964289</v>
       </c>
       <c r="C63" t="n">
-        <v>624.6900000000001</v>
+        <v>602.0600000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>7.408288256180082</v>
+        <v>8.00153561729104</v>
       </c>
       <c r="E63" t="n">
-        <v>0.471395527089032</v>
+        <v>0.4698673862800909</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>612.3586548448146</v>
+        <v>584.0345930774579</v>
       </c>
       <c r="C64" t="n">
-        <v>626.29</v>
+        <v>597.24</v>
       </c>
       <c r="D64" t="n">
-        <v>13.46043383320945</v>
+        <v>12.73403110102012</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4709113219758967</v>
+        <v>0.4713758215219965</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>609.619892466555</v>
+        <v>571.4911175170319</v>
       </c>
       <c r="C65" t="n">
-        <v>626.41</v>
+        <v>587.7</v>
       </c>
       <c r="D65" t="n">
-        <v>16.31876894141312</v>
+        <v>15.7343934581641</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4713385920317298</v>
+        <v>0.4744890248041684</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>609.4001006960897</v>
+        <v>569.3447347579203</v>
       </c>
       <c r="C66" t="n">
-        <v>625.4100000000001</v>
+        <v>585.53</v>
       </c>
       <c r="D66" t="n">
-        <v>15.5385398479351</v>
+        <v>15.71010584347262</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4713594559753089</v>
+        <v>0.4751593986070725</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>605.0942721489575</v>
+        <v>549.0916861015837</v>
       </c>
       <c r="C67" t="n">
-        <v>611.72</v>
+        <v>565.74</v>
       </c>
       <c r="D67" t="n">
-        <v>6.150425697447409</v>
+        <v>16.16704081429791</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4753021535950562</v>
+        <v>0.4812730841183482</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>602.9807130944652</v>
+        <v>549.0367298677281</v>
       </c>
       <c r="C68" t="n">
-        <v>609.37</v>
+        <v>558.4400000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>5.913276920614468</v>
+        <v>8.919927305769395</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4760099849203573</v>
+        <v>0.483342826502519</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>584.8928698866596</v>
+        <v>545.0815597458752</v>
       </c>
       <c r="C69" t="n">
-        <v>597.24</v>
+        <v>561.5799999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>11.86743712812616</v>
+        <v>16.01606979740152</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4796929852142157</v>
+        <v>0.4823704567232142</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>577.4526215230702</v>
+        <v>541.918663421245</v>
       </c>
       <c r="C70" t="n">
-        <v>585.67</v>
+        <v>555.38</v>
       </c>
       <c r="D70" t="n">
-        <v>7.734229937792566</v>
+        <v>12.9769724060798</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4831485391372249</v>
+        <v>0.4843641726752023</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>576.3933525414996</v>
+        <v>541.0197793821225</v>
       </c>
       <c r="C71" t="n">
-        <v>591.9400000000001</v>
+        <v>548.67</v>
       </c>
       <c r="D71" t="n">
-        <v>15.06520667722393</v>
+        <v>7.163859564621855</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4814407812765138</v>
+        <v>0.4863610532556855</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>548.255177430722</v>
+        <v>537.9524302127751</v>
       </c>
       <c r="C72" t="n">
-        <v>554.99</v>
+        <v>544.3199999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>6.242433066285312</v>
+        <v>5.879864897083129</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4923895029926466</v>
+        <v>0.487704890141691</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>541.7794689886204</v>
+        <v>520.6345012607338</v>
       </c>
       <c r="C73" t="n">
-        <v>555.38</v>
+        <v>542.84</v>
       </c>
       <c r="D73" t="n">
-        <v>13.10807818191044</v>
+        <v>21.71705144234919</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4924528294692848</v>
+        <v>0.4884472969170099</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>536.001395529888</v>
+        <v>514.2862703142872</v>
       </c>
       <c r="C74" t="n">
-        <v>558.05</v>
+        <v>523.72</v>
       </c>
       <c r="D74" t="n">
-        <v>21.55667551663441</v>
+        <v>8.939848646321211</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4919289534775129</v>
+        <v>0.4938810393915988</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>529.6767967768982</v>
+        <v>507.2519405498161</v>
       </c>
       <c r="C75" t="n">
-        <v>538.9300000000001</v>
+        <v>512.12</v>
       </c>
       <c r="D75" t="n">
-        <v>8.755976370711616</v>
+        <v>4.370407077805538</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4972268523902369</v>
+        <v>0.49765237237833</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>528.4795532855416</v>
+        <v>497.7042905253176</v>
       </c>
       <c r="C76" t="n">
-        <v>536.1600000000001</v>
+        <v>512.47</v>
       </c>
       <c r="D76" t="n">
-        <v>7.182385524718928</v>
+        <v>14.26797979495085</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4980611897396345</v>
+        <v>0.4977296797315703</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>512.0366290702965</v>
+        <v>476.6480415171179</v>
       </c>
       <c r="C77" t="n">
-        <v>522.97</v>
+        <v>483.53</v>
       </c>
       <c r="D77" t="n">
-        <v>10.43133684839767</v>
+        <v>6.37547385841853</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5020340813058997</v>
+        <v>0.5064846244635941</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>507.366437015249</v>
+        <v>447.1250309086666</v>
       </c>
       <c r="C78" t="n">
-        <v>512.47</v>
+        <v>460.98</v>
       </c>
       <c r="D78" t="n">
-        <v>4.598336646612913</v>
+        <v>13.34133270786379</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5052263381381066</v>
+        <v>0.5136363834695994</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>484.884061119402</v>
+        <v>411.9923803461088</v>
       </c>
       <c r="C79" t="n">
-        <v>500.76</v>
+        <v>416.86</v>
       </c>
       <c r="D79" t="n">
-        <v>15.36703424389978</v>
+        <v>4.340538798349475</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5089046366982005</v>
+        <v>0.5270808555417528</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>479.2429088822121</v>
+        <v>411.3752489850175</v>
       </c>
       <c r="C80" t="n">
-        <v>493.22</v>
+        <v>416.86</v>
       </c>
       <c r="D80" t="n">
-        <v>13.46591539675233</v>
+        <v>4.957670159440774</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5111757210355499</v>
+        <v>0.5270808555417529</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>448.9605537223082</v>
+        <v>408.8243902138822</v>
       </c>
       <c r="C81" t="n">
-        <v>453.12</v>
+        <v>414.72</v>
       </c>
       <c r="D81" t="n">
-        <v>3.63637303975941</v>
+        <v>5.367867824613658</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5230732379324057</v>
+        <v>0.5277419615040636</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>441.4441149568528</v>
+        <v>403.7999941440859</v>
       </c>
       <c r="C82" t="n">
-        <v>445.86</v>
+        <v>418.5899999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>3.890625058226858</v>
+        <v>14.26327401368631</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5252599849203574</v>
+        <v>0.5267318422277087</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>408.8174926723937</v>
+        <v>387.3569680598264</v>
       </c>
       <c r="C83" t="n">
-        <v>414.72</v>
+        <v>405.4</v>
       </c>
       <c r="D83" t="n">
-        <v>5.367867824613658</v>
+        <v>17.51222533736506</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5346395029926466</v>
+        <v>0.5308066028084933</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>376.570043037836</v>
+        <v>375.1986524482118</v>
       </c>
       <c r="C84" t="n">
-        <v>380.23</v>
+        <v>380.75</v>
       </c>
       <c r="D84" t="n">
-        <v>3.114928904954519</v>
+        <v>5.013111305452465</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5450280572095141</v>
+        <v>0.5382362463356979</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>375.192017263844</v>
+        <v>372.2106937050652</v>
       </c>
       <c r="C85" t="n">
-        <v>380.75</v>
+        <v>377.58</v>
       </c>
       <c r="D85" t="n">
-        <v>5.013111305452465</v>
+        <v>4.830090746776416</v>
       </c>
       <c r="E85" t="n">
-        <v>0.54487143070349</v>
+        <v>0.5392155481583732</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>372.2040830032429</v>
+        <v>371.0627634072008</v>
       </c>
       <c r="C86" t="n">
-        <v>377.58</v>
+        <v>384.66</v>
       </c>
       <c r="D86" t="n">
-        <v>4.830090746776416</v>
+        <v>13.05973529375735</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5458262499805984</v>
+        <v>0.5375012990418319</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>352.0175100262682</v>
+        <v>367.3603410716914</v>
       </c>
       <c r="C87" t="n">
-        <v>365.41</v>
+        <v>371.82</v>
       </c>
       <c r="D87" t="n">
-        <v>12.84253692386877</v>
+        <v>3.918663954756358</v>
       </c>
       <c r="E87" t="n">
-        <v>0.549953049863055</v>
+        <v>0.5409949735522563</v>
       </c>
     </row>
     <row r="88">
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>346.7598054011861</v>
+        <v>346.7662693603152</v>
       </c>
       <c r="C88" t="n">
         <v>359.1799999999999</v>
@@ -2110,7 +2110,7 @@
         <v>11.86864538380242</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5515492150114534</v>
+        <v>0.545085255882327</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>300.0233286877483</v>
+        <v>285.534081876874</v>
       </c>
       <c r="C89" t="n">
-        <v>311.95</v>
+        <v>298.1899999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>11.36061585275012</v>
+        <v>12.09170381821449</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5660554595016093</v>
+        <v>0.5642143049114642</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>744.5697232839781</v>
+        <v>703.0344585809603</v>
       </c>
       <c r="C90" t="n">
-        <v>748.8700000000001</v>
+        <v>707.45</v>
       </c>
       <c r="D90" t="n">
-        <v>3.866006739917484</v>
+        <v>3.977946763457291</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4342699761046067</v>
+        <v>0.437594655582441</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>685.7372528459061</v>
+        <v>697.9055558536892</v>
       </c>
       <c r="C91" t="n">
-        <v>689.96</v>
+        <v>702.01</v>
       </c>
       <c r="D91" t="n">
-        <v>3.770733202085696</v>
+        <v>3.665168922300827</v>
       </c>
       <c r="E91" t="n">
-        <v>0.452013952008221</v>
+        <v>0.4392752240099974</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>658.9051860672547</v>
+        <v>665.5219941448408</v>
       </c>
       <c r="C92" t="n">
-        <v>663.5</v>
+        <v>670.0300000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>4.134647027460552</v>
+        <v>4.0586633451196</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4601669052847418</v>
+        <v>0.4493425100396695</v>
       </c>
     </row>
     <row r="93">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>655.1038075125814</v>
+        <v>655.1125836981021</v>
       </c>
       <c r="C93" t="n">
         <v>658.89</v>
@@ -2205,7 +2205,7 @@
         <v>3.32482010167542</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4613723857431609</v>
+        <v>0.4525962002225399</v>
       </c>
     </row>
     <row r="94">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>644.0844868727601</v>
+        <v>654.8969852688333</v>
       </c>
       <c r="C94" t="n">
-        <v>648.01</v>
+        <v>658.77</v>
       </c>
       <c r="D94" t="n">
-        <v>3.460863633063003</v>
+        <v>3.420668988685055</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4646494941768958</v>
+        <v>0.4523457424816325</v>
       </c>
     </row>
     <row r="95">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>641.7711620184457</v>
+        <v>645.2931048160398</v>
       </c>
       <c r="C95" t="n">
-        <v>645.8600000000001</v>
+        <v>649.1900000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>3.623357823257563</v>
+        <v>3.441302381945991</v>
       </c>
       <c r="E95" t="n">
-        <v>0.46548015829679</v>
+        <v>0.4555928020143223</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>631.6915081664855</v>
+        <v>629.8778797886257</v>
       </c>
       <c r="C96" t="n">
-        <v>635.13</v>
+        <v>634.48</v>
       </c>
       <c r="D96" t="n">
-        <v>2.969779747506897</v>
+        <v>4.141983078189137</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4687120860076334</v>
+        <v>0.4601371331851595</v>
       </c>
     </row>
     <row r="97">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>629.7310047205225</v>
+        <v>628.449509287881</v>
       </c>
       <c r="C97" t="n">
-        <v>634.48</v>
+        <v>632.3100000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>4.280087410337364</v>
+        <v>3.39949543717349</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4689078691401635</v>
+        <v>0.4609952749454465</v>
       </c>
     </row>
     <row r="98">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>623.3740591932947</v>
+        <v>614.6246064502719</v>
       </c>
       <c r="C98" t="n">
-        <v>627.0599999999999</v>
+        <v>623.5700000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>3.214981071564547</v>
+        <v>8.481698243889914</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4709597351407512</v>
+        <v>0.4636953058382484</v>
       </c>
     </row>
     <row r="99">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>606.7087392925124</v>
+        <v>604.2043536059291</v>
       </c>
       <c r="C99" t="n">
-        <v>611.03</v>
+        <v>607.6800000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>3.845289585335284</v>
+        <v>3.007229989955957</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4759711221522117</v>
+        <v>0.4684164041150329</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>605.464356541513</v>
+        <v>596.1973852702901</v>
       </c>
       <c r="C100" t="n">
-        <v>614.21</v>
+        <v>600.59</v>
       </c>
       <c r="D100" t="n">
-        <v>8.270630167660109</v>
+        <v>3.921820257977444</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4750132908269105</v>
+        <v>0.4707944717325952</v>
       </c>
     </row>
     <row r="101">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>604.1959729255058</v>
+        <v>586.9113325842039</v>
       </c>
       <c r="C101" t="n">
-        <v>607.6800000000001</v>
+        <v>590.7099999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>3.007229989955957</v>
+        <v>3.325008503185475</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4767970845383415</v>
+        <v>0.4736589126105534</v>
       </c>
     </row>
     <row r="102">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>575.9604279654181</v>
+        <v>582.4508626582382</v>
       </c>
       <c r="C102" t="n">
-        <v>584.26</v>
+        <v>594.85</v>
       </c>
       <c r="D102" t="n">
-        <v>7.815537659417647</v>
+        <v>11.9267573911532</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4840343751642598</v>
+        <v>0.4723799506086998</v>
       </c>
     </row>
     <row r="103">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>575.8346305166664</v>
+        <v>574.6073779086737</v>
       </c>
       <c r="C103" t="n">
-        <v>588.3200000000001</v>
+        <v>578.65</v>
       </c>
       <c r="D103" t="n">
-        <v>12.00274107349415</v>
+        <v>3.565237506797305</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4826284098395464</v>
+        <v>0.4773845845289963</v>
       </c>
     </row>
     <row r="104">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>572.8003060132966</v>
+        <v>572.8084544024534</v>
       </c>
       <c r="C104" t="n">
         <v>577.28</v>
@@ -2414,7 +2414,7 @@
         <v>3.993837542776298</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4858564439271162</v>
+        <v>0.4777080547701863</v>
       </c>
     </row>
     <row r="105">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>560.347589719403</v>
+        <v>570.7619815791736</v>
       </c>
       <c r="C105" t="n">
-        <v>564.4100000000001</v>
+        <v>579.98</v>
       </c>
       <c r="D105" t="n">
-        <v>3.572396989770121</v>
+        <v>8.740856942606289</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4900132908269105</v>
+        <v>0.4771614782200834</v>
       </c>
     </row>
     <row r="106">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>559.1113183247243</v>
+        <v>570.3472469296656</v>
       </c>
       <c r="C106" t="n">
-        <v>568.13</v>
+        <v>574.5500000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>8.529788866376482</v>
+        <v>3.723914112967016</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4888928088991996</v>
+        <v>0.4788389573674422</v>
       </c>
     </row>
     <row r="107">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>554.3838648512985</v>
+        <v>566.2828111162828</v>
       </c>
       <c r="C107" t="n">
-        <v>557.97</v>
+        <v>574.9100000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>3.09436517259687</v>
+        <v>8.14846114043706</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4917699761046066</v>
+        <v>0.4787277432803245</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>552.722175936044</v>
+        <v>560.355631522742</v>
       </c>
       <c r="C108" t="n">
-        <v>556.98</v>
+        <v>564.4100000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>3.765572821321884</v>
+        <v>3.572396989770121</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4922512426341394</v>
+        <v>0.481971487487924</v>
       </c>
     </row>
     <row r="109">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>552.1897486903528</v>
+        <v>554.3918616114253</v>
       </c>
       <c r="C109" t="n">
-        <v>555.9399999999999</v>
+        <v>557.97</v>
       </c>
       <c r="D109" t="n">
-        <v>3.25768681400093</v>
+        <v>3.09436517259687</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4925644956461875</v>
+        <v>0.4837732159778688</v>
       </c>
     </row>
     <row r="110">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>542.2390718093053</v>
+        <v>538.9368431201309</v>
       </c>
       <c r="C110" t="n">
-        <v>546.02</v>
+        <v>543.3</v>
       </c>
       <c r="D110" t="n">
-        <v>3.28548674823687</v>
+        <v>3.874663921883819</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4954414424578243</v>
+        <v>0.4884929579852981</v>
       </c>
     </row>
     <row r="111">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>538.9289643535543</v>
+        <v>533.5732523432729</v>
       </c>
       <c r="C111" t="n">
-        <v>543.3</v>
+        <v>537.1900000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>3.874663921883819</v>
+        <v>3.126367148541042</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4963717245618502</v>
+        <v>0.4903805081861013</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>533.5654207654514</v>
+        <v>529.9929644699417</v>
       </c>
       <c r="C112" t="n">
-        <v>537.1900000000001</v>
+        <v>543.98</v>
       </c>
       <c r="D112" t="n">
-        <v>3.126367148541042</v>
+        <v>13.49875264312638</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4982120860076334</v>
+        <v>0.4882828869318536</v>
       </c>
     </row>
     <row r="113">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>529.9850804515888</v>
+        <v>529.9405658251859</v>
       </c>
       <c r="C113" t="n">
-        <v>543.98</v>
+        <v>533.98</v>
       </c>
       <c r="D113" t="n">
-        <v>13.49875264312638</v>
+        <v>3.548062007684466</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4961669052847418</v>
+        <v>0.4913721671295676</v>
       </c>
     </row>
     <row r="114">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>527.5928741352599</v>
+        <v>527.6007328045617</v>
       </c>
       <c r="C114" t="n">
         <v>540.09</v>
@@ -2604,7 +2604,7 @@
         <v>11.99997034646688</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4971555182732813</v>
+        <v>0.4892968489713813</v>
       </c>
     </row>
     <row r="115">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>523.3248084890272</v>
+        <v>522.6447877786812</v>
       </c>
       <c r="C115" t="n">
-        <v>527.45</v>
+        <v>526.2</v>
       </c>
       <c r="D115" t="n">
-        <v>3.624045690025418</v>
+        <v>3.061624362152799</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5011458209473924</v>
+        <v>0.4935878591660059</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>523.2952853012598</v>
+        <v>516.5043043342866</v>
       </c>
       <c r="C116" t="n">
-        <v>531.64</v>
+        <v>519.3099999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>7.84483092598558</v>
+        <v>2.309979292491152</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4998837727546214</v>
+        <v>0.4957163732222308</v>
       </c>
     </row>
     <row r="117">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>516.496606153091</v>
+        <v>509.3137634767103</v>
       </c>
       <c r="C117" t="n">
-        <v>519.3099999999999</v>
+        <v>512.9300000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>2.309979292491152</v>
+        <v>3.118361421344075</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5034145544178596</v>
+        <v>0.4978751019457555</v>
       </c>
     </row>
     <row r="118">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>502.5545309041819</v>
+        <v>479.3112503224567</v>
       </c>
       <c r="C118" t="n">
-        <v>506.2</v>
+        <v>487.85</v>
       </c>
       <c r="D118" t="n">
-        <v>3.137922672461087</v>
+        <v>8.033126660861765</v>
       </c>
       <c r="E118" t="n">
-        <v>0.507546423357031</v>
+        <v>0.5056230166816219</v>
       </c>
     </row>
     <row r="119">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>474.8086104732122</v>
+        <v>469.7933128898517</v>
       </c>
       <c r="C119" t="n">
-        <v>478.19</v>
+        <v>477.79</v>
       </c>
       <c r="D119" t="n">
-        <v>2.865406356442822</v>
+        <v>7.487956277587719</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5159831703449828</v>
+        <v>0.5087308325605221</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>464.4393895500428</v>
+        <v>466.8389037835383</v>
       </c>
       <c r="C120" t="n">
-        <v>472.4299999999999</v>
+        <v>469.79</v>
       </c>
       <c r="D120" t="n">
-        <v>7.472892339853173</v>
+        <v>2.439893959742904</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5177181101040189</v>
+        <v>0.5112022567186932</v>
       </c>
     </row>
     <row r="121">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>455.6893829729086</v>
+        <v>455.6966054049537</v>
       </c>
       <c r="C121" t="n">
         <v>457.71</v>
@@ -2737,7 +2737,7 @@
         <v>1.498648255806108</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5219687712853295</v>
+        <v>0.5147463392401488</v>
       </c>
     </row>
     <row r="122">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>419.6946133641762</v>
+        <v>419.7015577007249</v>
       </c>
       <c r="C122" t="n">
         <v>422.31</v>
@@ -2756,7 +2756,7 @@
         <v>2.082572140177684</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5328144956461875</v>
+        <v>0.5258701590974391</v>
       </c>
     </row>
     <row r="123">
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>414.1320289737459</v>
+        <v>414.1389359130509</v>
       </c>
       <c r="C123" t="n">
         <v>416.86</v>
@@ -2775,7 +2775,7 @@
         <v>2.193698038101261</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5342729881527994</v>
+        <v>0.52736604884781</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>413.9030911642758</v>
+        <v>406.089219846159</v>
       </c>
       <c r="C124" t="n">
-        <v>416.86</v>
+        <v>413.66</v>
       </c>
       <c r="D124" t="n">
-        <v>2.422452773812942</v>
+        <v>7.04223776737246</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5344560619112478</v>
+        <v>0.5285423864684616</v>
       </c>
     </row>
     <row r="125">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>396.930591114416</v>
+        <v>399.7194041427011</v>
       </c>
       <c r="C125" t="n">
-        <v>404.3</v>
+        <v>402.45</v>
       </c>
       <c r="D125" t="n">
-        <v>6.831169691142653</v>
+        <v>2.198590387728869</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5382391944413684</v>
+        <v>0.532005469570099</v>
       </c>
     </row>
     <row r="126">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>385.6847561078272</v>
+        <v>385.6915057424915</v>
       </c>
       <c r="C126" t="n">
         <v>397.1</v>
@@ -2832,7 +2832,7 @@
         <v>10.8748360230327</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5404078691401635</v>
+        <v>0.5336582344758758</v>
       </c>
     </row>
     <row r="127">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>370.7988964632677</v>
+        <v>370.8055345749169</v>
       </c>
       <c r="C127" t="n">
         <v>382.66</v>
@@ -2851,7 +2851,7 @@
         <v>11.31634627000176</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5447572667305249</v>
+        <v>0.5381191550813748</v>
       </c>
     </row>
     <row r="128">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>350.2769117406023</v>
+        <v>350.2833170749885</v>
       </c>
       <c r="C128" t="n">
         <v>352.52</v>
@@ -2870,7 +2870,7 @@
         <v>1.689252679414195</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5538355799835369</v>
+        <v>0.5474302455972845</v>
       </c>
     </row>
     <row r="129">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>347.8858440991917</v>
+        <v>347.8922366130651</v>
       </c>
       <c r="C129" t="n">
         <v>350.86</v>
@@ -2889,7 +2889,7 @@
         <v>2.419820320824756</v>
       </c>
       <c r="E129" t="n">
-        <v>0.554335579983537</v>
+        <v>0.5479430661101049</v>
       </c>
     </row>
     <row r="130">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>326.6929614280064</v>
+        <v>333.722069713695</v>
       </c>
       <c r="C130" t="n">
-        <v>329.37</v>
+        <v>341.1799999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>2.116230100443807</v>
+        <v>6.906996796963471</v>
       </c>
       <c r="E130" t="n">
-        <v>0.560808471549802</v>
+        <v>0.5509334893414921</v>
       </c>
     </row>
     <row r="131">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>322.0732507595238</v>
+        <v>326.6991879703012</v>
       </c>
       <c r="C131" t="n">
-        <v>329.33</v>
+        <v>329.37</v>
       </c>
       <c r="D131" t="n">
-        <v>6.695928720733664</v>
+        <v>2.116230100443807</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5608205197425731</v>
+        <v>0.5545819292549924</v>
       </c>
     </row>
     <row r="132">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>302.857203359283</v>
+        <v>302.8632792991682</v>
       </c>
       <c r="C132" t="n">
         <v>309.87</v>
@@ -2946,7 +2946,7 @@
         <v>6.44611467519124</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5666819655257057</v>
+        <v>0.5606060256405344</v>
       </c>
     </row>
     <row r="133">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>285.6187023585296</v>
+        <v>292.2326102970979</v>
       </c>
       <c r="C133" t="n">
-        <v>287.99</v>
+        <v>294.52</v>
       </c>
       <c r="D133" t="n">
-        <v>1.798025314498941</v>
+        <v>1.722041632157989</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5732723269714888</v>
+        <v>0.5653480707440253</v>
       </c>
     </row>
     <row r="134">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>746.2513940106551</v>
+        <v>727.4123485486037</v>
       </c>
       <c r="C134" t="n">
-        <v>754.13</v>
+        <v>734.24</v>
       </c>
       <c r="D134" t="n">
-        <v>7.446017617706966</v>
+        <v>6.398432738609342</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4325883716379595</v>
+        <v>0.4292187127868684</v>
       </c>
     </row>
     <row r="135">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>691.700546990392</v>
+        <v>676.2142439632809</v>
       </c>
       <c r="C135" t="n">
-        <v>707.37</v>
+        <v>691.0599999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>15.1845717561363</v>
+        <v>14.36400956128531</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4848812534717012</v>
+        <v>0.4817464754337705</v>
       </c>
     </row>
     <row r="136">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>687.0448983248115</v>
+        <v>663.8809172851566</v>
       </c>
       <c r="C136" t="n">
-        <v>698.3900000000001</v>
+        <v>668.36</v>
       </c>
       <c r="D136" t="n">
-        <v>10.89572414692421</v>
+        <v>4.029655777036434</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4493775282644655</v>
+        <v>0.4494269378070241</v>
       </c>
     </row>
     <row r="137">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>673.6748337603676</v>
+        <v>653.5867514554393</v>
       </c>
       <c r="C137" t="n">
-        <v>686.3099999999999</v>
+        <v>670.0599999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>12.18215015715103</v>
+        <v>15.98501458071166</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4530160824813331</v>
+        <v>0.4882339638489698</v>
       </c>
     </row>
     <row r="138">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>664.7569046150412</v>
+        <v>651.204598535622</v>
       </c>
       <c r="C138" t="n">
-        <v>669.55</v>
+        <v>667.51</v>
       </c>
       <c r="D138" t="n">
-        <v>4.335031109706264</v>
+        <v>15.81637973407851</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4580642752524174</v>
+        <v>0.4890217302993869</v>
       </c>
     </row>
     <row r="139">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>664.5498790859112</v>
+        <v>649.980157214942</v>
       </c>
       <c r="C139" t="n">
-        <v>679.96</v>
+        <v>666.4000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>14.91698363652075</v>
+        <v>15.93047814465688</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4931372775680867</v>
+        <v>0.4893646404013332</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>659.638492693242</v>
+        <v>647.4582932787556</v>
       </c>
       <c r="C140" t="n">
-        <v>675.9200000000001</v>
+        <v>653.6600000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>15.78715316172009</v>
+        <v>5.747738541546857</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4943541450379662</v>
+        <v>0.4539681796976636</v>
       </c>
     </row>
     <row r="141">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>657.7979714587722</v>
+        <v>639.5249376561744</v>
       </c>
       <c r="C141" t="n">
-        <v>675.05</v>
+        <v>650.38</v>
       </c>
       <c r="D141" t="n">
-        <v>16.75741234799707</v>
+        <v>10.36089262946989</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4946161932307374</v>
+        <v>0.4941697143556871</v>
       </c>
     </row>
     <row r="142">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>651.6066507098026</v>
+        <v>638.2573896454942</v>
       </c>
       <c r="C142" t="n">
-        <v>666.89</v>
+        <v>653.8699999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>14.78627526564139</v>
+        <v>15.11937484601659</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4970740245560386</v>
+        <v>0.4932355084890687</v>
       </c>
     </row>
     <row r="143">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>646.8615602041366</v>
+        <v>629.4507023156061</v>
       </c>
       <c r="C143" t="n">
-        <v>653.6600000000001</v>
+        <v>647.03</v>
       </c>
       <c r="D143" t="n">
-        <v>6.335589376032751</v>
+        <v>17.08394910824955</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4628504198307306</v>
+        <v>0.4953485761443051</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>634.6070928021687</v>
+        <v>612.1769019497069</v>
       </c>
       <c r="C144" t="n">
-        <v>651.48</v>
+        <v>622.8099999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>16.37119160701024</v>
+        <v>10.13043680885338</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5017155908210988</v>
+        <v>0.5026612414396326</v>
       </c>
     </row>
     <row r="145">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>630.6395790641282</v>
+        <v>609.7511827787491</v>
       </c>
       <c r="C145" t="n">
-        <v>642.1200000000001</v>
+        <v>629.96</v>
       </c>
       <c r="D145" t="n">
-        <v>11.01409461242678</v>
+        <v>19.70819524380911</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4663263234451885</v>
+        <v>0.5006219774418027</v>
       </c>
     </row>
     <row r="146">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>622.6324427011516</v>
+        <v>608.8089982973281</v>
       </c>
       <c r="C146" t="n">
-        <v>627.8399999999999</v>
+        <v>624.0600000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>4.737106746781396</v>
+        <v>14.78774530066669</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4704505520669928</v>
+        <v>0.4632564020052806</v>
       </c>
     </row>
     <row r="147">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>619.8772666302842</v>
+        <v>606.2966746452186</v>
       </c>
       <c r="C147" t="n">
-        <v>640.35</v>
+        <v>622.05</v>
       </c>
       <c r="D147" t="n">
-        <v>19.96766536925609</v>
+        <v>15.28944800745642</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5050680004596531</v>
+        <v>0.463877347325021</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>619.8007303609936</v>
+        <v>605.5567888675057</v>
       </c>
       <c r="C148" t="n">
-        <v>636.37</v>
+        <v>627.33</v>
       </c>
       <c r="D148" t="n">
-        <v>16.06316817542594</v>
+        <v>21.27177667436062</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5061014635804287</v>
+        <v>0.5014344581338015</v>
       </c>
     </row>
     <row r="149">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>614.2302989538364</v>
+        <v>602.5937586716682</v>
       </c>
       <c r="C149" t="n">
-        <v>620.4300000000001</v>
+        <v>607.4200000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>5.726841590188373</v>
+        <v>4.357844364077707</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4728594559753089</v>
+        <v>0.4683969642542766</v>
       </c>
     </row>
     <row r="150">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>611.5290335804523</v>
+        <v>596.5343357551372</v>
       </c>
       <c r="C150" t="n">
-        <v>622.8099999999999</v>
+        <v>613.17</v>
       </c>
       <c r="D150" t="n">
-        <v>10.77061528655792</v>
+        <v>16.12985536596901</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5103511329897735</v>
+        <v>0.5058088788937645</v>
       </c>
     </row>
     <row r="151">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>602.9829872377505</v>
+        <v>594.1744137654406</v>
       </c>
       <c r="C151" t="n">
-        <v>613.84</v>
+        <v>616.37</v>
       </c>
       <c r="D151" t="n">
-        <v>10.34395982203085</v>
+        <v>21.69076592532899</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5130529402186891</v>
+        <v>0.5048203092304959</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>594.3160298886883</v>
+        <v>588.5175870882757</v>
       </c>
       <c r="C152" t="n">
-        <v>605.61</v>
+        <v>606.26</v>
       </c>
       <c r="D152" t="n">
-        <v>10.81664679991475</v>
+        <v>17.23446934021384</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4773233113969957</v>
+        <v>0.5079435715103847</v>
       </c>
     </row>
     <row r="153">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>587.4716971214763</v>
+        <v>582.2529006525942</v>
       </c>
       <c r="C153" t="n">
-        <v>594.48</v>
+        <v>587.1900000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>6.527627157488167</v>
+        <v>4.462596722233931</v>
       </c>
       <c r="E153" t="n">
-        <v>0.48067572103555</v>
+        <v>0.4745026251718681</v>
       </c>
     </row>
     <row r="154">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>586.7978440421186</v>
+        <v>575.9077550814968</v>
       </c>
       <c r="C154" t="n">
-        <v>602.84</v>
+        <v>592.45</v>
       </c>
       <c r="D154" t="n">
-        <v>15.52578976465068</v>
+        <v>16.0300350510398</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5163661932307374</v>
+        <v>0.5122098674634277</v>
       </c>
     </row>
     <row r="155">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>581.6566809391121</v>
+        <v>563.1374606288526</v>
       </c>
       <c r="C155" t="n">
-        <v>587.1900000000001</v>
+        <v>574.53</v>
       </c>
       <c r="D155" t="n">
-        <v>5.050447556719825</v>
+        <v>10.91398176432279</v>
       </c>
       <c r="E155" t="n">
-        <v>0.48287150416808</v>
+        <v>0.4785576068245577</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>563.8338280736956</v>
+        <v>552.4032444521529</v>
       </c>
       <c r="C156" t="n">
-        <v>588.1600000000001</v>
+        <v>567.79</v>
       </c>
       <c r="D156" t="n">
-        <v>23.80556712008529</v>
+        <v>14.90611576616926</v>
       </c>
       <c r="E156" t="n">
-        <v>0.520604806219277</v>
+        <v>0.4806397816778168</v>
       </c>
     </row>
     <row r="157">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>554.3220808012776</v>
+        <v>549.2020968549398</v>
       </c>
       <c r="C157" t="n">
-        <v>570.88</v>
+        <v>555.38</v>
       </c>
       <c r="D157" t="n">
-        <v>16.03192649946753</v>
+        <v>5.693429566657034</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5259926992548337</v>
+        <v>0.4844735784031799</v>
       </c>
     </row>
     <row r="158">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>549.8478918710441</v>
+        <v>534.8875928490427</v>
       </c>
       <c r="C158" t="n">
-        <v>566.73</v>
+        <v>543.65</v>
       </c>
       <c r="D158" t="n">
-        <v>16.35486542970106</v>
+        <v>8.235121596129051</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5272426992548337</v>
+        <v>0.5272855548282716</v>
       </c>
     </row>
     <row r="159">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>546.7025137290774</v>
+        <v>529.4996168363851</v>
       </c>
       <c r="C159" t="n">
-        <v>556.02</v>
+        <v>544.75</v>
       </c>
       <c r="D159" t="n">
-        <v>8.787017668053318</v>
+        <v>14.72343742960835</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5304686028692915</v>
+        <v>0.5269457340065231</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>544.1578621582693</v>
+        <v>524.0768031456688</v>
       </c>
       <c r="C160" t="n">
-        <v>568.22</v>
+        <v>541.13</v>
       </c>
       <c r="D160" t="n">
-        <v>23.53534393765666</v>
+        <v>16.52513280089309</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5267939040741109</v>
+        <v>0.5280640534380956</v>
       </c>
     </row>
     <row r="161">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>543.5176419464901</v>
+        <v>513.2276501086549</v>
       </c>
       <c r="C161" t="n">
-        <v>554.12</v>
+        <v>530.5</v>
       </c>
       <c r="D161" t="n">
-        <v>10.10952570596826</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E161" t="n">
-        <v>0.492832347541574</v>
+        <v>0.5313479582882654</v>
       </c>
     </row>
     <row r="162">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>539.6263587818344</v>
+        <v>492.3879058372617</v>
       </c>
       <c r="C162" t="n">
-        <v>555.14</v>
+        <v>517.96</v>
       </c>
       <c r="D162" t="n">
-        <v>14.98290755505533</v>
+        <v>25.03658471797884</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5355094447594787</v>
       </c>
     </row>
     <row r="163">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>519.8309538857159</v>
+        <v>486.6671805211162</v>
       </c>
       <c r="C163" t="n">
-        <v>530.26</v>
+        <v>492.3399999999999</v>
       </c>
       <c r="D163" t="n">
-        <v>9.929027019754566</v>
+        <v>5.168871078114131</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5000190945295259</v>
+        <v>0.5039484007695685</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>513.2208427170859</v>
+        <v>486.6207534468163</v>
       </c>
       <c r="C164" t="n">
-        <v>530.5</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D164" t="n">
-        <v>16.74100193305681</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.5373071797896556</v>
       </c>
     </row>
     <row r="165">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>502.7153388118036</v>
+        <v>478.7762354517741</v>
       </c>
       <c r="C165" t="n">
-        <v>528.35</v>
+        <v>489.0699999999999</v>
       </c>
       <c r="D165" t="n">
-        <v>25.09557790710199</v>
+        <v>9.788805952831583</v>
       </c>
       <c r="E165" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5049585953942209</v>
       </c>
     </row>
     <row r="166">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>487.6162628590631</v>
+        <v>470.2076028840686</v>
       </c>
       <c r="C166" t="n">
-        <v>497.48</v>
+        <v>473.5</v>
       </c>
       <c r="D166" t="n">
-        <v>9.353844552431568</v>
+        <v>2.782772464191734</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5098925885054294</v>
+        <v>0.5096246517396776</v>
       </c>
     </row>
     <row r="167">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>486.6140950357849</v>
+        <v>453.4353261437972</v>
       </c>
       <c r="C167" t="n">
-        <v>511.2099999999999</v>
+        <v>457.81</v>
       </c>
       <c r="D167" t="n">
-        <v>24.05193937339397</v>
+        <v>3.860227742254114</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5439655908210987</v>
+        <v>0.5144461139487392</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>466.1644492610225</v>
+        <v>443.7330404581288</v>
       </c>
       <c r="C168" t="n">
-        <v>469.54</v>
+        <v>448.17</v>
       </c>
       <c r="D168" t="n">
-        <v>2.85724248782151</v>
+        <v>3.919365790468253</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5183082511560319</v>
+        <v>0.5175937514028709</v>
       </c>
     </row>
     <row r="169">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>452.7877523963552</v>
+        <v>441.5937553565334</v>
       </c>
       <c r="C169" t="n">
-        <v>457.81</v>
+        <v>455.9299999999999</v>
       </c>
       <c r="D169" t="n">
-        <v>4.500406219958658</v>
+        <v>13.82104817349705</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5218413836861523</v>
+        <v>0.5151964699694448</v>
       </c>
     </row>
     <row r="170">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>435.5002918254692</v>
+        <v>416.7441886171728</v>
       </c>
       <c r="C170" t="n">
-        <v>444.8</v>
+        <v>422.14</v>
       </c>
       <c r="D170" t="n">
-        <v>8.773948116145766</v>
+        <v>4.87017623506965</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5257600583849475</v>
+        <v>0.5256351477575202</v>
       </c>
     </row>
     <row r="171">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>416.7372384053406</v>
+        <v>409.3788111633684</v>
       </c>
       <c r="C171" t="n">
-        <v>422.14</v>
+        <v>423.15</v>
       </c>
       <c r="D171" t="n">
-        <v>4.87017623506965</v>
+        <v>13.24586570617405</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5325853595897667</v>
+        <v>0.5253231304575512</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>401.521080126082</v>
+        <v>383.5115434223612</v>
       </c>
       <c r="C172" t="n">
-        <v>405.88</v>
+        <v>388.17</v>
       </c>
       <c r="D172" t="n">
-        <v>3.821436923966766</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5374829499512126</v>
+        <v>0.5361294325891545</v>
       </c>
     </row>
     <row r="173">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>387.9612325449802</v>
+        <v>376.1460170431328</v>
       </c>
       <c r="C173" t="n">
-        <v>391.02</v>
+        <v>378.65</v>
       </c>
       <c r="D173" t="n">
-        <v>2.516808601454056</v>
+        <v>1.964912529529789</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5419588535656704</v>
+        <v>0.5390704273373781</v>
       </c>
     </row>
     <row r="174">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>383.5048555676498</v>
+        <v>370.7580410304752</v>
       </c>
       <c r="C174" t="n">
-        <v>388.17</v>
+        <v>379.7499999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>4.122327145049604</v>
+        <v>8.453228363009091</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5387306065156297</v>
       </c>
     </row>
     <row r="175">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>374.6143218188762</v>
+        <v>360.4263548116465</v>
       </c>
       <c r="C175" t="n">
-        <v>382.6</v>
+        <v>365.5</v>
       </c>
       <c r="D175" t="n">
-        <v>7.441183182979835</v>
+        <v>4.530512357556052</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5444949981439837</v>
+        <v>0.543132830797372</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>360.4198420418903</v>
+        <v>313.2967742462619</v>
       </c>
       <c r="C176" t="n">
-        <v>365.5</v>
+        <v>323.11</v>
       </c>
       <c r="D176" t="n">
-        <v>4.530512357556052</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5562282895554812</v>
       </c>
     </row>
     <row r="177">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>313.2905888629746</v>
+        <v>309.8715906408114</v>
       </c>
       <c r="C177" t="n">
-        <v>323.11</v>
+        <v>317.55</v>
       </c>
       <c r="D177" t="n">
-        <v>9.256997464182636</v>
+        <v>7.120463429843161</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5624136728427789</v>
+        <v>0.5579459293454102</v>
       </c>
     </row>
     <row r="178">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>746.2513940106551</v>
+        <v>727.4123485486037</v>
       </c>
       <c r="C178" t="n">
-        <v>754.13</v>
+        <v>734.24</v>
       </c>
       <c r="D178" t="n">
-        <v>7.446017617706966</v>
+        <v>6.398432738609342</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4325883716379595</v>
+        <v>0.4292187127868684</v>
       </c>
     </row>
     <row r="179">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>691.700546990392</v>
+        <v>676.2142439632809</v>
       </c>
       <c r="C179" t="n">
-        <v>707.37</v>
+        <v>691.0599999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>15.1845717561363</v>
+        <v>14.36400956128531</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4848812534717012</v>
+        <v>0.4817464754337705</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>687.0448983248115</v>
+        <v>663.8809172851566</v>
       </c>
       <c r="C180" t="n">
-        <v>698.3900000000001</v>
+        <v>668.36</v>
       </c>
       <c r="D180" t="n">
-        <v>10.89572414692421</v>
+        <v>4.029655777036434</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4493775282644655</v>
+        <v>0.4494269378070241</v>
       </c>
     </row>
     <row r="181">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>673.6748337603676</v>
+        <v>653.5867514554393</v>
       </c>
       <c r="C181" t="n">
-        <v>686.3099999999999</v>
+        <v>670.0599999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>12.18215015715103</v>
+        <v>15.98501458071166</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4530160824813331</v>
+        <v>0.4882339638489698</v>
       </c>
     </row>
     <row r="182">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>664.7569046150412</v>
+        <v>651.204598535622</v>
       </c>
       <c r="C182" t="n">
-        <v>669.55</v>
+        <v>667.51</v>
       </c>
       <c r="D182" t="n">
-        <v>4.335031109706264</v>
+        <v>15.81637973407851</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4580642752524174</v>
+        <v>0.4890217302993869</v>
       </c>
     </row>
     <row r="183">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>664.5498790859112</v>
+        <v>649.980157214942</v>
       </c>
       <c r="C183" t="n">
-        <v>679.96</v>
+        <v>666.4000000000001</v>
       </c>
       <c r="D183" t="n">
-        <v>14.91698363652075</v>
+        <v>15.93047814465688</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4931372775680867</v>
+        <v>0.4893646404013332</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>659.638492693242</v>
+        <v>647.4582932787556</v>
       </c>
       <c r="C184" t="n">
-        <v>675.9200000000001</v>
+        <v>653.6600000000001</v>
       </c>
       <c r="D184" t="n">
-        <v>15.78715316172009</v>
+        <v>5.747738541546857</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4943541450379662</v>
+        <v>0.4539681796976636</v>
       </c>
     </row>
     <row r="185">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>657.7979714587722</v>
+        <v>639.5249376561744</v>
       </c>
       <c r="C185" t="n">
-        <v>675.05</v>
+        <v>650.38</v>
       </c>
       <c r="D185" t="n">
-        <v>16.75741234799707</v>
+        <v>10.36089262946989</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4946161932307374</v>
+        <v>0.4941697143556871</v>
       </c>
     </row>
     <row r="186">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>651.6066507098026</v>
+        <v>638.2573896454942</v>
       </c>
       <c r="C186" t="n">
-        <v>666.89</v>
+        <v>653.8699999999999</v>
       </c>
       <c r="D186" t="n">
-        <v>14.78627526564139</v>
+        <v>15.11937484601659</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4970740245560386</v>
+        <v>0.4932355084890687</v>
       </c>
     </row>
     <row r="187">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>646.8615602041366</v>
+        <v>629.4507023156061</v>
       </c>
       <c r="C187" t="n">
-        <v>653.6600000000001</v>
+        <v>647.03</v>
       </c>
       <c r="D187" t="n">
-        <v>6.335589376032751</v>
+        <v>17.08394910824955</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4628504198307306</v>
+        <v>0.4953485761443051</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>634.6070928021687</v>
+        <v>612.1390106944389</v>
       </c>
       <c r="C188" t="n">
-        <v>651.48</v>
+        <v>622.8099999999999</v>
       </c>
       <c r="D188" t="n">
-        <v>16.37119160701024</v>
+        <v>10.16815849277788</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5017155908210988</v>
+        <v>0.5028308127831682</v>
       </c>
     </row>
     <row r="189">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>630.6395790641282</v>
+        <v>609.7511827787491</v>
       </c>
       <c r="C189" t="n">
-        <v>642.1200000000001</v>
+        <v>629.96</v>
       </c>
       <c r="D189" t="n">
-        <v>11.01409461242678</v>
+        <v>19.70819524380911</v>
       </c>
       <c r="E189" t="n">
-        <v>0.4663263234451885</v>
+        <v>0.5006219774418027</v>
       </c>
     </row>
     <row r="190">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>622.5439522769168</v>
+        <v>608.8089982973281</v>
       </c>
       <c r="C190" t="n">
-        <v>627.8399999999999</v>
+        <v>624.0600000000001</v>
       </c>
       <c r="D190" t="n">
-        <v>4.825420194818606</v>
+        <v>14.78774530066669</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4706275282644656</v>
+        <v>0.4632564020052806</v>
       </c>
     </row>
     <row r="191">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>619.8772666302842</v>
+        <v>606.2966746452186</v>
       </c>
       <c r="C191" t="n">
-        <v>640.35</v>
+        <v>622.05</v>
       </c>
       <c r="D191" t="n">
-        <v>19.96766536925609</v>
+        <v>15.28944800745642</v>
       </c>
       <c r="E191" t="n">
-        <v>0.5050680004596531</v>
+        <v>0.463877347325021</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>619.7628433450092</v>
+        <v>605.5567888675057</v>
       </c>
       <c r="C192" t="n">
-        <v>636.37</v>
+        <v>627.33</v>
       </c>
       <c r="D192" t="n">
-        <v>16.10088985935044</v>
+        <v>21.27177667436062</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.5014344581338015</v>
       </c>
     </row>
     <row r="193">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>614.2302989538364</v>
+        <v>602.5937586716682</v>
       </c>
       <c r="C193" t="n">
-        <v>620.4300000000001</v>
+        <v>607.4200000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>5.726841590188373</v>
+        <v>4.357844364077707</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4728594559753089</v>
+        <v>0.4683969642542766</v>
       </c>
     </row>
     <row r="194">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>611.5206567380523</v>
+        <v>596.5343357551372</v>
       </c>
       <c r="C194" t="n">
-        <v>622.8099999999999</v>
+        <v>613.17</v>
       </c>
       <c r="D194" t="n">
-        <v>10.778992128958</v>
+        <v>16.12985536596901</v>
       </c>
       <c r="E194" t="n">
-        <v>0.5103511329897735</v>
+        <v>0.5058088788937645</v>
       </c>
     </row>
     <row r="195">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>602.9829872377505</v>
+        <v>594.1744137654406</v>
       </c>
       <c r="C195" t="n">
-        <v>613.84</v>
+        <v>616.37</v>
       </c>
       <c r="D195" t="n">
-        <v>10.34395982203085</v>
+        <v>21.69076592532899</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5130529402186891</v>
+        <v>0.5048203092304959</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>594.3160298886883</v>
+        <v>588.5175870882757</v>
       </c>
       <c r="C196" t="n">
-        <v>605.61</v>
+        <v>606.26</v>
       </c>
       <c r="D196" t="n">
-        <v>10.81664679991475</v>
+        <v>17.23446934021384</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4773233113969957</v>
+        <v>0.5079435715103847</v>
       </c>
     </row>
     <row r="197">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>587.4716971214763</v>
+        <v>582.2529006525942</v>
       </c>
       <c r="C197" t="n">
-        <v>594.48</v>
+        <v>587.1900000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>6.527627157488167</v>
+        <v>4.462596722233931</v>
       </c>
       <c r="E197" t="n">
-        <v>0.48067572103555</v>
+        <v>0.4745026251718681</v>
       </c>
     </row>
     <row r="198">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>586.7978440421186</v>
+        <v>575.9077550814968</v>
       </c>
       <c r="C198" t="n">
-        <v>602.84</v>
+        <v>592.45</v>
       </c>
       <c r="D198" t="n">
-        <v>15.52578976465068</v>
+        <v>16.0300350510398</v>
       </c>
       <c r="E198" t="n">
-        <v>0.5163661932307374</v>
+        <v>0.5122098674634277</v>
       </c>
     </row>
     <row r="199">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>581.6566809391121</v>
+        <v>563.1374606288526</v>
       </c>
       <c r="C199" t="n">
-        <v>587.1900000000001</v>
+        <v>574.53</v>
       </c>
       <c r="D199" t="n">
-        <v>5.050447556719825</v>
+        <v>10.91398176432279</v>
       </c>
       <c r="E199" t="n">
-        <v>0.48287150416808</v>
+        <v>0.4785576068245577</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>563.8338280736956</v>
+        <v>552.4032444521529</v>
       </c>
       <c r="C200" t="n">
-        <v>588.1600000000001</v>
+        <v>567.79</v>
       </c>
       <c r="D200" t="n">
-        <v>23.80556712008529</v>
+        <v>14.90611576616926</v>
       </c>
       <c r="E200" t="n">
-        <v>0.520604806219277</v>
+        <v>0.4806397816778168</v>
       </c>
     </row>
     <row r="201">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>554.3220808012776</v>
+        <v>549.2020968549398</v>
       </c>
       <c r="C201" t="n">
-        <v>570.88</v>
+        <v>555.38</v>
       </c>
       <c r="D201" t="n">
-        <v>16.03192649946753</v>
+        <v>5.693429566657034</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5259926992548337</v>
+        <v>0.4844735784031799</v>
       </c>
     </row>
     <row r="202">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>549.8478918710441</v>
+        <v>534.8875928490427</v>
       </c>
       <c r="C202" t="n">
-        <v>566.73</v>
+        <v>543.65</v>
       </c>
       <c r="D202" t="n">
-        <v>16.35486542970106</v>
+        <v>8.235121596129051</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5272426992548337</v>
+        <v>0.5272855548282716</v>
       </c>
     </row>
     <row r="203">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>546.7025137290774</v>
+        <v>529.4996168363851</v>
       </c>
       <c r="C203" t="n">
-        <v>556.02</v>
+        <v>544.75</v>
       </c>
       <c r="D203" t="n">
-        <v>8.787017668053318</v>
+        <v>14.72343742960835</v>
       </c>
       <c r="E203" t="n">
-        <v>0.5304686028692915</v>
+        <v>0.5269457340065231</v>
       </c>
     </row>
     <row r="204">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>544.1578621582693</v>
+        <v>524.0768031456688</v>
       </c>
       <c r="C204" t="n">
-        <v>568.22</v>
+        <v>541.13</v>
       </c>
       <c r="D204" t="n">
-        <v>23.53534393765666</v>
+        <v>16.52513280089309</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5267939040741109</v>
+        <v>0.5280640534380956</v>
       </c>
     </row>
     <row r="205">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>543.5176419464901</v>
+        <v>513.2276501086549</v>
       </c>
       <c r="C205" t="n">
-        <v>554.12</v>
+        <v>530.5</v>
       </c>
       <c r="D205" t="n">
-        <v>10.10952570596826</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E205" t="n">
-        <v>0.492832347541574</v>
+        <v>0.5313479582882654</v>
       </c>
     </row>
     <row r="206">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>539.6263587818344</v>
+        <v>492.3879058372617</v>
       </c>
       <c r="C206" t="n">
-        <v>555.14</v>
+        <v>517.96</v>
       </c>
       <c r="D206" t="n">
-        <v>14.98290755505533</v>
+        <v>25.03658471797884</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5355094447594787</v>
       </c>
     </row>
     <row r="207">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>519.8309538857159</v>
+        <v>486.6671805211162</v>
       </c>
       <c r="C207" t="n">
-        <v>530.26</v>
+        <v>492.3399999999999</v>
       </c>
       <c r="D207" t="n">
-        <v>9.929027019754566</v>
+        <v>5.168871078114131</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5000190945295259</v>
+        <v>0.5039484007695685</v>
       </c>
     </row>
     <row r="208">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>513.2208427170859</v>
+        <v>486.6207534468163</v>
       </c>
       <c r="C208" t="n">
-        <v>530.5</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D208" t="n">
-        <v>16.74100193305681</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E208" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.5373071797896556</v>
       </c>
     </row>
     <row r="209">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>502.7153388118036</v>
+        <v>478.7762354517741</v>
       </c>
       <c r="C209" t="n">
-        <v>528.35</v>
+        <v>489.0699999999999</v>
       </c>
       <c r="D209" t="n">
-        <v>25.09557790710199</v>
+        <v>9.788805952831583</v>
       </c>
       <c r="E209" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5049585953942209</v>
       </c>
     </row>
     <row r="210">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>487.6162628590631</v>
+        <v>470.2076028840686</v>
       </c>
       <c r="C210" t="n">
-        <v>497.48</v>
+        <v>473.5</v>
       </c>
       <c r="D210" t="n">
-        <v>9.353844552431568</v>
+        <v>2.782772464191734</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5098925885054294</v>
+        <v>0.5096246517396776</v>
       </c>
     </row>
     <row r="211">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>486.6140950357849</v>
+        <v>453.3974348885291</v>
       </c>
       <c r="C211" t="n">
-        <v>511.2099999999999</v>
+        <v>457.81</v>
       </c>
       <c r="D211" t="n">
-        <v>24.05193937339397</v>
+        <v>3.897949426178617</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5439655908210987</v>
+        <v>0.5146156852922747</v>
       </c>
     </row>
     <row r="212">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>466.1644492610225</v>
+        <v>443.7330404581288</v>
       </c>
       <c r="C212" t="n">
-        <v>469.54</v>
+        <v>448.17</v>
       </c>
       <c r="D212" t="n">
-        <v>2.85724248782151</v>
+        <v>3.919365790468253</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5183082511560319</v>
+        <v>0.5175937514028709</v>
       </c>
     </row>
     <row r="213">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>452.7793755539551</v>
+        <v>441.5937553565334</v>
       </c>
       <c r="C213" t="n">
-        <v>457.81</v>
+        <v>455.9299999999999</v>
       </c>
       <c r="D213" t="n">
-        <v>4.508783062358739</v>
+        <v>13.82104817349705</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5218413836861523</v>
+        <v>0.5151964699694448</v>
       </c>
     </row>
     <row r="214">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>435.5002918254692</v>
+        <v>416.7441886171728</v>
       </c>
       <c r="C214" t="n">
-        <v>444.8</v>
+        <v>422.14</v>
       </c>
       <c r="D214" t="n">
-        <v>8.773948116145766</v>
+        <v>4.87017623506965</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5257600583849475</v>
+        <v>0.5256351477575202</v>
       </c>
     </row>
     <row r="215">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>416.7372384053406</v>
+        <v>409.3788111633684</v>
       </c>
       <c r="C215" t="n">
-        <v>422.14</v>
+        <v>423.15</v>
       </c>
       <c r="D215" t="n">
-        <v>4.87017623506965</v>
+        <v>13.24586570617405</v>
       </c>
       <c r="E215" t="n">
-        <v>0.5325853595897667</v>
+        <v>0.5253231304575512</v>
       </c>
     </row>
     <row r="216">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>401.521080126082</v>
+        <v>383.5115434223612</v>
       </c>
       <c r="C216" t="n">
-        <v>405.88</v>
+        <v>388.17</v>
       </c>
       <c r="D216" t="n">
-        <v>3.821436923966766</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5374829499512126</v>
+        <v>0.5361294325891545</v>
       </c>
     </row>
     <row r="217">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>387.9612325449802</v>
+        <v>376.1460170431328</v>
       </c>
       <c r="C217" t="n">
-        <v>391.02</v>
+        <v>378.65</v>
       </c>
       <c r="D217" t="n">
-        <v>2.516808601454056</v>
+        <v>1.964912529529789</v>
       </c>
       <c r="E217" t="n">
-        <v>0.5419588535656704</v>
+        <v>0.5390704273373781</v>
       </c>
     </row>
     <row r="218">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>383.5048555676498</v>
+        <v>370.7580410304752</v>
       </c>
       <c r="C218" t="n">
-        <v>388.17</v>
+        <v>379.7499999999999</v>
       </c>
       <c r="D218" t="n">
-        <v>4.122327145049604</v>
+        <v>8.453228363009091</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5387306065156297</v>
       </c>
     </row>
     <row r="219">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>374.6143218188762</v>
+        <v>360.4263548116465</v>
       </c>
       <c r="C219" t="n">
-        <v>382.6</v>
+        <v>365.5</v>
       </c>
       <c r="D219" t="n">
-        <v>7.441183182979835</v>
+        <v>4.530512357556052</v>
       </c>
       <c r="E219" t="n">
-        <v>0.5444949981439837</v>
+        <v>0.543132830797372</v>
       </c>
     </row>
     <row r="220">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>360.4198420418903</v>
+        <v>313.2967742462619</v>
       </c>
       <c r="C220" t="n">
-        <v>365.5</v>
+        <v>323.11</v>
       </c>
       <c r="D220" t="n">
-        <v>4.530512357556052</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5562282895554812</v>
       </c>
     </row>
     <row r="221">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>313.2905888629746</v>
+        <v>309.8715906408114</v>
       </c>
       <c r="C221" t="n">
-        <v>323.11</v>
+        <v>317.55</v>
       </c>
       <c r="D221" t="n">
-        <v>9.256997464182636</v>
+        <v>7.120463429843161</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5624136728427789</v>
+        <v>0.5579459293454102</v>
       </c>
     </row>
     <row r="222">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>737.1765405062429</v>
+        <v>742.2490955460881</v>
       </c>
       <c r="C222" t="n">
-        <v>744.87</v>
+        <v>749.42</v>
       </c>
       <c r="D222" t="n">
-        <v>7.258081965492734</v>
+        <v>6.746375268465073</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4353775282644656</v>
+        <v>0.4245291854467386</v>
       </c>
     </row>
     <row r="223">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>691.700546990392</v>
+        <v>676.2142439632809</v>
       </c>
       <c r="C223" t="n">
-        <v>707.37</v>
+        <v>691.0599999999999</v>
       </c>
       <c r="D223" t="n">
-        <v>15.1845717561363</v>
+        <v>14.36400956128531</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4848812534717012</v>
+        <v>0.4817464754337705</v>
       </c>
     </row>
     <row r="224">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>685.364334629727</v>
+        <v>653.3116377861583</v>
       </c>
       <c r="C224" t="n">
-        <v>696.9200000000001</v>
+        <v>670.0599999999999</v>
       </c>
       <c r="D224" t="n">
-        <v>11.10584507092427</v>
+        <v>16.26012824999267</v>
       </c>
       <c r="E224" t="n">
-        <v>0.449820299348803</v>
+        <v>0.4882339638489698</v>
       </c>
     </row>
     <row r="225">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>673.6748337603676</v>
+        <v>651.204598535622</v>
       </c>
       <c r="C225" t="n">
-        <v>686.3099999999999</v>
+        <v>667.51</v>
       </c>
       <c r="D225" t="n">
-        <v>12.18215015715103</v>
+        <v>15.81637973407851</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4530160824813331</v>
+        <v>0.4890217302993869</v>
       </c>
     </row>
     <row r="226">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>664.7569046150412</v>
+        <v>649.980157214942</v>
       </c>
       <c r="C226" t="n">
-        <v>669.55</v>
+        <v>666.4000000000001</v>
       </c>
       <c r="D226" t="n">
-        <v>4.335031109706264</v>
+        <v>15.93047814465688</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4580642752524174</v>
+        <v>0.4893646404013332</v>
       </c>
     </row>
     <row r="227">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>664.5498790859112</v>
+        <v>644.2117158033376</v>
       </c>
       <c r="C227" t="n">
-        <v>679.96</v>
+        <v>649.37</v>
       </c>
       <c r="D227" t="n">
-        <v>14.91698363652075</v>
+        <v>4.702846762837591</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4931372775680867</v>
+        <v>0.4554374338248665</v>
       </c>
     </row>
     <row r="228">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>659.638492693242</v>
+        <v>638.2573896454942</v>
       </c>
       <c r="C228" t="n">
-        <v>675.9200000000001</v>
+        <v>653.8699999999999</v>
       </c>
       <c r="D228" t="n">
-        <v>15.78715316172009</v>
+        <v>15.11937484601659</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4943541450379662</v>
+        <v>0.4932355084890687</v>
       </c>
     </row>
     <row r="229">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>657.4138046262633</v>
+        <v>629.3264205272494</v>
       </c>
       <c r="C229" t="n">
-        <v>675.05</v>
+        <v>647.03</v>
       </c>
       <c r="D229" t="n">
-        <v>17.14157918050592</v>
+        <v>17.20823089660618</v>
       </c>
       <c r="E229" t="n">
-        <v>0.4946161932307374</v>
+        <v>0.4953485761443051</v>
       </c>
     </row>
     <row r="230">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>651.6066507098026</v>
+        <v>614.5780029926832</v>
       </c>
       <c r="C230" t="n">
-        <v>666.89</v>
+        <v>621.1600000000001</v>
       </c>
       <c r="D230" t="n">
-        <v>14.78627526564139</v>
+        <v>6.117844714054319</v>
       </c>
       <c r="E230" t="n">
-        <v>0.4970740245560386</v>
+        <v>0.4641522932626176</v>
       </c>
     </row>
     <row r="231">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>646.8615602041366</v>
+        <v>612.1390106944389</v>
       </c>
       <c r="C231" t="n">
-        <v>653.6600000000001</v>
+        <v>622.8099999999999</v>
       </c>
       <c r="D231" t="n">
-        <v>6.335589376032751</v>
+        <v>10.16815849277788</v>
       </c>
       <c r="E231" t="n">
-        <v>0.4628504198307306</v>
+        <v>0.5028308127831682</v>
       </c>
     </row>
     <row r="232">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>634.6070928021687</v>
+        <v>609.7511827787491</v>
       </c>
       <c r="C232" t="n">
-        <v>651.48</v>
+        <v>629.96</v>
       </c>
       <c r="D232" t="n">
-        <v>16.37119160701024</v>
+        <v>19.70819524380911</v>
       </c>
       <c r="E232" t="n">
-        <v>0.5017155908210988</v>
+        <v>0.5006219774418027</v>
       </c>
     </row>
     <row r="233">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>630.6395790641282</v>
+        <v>607.128423249139</v>
       </c>
       <c r="C233" t="n">
-        <v>642.1200000000001</v>
+        <v>622.59</v>
       </c>
       <c r="D233" t="n">
-        <v>11.01409461242678</v>
+        <v>14.99786622466675</v>
       </c>
       <c r="E233" t="n">
-        <v>0.4663263234451885</v>
+        <v>0.4637105261943445</v>
       </c>
     </row>
     <row r="234">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>619.8772666302842</v>
+        <v>606.2966746452186</v>
       </c>
       <c r="C234" t="n">
-        <v>640.35</v>
+        <v>622.05</v>
       </c>
       <c r="D234" t="n">
-        <v>19.96766536925609</v>
+        <v>15.28944800745642</v>
       </c>
       <c r="E234" t="n">
-        <v>0.5050680004596531</v>
+        <v>0.463877347325021</v>
       </c>
     </row>
     <row r="235">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>619.7628433450092</v>
+        <v>605.5567888675057</v>
       </c>
       <c r="C235" t="n">
-        <v>636.37</v>
+        <v>627.33</v>
       </c>
       <c r="D235" t="n">
-        <v>16.10088985935044</v>
+        <v>21.27177667436062</v>
       </c>
       <c r="E235" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.5014344581338015</v>
       </c>
     </row>
     <row r="236">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>613.9477551284388</v>
+        <v>602.7331195567842</v>
       </c>
       <c r="C236" t="n">
-        <v>620.4300000000001</v>
+        <v>613.84</v>
       </c>
       <c r="D236" t="n">
-        <v>6.009385415586007</v>
+        <v>10.60127854609531</v>
       </c>
       <c r="E236" t="n">
-        <v>0.4728594559753089</v>
+        <v>0.5056018971205176</v>
       </c>
     </row>
     <row r="237">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>611.3591150726717</v>
+        <v>596.5343357551372</v>
       </c>
       <c r="C237" t="n">
-        <v>622.8099999999999</v>
+        <v>613.17</v>
       </c>
       <c r="D237" t="n">
-        <v>10.94053379433858</v>
+        <v>16.12985536596901</v>
       </c>
       <c r="E237" t="n">
-        <v>0.5103511329897735</v>
+        <v>0.5058088788937645</v>
       </c>
     </row>
     <row r="238">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>608.1771852622354</v>
+        <v>594.1744137654406</v>
       </c>
       <c r="C238" t="n">
-        <v>614.0599999999999</v>
+        <v>616.37</v>
       </c>
       <c r="D238" t="n">
-        <v>5.408036607090491</v>
+        <v>21.69076592532899</v>
       </c>
       <c r="E238" t="n">
-        <v>0.4747781306741041</v>
+        <v>0.5048203092304959</v>
       </c>
     </row>
     <row r="239">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>602.9829872377505</v>
+        <v>588.4394691556519</v>
       </c>
       <c r="C239" t="n">
-        <v>613.84</v>
+        <v>606.26</v>
       </c>
       <c r="D239" t="n">
-        <v>10.34395982203085</v>
+        <v>17.31258727283772</v>
       </c>
       <c r="E239" t="n">
-        <v>0.5130529402186891</v>
+        <v>0.5079435715103847</v>
       </c>
     </row>
     <row r="240">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>594.3160298886883</v>
+        <v>587.3122099058157</v>
       </c>
       <c r="C240" t="n">
-        <v>605.61</v>
+        <v>592.47</v>
       </c>
       <c r="D240" t="n">
-        <v>10.81664679991475</v>
+        <v>4.684774656034387</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4773233113969957</v>
+        <v>0.4730154381498588</v>
       </c>
     </row>
     <row r="241">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>586.7978440421186</v>
+        <v>575.9077550814968</v>
       </c>
       <c r="C241" t="n">
-        <v>602.84</v>
+        <v>592.45</v>
       </c>
       <c r="D241" t="n">
-        <v>15.52578976465068</v>
+        <v>16.0300350510398</v>
       </c>
       <c r="E241" t="n">
-        <v>0.5163661932307374</v>
+        <v>0.5122098674634277</v>
       </c>
     </row>
     <row r="242">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>581.6566809391121</v>
+        <v>563.1374606288526</v>
       </c>
       <c r="C242" t="n">
-        <v>587.1900000000001</v>
+        <v>574.53</v>
       </c>
       <c r="D242" t="n">
-        <v>5.050447556719825</v>
+        <v>10.91398176432279</v>
       </c>
       <c r="E242" t="n">
-        <v>0.48287150416808</v>
+        <v>0.4785576068245577</v>
       </c>
     </row>
     <row r="243">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>569.4490217796994</v>
+        <v>552.4032444521529</v>
       </c>
       <c r="C243" t="n">
-        <v>576.96</v>
+        <v>567.79</v>
       </c>
       <c r="D243" t="n">
-        <v>7.025025390831343</v>
+        <v>14.90611576616926</v>
       </c>
       <c r="E243" t="n">
-        <v>0.4859528294692849</v>
+        <v>0.4806397816778168</v>
       </c>
     </row>
     <row r="244">
@@ -5065,16 +5065,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>563.8338280736956</v>
+        <v>548.9195530295422</v>
       </c>
       <c r="C244" t="n">
-        <v>588.1600000000001</v>
+        <v>555.38</v>
       </c>
       <c r="D244" t="n">
-        <v>23.80556712008529</v>
+        <v>5.975973392054668</v>
       </c>
       <c r="E244" t="n">
-        <v>0.520604806219277</v>
+        <v>0.4844735784031799</v>
       </c>
     </row>
     <row r="245">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>554.3220808012776</v>
+        <v>545.1896478888174</v>
       </c>
       <c r="C245" t="n">
-        <v>570.88</v>
+        <v>550.65</v>
       </c>
       <c r="D245" t="n">
-        <v>16.03192649946753</v>
+        <v>4.974417303245947</v>
       </c>
       <c r="E245" t="n">
-        <v>0.5259926992548337</v>
+        <v>0.4859348079366986</v>
       </c>
     </row>
     <row r="246">
@@ -5103,16 +5103,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>549.8478918710441</v>
+        <v>534.8875928490427</v>
       </c>
       <c r="C246" t="n">
-        <v>566.73</v>
+        <v>543.65</v>
       </c>
       <c r="D246" t="n">
-        <v>16.35486542970106</v>
+        <v>8.235121596129051</v>
       </c>
       <c r="E246" t="n">
-        <v>0.5272426992548337</v>
+        <v>0.5272855548282716</v>
       </c>
     </row>
     <row r="247">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>546.7025137290774</v>
+        <v>529.4996168363851</v>
       </c>
       <c r="C247" t="n">
-        <v>556.02</v>
+        <v>544.75</v>
       </c>
       <c r="D247" t="n">
-        <v>8.787017668053318</v>
+        <v>14.72343742960835</v>
       </c>
       <c r="E247" t="n">
-        <v>0.5304686028692915</v>
+        <v>0.5269457340065231</v>
       </c>
     </row>
     <row r="248">
@@ -5141,16 +5141,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>544.1578621582693</v>
+        <v>523.6926363131599</v>
       </c>
       <c r="C248" t="n">
-        <v>568.22</v>
+        <v>541.13</v>
       </c>
       <c r="D248" t="n">
-        <v>23.53534393765666</v>
+        <v>16.90929963340195</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5267939040741109</v>
+        <v>0.5280640534380956</v>
       </c>
     </row>
     <row r="249">
@@ -5160,16 +5160,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>543.5176419464901</v>
+        <v>513.2276501086549</v>
       </c>
       <c r="C249" t="n">
-        <v>554.12</v>
+        <v>530.5</v>
       </c>
       <c r="D249" t="n">
-        <v>10.10952570596826</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E249" t="n">
-        <v>0.492832347541574</v>
+        <v>0.5313479582882654</v>
       </c>
     </row>
     <row r="250">
@@ -5179,16 +5179,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>539.6263587818344</v>
+        <v>492.3879058372617</v>
       </c>
       <c r="C250" t="n">
-        <v>555.14</v>
+        <v>517.96</v>
       </c>
       <c r="D250" t="n">
-        <v>14.98290755505533</v>
+        <v>25.03658471797884</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5355094447594787</v>
       </c>
     </row>
     <row r="251">
@@ -5198,16 +5198,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>519.8309538857159</v>
+        <v>486.6207534468163</v>
       </c>
       <c r="C251" t="n">
-        <v>530.26</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D251" t="n">
-        <v>9.929027019754566</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E251" t="n">
-        <v>0.5000190945295259</v>
+        <v>0.5373071797896556</v>
       </c>
     </row>
     <row r="252">
@@ -5217,16 +5217,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>513.2208427170859</v>
+        <v>478.7762354517741</v>
       </c>
       <c r="C252" t="n">
-        <v>530.5</v>
+        <v>489.0699999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>16.74100193305681</v>
+        <v>9.788805952831583</v>
       </c>
       <c r="E252" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.5049585953942209</v>
       </c>
     </row>
     <row r="253">
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>502.7153388118036</v>
+        <v>468.6443698688666</v>
       </c>
       <c r="C253" t="n">
-        <v>528.35</v>
+        <v>474.8199999999999</v>
       </c>
       <c r="D253" t="n">
-        <v>25.09557790710199</v>
+        <v>5.666269311457306</v>
       </c>
       <c r="E253" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5093608196759633</v>
       </c>
     </row>
     <row r="254">
@@ -5255,16 +5255,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>487.6162628590631</v>
+        <v>453.3974348885291</v>
       </c>
       <c r="C254" t="n">
-        <v>497.48</v>
+        <v>457.81</v>
       </c>
       <c r="D254" t="n">
-        <v>9.353844552431568</v>
+        <v>3.897949426178617</v>
       </c>
       <c r="E254" t="n">
-        <v>0.5098925885054294</v>
+        <v>0.5146156852922747</v>
       </c>
     </row>
     <row r="255">
@@ -5274,16 +5274,16 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>486.6140950357849</v>
+        <v>445.6177157319878</v>
       </c>
       <c r="C255" t="n">
-        <v>511.2099999999999</v>
+        <v>449.36</v>
       </c>
       <c r="D255" t="n">
-        <v>24.05193937339397</v>
+        <v>3.225058140952838</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5439655908210987</v>
+        <v>0.5172261270593429</v>
       </c>
     </row>
     <row r="256">
@@ -5293,16 +5293,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>466.1644492610225</v>
+        <v>443.7330404581288</v>
       </c>
       <c r="C256" t="n">
-        <v>469.54</v>
+        <v>448.17</v>
       </c>
       <c r="D256" t="n">
-        <v>2.85724248782151</v>
+        <v>3.919365790468253</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5183082511560319</v>
+        <v>0.5175937514028709</v>
       </c>
     </row>
     <row r="257">
@@ -5312,16 +5312,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>452.6178338885745</v>
+        <v>441.5937553565334</v>
       </c>
       <c r="C257" t="n">
-        <v>457.81</v>
+        <v>455.9299999999999</v>
       </c>
       <c r="D257" t="n">
-        <v>4.670324727739316</v>
+        <v>13.82104817349705</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5218413836861523</v>
+        <v>0.5151964699694448</v>
       </c>
     </row>
     <row r="258">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>435.5002918254692</v>
+        <v>416.7441886171728</v>
       </c>
       <c r="C258" t="n">
-        <v>444.8</v>
+        <v>422.14</v>
       </c>
       <c r="D258" t="n">
-        <v>8.773948116145766</v>
+        <v>4.87017623506965</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5257600583849475</v>
+        <v>0.5256351477575202</v>
       </c>
     </row>
     <row r="259">
@@ -5350,16 +5350,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>416.7372384053406</v>
+        <v>409.3788111633684</v>
       </c>
       <c r="C259" t="n">
-        <v>422.14</v>
+        <v>423.15</v>
       </c>
       <c r="D259" t="n">
-        <v>4.87017623506965</v>
+        <v>13.24586570617405</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5325853595897667</v>
+        <v>0.5253231304575512</v>
       </c>
     </row>
     <row r="260">
@@ -5369,16 +5369,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>401.521080126082</v>
+        <v>383.5115434223612</v>
       </c>
       <c r="C260" t="n">
-        <v>405.88</v>
+        <v>388.17</v>
       </c>
       <c r="D260" t="n">
-        <v>3.821436923966766</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E260" t="n">
-        <v>0.5374829499512126</v>
+        <v>0.5361294325891545</v>
       </c>
     </row>
     <row r="261">
@@ -5388,16 +5388,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>387.9612325449802</v>
+        <v>376.1460170431328</v>
       </c>
       <c r="C261" t="n">
-        <v>391.02</v>
+        <v>378.65</v>
       </c>
       <c r="D261" t="n">
-        <v>2.516808601454056</v>
+        <v>1.964912529529789</v>
       </c>
       <c r="E261" t="n">
-        <v>0.5419588535656704</v>
+        <v>0.5390704273373781</v>
       </c>
     </row>
     <row r="262">
@@ -5407,16 +5407,16 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>383.5048555676498</v>
+        <v>370.7580410304752</v>
       </c>
       <c r="C262" t="n">
-        <v>388.17</v>
+        <v>379.7499999999999</v>
       </c>
       <c r="D262" t="n">
-        <v>4.122327145049604</v>
+        <v>8.453228363009091</v>
       </c>
       <c r="E262" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5387306065156297</v>
       </c>
     </row>
     <row r="263">
@@ -5426,16 +5426,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>374.6143218188762</v>
+        <v>360.4263548116465</v>
       </c>
       <c r="C263" t="n">
-        <v>382.6</v>
+        <v>365.5</v>
       </c>
       <c r="D263" t="n">
-        <v>7.441183182979835</v>
+        <v>4.530512357556052</v>
       </c>
       <c r="E263" t="n">
-        <v>0.5444949981439837</v>
+        <v>0.543132830797372</v>
       </c>
     </row>
     <row r="264">
@@ -5445,16 +5445,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>360.4198420418903</v>
+        <v>313.2967742462619</v>
       </c>
       <c r="C264" t="n">
-        <v>365.5</v>
+        <v>323.11</v>
       </c>
       <c r="D264" t="n">
-        <v>4.530512357556052</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.5562282895554812</v>
       </c>
     </row>
     <row r="265">
@@ -5464,16 +5464,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>313.2905888629746</v>
+        <v>309.8715906408114</v>
       </c>
       <c r="C265" t="n">
-        <v>323.11</v>
+        <v>317.55</v>
       </c>
       <c r="D265" t="n">
-        <v>9.256997464182636</v>
+        <v>7.120463429843161</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5624136728427789</v>
+        <v>0.5579459293454102</v>
       </c>
     </row>
     <row r="266">
@@ -5483,16 +5483,16 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>737.1765405062429</v>
+        <v>742.2490955460881</v>
       </c>
       <c r="C266" t="n">
-        <v>744.87</v>
+        <v>749.42</v>
       </c>
       <c r="D266" t="n">
-        <v>7.258081965492734</v>
+        <v>6.746375268465073</v>
       </c>
       <c r="E266" t="n">
-        <v>0.4353775282644656</v>
+        <v>0.4245291854467386</v>
       </c>
     </row>
     <row r="267">
@@ -5502,16 +5502,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>691.700546990392</v>
+        <v>676.2142439632809</v>
       </c>
       <c r="C267" t="n">
-        <v>707.37</v>
+        <v>691.0599999999999</v>
       </c>
       <c r="D267" t="n">
-        <v>15.1845717561363</v>
+        <v>14.36400956128531</v>
       </c>
       <c r="E267" t="n">
-        <v>0.4848812534717012</v>
+        <v>0.4817464754337705</v>
       </c>
     </row>
     <row r="268">
@@ -5521,16 +5521,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>687.0448983248115</v>
+        <v>653.5867514554393</v>
       </c>
       <c r="C268" t="n">
-        <v>698.3900000000001</v>
+        <v>670.0599999999999</v>
       </c>
       <c r="D268" t="n">
-        <v>10.89572414692421</v>
+        <v>15.98501458071166</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4493775282644655</v>
+        <v>0.4882339638489698</v>
       </c>
     </row>
     <row r="269">
@@ -5540,16 +5540,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>673.6748337603676</v>
+        <v>651.204598535622</v>
       </c>
       <c r="C269" t="n">
-        <v>686.3099999999999</v>
+        <v>667.51</v>
       </c>
       <c r="D269" t="n">
-        <v>12.18215015715103</v>
+        <v>15.81637973407851</v>
       </c>
       <c r="E269" t="n">
-        <v>0.4530160824813331</v>
+        <v>0.4890217302993869</v>
       </c>
     </row>
     <row r="270">
@@ -5559,16 +5559,16 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>664.5498790859112</v>
+        <v>649.980157214942</v>
       </c>
       <c r="C270" t="n">
-        <v>679.96</v>
+        <v>666.4000000000001</v>
       </c>
       <c r="D270" t="n">
-        <v>14.91698363652075</v>
+        <v>15.93047814465688</v>
       </c>
       <c r="E270" t="n">
-        <v>0.4931372775680867</v>
+        <v>0.4893646404013332</v>
       </c>
     </row>
     <row r="271">
@@ -5578,16 +5578,16 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>659.638492693242</v>
+        <v>644.2117158033376</v>
       </c>
       <c r="C271" t="n">
-        <v>675.9200000000001</v>
+        <v>649.37</v>
       </c>
       <c r="D271" t="n">
-        <v>15.78715316172009</v>
+        <v>4.702846762837591</v>
       </c>
       <c r="E271" t="n">
-        <v>0.4943541450379662</v>
+        <v>0.4554374338248665</v>
       </c>
     </row>
     <row r="272">
@@ -5597,16 +5597,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>657.7979714587722</v>
+        <v>638.2573896454942</v>
       </c>
       <c r="C272" t="n">
-        <v>675.05</v>
+        <v>653.8699999999999</v>
       </c>
       <c r="D272" t="n">
-        <v>16.75741234799707</v>
+        <v>15.11937484601659</v>
       </c>
       <c r="E272" t="n">
-        <v>0.4946161932307374</v>
+        <v>0.4932355084890687</v>
       </c>
     </row>
     <row r="273">
@@ -5616,16 +5616,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>651.6066507098026</v>
+        <v>629.4507023156061</v>
       </c>
       <c r="C273" t="n">
-        <v>666.89</v>
+        <v>647.03</v>
       </c>
       <c r="D273" t="n">
-        <v>14.78627526564139</v>
+        <v>17.08394910824955</v>
       </c>
       <c r="E273" t="n">
-        <v>0.4970740245560386</v>
+        <v>0.4953485761443051</v>
       </c>
     </row>
     <row r="274">
@@ -5635,16 +5635,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>640.3249433025106</v>
+        <v>612.1390106944389</v>
       </c>
       <c r="C274" t="n">
-        <v>645.87</v>
+        <v>622.8099999999999</v>
       </c>
       <c r="D274" t="n">
-        <v>5.07985989211643</v>
+        <v>10.16815849277788</v>
       </c>
       <c r="E274" t="n">
-        <v>0.4651968053728993</v>
+        <v>0.5028308127831682</v>
       </c>
     </row>
     <row r="275">
@@ -5654,16 +5654,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>634.6070928021687</v>
+        <v>609.7511827787491</v>
       </c>
       <c r="C275" t="n">
-        <v>651.48</v>
+        <v>629.96</v>
       </c>
       <c r="D275" t="n">
-        <v>16.37119160701024</v>
+        <v>19.70819524380911</v>
       </c>
       <c r="E275" t="n">
-        <v>0.5017155908210988</v>
+        <v>0.5006219774418027</v>
       </c>
     </row>
     <row r="276">
@@ -5673,16 +5673,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>630.6395790641282</v>
+        <v>608.8089982973281</v>
       </c>
       <c r="C276" t="n">
-        <v>642.1200000000001</v>
+        <v>624.0600000000001</v>
       </c>
       <c r="D276" t="n">
-        <v>11.01409461242678</v>
+        <v>14.78774530066669</v>
       </c>
       <c r="E276" t="n">
-        <v>0.4663263234451885</v>
+        <v>0.4632564020052806</v>
       </c>
     </row>
     <row r="277">
@@ -5692,16 +5692,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>619.8772666302842</v>
+        <v>606.2966746452186</v>
       </c>
       <c r="C277" t="n">
-        <v>640.35</v>
+        <v>622.05</v>
       </c>
       <c r="D277" t="n">
-        <v>19.96766536925609</v>
+        <v>15.28944800745642</v>
       </c>
       <c r="E277" t="n">
-        <v>0.5050680004596531</v>
+        <v>0.463877347325021</v>
       </c>
     </row>
     <row r="278">
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>619.7628433450092</v>
+        <v>605.5567888675057</v>
       </c>
       <c r="C278" t="n">
-        <v>636.37</v>
+        <v>627.33</v>
       </c>
       <c r="D278" t="n">
-        <v>16.10088985935044</v>
+        <v>21.27177667436062</v>
       </c>
       <c r="E278" t="n">
-        <v>0.5062667956403759</v>
+        <v>0.5014344581338015</v>
       </c>
     </row>
     <row r="279">
@@ -5730,16 +5730,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>614.2302989538364</v>
+        <v>602.5937586716682</v>
       </c>
       <c r="C279" t="n">
-        <v>620.4300000000001</v>
+        <v>607.4200000000001</v>
       </c>
       <c r="D279" t="n">
-        <v>5.726841590188373</v>
+        <v>4.357844364077707</v>
       </c>
       <c r="E279" t="n">
-        <v>0.4728594559753089</v>
+        <v>0.4683969642542766</v>
       </c>
     </row>
     <row r="280">
@@ -5749,16 +5749,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>608.1771852622354</v>
+        <v>596.5343357551372</v>
       </c>
       <c r="C280" t="n">
-        <v>614.0599999999999</v>
+        <v>613.17</v>
       </c>
       <c r="D280" t="n">
-        <v>5.408036607090491</v>
+        <v>16.12985536596901</v>
       </c>
       <c r="E280" t="n">
-        <v>0.4747781306741041</v>
+        <v>0.5058088788937645</v>
       </c>
     </row>
     <row r="281">
@@ -5768,16 +5768,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>594.3160298886883</v>
+        <v>594.1744137654406</v>
       </c>
       <c r="C281" t="n">
-        <v>605.61</v>
+        <v>616.37</v>
       </c>
       <c r="D281" t="n">
-        <v>10.81664679991475</v>
+        <v>21.69076592532899</v>
       </c>
       <c r="E281" t="n">
-        <v>0.4773233113969957</v>
+        <v>0.5048203092304959</v>
       </c>
     </row>
     <row r="282">
@@ -5787,16 +5787,16 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>587.4716971214763</v>
+        <v>588.5175870882757</v>
       </c>
       <c r="C282" t="n">
-        <v>594.48</v>
+        <v>606.26</v>
       </c>
       <c r="D282" t="n">
-        <v>6.527627157488167</v>
+        <v>17.23446934021384</v>
       </c>
       <c r="E282" t="n">
-        <v>0.48067572103555</v>
+        <v>0.5079435715103847</v>
       </c>
     </row>
     <row r="283">
@@ -5806,16 +5806,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>586.7978440421186</v>
+        <v>575.9077550814968</v>
       </c>
       <c r="C283" t="n">
-        <v>602.84</v>
+        <v>592.45</v>
       </c>
       <c r="D283" t="n">
-        <v>15.52578976465068</v>
+        <v>16.0300350510398</v>
       </c>
       <c r="E283" t="n">
-        <v>0.5163661932307374</v>
+        <v>0.5122098674634277</v>
       </c>
     </row>
     <row r="284">
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>563.8338280736956</v>
+        <v>563.1374606288526</v>
       </c>
       <c r="C284" t="n">
-        <v>588.1600000000001</v>
+        <v>574.53</v>
       </c>
       <c r="D284" t="n">
-        <v>23.80556712008529</v>
+        <v>10.91398176432279</v>
       </c>
       <c r="E284" t="n">
-        <v>0.520604806219277</v>
+        <v>0.4785576068245577</v>
       </c>
     </row>
     <row r="285">
@@ -5844,16 +5844,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>554.3220808012776</v>
+        <v>552.4032444521529</v>
       </c>
       <c r="C285" t="n">
-        <v>570.88</v>
+        <v>567.79</v>
       </c>
       <c r="D285" t="n">
-        <v>16.03192649946753</v>
+        <v>14.90611576616926</v>
       </c>
       <c r="E285" t="n">
-        <v>0.5259926992548337</v>
+        <v>0.4806397816778168</v>
       </c>
     </row>
     <row r="286">
@@ -5863,16 +5863,16 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>549.8478918710441</v>
+        <v>549.2020968549398</v>
       </c>
       <c r="C286" t="n">
-        <v>566.73</v>
+        <v>555.38</v>
       </c>
       <c r="D286" t="n">
-        <v>16.35486542970106</v>
+        <v>5.693429566657034</v>
       </c>
       <c r="E286" t="n">
-        <v>0.5272426992548337</v>
+        <v>0.4844735784031799</v>
       </c>
     </row>
     <row r="287">
@@ -5882,16 +5882,16 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>546.7025137290774</v>
+        <v>534.8875928490427</v>
       </c>
       <c r="C287" t="n">
-        <v>556.02</v>
+        <v>543.65</v>
       </c>
       <c r="D287" t="n">
-        <v>8.787017668053318</v>
+        <v>8.235121596129051</v>
       </c>
       <c r="E287" t="n">
-        <v>0.5304686028692915</v>
+        <v>0.5272855548282716</v>
       </c>
     </row>
     <row r="288">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>544.1578621582693</v>
+        <v>533.954865535614</v>
       </c>
       <c r="C288" t="n">
-        <v>568.22</v>
+        <v>546.49</v>
       </c>
       <c r="D288" t="n">
-        <v>23.53534393765666</v>
+        <v>12.00872626513383</v>
       </c>
       <c r="E288" t="n">
-        <v>0.5267939040741109</v>
+        <v>0.5264081992521209</v>
       </c>
     </row>
     <row r="289">
@@ -5920,16 +5920,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>543.5176419464901</v>
+        <v>529.4996168363851</v>
       </c>
       <c r="C289" t="n">
-        <v>554.12</v>
+        <v>544.75</v>
       </c>
       <c r="D289" t="n">
-        <v>10.10952570596826</v>
+        <v>14.72343742960835</v>
       </c>
       <c r="E289" t="n">
-        <v>0.492832347541574</v>
+        <v>0.5269457340065231</v>
       </c>
     </row>
     <row r="290">
@@ -5939,16 +5939,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>539.6263587818344</v>
+        <v>524.0768031456688</v>
       </c>
       <c r="C290" t="n">
-        <v>555.14</v>
+        <v>541.13</v>
       </c>
       <c r="D290" t="n">
-        <v>14.98290755505533</v>
+        <v>16.52513280089309</v>
       </c>
       <c r="E290" t="n">
-        <v>0.5307336631102555</v>
+        <v>0.5280640534380956</v>
       </c>
     </row>
     <row r="291">
@@ -5958,16 +5958,16 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>533.2546246382069</v>
+        <v>521.5407376958467</v>
       </c>
       <c r="C291" t="n">
-        <v>546.49</v>
+        <v>530.55</v>
       </c>
       <c r="D291" t="n">
-        <v>12.70203627699607</v>
+        <v>8.517118043019188</v>
       </c>
       <c r="E291" t="n">
-        <v>0.5333390847970024</v>
+        <v>0.4921442611341035</v>
       </c>
     </row>
     <row r="292">
@@ -5977,16 +5977,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>520.8396401999867</v>
+        <v>513.2276501086549</v>
       </c>
       <c r="C292" t="n">
-        <v>530.55</v>
+        <v>530.5</v>
       </c>
       <c r="D292" t="n">
-        <v>9.210428054881426</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E292" t="n">
-        <v>0.4999317451319354</v>
+        <v>0.5313479582882654</v>
       </c>
     </row>
     <row r="293">
@@ -5996,16 +5996,16 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>519.8309538857159</v>
+        <v>492.3879058372617</v>
       </c>
       <c r="C293" t="n">
-        <v>530.26</v>
+        <v>517.96</v>
       </c>
       <c r="D293" t="n">
-        <v>9.929027019754566</v>
+        <v>25.03658471797884</v>
       </c>
       <c r="E293" t="n">
-        <v>0.5000190945295259</v>
+        <v>0.5355094447594787</v>
       </c>
     </row>
     <row r="294">
@@ -6015,16 +6015,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>513.2208427170859</v>
+        <v>486.6671805211162</v>
       </c>
       <c r="C294" t="n">
-        <v>530.5</v>
+        <v>492.3399999999999</v>
       </c>
       <c r="D294" t="n">
-        <v>16.74100193305681</v>
+        <v>5.168871078114131</v>
       </c>
       <c r="E294" t="n">
-        <v>0.5381553498572433</v>
+        <v>0.5039484007695685</v>
       </c>
     </row>
     <row r="295">
@@ -6034,16 +6034,16 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>502.7153388118036</v>
+        <v>486.6207534468163</v>
       </c>
       <c r="C295" t="n">
-        <v>528.35</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D295" t="n">
-        <v>25.09557790710199</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E295" t="n">
-        <v>0.539083281094387</v>
+        <v>0.5373071797896556</v>
       </c>
     </row>
     <row r="296">
@@ -6053,16 +6053,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>487.6162628590631</v>
+        <v>478.7762354517741</v>
       </c>
       <c r="C296" t="n">
-        <v>497.48</v>
+        <v>489.0699999999999</v>
       </c>
       <c r="D296" t="n">
-        <v>9.353844552431568</v>
+        <v>9.788805952831583</v>
       </c>
       <c r="E296" t="n">
-        <v>0.5098925885054294</v>
+        <v>0.5049585953942209</v>
       </c>
     </row>
     <row r="297">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>486.6140950357849</v>
+        <v>453.3974348885291</v>
       </c>
       <c r="C297" t="n">
-        <v>511.2099999999999</v>
+        <v>457.81</v>
       </c>
       <c r="D297" t="n">
-        <v>24.05193937339397</v>
+        <v>3.897949426178617</v>
       </c>
       <c r="E297" t="n">
-        <v>0.5439655908210987</v>
+        <v>0.5146156852922747</v>
       </c>
     </row>
     <row r="298">
@@ -6091,16 +6091,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>481.1491340129195</v>
+        <v>445.6177157319878</v>
       </c>
       <c r="C298" t="n">
-        <v>495</v>
+        <v>449.36</v>
       </c>
       <c r="D298" t="n">
-        <v>13.30173752526313</v>
+        <v>3.225058140952838</v>
       </c>
       <c r="E298" t="n">
-        <v>0.5491284618172786</v>
+        <v>0.5172261270593429</v>
       </c>
     </row>
     <row r="299">
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>441.7324879484918</v>
+        <v>443.7330404581288</v>
       </c>
       <c r="C299" t="n">
-        <v>445.86</v>
+        <v>448.17</v>
       </c>
       <c r="D299" t="n">
-        <v>3.602071270231676</v>
+        <v>3.919365790468253</v>
       </c>
       <c r="E299" t="n">
-        <v>0.5254407812765137</v>
+        <v>0.5175937514028709</v>
       </c>
     </row>
     <row r="300">
@@ -6129,16 +6129,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>435.5002918254692</v>
+        <v>441.5937553565334</v>
       </c>
       <c r="C300" t="n">
-        <v>444.8</v>
+        <v>455.9299999999999</v>
       </c>
       <c r="D300" t="n">
-        <v>8.773948116145766</v>
+        <v>13.82104817349705</v>
       </c>
       <c r="E300" t="n">
-        <v>0.5257600583849475</v>
+        <v>0.5151964699694448</v>
       </c>
     </row>
     <row r="301">
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>434.6258568353122</v>
+        <v>435.3262834939773</v>
       </c>
       <c r="C301" t="n">
         <v>443.69</v>
       </c>
       <c r="D301" t="n">
-        <v>8.538048768953509</v>
+        <v>7.844738757091271</v>
       </c>
       <c r="E301" t="n">
-        <v>0.5260943957343451</v>
+        <v>0.5189777489314467</v>
       </c>
     </row>
     <row r="302">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>416.7372384053406</v>
+        <v>416.7441886171728</v>
       </c>
       <c r="C302" t="n">
         <v>422.14</v>
@@ -6176,7 +6176,7 @@
         <v>4.87017623506965</v>
       </c>
       <c r="E302" t="n">
-        <v>0.5325853595897667</v>
+        <v>0.5256351477575202</v>
       </c>
     </row>
     <row r="303">
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>401.521080126082</v>
+        <v>409.3788111633684</v>
       </c>
       <c r="C303" t="n">
-        <v>405.88</v>
+        <v>423.15</v>
       </c>
       <c r="D303" t="n">
-        <v>3.821436923966766</v>
+        <v>13.24586570617405</v>
       </c>
       <c r="E303" t="n">
-        <v>0.5374829499512126</v>
+        <v>0.5253231304575512</v>
       </c>
     </row>
     <row r="304">
@@ -6205,16 +6205,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>387.9612325449802</v>
+        <v>383.5115434223612</v>
       </c>
       <c r="C304" t="n">
-        <v>391.02</v>
+        <v>388.17</v>
       </c>
       <c r="D304" t="n">
-        <v>2.516808601454056</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E304" t="n">
-        <v>0.5419588535656704</v>
+        <v>0.5361294325891545</v>
       </c>
     </row>
     <row r="305">
@@ -6224,16 +6224,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>383.5048555676498</v>
+        <v>376.1460170431328</v>
       </c>
       <c r="C305" t="n">
-        <v>388.17</v>
+        <v>378.65</v>
       </c>
       <c r="D305" t="n">
-        <v>4.122327145049604</v>
+        <v>1.964912529529789</v>
       </c>
       <c r="E305" t="n">
-        <v>0.5428172873006101</v>
+        <v>0.5390704273373781</v>
       </c>
     </row>
     <row r="306">
@@ -6243,16 +6243,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>374.6143218188762</v>
+        <v>370.7580410304752</v>
       </c>
       <c r="C306" t="n">
-        <v>382.6</v>
+        <v>379.7499999999999</v>
       </c>
       <c r="D306" t="n">
-        <v>7.441183182979835</v>
+        <v>8.453228363009091</v>
       </c>
       <c r="E306" t="n">
-        <v>0.5444949981439837</v>
+        <v>0.5387306065156297</v>
       </c>
     </row>
     <row r="307">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>360.4198420418903</v>
+        <v>360.4263548116465</v>
       </c>
       <c r="C307" t="n">
         <v>365.5</v>
@@ -6271,7 +6271,7 @@
         <v>4.530512357556052</v>
       </c>
       <c r="E307" t="n">
-        <v>0.5496456005536222</v>
+        <v>0.543132830797372</v>
       </c>
     </row>
     <row r="308">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>322.4078528288225</v>
+        <v>313.2967742462619</v>
       </c>
       <c r="C308" t="n">
-        <v>330</v>
+        <v>323.11</v>
       </c>
       <c r="D308" t="n">
-        <v>7.031528458663866</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E308" t="n">
-        <v>0.5606187125136575</v>
+        <v>0.5562282895554812</v>
       </c>
     </row>
     <row r="309">
@@ -6300,16 +6300,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>313.2905888629746</v>
+        <v>309.8715906408114</v>
       </c>
       <c r="C309" t="n">
-        <v>323.11</v>
+        <v>317.55</v>
       </c>
       <c r="D309" t="n">
-        <v>9.256997464182636</v>
+        <v>7.120463429843161</v>
       </c>
       <c r="E309" t="n">
-        <v>0.5624136728427789</v>
+        <v>0.5579459293454102</v>
       </c>
     </row>
     <row r="310">
@@ -6319,16 +6319,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>687.0977694501842</v>
+        <v>627.1553439001847</v>
       </c>
       <c r="C310" t="n">
-        <v>695.24</v>
+        <v>636.61</v>
       </c>
       <c r="D310" t="n">
-        <v>7.692087300129097</v>
+        <v>8.995174647515157</v>
       </c>
       <c r="E310" t="n">
-        <v>0.45014324968674</v>
+        <v>0.4594814523002691</v>
       </c>
     </row>
     <row r="311">
@@ -6338,16 +6338,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>639.2028703057206</v>
+        <v>609.0967110859133</v>
       </c>
       <c r="C311" t="n">
-        <v>649.13</v>
+        <v>620.83</v>
       </c>
       <c r="D311" t="n">
-        <v>9.462634475741691</v>
+        <v>11.26893491343175</v>
       </c>
       <c r="E311" t="n">
-        <v>0.4644952185377538</v>
+        <v>0.464354000655039</v>
       </c>
     </row>
     <row r="312">
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>624.7975106925441</v>
+        <v>584.4358509684787</v>
       </c>
       <c r="C312" t="n">
-        <v>632.88</v>
+        <v>591.09</v>
       </c>
       <c r="D312" t="n">
-        <v>7.613282584363324</v>
+        <v>6.180605175761106</v>
       </c>
       <c r="E312" t="n">
-        <v>0.4692067230925584</v>
+        <v>0.4735438557602629</v>
       </c>
     </row>
     <row r="313">
@@ -6376,16 +6376,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>621.5757974402883</v>
+        <v>572.6080871030852</v>
       </c>
       <c r="C313" t="n">
-        <v>629.8299999999999</v>
+        <v>585.8399999999999</v>
       </c>
       <c r="D313" t="n">
-        <v>7.784077161920271</v>
+        <v>12.75656173689055</v>
       </c>
       <c r="E313" t="n">
-        <v>0.4701253977913536</v>
+        <v>0.4753511600242231</v>
       </c>
     </row>
     <row r="314">
@@ -6395,16 +6395,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>606.7059500194827</v>
+        <v>558.9912909248171</v>
       </c>
       <c r="C314" t="n">
-        <v>612.3200000000001</v>
+        <v>568.33</v>
       </c>
       <c r="D314" t="n">
-        <v>5.138747753457724</v>
+        <v>8.858236114635829</v>
       </c>
       <c r="E314" t="n">
-        <v>0.4753022270596463</v>
+        <v>0.4804729605471402</v>
       </c>
     </row>
     <row r="315">
@@ -6414,16 +6414,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>582.792418544394</v>
+        <v>558.049989848301</v>
       </c>
       <c r="C315" t="n">
-        <v>590.9300000000001</v>
+        <v>575.4400000000001</v>
       </c>
       <c r="D315" t="n">
-        <v>7.656017253818266</v>
+        <v>16.91144614026916</v>
       </c>
       <c r="E315" t="n">
-        <v>0.4815642017878273</v>
+        <v>0.4785640114298456</v>
       </c>
     </row>
     <row r="316">
@@ -6433,16 +6433,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>578.6542493986558</v>
+        <v>557.7376509980057</v>
       </c>
       <c r="C316" t="n">
-        <v>590.0599999999999</v>
+        <v>569.74</v>
       </c>
       <c r="D316" t="n">
-        <v>10.9234632141317</v>
+        <v>11.52221186880916</v>
       </c>
       <c r="E316" t="n">
-        <v>0.4822873872124527</v>
+        <v>0.4801371331851594</v>
       </c>
     </row>
     <row r="317">
@@ -6452,16 +6452,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>570.5504126598556</v>
+        <v>552.8757790727258</v>
       </c>
       <c r="C317" t="n">
-        <v>585.37</v>
+        <v>569.8200000000001</v>
       </c>
       <c r="D317" t="n">
-        <v>14.33606809868569</v>
+        <v>16.46392074037324</v>
       </c>
       <c r="E317" t="n">
-        <v>0.4835192414587059</v>
+        <v>0.4803001869009608</v>
       </c>
     </row>
     <row r="318">
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>568.6354466940367</v>
+        <v>539.3035407820731</v>
       </c>
       <c r="C318" t="n">
-        <v>575.4200000000001</v>
+        <v>557.1900000000001</v>
       </c>
       <c r="D318" t="n">
-        <v>6.298422545257079</v>
+        <v>17.36335654848627</v>
       </c>
       <c r="E318" t="n">
-        <v>0.4861307607064285</v>
+        <v>0.523102669440567</v>
       </c>
     </row>
     <row r="319">
@@ -6490,16 +6490,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>542.1516516602954</v>
+        <v>537.8512194620693</v>
       </c>
       <c r="C319" t="n">
-        <v>559.48</v>
+        <v>554.24</v>
       </c>
       <c r="D319" t="n">
-        <v>16.79882236099051</v>
+        <v>15.90414021374527</v>
       </c>
       <c r="E319" t="n">
-        <v>0.5295259787141344</v>
+        <v>0.4846403241855589</v>
       </c>
     </row>
     <row r="320">
@@ -6509,16 +6509,16 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>538.1532059912894</v>
+        <v>528.7332652436335</v>
       </c>
       <c r="C320" t="n">
-        <v>554.4100000000001</v>
+        <v>536.25</v>
       </c>
       <c r="D320" t="n">
-        <v>15.763768669691</v>
+        <v>7.02624928800193</v>
       </c>
       <c r="E320" t="n">
-        <v>0.4930253390196816</v>
+        <v>0.4904854683645262</v>
       </c>
     </row>
     <row r="321">
@@ -6528,16 +6528,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>532.9535628627069</v>
+        <v>526.8065958354078</v>
       </c>
       <c r="C321" t="n">
-        <v>544.13</v>
+        <v>541.67</v>
       </c>
       <c r="D321" t="n">
-        <v>10.68031541273124</v>
+        <v>14.33521940318149</v>
       </c>
       <c r="E321" t="n">
-        <v>0.4961217245618502</v>
+        <v>0.5281847614106989</v>
       </c>
     </row>
     <row r="322">
@@ -6547,16 +6547,16 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>514.0399644046379</v>
+        <v>514.1894056602163</v>
       </c>
       <c r="C322" t="n">
-        <v>525.0599999999999</v>
+        <v>532.9100000000001</v>
       </c>
       <c r="D322" t="n">
-        <v>10.51835296865504</v>
+        <v>18.18970336891993</v>
       </c>
       <c r="E322" t="n">
-        <v>0.5016826267070162</v>
+        <v>0.5308909708638962</v>
       </c>
     </row>
     <row r="323">
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>509.9485564054464</v>
+        <v>510.2207128710572</v>
       </c>
       <c r="C323" t="n">
-        <v>527.04</v>
+        <v>522.7</v>
       </c>
       <c r="D323" t="n">
-        <v>16.55214880890436</v>
+        <v>11.98443025375033</v>
       </c>
       <c r="E323" t="n">
-        <v>0.5392947856491916</v>
+        <v>0.4948568751925889</v>
       </c>
     </row>
     <row r="324">
@@ -6585,16 +6585,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>492.1571130231339</v>
+        <v>508.9124732323004</v>
       </c>
       <c r="C324" t="n">
-        <v>516.8800000000001</v>
+        <v>533.05</v>
       </c>
       <c r="D324" t="n">
-        <v>24.18034887649472</v>
+        <v>23.60686681471574</v>
       </c>
       <c r="E324" t="n">
-        <v>0.5425381003714955</v>
+        <v>0.5306599529837452</v>
       </c>
     </row>
     <row r="325">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>486.9254067529641</v>
+        <v>505.7544143234502</v>
       </c>
       <c r="C325" t="n">
-        <v>506.08</v>
+        <v>515.16</v>
       </c>
       <c r="D325" t="n">
-        <v>18.60880213461619</v>
+        <v>8.908399484088136</v>
       </c>
       <c r="E325" t="n">
-        <v>0.5457911124196884</v>
+        <v>0.4971861924616652</v>
       </c>
     </row>
     <row r="326">
@@ -6623,16 +6623,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>485.8107809218753</v>
+        <v>504.7172665555827</v>
       </c>
       <c r="C326" t="n">
-        <v>498.8000000000001</v>
+        <v>521.29</v>
       </c>
       <c r="D326" t="n">
-        <v>12.47944373910509</v>
+        <v>16.07762641287687</v>
       </c>
       <c r="E326" t="n">
-        <v>0.5097753390196814</v>
+        <v>0.4951070315403061</v>
       </c>
     </row>
     <row r="327">
@@ -6642,16 +6642,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>474.4615564208515</v>
+        <v>496.3469367550051</v>
       </c>
       <c r="C327" t="n">
-        <v>491.46</v>
+        <v>511.1</v>
       </c>
       <c r="D327" t="n">
-        <v>16.48645739675535</v>
+        <v>14.25491033387631</v>
       </c>
       <c r="E327" t="n">
-        <v>0.5119861823931755</v>
+        <v>0.4981529111186572</v>
       </c>
     </row>
     <row r="328">
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>472.0393236019287</v>
+        <v>490.0656418442728</v>
       </c>
       <c r="C328" t="n">
-        <v>490.33</v>
+        <v>502.21</v>
       </c>
       <c r="D328" t="n">
-        <v>17.77834985423234</v>
+        <v>11.64335911336694</v>
       </c>
       <c r="E328" t="n">
-        <v>0.5123265438389586</v>
+        <v>0.5009990423603217</v>
       </c>
     </row>
     <row r="329">
@@ -6680,16 +6680,16 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>468.7854057628346</v>
+        <v>486.4715281151111</v>
       </c>
       <c r="C329" t="n">
-        <v>490.61</v>
+        <v>505.98</v>
       </c>
       <c r="D329" t="n">
-        <v>21.31253510443431</v>
+        <v>19.00844973320576</v>
       </c>
       <c r="E329" t="n">
-        <v>0.5120591327311127</v>
+        <v>0.5000221516831663</v>
       </c>
     </row>
     <row r="330">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>467.7483642585978</v>
+        <v>481.1299300786791</v>
       </c>
       <c r="C330" t="n">
-        <v>489.96</v>
+        <v>503.33</v>
       </c>
       <c r="D330" t="n">
-        <v>21.66098920729582</v>
+        <v>21.69922911038535</v>
       </c>
       <c r="E330" t="n">
-        <v>0.5506465341064353</v>
+        <v>0.5008408109355607</v>
       </c>
     </row>
     <row r="331">
@@ -6718,16 +6718,16 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>467.3321530860428</v>
+        <v>471.6015138479924</v>
       </c>
       <c r="C331" t="n">
-        <v>486.51</v>
+        <v>487.72</v>
       </c>
       <c r="D331" t="n">
-        <v>18.66455056406476</v>
+        <v>15.61282297468347</v>
       </c>
       <c r="E331" t="n">
-        <v>0.5132963498924409</v>
+        <v>0.5056631773241923</v>
       </c>
     </row>
     <row r="332">
@@ -6737,16 +6737,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>463.5559115911472</v>
+        <v>461.9793780511955</v>
       </c>
       <c r="C332" t="n">
-        <v>476.61</v>
+        <v>469.78</v>
       </c>
       <c r="D332" t="n">
-        <v>12.53792734400296</v>
+        <v>7.289416602805537</v>
       </c>
       <c r="E332" t="n">
-        <v>0.5161610648498314</v>
+        <v>0.5112053459988909</v>
       </c>
     </row>
     <row r="333">
@@ -6756,16 +6756,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>448.8621717500974</v>
+        <v>458.8421225324726</v>
       </c>
       <c r="C333" t="n">
-        <v>466.17</v>
+        <v>477.43</v>
       </c>
       <c r="D333" t="n">
-        <v>16.75001605314549</v>
+        <v>18.07940862099735</v>
       </c>
       <c r="E333" t="n">
-        <v>0.5578121967570377</v>
+        <v>0.5084688465300964</v>
       </c>
     </row>
     <row r="334">
@@ -6775,16 +6775,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>447.5263824538883</v>
+        <v>456.8794009988778</v>
       </c>
       <c r="C334" t="n">
-        <v>452.17</v>
+        <v>471.52</v>
       </c>
       <c r="D334" t="n">
-        <v>4.119797026369025</v>
+        <v>14.12993118987768</v>
       </c>
       <c r="E334" t="n">
-        <v>0.5238205197425732</v>
+        <v>0.5106678112444888</v>
       </c>
     </row>
     <row r="335">
@@ -6794,16 +6794,16 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>444.7914588701034</v>
+        <v>456.6325452015376</v>
       </c>
       <c r="C335" t="n">
-        <v>466.86</v>
+        <v>463.1799999999999</v>
       </c>
       <c r="D335" t="n">
-        <v>21.54914530894917</v>
+        <v>6.034210527532984</v>
       </c>
       <c r="E335" t="n">
-        <v>0.5193958209473925</v>
+        <v>0.5132442709293822</v>
       </c>
     </row>
     <row r="336">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>436.6488234932271</v>
+        <v>441.541339221392</v>
       </c>
       <c r="C336" t="n">
-        <v>446.86</v>
+        <v>445.5599999999999</v>
       </c>
       <c r="D336" t="n">
-        <v>9.685939663198418</v>
+        <v>3.500160963927577</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5252368435744861</v>
+        <v>0.5184998146803712</v>
       </c>
     </row>
     <row r="337">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>435.1115561915138</v>
+        <v>438.6176343698962</v>
       </c>
       <c r="C337" t="n">
-        <v>444.21</v>
+        <v>453.23</v>
       </c>
       <c r="D337" t="n">
-        <v>8.572225698382162</v>
+        <v>14.09633505448101</v>
       </c>
       <c r="E337" t="n">
-        <v>0.526218110104019</v>
+        <v>0.5160305756228275</v>
       </c>
     </row>
     <row r="338">
@@ -6851,16 +6851,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>416.9387312146736</v>
+        <v>434.8624321627834</v>
       </c>
       <c r="C338" t="n">
-        <v>421.37</v>
+        <v>452.8</v>
       </c>
       <c r="D338" t="n">
-        <v>3.898632294381914</v>
+        <v>17.42130466139935</v>
       </c>
       <c r="E338" t="n">
-        <v>0.5326364909444539</v>
+        <v>0.5162631758172262</v>
       </c>
     </row>
     <row r="339">
@@ -6870,16 +6870,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>410.1955285131258</v>
+        <v>432.1967002886268</v>
       </c>
       <c r="C339" t="n">
-        <v>420.98</v>
+        <v>448.94</v>
       </c>
       <c r="D339" t="n">
-        <v>10.25171752605019</v>
+        <v>16.22565630544227</v>
       </c>
       <c r="E339" t="n">
-        <v>0.532753960823972</v>
+        <v>0.5176434059309267</v>
       </c>
     </row>
     <row r="340">
@@ -6889,16 +6889,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>406.2897588172229</v>
+        <v>418.9336488907095</v>
       </c>
       <c r="C340" t="n">
-        <v>413.34</v>
+        <v>433.25</v>
       </c>
       <c r="D340" t="n">
-        <v>6.514724879902035</v>
+        <v>13.79386062272928</v>
       </c>
       <c r="E340" t="n">
-        <v>0.5355163028751033</v>
+        <v>0.5224904865611399</v>
       </c>
     </row>
     <row r="341">
@@ -6908,16 +6908,16 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>406.1260411352837</v>
+        <v>411.3698403512595</v>
       </c>
       <c r="C341" t="n">
-        <v>432.21</v>
+        <v>416.86</v>
       </c>
       <c r="D341" t="n">
-        <v>25.51591775229659</v>
+        <v>4.96260583193528</v>
       </c>
       <c r="E341" t="n">
-        <v>0.5680411124196882</v>
+        <v>0.5275538168051931</v>
       </c>
     </row>
     <row r="342">
@@ -6927,16 +6927,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>386.1445956430459</v>
+        <v>401.3314769442262</v>
       </c>
       <c r="C342" t="n">
-        <v>393.1299999999999</v>
+        <v>407.01</v>
       </c>
       <c r="D342" t="n">
-        <v>6.444081045557034</v>
+        <v>5.148399259237285</v>
       </c>
       <c r="E342" t="n">
-        <v>0.5413233113969957</v>
+        <v>0.5301237965365011</v>
       </c>
     </row>
     <row r="343">
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>375.3045325125074</v>
+        <v>377.7079028263333</v>
       </c>
       <c r="C343" t="n">
-        <v>384.66</v>
+        <v>389.5</v>
       </c>
       <c r="D343" t="n">
-        <v>8.811427859610104</v>
+        <v>11.25609108624059</v>
       </c>
       <c r="E343" t="n">
-        <v>0.5440396278824498</v>
+        <v>0.5360060874261383</v>
       </c>
     </row>
     <row r="344">
@@ -6965,16 +6965,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>369.7388113685045</v>
+        <v>371.7111935172037</v>
       </c>
       <c r="C344" t="n">
-        <v>378.42</v>
+        <v>374.55</v>
       </c>
       <c r="D344" t="n">
-        <v>8.135154256331257</v>
+        <v>2.298657218535246</v>
       </c>
       <c r="E344" t="n">
-        <v>0.5460343751642599</v>
+        <v>0.5401492642610578</v>
       </c>
     </row>
     <row r="345">
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>363.6271039393766</v>
+        <v>353.0140021478315</v>
       </c>
       <c r="C345" t="n">
-        <v>373.93</v>
+        <v>367.49</v>
       </c>
       <c r="D345" t="n">
-        <v>9.755690072176714</v>
+        <v>13.93319225902725</v>
       </c>
       <c r="E345" t="n">
-        <v>0.5472059884466578</v>
+        <v>0.5428055931413068</v>
       </c>
     </row>
     <row r="346">
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>344.9516230636558</v>
+        <v>342.3799424838564</v>
       </c>
       <c r="C346" t="n">
-        <v>348.01</v>
+        <v>346.87</v>
       </c>
       <c r="D346" t="n">
-        <v>2.503365996384139</v>
+        <v>3.941169356337864</v>
       </c>
       <c r="E346" t="n">
-        <v>0.5550109399600284</v>
+        <v>0.548888159805713</v>
       </c>
     </row>
     <row r="347">
@@ -7022,16 +7022,16 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>321.3839577211536</v>
+        <v>340.908256749863</v>
       </c>
       <c r="C347" t="n">
-        <v>326.16</v>
+        <v>361.01</v>
       </c>
       <c r="D347" t="n">
-        <v>4.214447736182893</v>
+        <v>19.5571235713849</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5615945426635252</v>
+        <v>0.5446196787520424</v>
       </c>
     </row>
     <row r="348">
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>308.2430766034227</v>
+        <v>333.8450341417757</v>
       </c>
       <c r="C348" t="n">
-        <v>330</v>
+        <v>348.03</v>
       </c>
       <c r="D348" t="n">
-        <v>21.19650212014946</v>
+        <v>13.63614852581825</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5604212764278508</v>
+        <v>0.548817332406058</v>
       </c>
     </row>
     <row r="349">
@@ -7060,16 +7060,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>277.7882104698809</v>
+        <v>325.2917982461992</v>
       </c>
       <c r="C349" t="n">
-        <v>285.11</v>
+        <v>334.3200000000001</v>
       </c>
       <c r="D349" t="n">
-        <v>6.74764973326813</v>
+        <v>8.475149018243693</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5741397968510069</v>
+        <v>0.5530527355571239</v>
       </c>
     </row>
     <row r="350">
@@ -7079,16 +7079,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>264.9157281832173</v>
+        <v>270.3291587308363</v>
       </c>
       <c r="C350" t="n">
-        <v>277.99</v>
+        <v>288.82</v>
       </c>
       <c r="D350" t="n">
-        <v>12.49826778249414</v>
+        <v>17.923732308707</v>
       </c>
       <c r="E350" t="n">
-        <v>0.5760040342885618</v>
+        <v>0.5671089604567222</v>
       </c>
     </row>
     <row r="351">
@@ -7098,16 +7098,16 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>251.613619319945</v>
+        <v>263.4977074189962</v>
       </c>
       <c r="C351" t="n">
-        <v>261.09</v>
+        <v>275.23</v>
       </c>
       <c r="D351" t="n">
-        <v>8.89528628432063</v>
+        <v>11.16098528875838</v>
       </c>
       <c r="E351" t="n">
-        <v>0.5810943957343451</v>
+        <v>0.5713072922454155</v>
       </c>
     </row>
     <row r="352">
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>250.882291099466</v>
+        <v>244.6514147574422</v>
       </c>
       <c r="C352" t="n">
-        <v>266.94</v>
+        <v>252.84</v>
       </c>
       <c r="D352" t="n">
-        <v>15.47809621211676</v>
+        <v>7.61036105194968</v>
       </c>
       <c r="E352" t="n">
-        <v>0.5796126884172719</v>
+        <v>0.5782241906080972</v>
       </c>
     </row>
     <row r="353">
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>242.8529596850586</v>
+        <v>238.030424531538</v>
       </c>
       <c r="C353" t="n">
-        <v>254.15</v>
+        <v>248.96</v>
       </c>
       <c r="D353" t="n">
-        <v>10.71375829064409</v>
+        <v>10.35015263713723</v>
       </c>
       <c r="E353" t="n">
-        <v>0.5832820242973776</v>
+        <v>0.57942283132481</v>
       </c>
     </row>
     <row r="354">
@@ -7155,16 +7155,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>756.4852208523547</v>
+        <v>717.0551929966092</v>
       </c>
       <c r="C354" t="n">
-        <v>762.98</v>
+        <v>723.9299999999999</v>
       </c>
       <c r="D354" t="n">
-        <v>6.064856438657986</v>
+        <v>6.442746265844429</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4299227089873572</v>
+        <v>0.432060737546319</v>
       </c>
     </row>
     <row r="355">
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>755.2214964083039</v>
+        <v>663.3831792179114</v>
       </c>
       <c r="C355" t="n">
-        <v>762.78</v>
+        <v>678.8399999999999</v>
       </c>
       <c r="D355" t="n">
-        <v>7.128520641744938</v>
+        <v>14.97148463841326</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4299829499512125</v>
+        <v>0.4853361436752167</v>
       </c>
     </row>
     <row r="356">
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>736.1539434342196</v>
+        <v>662.761349931494</v>
       </c>
       <c r="C356" t="n">
-        <v>746.16</v>
+        <v>679.2099999999999</v>
       </c>
       <c r="D356" t="n">
-        <v>9.571431461847435</v>
+        <v>15.96295526693459</v>
       </c>
       <c r="E356" t="n">
-        <v>0.4346251039329934</v>
+        <v>0.4856948015713415</v>
       </c>
     </row>
     <row r="357">
@@ -7212,16 +7212,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>699.2269867174933</v>
+        <v>644.4814966066718</v>
       </c>
       <c r="C357" t="n">
-        <v>707.86</v>
+        <v>660.97</v>
       </c>
       <c r="D357" t="n">
-        <v>8.18648816388076</v>
+        <v>15.99761426849764</v>
       </c>
       <c r="E357" t="n">
-        <v>0.4465251186259113</v>
+        <v>0.4908891248306074</v>
       </c>
     </row>
     <row r="358">
@@ -7231,16 +7231,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>684.2873431731787</v>
+        <v>630.4719818673692</v>
       </c>
       <c r="C358" t="n">
-        <v>694.89</v>
+        <v>641.49</v>
       </c>
       <c r="D358" t="n">
-        <v>10.15240815544782</v>
+        <v>10.52095809525707</v>
       </c>
       <c r="E358" t="n">
-        <v>0.4502486713734871</v>
+        <v>0.4970600373738385</v>
       </c>
     </row>
     <row r="359">
@@ -7250,16 +7250,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>682.6032745435086</v>
+        <v>614.396230769149</v>
       </c>
       <c r="C359" t="n">
-        <v>698.05</v>
+        <v>631.3099999999999</v>
       </c>
       <c r="D359" t="n">
-        <v>14.95922004786248</v>
+        <v>16.413704416395</v>
       </c>
       <c r="E359" t="n">
-        <v>0.4875054086289154</v>
+        <v>0.5000648144559003</v>
       </c>
     </row>
     <row r="360">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>662.2250782640233</v>
+        <v>612.8605404437512</v>
       </c>
       <c r="C360" t="n">
-        <v>677.8599999999999</v>
+        <v>628.78</v>
       </c>
       <c r="D360" t="n">
-        <v>15.14133272464413</v>
+        <v>15.4186584759037</v>
       </c>
       <c r="E360" t="n">
-        <v>0.4935890113324124</v>
+        <v>0.5008010803449725</v>
       </c>
     </row>
     <row r="361">
@@ -7288,16 +7288,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>650.684335768564</v>
+        <v>611.752550496246</v>
       </c>
       <c r="C361" t="n">
-        <v>667.4300000000001</v>
+        <v>616.87</v>
       </c>
       <c r="D361" t="n">
-        <v>16.2484725166067</v>
+        <v>4.651971909286539</v>
       </c>
       <c r="E361" t="n">
-        <v>0.4971917148293269</v>
+        <v>0.4654775944674369</v>
       </c>
     </row>
     <row r="362">
@@ -7307,16 +7307,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>650.4354106749602</v>
+        <v>605.6305686102169</v>
       </c>
       <c r="C362" t="n">
-        <v>661.0899999999999</v>
+        <v>616.51</v>
       </c>
       <c r="D362" t="n">
-        <v>10.19397685701617</v>
+        <v>10.37436680137215</v>
       </c>
       <c r="E362" t="n">
-        <v>0.4606124680235018</v>
+        <v>0.5050645884110079</v>
       </c>
     </row>
     <row r="363">
@@ -7326,16 +7326,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>650.3686121437706</v>
+        <v>603.1285697060425</v>
       </c>
       <c r="C363" t="n">
-        <v>666.5899999999999</v>
+        <v>618.55</v>
       </c>
       <c r="D363" t="n">
-        <v>15.72394312935168</v>
+        <v>14.91736911882439</v>
       </c>
       <c r="E363" t="n">
-        <v>0.4974447268775196</v>
+        <v>0.504061175133131</v>
       </c>
     </row>
     <row r="364">
@@ -7345,16 +7345,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>644.5270208613639</v>
+        <v>602.6812631291263</v>
       </c>
       <c r="C364" t="n">
-        <v>656.2</v>
+        <v>613.9000000000001</v>
       </c>
       <c r="D364" t="n">
-        <v>11.21061343817063</v>
+        <v>10.75234176018776</v>
       </c>
       <c r="E364" t="n">
-        <v>0.4623657004654647</v>
+        <v>0.4663951106861579</v>
       </c>
     </row>
     <row r="365">
@@ -7364,16 +7364,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>641.2249783371202</v>
+        <v>600.9695987979092</v>
       </c>
       <c r="C365" t="n">
-        <v>647.24</v>
+        <v>606.79</v>
       </c>
       <c r="D365" t="n">
-        <v>5.550237508109242</v>
+        <v>5.351809613184013</v>
       </c>
       <c r="E365" t="n">
-        <v>0.4647841547704896</v>
+        <v>0.4685915889067325</v>
       </c>
     </row>
     <row r="366">
@@ -7383,16 +7383,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>636.3290063658281</v>
+        <v>594.9378409121887</v>
       </c>
       <c r="C366" t="n">
-        <v>652.27</v>
+        <v>610.04</v>
       </c>
       <c r="D366" t="n">
-        <v>15.43969679151413</v>
+        <v>14.63475928292624</v>
       </c>
       <c r="E366" t="n">
-        <v>0.5012968426577136</v>
+        <v>0.4673998048850925</v>
       </c>
     </row>
     <row r="367">
@@ -7402,16 +7402,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>635.4613571551788</v>
+        <v>593.8706596801818</v>
       </c>
       <c r="C367" t="n">
-        <v>648.4299999999999</v>
+        <v>607.74</v>
       </c>
       <c r="D367" t="n">
-        <v>12.50439792014175</v>
+        <v>13.40122764469043</v>
       </c>
       <c r="E367" t="n">
-        <v>0.4642449246793937</v>
+        <v>0.4681126751277894</v>
       </c>
     </row>
     <row r="368">
@@ -7421,16 +7421,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>626.3675080222406</v>
+        <v>588.8006428587677</v>
       </c>
       <c r="C368" t="n">
-        <v>632.8499999999999</v>
+        <v>592.3199999999999</v>
       </c>
       <c r="D368" t="n">
-        <v>6.01337348563944</v>
+        <v>3.046483131836777</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4691184921198873</v>
+        <v>0.4728740093954416</v>
       </c>
     </row>
     <row r="369">
@@ -7440,16 +7440,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>616.9162046572601</v>
+        <v>580.4991243156704</v>
       </c>
       <c r="C369" t="n">
-        <v>634.27</v>
+        <v>595.41</v>
       </c>
       <c r="D369" t="n">
-        <v>16.84661567610332</v>
+        <v>14.43848096545461</v>
       </c>
       <c r="E369" t="n">
-        <v>0.5071796666365558</v>
+        <v>0.4723947188750109</v>
       </c>
     </row>
     <row r="370">
@@ -7459,16 +7459,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>615.7084129985518</v>
+        <v>571.5911004120742</v>
       </c>
       <c r="C370" t="n">
-        <v>630.38</v>
+        <v>579.8000000000001</v>
       </c>
       <c r="D370" t="n">
-        <v>14.2017245334247</v>
+        <v>7.732155463925638</v>
       </c>
       <c r="E370" t="n">
-        <v>0.4698624680235017</v>
+        <v>0.4767441240002021</v>
       </c>
     </row>
     <row r="371">
@@ -7478,16 +7478,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>615.1025285581059</v>
+        <v>565.2946647905536</v>
       </c>
       <c r="C371" t="n">
-        <v>620.4300000000001</v>
+        <v>581.86</v>
       </c>
       <c r="D371" t="n">
-        <v>4.854611985918904</v>
+        <v>16.0498537942536</v>
       </c>
       <c r="E371" t="n">
-        <v>0.4728594559753089</v>
+        <v>0.5154814151928068</v>
       </c>
     </row>
     <row r="372">
@@ -7497,16 +7497,16 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>602.74167102379</v>
+        <v>557.71371143612</v>
       </c>
       <c r="C372" t="n">
-        <v>608.9100000000001</v>
+        <v>564.38</v>
       </c>
       <c r="D372" t="n">
-        <v>5.691999640716709</v>
+        <v>6.184595337654709</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4763293354933812</v>
+        <v>0.4816932262252372</v>
       </c>
     </row>
     <row r="373">
@@ -7516,16 +7516,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>602.1871512337858</v>
+        <v>557.5123854051848</v>
       </c>
       <c r="C373" t="n">
-        <v>622.3199999999999</v>
+        <v>564.12</v>
       </c>
       <c r="D373" t="n">
-        <v>19.62253083921905</v>
+        <v>6.12584104730486</v>
       </c>
       <c r="E373" t="n">
-        <v>0.510317926995063</v>
+        <v>0.4817735475103778</v>
       </c>
     </row>
     <row r="374">
@@ -7535,16 +7535,16 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>587.9728422055481</v>
+        <v>547.2303088262014</v>
       </c>
       <c r="C374" t="n">
-        <v>599.1800000000001</v>
+        <v>568.24</v>
       </c>
       <c r="D374" t="n">
-        <v>10.72789773606704</v>
+        <v>20.48971462987317</v>
       </c>
       <c r="E374" t="n">
-        <v>0.4792600583849476</v>
+        <v>0.519976543925373</v>
       </c>
     </row>
     <row r="375">
@@ -7554,16 +7554,16 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>579.8609093088702</v>
+        <v>545.7992916059023</v>
       </c>
       <c r="C375" t="n">
-        <v>601.12</v>
+        <v>561.0799999999999</v>
       </c>
       <c r="D375" t="n">
-        <v>20.74192608473427</v>
+        <v>14.79799570540702</v>
       </c>
       <c r="E375" t="n">
-        <v>0.5171646063955919</v>
+        <v>0.4827126886904828</v>
       </c>
     </row>
     <row r="376">
@@ -7573,16 +7573,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>578.410424649429</v>
+        <v>541.9746007629006</v>
       </c>
       <c r="C376" t="n">
-        <v>584.11</v>
+        <v>553.98</v>
       </c>
       <c r="D376" t="n">
-        <v>5.215956931915656</v>
+        <v>11.52049315946846</v>
       </c>
       <c r="E376" t="n">
-        <v>0.4836184186552971</v>
+        <v>0.4849060776308599</v>
       </c>
     </row>
     <row r="377">
@@ -7592,16 +7592,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>565.5641340747733</v>
+        <v>534.9334397280622</v>
       </c>
       <c r="C377" t="n">
-        <v>580.08</v>
+        <v>557.95</v>
       </c>
       <c r="D377" t="n">
-        <v>13.99264431030926</v>
+        <v>22.49340485868897</v>
       </c>
       <c r="E377" t="n">
-        <v>0.5232216149174843</v>
+        <v>0.5231554132488206</v>
       </c>
     </row>
     <row r="378">
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>561.1369334009919</v>
+        <v>528.9533607724338</v>
       </c>
       <c r="C378" t="n">
-        <v>577.75</v>
+        <v>554.63</v>
       </c>
       <c r="D378" t="n">
-        <v>16.08904363234216</v>
+        <v>25.15245817329173</v>
       </c>
       <c r="E378" t="n">
-        <v>0.5240229666659415</v>
+        <v>0.5241810542744617</v>
       </c>
     </row>
     <row r="379">
@@ -7630,16 +7630,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>559.9865016333449</v>
+        <v>527.1009138994933</v>
       </c>
       <c r="C379" t="n">
-        <v>580.1600000000001</v>
+        <v>543.08</v>
       </c>
       <c r="D379" t="n">
-        <v>19.65002050724754</v>
+        <v>15.45162445670708</v>
       </c>
       <c r="E379" t="n">
-        <v>0.5234778594076401</v>
+        <v>0.5274616437995413</v>
       </c>
     </row>
     <row r="380">
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>558.3262871278411</v>
+        <v>515.6268221104812</v>
       </c>
       <c r="C380" t="n">
-        <v>573.11</v>
+        <v>539.21</v>
       </c>
       <c r="D380" t="n">
-        <v>14.25811151877542</v>
+        <v>23.05423316517954</v>
       </c>
       <c r="E380" t="n">
-        <v>0.5256013533835436</v>
+        <v>0.5289447243393365</v>
       </c>
     </row>
     <row r="381">
@@ -7668,16 +7668,16 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>522.9032339495668</v>
+        <v>512.1138715570468</v>
       </c>
       <c r="C381" t="n">
-        <v>531.55</v>
+        <v>529.03</v>
       </c>
       <c r="D381" t="n">
-        <v>8.108926965636105</v>
+        <v>16.38432636047578</v>
       </c>
       <c r="E381" t="n">
-        <v>0.5378390847970025</v>
+        <v>0.5318020824773294</v>
       </c>
     </row>
     <row r="382">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>515.1246655029394</v>
+        <v>485.0787347898672</v>
       </c>
       <c r="C382" t="n">
-        <v>526.03</v>
+        <v>501.4</v>
       </c>
       <c r="D382" t="n">
-        <v>10.40404130614563</v>
+        <v>15.78111287862943</v>
       </c>
       <c r="E382" t="n">
-        <v>0.501293190915068</v>
+        <v>0.5401523315034528</v>
       </c>
     </row>
     <row r="383">
@@ -7706,16 +7706,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>503.6157866361768</v>
+        <v>475.0219922835103</v>
       </c>
       <c r="C383" t="n">
-        <v>513.24</v>
+        <v>495</v>
       </c>
       <c r="D383" t="n">
-        <v>9.119067763269591</v>
+        <v>19.43540528439633</v>
       </c>
       <c r="E383" t="n">
-        <v>0.5051456005536222</v>
+        <v>0.5426024320934298</v>
       </c>
     </row>
     <row r="384">
@@ -7725,16 +7725,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>498.0626315194168</v>
+        <v>458.0889434609245</v>
       </c>
       <c r="C384" t="n">
-        <v>505.29</v>
+        <v>468.52</v>
       </c>
       <c r="D384" t="n">
-        <v>6.719828301716404</v>
+        <v>9.91974947287498</v>
       </c>
       <c r="E384" t="n">
-        <v>0.5075401788668752</v>
+        <v>0.511307066200523</v>
       </c>
     </row>
     <row r="385">
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>492.7980948636493</v>
+        <v>457.7598100393229</v>
       </c>
       <c r="C385" t="n">
-        <v>497.52</v>
+        <v>469.24</v>
       </c>
       <c r="D385" t="n">
-        <v>4.21202459603801</v>
+        <v>10.96924927557321</v>
       </c>
       <c r="E385" t="n">
-        <v>0.5098805403126583</v>
+        <v>0.5109406851039039</v>
       </c>
     </row>
     <row r="386">
@@ -7763,16 +7763,16 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>491.4610894751419</v>
+        <v>457.2519235029352</v>
       </c>
       <c r="C386" t="n">
-        <v>496.88</v>
+        <v>460.1</v>
       </c>
       <c r="D386" t="n">
-        <v>4.909018009817192</v>
+        <v>2.334356024895209</v>
       </c>
       <c r="E386" t="n">
-        <v>0.5098925150408393</v>
+        <v>0.5137204721696151</v>
       </c>
     </row>
     <row r="387">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>481.8940043485213</v>
+        <v>455.0003918816723</v>
       </c>
       <c r="C387" t="n">
-        <v>505.77</v>
+        <v>457.0599999999999</v>
       </c>
       <c r="D387" t="n">
-        <v>23.33039150644076</v>
+        <v>1.544760737020516</v>
       </c>
       <c r="E387" t="n">
-        <v>0.5456041450379663</v>
+        <v>0.5148473813071033</v>
       </c>
     </row>
     <row r="388">
@@ -7801,16 +7801,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>474.2249873744527</v>
+        <v>436.4756652370761</v>
       </c>
       <c r="C388" t="n">
-        <v>484.24</v>
+        <v>450.78</v>
       </c>
       <c r="D388" t="n">
-        <v>9.501132085234612</v>
+        <v>13.78754731365261</v>
       </c>
       <c r="E388" t="n">
-        <v>0.5138805403126584</v>
+        <v>0.5167874492712675</v>
       </c>
     </row>
     <row r="389">
@@ -7820,16 +7820,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>445.5449402873398</v>
+        <v>413.4276262800998</v>
       </c>
       <c r="C389" t="n">
-        <v>449.36</v>
+        <v>416.86</v>
       </c>
       <c r="D389" t="n">
-        <v>3.290673148251129</v>
+        <v>2.905107432198304</v>
       </c>
       <c r="E389" t="n">
-        <v>0.524386564409044</v>
+        <v>0.5272662877019132</v>
       </c>
     </row>
     <row r="390">
@@ -7839,16 +7839,16 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>406.1233648534667</v>
+        <v>410.6332995373216</v>
       </c>
       <c r="C390" t="n">
-        <v>414.89</v>
+        <v>416.86</v>
       </c>
       <c r="D390" t="n">
-        <v>8.231585711128119</v>
+        <v>5.699434174976477</v>
       </c>
       <c r="E390" t="n">
-        <v>0.5350494354052238</v>
+        <v>0.5272662877019132</v>
       </c>
     </row>
     <row r="391">
@@ -7858,16 +7858,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>401.7267862087056</v>
+        <v>389.554600820956</v>
       </c>
       <c r="C391" t="n">
-        <v>405.88</v>
+        <v>394.5</v>
       </c>
       <c r="D391" t="n">
-        <v>3.615730841343203</v>
+        <v>4.411225260820015</v>
       </c>
       <c r="E391" t="n">
-        <v>0.5374829499512126</v>
+        <v>0.5341739182240016</v>
       </c>
     </row>
     <row r="392">
@@ -7877,16 +7877,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>385.0902155597405</v>
+        <v>380.3724473536572</v>
       </c>
       <c r="C392" t="n">
-        <v>388.75</v>
+        <v>385.9</v>
       </c>
       <c r="D392" t="n">
-        <v>3.117322648110227</v>
+        <v>4.990907379308956</v>
       </c>
       <c r="E392" t="n">
-        <v>0.542461792149273</v>
+        <v>0.5366452670338752</v>
       </c>
     </row>
     <row r="393">
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>374.6143218188762</v>
+        <v>375.7495286593128</v>
       </c>
       <c r="C393" t="n">
-        <v>382.6</v>
+        <v>384.66</v>
       </c>
       <c r="D393" t="n">
-        <v>7.441183182979835</v>
+        <v>8.372970041645328</v>
       </c>
       <c r="E393" t="n">
-        <v>0.5444949981439837</v>
+        <v>0.537501299041832</v>
       </c>
     </row>
     <row r="394">
@@ -7915,16 +7915,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>371.5425458023483</v>
+        <v>359.5634793736703</v>
       </c>
       <c r="C394" t="n">
-        <v>379.9299999999999</v>
+        <v>364.03</v>
       </c>
       <c r="D394" t="n">
-        <v>7.842154982640192</v>
+        <v>3.922933671343226</v>
       </c>
       <c r="E394" t="n">
-        <v>0.5452992150114535</v>
+        <v>0.5435869549864359</v>
       </c>
     </row>
     <row r="395">
@@ -7934,16 +7934,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>361.5758391165076</v>
+        <v>357.317122608014</v>
       </c>
       <c r="C395" t="n">
-        <v>365.68</v>
+        <v>361.08</v>
       </c>
       <c r="D395" t="n">
-        <v>3.55456949980621</v>
+        <v>3.218379099341276</v>
       </c>
       <c r="E395" t="n">
-        <v>0.5495913836861523</v>
+        <v>0.5444982926447615</v>
       </c>
     </row>
     <row r="396">
@@ -7953,16 +7953,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>357.6215971157677</v>
+        <v>313.2967742462619</v>
       </c>
       <c r="C396" t="n">
-        <v>363.23</v>
+        <v>323.11</v>
       </c>
       <c r="D396" t="n">
-        <v>5.058254345095128</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5501485391372249</v>
+        <v>0.5562282895554812</v>
       </c>
     </row>
     <row r="397">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>344.8542140766753</v>
+        <v>270.264132553103</v>
       </c>
       <c r="C397" t="n">
-        <v>353.51</v>
+        <v>278.32</v>
       </c>
       <c r="D397" t="n">
-        <v>8.102528876987936</v>
+        <v>7.485514742232686</v>
       </c>
       <c r="E397" t="n">
-        <v>0.5532570463367548</v>
+        <v>0.5703527046643219</v>
       </c>
     </row>
   </sheetData>

--- a/results/current_run/values.xlsx
+++ b/results/current_run/values.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="day1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.682487066388</v>
+        <v>106.9099714325069</v>
       </c>
       <c r="C2" t="n">
         <v>756.25</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>741.9414711952379</v>
+        <v>103.1753754955663</v>
       </c>
       <c r="C3" t="n">
         <v>745.6500000000001</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.6302447954924</v>
+        <v>99.55159756135551</v>
       </c>
       <c r="C4" t="n">
-        <v>722.8100000000001</v>
+        <v>721.11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.747193212412144</v>
+        <v>2.208398868383059</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4325619920954725</v>
+        <v>0.4330871697290838</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.4685139618879</v>
+        <v>98.12912830825998</v>
       </c>
       <c r="C5" t="n">
-        <v>721.11</v>
+        <v>722.8100000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>2.208398868383059</v>
+        <v>2.747193212412144</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4330871697290838</v>
+        <v>0.4325619920954725</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>699.1028026930514</v>
+        <v>91.40829066417827</v>
       </c>
       <c r="C6" t="n">
-        <v>702.74</v>
+        <v>698.63</v>
       </c>
       <c r="D6" t="n">
-        <v>3.198435129496271</v>
+        <v>2.562430623320816</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4387621774522844</v>
+        <v>0.4400318716135447</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>695.6275375050657</v>
+        <v>90.37170643537593</v>
       </c>
       <c r="C7" t="n">
-        <v>698.63</v>
+        <v>702.74</v>
       </c>
       <c r="D7" t="n">
-        <v>2.562430623320816</v>
+        <v>3.198435129496271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4400318716135447</v>
+        <v>0.4387621774522844</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>689.5563262036143</v>
+        <v>87.62017296862065</v>
       </c>
       <c r="C8" t="n">
         <v>693.1400000000001</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>683.3230485372823</v>
+        <v>86.79040058026645</v>
       </c>
       <c r="C9" t="n">
         <v>686.59</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.2800766010212</v>
+        <v>84.23739339516503</v>
       </c>
       <c r="C10" t="n">
         <v>687.3100000000001</v>
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>671.5253482201853</v>
+        <v>79.50208073629585</v>
       </c>
       <c r="C11" t="n">
-        <v>680.77</v>
+        <v>656.86</v>
       </c>
       <c r="D11" t="n">
-        <v>8.79862715670739</v>
+        <v>2.325455071924445</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4460246231073247</v>
+        <v>0.4529357949993958</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>654.0816091330762</v>
+        <v>77.98610224084069</v>
       </c>
       <c r="C12" t="n">
-        <v>656.86</v>
+        <v>650.4599999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>2.325455071924445</v>
+        <v>2.203603636790036</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4529357949993958</v>
+        <v>0.4549129343259328</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>647.8014834288839</v>
+        <v>76.28649876827723</v>
       </c>
       <c r="C13" t="n">
-        <v>650.4599999999999</v>
+        <v>648.12</v>
       </c>
       <c r="D13" t="n">
-        <v>2.203603636790036</v>
+        <v>2.475699679772489</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4549129343259328</v>
+        <v>0.455659861999102</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>645.1886404582284</v>
+        <v>70.82709661762993</v>
       </c>
       <c r="C14" t="n">
-        <v>648.12</v>
+        <v>640.9400000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>2.475699679772489</v>
+        <v>3.367751570874665</v>
       </c>
       <c r="E14" t="n">
-        <v>0.455659861999102</v>
+        <v>0.4581749128215286</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.1140735163038</v>
+        <v>70.29051389610974</v>
       </c>
       <c r="C15" t="n">
-        <v>640.9400000000001</v>
+        <v>635.02</v>
       </c>
       <c r="D15" t="n">
-        <v>3.367751570874665</v>
+        <v>3.023791646427104</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4581749128215286</v>
+        <v>0.4598159987411923</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>633.0111595144563</v>
+        <v>69.93706398591678</v>
       </c>
       <c r="C16" t="n">
-        <v>636.8099999999999</v>
+        <v>630.59</v>
       </c>
       <c r="D16" t="n">
-        <v>3.339522915790458</v>
+        <v>2.752713701644934</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4593175697531953</v>
+        <v>0.4610513340787903</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>631.5363923548317</v>
+        <v>69.69007113224045</v>
       </c>
       <c r="C17" t="n">
-        <v>635.02</v>
+        <v>636.8099999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>3.023791646427104</v>
+        <v>3.339522915790458</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4598159987411923</v>
+        <v>0.4593175697531953</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>631.4308394193918</v>
+        <v>66.99532954461789</v>
       </c>
       <c r="C18" t="n">
-        <v>639.9400000000001</v>
+        <v>610.8099999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>8.050809955556893</v>
+        <v>1.892320869316527</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4583506250513107</v>
+        <v>0.4671619303098685</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>627.3762349642764</v>
+        <v>66.29754250878582</v>
       </c>
       <c r="C19" t="n">
-        <v>630.59</v>
+        <v>615.35</v>
       </c>
       <c r="D19" t="n">
-        <v>2.752713701644934</v>
+        <v>2.470767488323731</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4610513340787903</v>
+        <v>0.4657593971001063</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>612.4134731145762</v>
+        <v>65.64387514470091</v>
       </c>
       <c r="C20" t="n">
-        <v>615.35</v>
+        <v>610.3599999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>2.470767488323731</v>
+        <v>2.229167070451547</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4657593971001063</v>
+        <v>0.4673009479187656</v>
       </c>
     </row>
     <row r="21">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.5404307920525</v>
+        <v>64.48310641679642</v>
       </c>
       <c r="C21" t="n">
         <v>611.66</v>
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>608.4505172003735</v>
+        <v>63.39544953352376</v>
       </c>
       <c r="C22" t="n">
-        <v>610.8099999999999</v>
+        <v>680.77</v>
       </c>
       <c r="D22" t="n">
-        <v>1.892320869316527</v>
+        <v>8.79862715670739</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4671619303098685</v>
+        <v>0.4460246231073247</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>607.6635319816296</v>
+        <v>61.73532228017858</v>
       </c>
       <c r="C23" t="n">
-        <v>610.3599999999999</v>
+        <v>604.7</v>
       </c>
       <c r="D23" t="n">
-        <v>2.229167070451547</v>
+        <v>2.833912726607455</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4673009479187656</v>
+        <v>0.4690494805106717</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>601.397037792882</v>
+        <v>61.51060275611695</v>
       </c>
       <c r="C24" t="n">
-        <v>604.7</v>
+        <v>600.05</v>
       </c>
       <c r="D24" t="n">
-        <v>2.833912726607455</v>
+        <v>2.502111379123512</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4690494805106717</v>
+        <v>0.4704859958026087</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>597.0774026250738</v>
+        <v>56.83401865678206</v>
       </c>
       <c r="C25" t="n">
-        <v>600.05</v>
+        <v>582.36</v>
       </c>
       <c r="D25" t="n">
-        <v>2.502111379123512</v>
+        <v>2.291288626792694</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4704859958026087</v>
+        <v>0.4761387004297477</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>579.5925726727776</v>
+        <v>53.66690135589764</v>
       </c>
       <c r="C26" t="n">
-        <v>582.36</v>
+        <v>639.9400000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>2.291288626792694</v>
+        <v>8.050809955556893</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4761387004297477</v>
+        <v>0.4583506250513107</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>558.5060991170592</v>
+        <v>51.53815864581075</v>
       </c>
       <c r="C27" t="n">
-        <v>567.55</v>
+        <v>558.6700000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>8.562899429434896</v>
+        <v>1.76162888697438</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4810014535058418</v>
+        <v>0.4832694372607489</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>556.4251016757649</v>
+        <v>48.30914912917162</v>
       </c>
       <c r="C28" t="n">
-        <v>558.6700000000001</v>
+        <v>556.9</v>
       </c>
       <c r="D28" t="n">
-        <v>1.76162888697438</v>
+        <v>2.49859514919295</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4832694372607489</v>
+        <v>0.4840040078131272</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>553.9174008429939</v>
+        <v>34.73383253758918</v>
       </c>
       <c r="C29" t="n">
-        <v>556.9</v>
+        <v>500.52</v>
       </c>
       <c r="D29" t="n">
-        <v>2.49859514919295</v>
+        <v>1.49415308596178</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4840040078131272</v>
+        <v>0.5012576377173596</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>545.6539687207093</v>
+        <v>32.32275078207628</v>
       </c>
       <c r="C30" t="n">
-        <v>554.11</v>
+        <v>500.52</v>
       </c>
       <c r="D30" t="n">
-        <v>7.971165362302489</v>
+        <v>2.15058757425276</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4848659169882895</v>
+        <v>0.5015211307137353</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.5245892763209</v>
+        <v>31.02591121551997</v>
       </c>
       <c r="C31" t="n">
-        <v>500.52</v>
+        <v>496.77</v>
       </c>
       <c r="D31" t="n">
-        <v>1.49415308596178</v>
+        <v>2.197317031109697</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5012576377173596</v>
+        <v>0.5025798496419812</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>497.8678912950335</v>
+        <v>29.65757431165011</v>
       </c>
       <c r="C32" t="n">
-        <v>500.52</v>
+        <v>567.55</v>
       </c>
       <c r="D32" t="n">
-        <v>2.15058757425276</v>
+        <v>8.562899429434896</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5015211307137353</v>
+        <v>0.4810014535058418</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>494.0701031192483</v>
+        <v>27.73384250048839</v>
       </c>
       <c r="C33" t="n">
-        <v>496.77</v>
+        <v>554.11</v>
       </c>
       <c r="D33" t="n">
-        <v>2.197317031109697</v>
+        <v>7.971165362302489</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5025798496419812</v>
+        <v>0.4848659169882895</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>482.0207907711774</v>
+        <v>22.61942784677851</v>
       </c>
       <c r="C34" t="n">
-        <v>489.98</v>
+        <v>463.36</v>
       </c>
       <c r="D34" t="n">
-        <v>7.454531757926386</v>
+        <v>1.697897486506923</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5046774708962288</v>
+        <v>0.5129011347825434</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>461.1492013787105</v>
+        <v>20.06019849888514</v>
       </c>
       <c r="C35" t="n">
-        <v>463.36</v>
+        <v>452.24</v>
       </c>
       <c r="D35" t="n">
-        <v>1.697897486506923</v>
+        <v>1.474389461505584</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5129011347825434</v>
+        <v>0.5161486464050185</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>450.2494618920894</v>
+        <v>18.28897242866611</v>
       </c>
       <c r="C36" t="n">
-        <v>452.24</v>
+        <v>447.23</v>
       </c>
       <c r="D36" t="n">
-        <v>1.474389461505584</v>
+        <v>1.541184543100017</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5161486464050185</v>
+        <v>0.517696375784073</v>
       </c>
     </row>
     <row r="37">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>445.1711190811159</v>
+        <v>10.00478502897666</v>
       </c>
       <c r="C37" t="n">
-        <v>447.23</v>
+        <v>489.98</v>
       </c>
       <c r="D37" t="n">
-        <v>1.541184543100017</v>
+        <v>7.454531757926386</v>
       </c>
       <c r="E37" t="n">
-        <v>0.517696375784073</v>
+        <v>0.5046774708962288</v>
       </c>
     </row>
     <row r="38">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>414.8541902230218</v>
+        <v>9.236360305183354</v>
       </c>
       <c r="C38" t="n">
         <v>416.86</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>412.8211809522846</v>
+        <v>7.553146311216238</v>
       </c>
       <c r="C39" t="n">
         <v>415.14</v>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>393.9316280865631</v>
+        <v>3.981457400802597</v>
       </c>
       <c r="C40" t="n">
         <v>395.6</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>391.0431665507828</v>
+        <v>0.5680517569572601</v>
       </c>
       <c r="C41" t="n">
         <v>393.47</v>
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>376.9811018429668</v>
+        <v>-6.970691961638394</v>
       </c>
       <c r="C42" t="n">
-        <v>384.66</v>
+        <v>363.65</v>
       </c>
       <c r="D42" t="n">
-        <v>7.141396857991345</v>
+        <v>1.456453020024572</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5375012990418319</v>
+        <v>0.543704347633949</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.6498426323415</v>
+        <v>-21.09019912481494</v>
       </c>
       <c r="C43" t="n">
-        <v>363.65</v>
+        <v>384.66</v>
       </c>
       <c r="D43" t="n">
-        <v>1.456453020024572</v>
+        <v>7.141396857991345</v>
       </c>
       <c r="E43" t="n">
-        <v>0.543704347633949</v>
+        <v>0.5375012990418319</v>
       </c>
     </row>
     <row r="44">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>349.3267301150349</v>
+        <v>-28.66403756445287</v>
       </c>
       <c r="C44" t="n">
         <v>356.75</v>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>325.2073941006533</v>
+        <v>-33.77703676871178</v>
       </c>
       <c r="C45" t="n">
         <v>331.97</v>
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.6613776035771</v>
+        <v>77.36805428681086</v>
       </c>
       <c r="C46" t="n">
-        <v>706.6800000000001</v>
+        <v>702.3199999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>7.58105565738483</v>
+        <v>6.762018988544424</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4375667390382152</v>
+        <v>0.4390796951779713</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>695.602356415494</v>
+        <v>77.14034161075996</v>
       </c>
       <c r="C47" t="n">
-        <v>703.6400000000001</v>
+        <v>693.02</v>
       </c>
       <c r="D47" t="n">
-        <v>7.599157106474371</v>
+        <v>6.045741157071568</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4384864780317126</v>
+        <v>0.4417672936016849</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>695.1189013162775</v>
+        <v>75.77674958817174</v>
       </c>
       <c r="C48" t="n">
-        <v>702.3199999999999</v>
+        <v>706.6800000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>6.762018988544424</v>
+        <v>7.58105565738483</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4390796951779713</v>
+        <v>0.4375667390382152</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>686.5324915493268</v>
+        <v>74.78616315944562</v>
       </c>
       <c r="C49" t="n">
-        <v>693.02</v>
+        <v>703.6400000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>6.045741157071568</v>
+        <v>7.599157106474371</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4417672936016849</v>
+        <v>0.4384864780317126</v>
       </c>
     </row>
     <row r="50">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>678.817535789447</v>
+        <v>70.58199234600693</v>
       </c>
       <c r="C50" t="n">
         <v>686.58</v>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>675.678379487537</v>
+        <v>69.30260116224748</v>
       </c>
       <c r="C51" t="n">
         <v>683.54</v>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>655.3071981715949</v>
+        <v>55.81400188661372</v>
       </c>
       <c r="C52" t="n">
-        <v>668.16</v>
+        <v>627.77</v>
       </c>
       <c r="D52" t="n">
-        <v>12.40346632575708</v>
+        <v>6.431389252817991</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4493355026480015</v>
+        <v>0.4619442490783759</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>642.2702748476987</v>
+        <v>52.44585968890993</v>
       </c>
       <c r="C53" t="n">
-        <v>652.3900000000001</v>
+        <v>605.85</v>
       </c>
       <c r="D53" t="n">
-        <v>9.665220681096208</v>
+        <v>5.508842310803339</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4545044712051569</v>
+        <v>0.4686965490851573</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>641.3107960199317</v>
+        <v>51.65194373747653</v>
       </c>
       <c r="C54" t="n">
-        <v>658.0599999999999</v>
+        <v>652.3900000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>16.29660725240767</v>
+        <v>9.665220681096208</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4525967276606224</v>
+        <v>0.4545044712051569</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>639.6869810905617</v>
+        <v>47.96529035382314</v>
       </c>
       <c r="C55" t="n">
-        <v>653.27</v>
+        <v>619.1800000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>13.1289717270506</v>
+        <v>7.881982937545037</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4540471823875977</v>
+        <v>0.4645785385816046</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>627.438450317871</v>
+        <v>46.65203988662786</v>
       </c>
       <c r="C56" t="n">
-        <v>640.3199999999999</v>
+        <v>668.16</v>
       </c>
       <c r="D56" t="n">
-        <v>12.42350188188529</v>
+        <v>12.40346632575708</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4580478002436373</v>
+        <v>0.4493355026480015</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>626.6974164544981</v>
+        <v>42.30445909402077</v>
       </c>
       <c r="C57" t="n">
-        <v>639.9299999999999</v>
+        <v>602.0600000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>12.77441526333047</v>
+        <v>8.00153561729104</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4581682821713483</v>
+        <v>0.4698673862800909</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>620.8766664981036</v>
+        <v>39.46939653878293</v>
       </c>
       <c r="C58" t="n">
-        <v>627.77</v>
+        <v>653.27</v>
       </c>
       <c r="D58" t="n">
-        <v>6.431389252817991</v>
+        <v>13.1289717270506</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4619442490783759</v>
+        <v>0.4540471823875977</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>612.4984016237853</v>
+        <v>38.05581176972079</v>
       </c>
       <c r="C59" t="n">
-        <v>626.29</v>
+        <v>640.3199999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>13.3293280573788</v>
+        <v>12.42350188188529</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4622703188358297</v>
+        <v>0.4580478002436373</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>610.8334385238735</v>
+        <v>36.67198895978446</v>
       </c>
       <c r="C60" t="n">
-        <v>619.1800000000001</v>
+        <v>639.9299999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>7.881982937545037</v>
+        <v>12.77441526333047</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4645785385816046</v>
+        <v>0.4581682821713483</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>600.4874931148062</v>
+        <v>32.31198426267341</v>
       </c>
       <c r="C61" t="n">
-        <v>618</v>
+        <v>544.3199999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>17.0470908502855</v>
+        <v>5.879864897083129</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4654160349083751</v>
+        <v>0.487704890141691</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>599.8724611401116</v>
+        <v>30.52444737440619</v>
       </c>
       <c r="C62" t="n">
-        <v>605.85</v>
+        <v>626.29</v>
       </c>
       <c r="D62" t="n">
-        <v>5.508842310803339</v>
+        <v>13.3293280573788</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4686965490851573</v>
+        <v>0.4622703188358297</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>593.5885969964289</v>
+        <v>29.51157560347104</v>
       </c>
       <c r="C63" t="n">
-        <v>602.0600000000001</v>
+        <v>658.0599999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>8.00153561729104</v>
+        <v>16.29660725240767</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4698673862800909</v>
+        <v>0.4525967276606224</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>584.0345930774579</v>
+        <v>29.01337853304094</v>
       </c>
       <c r="C64" t="n">
-        <v>597.24</v>
+        <v>548.67</v>
       </c>
       <c r="D64" t="n">
-        <v>12.73403110102012</v>
+        <v>7.163859564621855</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4713758215219965</v>
+        <v>0.4863610532556855</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>571.4911175170319</v>
+        <v>27.91529250355728</v>
       </c>
       <c r="C65" t="n">
-        <v>587.7</v>
+        <v>512.12</v>
       </c>
       <c r="D65" t="n">
-        <v>15.7343934581641</v>
+        <v>4.370407077805538</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4744890248041684</v>
+        <v>0.49765237237833</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>569.3447347579203</v>
+        <v>25.66918317406137</v>
       </c>
       <c r="C66" t="n">
-        <v>585.53</v>
+        <v>558.4400000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>15.71010584347262</v>
+        <v>8.919927305769395</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4751593986070725</v>
+        <v>0.483342826502519</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>549.0916861015837</v>
+        <v>23.77288307031648</v>
       </c>
       <c r="C67" t="n">
-        <v>565.74</v>
+        <v>597.24</v>
       </c>
       <c r="D67" t="n">
-        <v>16.16704081429791</v>
+        <v>12.73403110102012</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4812730841183482</v>
+        <v>0.4713758215219965</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>549.0367298677281</v>
+        <v>15.02310755782212</v>
       </c>
       <c r="C68" t="n">
-        <v>558.4400000000001</v>
+        <v>523.72</v>
       </c>
       <c r="D68" t="n">
-        <v>8.919927305769395</v>
+        <v>8.939848646321211</v>
       </c>
       <c r="E68" t="n">
-        <v>0.483342826502519</v>
+        <v>0.4938810393915988</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>545.0815597458752</v>
+        <v>14.49268615133954</v>
       </c>
       <c r="C69" t="n">
-        <v>561.5799999999999</v>
+        <v>618</v>
       </c>
       <c r="D69" t="n">
-        <v>16.01606979740152</v>
+        <v>17.0470908502855</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4823704567232142</v>
+        <v>0.4654160349083751</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>541.918663421245</v>
+        <v>11.95516459736869</v>
       </c>
       <c r="C70" t="n">
-        <v>555.38</v>
+        <v>483.53</v>
       </c>
       <c r="D70" t="n">
-        <v>12.9769724060798</v>
+        <v>6.37547385841853</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4843641726752023</v>
+        <v>0.5064846244635941</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>541.0197793821225</v>
+        <v>10.09983493842184</v>
       </c>
       <c r="C71" t="n">
-        <v>548.67</v>
+        <v>555.38</v>
       </c>
       <c r="D71" t="n">
-        <v>7.163859564621855</v>
+        <v>12.9769724060798</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4863610532556855</v>
+        <v>0.4843641726752023</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>537.9524302127751</v>
+        <v>10.01674680060296</v>
       </c>
       <c r="C72" t="n">
-        <v>544.3199999999999</v>
+        <v>587.7</v>
       </c>
       <c r="D72" t="n">
-        <v>5.879864897083129</v>
+        <v>15.7343934581641</v>
       </c>
       <c r="E72" t="n">
-        <v>0.487704890141691</v>
+        <v>0.4744890248041684</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>520.6345012607338</v>
+        <v>9.441368202766171</v>
       </c>
       <c r="C73" t="n">
-        <v>542.84</v>
+        <v>585.53</v>
       </c>
       <c r="D73" t="n">
-        <v>21.71705144234919</v>
+        <v>15.71010584347262</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4884472969170099</v>
+        <v>0.4751593986070725</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>514.2862703142872</v>
+        <v>1.74896555832801</v>
       </c>
       <c r="C74" t="n">
-        <v>523.72</v>
+        <v>565.74</v>
       </c>
       <c r="D74" t="n">
-        <v>8.939848646321211</v>
+        <v>16.16704081429791</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4938810393915988</v>
+        <v>0.4812730841183482</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>507.2519405498161</v>
+        <v>1.054516226348724</v>
       </c>
       <c r="C75" t="n">
-        <v>512.12</v>
+        <v>561.5799999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>4.370407077805538</v>
+        <v>16.01606979740152</v>
       </c>
       <c r="E75" t="n">
-        <v>0.49765237237833</v>
+        <v>0.4823704567232142</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>497.7042905253176</v>
+        <v>-1.07791733747618</v>
       </c>
       <c r="C76" t="n">
-        <v>512.47</v>
+        <v>416.86</v>
       </c>
       <c r="D76" t="n">
-        <v>14.26797979495085</v>
+        <v>4.340538798349475</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4977296797315703</v>
+        <v>0.5270808555417528</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>476.6480415171179</v>
+        <v>-3.302041857327723</v>
       </c>
       <c r="C77" t="n">
-        <v>483.53</v>
+        <v>416.86</v>
       </c>
       <c r="D77" t="n">
-        <v>6.37547385841853</v>
+        <v>4.957670159440774</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5064846244635941</v>
+        <v>0.5270808555417529</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>447.1250309086666</v>
+        <v>-5.434128840396042</v>
       </c>
       <c r="C78" t="n">
-        <v>460.98</v>
+        <v>414.72</v>
       </c>
       <c r="D78" t="n">
-        <v>13.34133270786379</v>
+        <v>5.367867824613658</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5136363834695994</v>
+        <v>0.5277419615040636</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>411.9923803461088</v>
+        <v>-7.680254013091314</v>
       </c>
       <c r="C79" t="n">
-        <v>416.86</v>
+        <v>512.47</v>
       </c>
       <c r="D79" t="n">
-        <v>4.340538798349475</v>
+        <v>14.26797979495085</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5270808555417528</v>
+        <v>0.4977296797315703</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>411.3752489850175</v>
+        <v>-13.316703355762</v>
       </c>
       <c r="C80" t="n">
-        <v>416.86</v>
+        <v>371.82</v>
       </c>
       <c r="D80" t="n">
-        <v>4.957670159440774</v>
+        <v>3.918663954756358</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5270808555417529</v>
+        <v>0.5409949735522563</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>408.8243902138822</v>
+        <v>-14.53304746632122</v>
       </c>
       <c r="C81" t="n">
-        <v>414.72</v>
+        <v>380.75</v>
       </c>
       <c r="D81" t="n">
-        <v>5.367867824613658</v>
+        <v>5.013111305452465</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5277419615040636</v>
+        <v>0.5382362463356979</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>403.7999941440859</v>
+        <v>-14.84184559009093</v>
       </c>
       <c r="C82" t="n">
-        <v>418.5899999999999</v>
+        <v>377.58</v>
       </c>
       <c r="D82" t="n">
-        <v>14.26327401368631</v>
+        <v>4.830090746776416</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5267318422277087</v>
+        <v>0.5392155481583732</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>387.3569680598264</v>
+        <v>-20.07025685851698</v>
       </c>
       <c r="C83" t="n">
-        <v>405.4</v>
+        <v>460.98</v>
       </c>
       <c r="D83" t="n">
-        <v>17.51222533736506</v>
+        <v>13.34133270786379</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5308066028084933</v>
+        <v>0.5136363834695994</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>375.1986524482118</v>
+        <v>-25.26596688763412</v>
       </c>
       <c r="C84" t="n">
-        <v>380.75</v>
+        <v>542.84</v>
       </c>
       <c r="D84" t="n">
-        <v>5.013111305452465</v>
+        <v>21.71705144234919</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5382362463356979</v>
+        <v>0.4884472969170099</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>372.2106937050652</v>
+        <v>-36.3425743915928</v>
       </c>
       <c r="C85" t="n">
-        <v>377.58</v>
+        <v>418.5899999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>4.830090746776416</v>
+        <v>14.26327401368631</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5392155481583732</v>
+        <v>0.5267318422277087</v>
       </c>
     </row>
     <row r="86">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>371.0627634072008</v>
+        <v>-42.41972872203078</v>
       </c>
       <c r="C86" t="n">
         <v>384.66</v>
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>367.3603410716914</v>
+        <v>-45.86148253577215</v>
       </c>
       <c r="C87" t="n">
-        <v>371.82</v>
+        <v>359.1799999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>3.918663954756358</v>
+        <v>11.86864538380242</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5409949735522563</v>
+        <v>0.545085255882327</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>346.7662693603152</v>
+        <v>-52.08110201674105</v>
       </c>
       <c r="C88" t="n">
-        <v>359.1799999999999</v>
+        <v>405.4</v>
       </c>
       <c r="D88" t="n">
-        <v>11.86864538380242</v>
+        <v>17.51222533736506</v>
       </c>
       <c r="E88" t="n">
-        <v>0.545085255882327</v>
+        <v>0.5308066028084933</v>
       </c>
     </row>
     <row r="89">
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>285.534081876874</v>
+        <v>-65.34657836286233</v>
       </c>
       <c r="C89" t="n">
         <v>298.1899999999999</v>
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>703.0344585809603</v>
+        <v>23.45578040131691</v>
       </c>
       <c r="C90" t="n">
-        <v>707.45</v>
+        <v>563.29</v>
       </c>
       <c r="D90" t="n">
-        <v>3.977946763457291</v>
+        <v>9.936343572629161</v>
       </c>
       <c r="E90" t="n">
-        <v>0.437594655582441</v>
+        <v>0.482029957766788</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>697.9055558536892</v>
+        <v>20.62794467409314</v>
       </c>
       <c r="C91" t="n">
-        <v>702.01</v>
+        <v>547.53</v>
       </c>
       <c r="D91" t="n">
-        <v>3.665168922300827</v>
+        <v>9.371381076315146</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4392752240099974</v>
+        <v>0.4871861924616651</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>665.5219941448408</v>
+        <v>13.79176032603561</v>
       </c>
       <c r="C92" t="n">
-        <v>670.0300000000001</v>
+        <v>481.8200000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0586633451196</v>
+        <v>5.698356865114119</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4493425100396695</v>
+        <v>0.5074858526408433</v>
       </c>
     </row>
     <row r="93">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>655.1125836981021</v>
+        <v>11.39406847296137</v>
       </c>
       <c r="C93" t="n">
-        <v>658.89</v>
+        <v>523.9400000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>3.32482010167542</v>
+        <v>9.933926302476785</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4525962002225399</v>
+        <v>0.4944738044480723</v>
       </c>
     </row>
     <row r="94">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>654.8969852688333</v>
+        <v>11.24038889349538</v>
       </c>
       <c r="C94" t="n">
-        <v>658.77</v>
+        <v>524.3099999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>3.420668988685055</v>
+        <v>10.00793086091187</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4523457424816325</v>
+        <v>0.4943595010807568</v>
       </c>
     </row>
     <row r="95">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>645.2931048160398</v>
+        <v>10.00418051147989</v>
       </c>
       <c r="C95" t="n">
-        <v>649.1900000000001</v>
+        <v>501.34</v>
       </c>
       <c r="D95" t="n">
-        <v>3.441302381945991</v>
+        <v>8.403904452570439</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4555928020143223</v>
+        <v>0.5014555776949058</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>629.8778797886257</v>
+        <v>9.497337086827542</v>
       </c>
       <c r="C96" t="n">
-        <v>634.48</v>
+        <v>505.45</v>
       </c>
       <c r="D96" t="n">
-        <v>4.141983078189137</v>
+        <v>8.892920936909555</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4601371331851595</v>
+        <v>0.5001858835336453</v>
       </c>
     </row>
     <row r="97">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>628.449509287881</v>
+        <v>6.143976734304758</v>
       </c>
       <c r="C97" t="n">
-        <v>632.3100000000001</v>
+        <v>509.62</v>
       </c>
       <c r="D97" t="n">
-        <v>3.39949543717349</v>
+        <v>10.17685085797725</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4609952749454465</v>
+        <v>0.4988976536911986</v>
       </c>
     </row>
     <row r="98">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>614.6246064502719</v>
+        <v>5.908721701994082</v>
       </c>
       <c r="C98" t="n">
-        <v>623.5700000000001</v>
+        <v>491.09</v>
       </c>
       <c r="D98" t="n">
-        <v>8.481698243889914</v>
+        <v>8.671442433625451</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4636953058382484</v>
+        <v>0.5046220898975626</v>
       </c>
     </row>
     <row r="99">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>604.2043536059291</v>
+        <v>5.094761992744878</v>
       </c>
       <c r="C99" t="n">
-        <v>607.6800000000001</v>
+        <v>463.22</v>
       </c>
       <c r="D99" t="n">
-        <v>3.007229989955957</v>
+        <v>6.53490827606196</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4684164041150329</v>
+        <v>0.5132319138085913</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>596.1973852702901</v>
+        <v>3.602854091047334</v>
       </c>
       <c r="C100" t="n">
-        <v>600.59</v>
+        <v>477.83</v>
       </c>
       <c r="D100" t="n">
-        <v>3.921820257977444</v>
+        <v>8.187278749635155</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4707944717325952</v>
+        <v>0.5087184754397313</v>
       </c>
     </row>
     <row r="101">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>586.9113325842039</v>
+        <v>2.656114264577809</v>
       </c>
       <c r="C101" t="n">
-        <v>590.7099999999999</v>
+        <v>460.15</v>
       </c>
       <c r="D101" t="n">
-        <v>3.325008503185475</v>
+        <v>6.951336911702064</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4736589126105534</v>
+        <v>0.5141803228292895</v>
       </c>
     </row>
     <row r="102">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>582.4508626582382</v>
+        <v>2.096791181988678</v>
       </c>
       <c r="C102" t="n">
-        <v>594.85</v>
+        <v>473.62</v>
       </c>
       <c r="D102" t="n">
-        <v>11.9267573911532</v>
+        <v>8.248310137324241</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4723799506086998</v>
+        <v>0.5100190624029688</v>
       </c>
     </row>
     <row r="103">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>574.6073779086737</v>
+        <v>0.3433767843201707</v>
       </c>
       <c r="C103" t="n">
-        <v>578.65</v>
+        <v>475.28</v>
       </c>
       <c r="D103" t="n">
-        <v>3.565237506797305</v>
+        <v>8.875541778492185</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4773845845289963</v>
+        <v>0.5095062418901483</v>
       </c>
     </row>
     <row r="104">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>572.8084544024534</v>
+        <v>-3.196699979911202</v>
       </c>
       <c r="C104" t="n">
-        <v>577.28</v>
+        <v>428.01</v>
       </c>
       <c r="D104" t="n">
-        <v>3.993837542776298</v>
+        <v>5.850997576085607</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4777080547701863</v>
+        <v>0.524109269384742</v>
       </c>
     </row>
     <row r="105">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>570.7619815791736</v>
+        <v>-6.013628153637484</v>
       </c>
       <c r="C105" t="n">
-        <v>579.98</v>
+        <v>567.36</v>
       </c>
       <c r="D105" t="n">
-        <v>8.740856942606289</v>
+        <v>16.5747276820834</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4771614782200834</v>
+        <v>0.5202484005827718</v>
       </c>
     </row>
     <row r="106">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>570.3472469296656</v>
+        <v>-11.68561368992353</v>
       </c>
       <c r="C106" t="n">
-        <v>574.5500000000001</v>
+        <v>394.25</v>
       </c>
       <c r="D106" t="n">
-        <v>3.723914112967016</v>
+        <v>5.344782556288235</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4788389573674422</v>
+        <v>0.5345386793322243</v>
       </c>
     </row>
     <row r="107">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>566.2828111162828</v>
+        <v>-15.4027562462765</v>
       </c>
       <c r="C107" t="n">
-        <v>574.9100000000001</v>
+        <v>381.26</v>
       </c>
       <c r="D107" t="n">
-        <v>8.14846114043706</v>
+        <v>5.275093969555684</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4787277432803245</v>
+        <v>0.5385516543090546</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>560.355631522742</v>
+        <v>-15.91578758523471</v>
       </c>
       <c r="C108" t="n">
-        <v>564.4100000000001</v>
+        <v>542.1</v>
       </c>
       <c r="D108" t="n">
-        <v>3.572396989770121</v>
+        <v>17.18114590778365</v>
       </c>
       <c r="E108" t="n">
-        <v>0.481971487487924</v>
+        <v>0.5280519223621972</v>
       </c>
     </row>
     <row r="109">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>554.3918616114253</v>
+        <v>-16.89643918043987</v>
       </c>
       <c r="C109" t="n">
-        <v>557.97</v>
+        <v>463.23</v>
       </c>
       <c r="D109" t="n">
-        <v>3.09436517259687</v>
+        <v>12.63768941871415</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4837732159778688</v>
+        <v>0.5132288245283936</v>
       </c>
     </row>
     <row r="110">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>538.9368431201309</v>
+        <v>-17.38798190531054</v>
       </c>
       <c r="C110" t="n">
-        <v>543.3</v>
+        <v>383.51</v>
       </c>
       <c r="D110" t="n">
-        <v>3.874663921883819</v>
+        <v>6.016657667030135</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4884929579852981</v>
+        <v>0.537856566264569</v>
       </c>
     </row>
     <row r="111">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>533.5732523432729</v>
+        <v>-18.84292507742722</v>
       </c>
       <c r="C111" t="n">
-        <v>537.1900000000001</v>
+        <v>389.3299999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>3.126367148541042</v>
+        <v>6.913692080024975</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4903805081861013</v>
+        <v>0.5360586051894994</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>529.9929644699417</v>
+        <v>-18.93828869213989</v>
       </c>
       <c r="C112" t="n">
-        <v>543.98</v>
+        <v>530.0400000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>13.49875264312638</v>
+        <v>16.99754498151009</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4882828869318536</v>
+        <v>0.5317775942806403</v>
       </c>
     </row>
     <row r="113">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>529.9405658251859</v>
+        <v>-19.0400251309179</v>
       </c>
       <c r="C113" t="n">
-        <v>533.98</v>
+        <v>491.3100000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>3.548062007684466</v>
+        <v>15.61265899698261</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4913721671295676</v>
+        <v>0.5045541257332129</v>
       </c>
     </row>
     <row r="114">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>527.6007328045617</v>
+        <v>-21.19745109670104</v>
       </c>
       <c r="C114" t="n">
-        <v>540.09</v>
+        <v>493.91</v>
       </c>
       <c r="D114" t="n">
-        <v>11.99997034646688</v>
+        <v>16.43167093975762</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4892968489713813</v>
+        <v>0.5037509128818073</v>
       </c>
     </row>
     <row r="115">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>522.6447877786812</v>
+        <v>-22.43753690985278</v>
       </c>
       <c r="C115" t="n">
-        <v>526.2</v>
+        <v>352.66</v>
       </c>
       <c r="D115" t="n">
-        <v>3.061624362152799</v>
+        <v>4.802782838326831</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4935878591660059</v>
+        <v>0.5473869956745164</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>516.5043043342866</v>
+        <v>-23.05025783149205</v>
       </c>
       <c r="C116" t="n">
-        <v>519.3099999999999</v>
+        <v>519.03</v>
       </c>
       <c r="D116" t="n">
-        <v>2.309979292491152</v>
+        <v>17.20524313812765</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4957163732222308</v>
+        <v>0.5351788917783232</v>
       </c>
     </row>
     <row r="117">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>509.3137634767103</v>
+        <v>-24.2299330316015</v>
       </c>
       <c r="C117" t="n">
-        <v>512.9300000000001</v>
+        <v>514.6800000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>3.118361421344075</v>
+        <v>17.16384418897313</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4978751019457555</v>
+        <v>0.5365227286643288</v>
       </c>
     </row>
     <row r="118">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>479.3112503224567</v>
+        <v>-25.79697096469566</v>
       </c>
       <c r="C118" t="n">
-        <v>487.85</v>
+        <v>375.52</v>
       </c>
       <c r="D118" t="n">
-        <v>8.033126660861765</v>
+        <v>7.672645360696958</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5056230166816219</v>
+        <v>0.5403249011425425</v>
       </c>
     </row>
     <row r="119">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>469.7933128898517</v>
+        <v>-28.79158128792518</v>
       </c>
       <c r="C119" t="n">
-        <v>477.79</v>
+        <v>320.76</v>
       </c>
       <c r="D119" t="n">
-        <v>7.487956277587719</v>
+        <v>3.861864088329136</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5087308325605221</v>
+        <v>0.557241799505224</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>466.8389037835383</v>
+        <v>-30.32415589714115</v>
       </c>
       <c r="C120" t="n">
-        <v>469.79</v>
+        <v>343.54</v>
       </c>
       <c r="D120" t="n">
-        <v>2.439893959742904</v>
+        <v>6.218043865436281</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5112022567186932</v>
+        <v>0.5502044192148317</v>
       </c>
     </row>
     <row r="121">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>455.6966054049537</v>
+        <v>-31.91665510454563</v>
       </c>
       <c r="C121" t="n">
-        <v>457.71</v>
+        <v>312.92</v>
       </c>
       <c r="D121" t="n">
-        <v>1.498648255806108</v>
+        <v>4.064430097417451</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5147463392401488</v>
+        <v>0.5596637951802317</v>
       </c>
     </row>
     <row r="122">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>419.7015577007249</v>
+        <v>-34.7500518740169</v>
       </c>
       <c r="C122" t="n">
-        <v>422.31</v>
+        <v>302.52</v>
       </c>
       <c r="D122" t="n">
-        <v>2.082572140177684</v>
+        <v>3.969067055334992</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5258701590974391</v>
+        <v>0.5628766465858541</v>
       </c>
     </row>
     <row r="123">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>414.1389359130509</v>
+        <v>-35.00208655607849</v>
       </c>
       <c r="C123" t="n">
-        <v>416.86</v>
+        <v>453.43</v>
       </c>
       <c r="D123" t="n">
-        <v>2.193698038101261</v>
+        <v>16.83080065745206</v>
       </c>
       <c r="E123" t="n">
-        <v>0.52736604884781</v>
+        <v>0.5162563191221532</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>406.089219846159</v>
+        <v>-35.2797086644463</v>
       </c>
       <c r="C124" t="n">
-        <v>413.66</v>
+        <v>318.58</v>
       </c>
       <c r="D124" t="n">
-        <v>7.04223776737246</v>
+        <v>5.477348618770803</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5285423864684616</v>
+        <v>0.5579152625883256</v>
       </c>
     </row>
     <row r="125">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>399.7194041427011</v>
+        <v>-35.81001457603764</v>
       </c>
       <c r="C125" t="n">
-        <v>402.45</v>
+        <v>301.65</v>
       </c>
       <c r="D125" t="n">
-        <v>2.198590387728869</v>
+        <v>4.189431528937757</v>
       </c>
       <c r="E125" t="n">
-        <v>0.532005469570099</v>
+        <v>0.5631454139630554</v>
       </c>
     </row>
     <row r="126">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>385.6915057424915</v>
+        <v>-38.55792878047143</v>
       </c>
       <c r="C126" t="n">
-        <v>397.1</v>
+        <v>437.3800000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>10.8748360230327</v>
+        <v>14.58716495855554</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5336582344758758</v>
+        <v>0.5604028645926575</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>370.8055345749169</v>
+        <v>-48.80752061577908</v>
       </c>
       <c r="C127" t="n">
-        <v>382.66</v>
+        <v>384.66</v>
       </c>
       <c r="D127" t="n">
-        <v>11.31634627000176</v>
+        <v>14.83216605047595</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5381191550813748</v>
+        <v>0.5375012990418321</v>
       </c>
     </row>
     <row r="128">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>350.2833170749885</v>
+        <v>-54.25318528778901</v>
       </c>
       <c r="C128" t="n">
-        <v>352.52</v>
+        <v>270.19</v>
       </c>
       <c r="D128" t="n">
-        <v>1.689252679414195</v>
+        <v>6.64019820512368</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5474302455972845</v>
+        <v>0.5728642894650634</v>
       </c>
     </row>
     <row r="129">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>347.8922366130651</v>
+        <v>-57.56185240046199</v>
       </c>
       <c r="C129" t="n">
-        <v>350.86</v>
+        <v>360.75</v>
       </c>
       <c r="D129" t="n">
-        <v>2.419820320824756</v>
+        <v>15.23452670644187</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5479430661101049</v>
+        <v>0.544887767994566</v>
       </c>
     </row>
     <row r="130">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>333.722069713695</v>
+        <v>-61.34188485744266</v>
       </c>
       <c r="C130" t="n">
-        <v>341.1799999999999</v>
+        <v>327.72</v>
       </c>
       <c r="D130" t="n">
-        <v>6.906996796963471</v>
+        <v>13.48360896927652</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5509334893414921</v>
+        <v>0.5550916604876152</v>
       </c>
     </row>
     <row r="131">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>326.6991879703012</v>
+        <v>-63.4328958507043</v>
       </c>
       <c r="C131" t="n">
-        <v>329.37</v>
+        <v>475.38</v>
       </c>
       <c r="D131" t="n">
-        <v>2.116230100443807</v>
+        <v>24.71031015167147</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5545819292549924</v>
+        <v>0.5486635998413445</v>
       </c>
     </row>
     <row r="132">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>302.8632792991682</v>
+        <v>-71.00836337094398</v>
       </c>
       <c r="C132" t="n">
-        <v>309.87</v>
+        <v>444.26</v>
       </c>
       <c r="D132" t="n">
-        <v>6.44611467519124</v>
+        <v>24.17441788042154</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5606060256405344</v>
+        <v>0.5582774398166302</v>
       </c>
     </row>
     <row r="133">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>292.2326102970979</v>
+        <v>-78.80677271480556</v>
       </c>
       <c r="C133" t="n">
-        <v>294.52</v>
+        <v>242.12</v>
       </c>
       <c r="D133" t="n">
-        <v>1.722041632157989</v>
+        <v>11.07378334728237</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5653480707440253</v>
+        <v>0.5815358989800464</v>
       </c>
     </row>
     <row r="134">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>727.4123485486037</v>
+        <v>103.462655235026</v>
       </c>
       <c r="C134" t="n">
-        <v>734.24</v>
+        <v>778.02</v>
       </c>
       <c r="D134" t="n">
-        <v>6.398432738609342</v>
+        <v>5.947135578512311</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4292187127868684</v>
+        <v>0.4155060761238937</v>
       </c>
     </row>
     <row r="135">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>676.2142439632809</v>
+        <v>84.12293050490943</v>
       </c>
       <c r="C135" t="n">
-        <v>691.0599999999999</v>
+        <v>692.8499999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>14.36400956128531</v>
+        <v>4.093972627481898</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4817464754337705</v>
+        <v>0.4418174755678233</v>
       </c>
     </row>
     <row r="136">
@@ -3013,13 +3013,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>663.8809172851566</v>
+        <v>77.21398063078337</v>
       </c>
       <c r="C136" t="n">
         <v>668.36</v>
       </c>
       <c r="D136" t="n">
-        <v>4.029655777036434</v>
+        <v>3.933038289990218</v>
       </c>
       <c r="E136" t="n">
         <v>0.4494269378070241</v>
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>653.5867514554393</v>
+        <v>74.2509749200228</v>
       </c>
       <c r="C137" t="n">
-        <v>670.0599999999999</v>
+        <v>668.96</v>
       </c>
       <c r="D137" t="n">
-        <v>15.98501458071166</v>
+        <v>4.806046850026391</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4882339638489698</v>
+        <v>0.4492415809951612</v>
       </c>
     </row>
     <row r="138">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>651.204598535622</v>
+        <v>69.66389422051479</v>
       </c>
       <c r="C138" t="n">
-        <v>667.51</v>
+        <v>646.02</v>
       </c>
       <c r="D138" t="n">
-        <v>15.81637973407851</v>
+        <v>4.1364258079937</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4890217302993869</v>
+        <v>0.4562845747337177</v>
       </c>
     </row>
     <row r="139">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>649.980157214942</v>
+        <v>62.77315759851534</v>
       </c>
       <c r="C139" t="n">
-        <v>666.4000000000001</v>
+        <v>696.91</v>
       </c>
       <c r="D139" t="n">
-        <v>15.93047814465688</v>
+        <v>10.35311253811946</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4893646404013332</v>
+        <v>0.4407509957649344</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>647.4582932787556</v>
+        <v>57.08296046876755</v>
       </c>
       <c r="C140" t="n">
-        <v>653.6600000000001</v>
+        <v>594.42</v>
       </c>
       <c r="D140" t="n">
-        <v>5.747738541546857</v>
+        <v>3.244473453366704</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4539681796976636</v>
+        <v>0.4724130285113046</v>
       </c>
     </row>
     <row r="141">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>639.5249376561744</v>
+        <v>55.59211931462828</v>
       </c>
       <c r="C141" t="n">
-        <v>650.38</v>
+        <v>600.79</v>
       </c>
       <c r="D141" t="n">
-        <v>10.36089262946989</v>
+        <v>4.204957485645414</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4941697143556871</v>
+        <v>0.4703012041029772</v>
       </c>
     </row>
     <row r="142">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>638.2573896454942</v>
+        <v>50.19100515376184</v>
       </c>
       <c r="C142" t="n">
-        <v>653.8699999999999</v>
+        <v>663.98</v>
       </c>
       <c r="D142" t="n">
-        <v>15.11937484601659</v>
+        <v>9.190066282363565</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4932355084890687</v>
+        <v>0.4899682932867962</v>
       </c>
     </row>
     <row r="143">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>629.4507023156061</v>
+        <v>45.36273947838501</v>
       </c>
       <c r="C143" t="n">
-        <v>647.03</v>
+        <v>712.6800000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>17.08394910824955</v>
+        <v>14.65093238075922</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4953485761443051</v>
+        <v>0.4750674516463131</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>612.1769019497069</v>
+        <v>45.28766573456883</v>
       </c>
       <c r="C144" t="n">
-        <v>622.8099999999999</v>
+        <v>702.8</v>
       </c>
       <c r="D144" t="n">
-        <v>10.13043680885338</v>
+        <v>13.84324965843249</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5026612414396326</v>
+        <v>0.4779318925242714</v>
       </c>
     </row>
     <row r="145">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>609.7511827787491</v>
+        <v>41.54289737310614</v>
       </c>
       <c r="C145" t="n">
-        <v>629.96</v>
+        <v>697.24</v>
       </c>
       <c r="D145" t="n">
-        <v>19.70819524380911</v>
+        <v>14.41102621220105</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5006219774418027</v>
+        <v>0.4796495323142004</v>
       </c>
     </row>
     <row r="146">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>608.8089982973281</v>
+        <v>41.04025637400726</v>
       </c>
       <c r="C146" t="n">
-        <v>624.0600000000001</v>
+        <v>548.47</v>
       </c>
       <c r="D146" t="n">
-        <v>14.78774530066669</v>
+        <v>3.8009421594049</v>
       </c>
       <c r="E146" t="n">
-        <v>0.4632564020052806</v>
+        <v>0.4866082710198003</v>
       </c>
     </row>
     <row r="147">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>606.2966746452186</v>
+        <v>40.77435462430698</v>
       </c>
       <c r="C147" t="n">
-        <v>622.05</v>
+        <v>547.8399999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>15.28944800745642</v>
+        <v>3.82132074487981</v>
       </c>
       <c r="E147" t="n">
-        <v>0.463877347325021</v>
+        <v>0.486802895672256</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>605.5567888675057</v>
+        <v>40.51795078103687</v>
       </c>
       <c r="C148" t="n">
-        <v>627.33</v>
+        <v>624.5</v>
       </c>
       <c r="D148" t="n">
-        <v>21.27177667436062</v>
+        <v>10.39050724188463</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5014344581338015</v>
+        <v>0.4631204736765811</v>
       </c>
     </row>
     <row r="149">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>602.5937586716682</v>
+        <v>39.01328976516595</v>
       </c>
       <c r="C149" t="n">
-        <v>607.4200000000001</v>
+        <v>548.98</v>
       </c>
       <c r="D149" t="n">
-        <v>4.357844364077707</v>
+        <v>4.406597664665226</v>
       </c>
       <c r="E149" t="n">
-        <v>0.4683969642542766</v>
+        <v>0.4864507177297169</v>
       </c>
     </row>
     <row r="150">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>596.5343357551372</v>
+        <v>38.9145180011117</v>
       </c>
       <c r="C150" t="n">
-        <v>613.17</v>
+        <v>621.64</v>
       </c>
       <c r="D150" t="n">
-        <v>16.12985536596901</v>
+        <v>8.723176314942346</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5058088788937645</v>
+        <v>0.5031922585663008</v>
       </c>
     </row>
     <row r="151">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>594.1744137654406</v>
+        <v>38.35110766995476</v>
       </c>
       <c r="C151" t="n">
-        <v>616.37</v>
+        <v>680.99</v>
       </c>
       <c r="D151" t="n">
-        <v>21.69076592532899</v>
+        <v>13.89655694819</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5048203092304959</v>
+        <v>0.4851449096961484</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>588.5175870882757</v>
+        <v>35.89408962934623</v>
       </c>
       <c r="C152" t="n">
-        <v>606.26</v>
+        <v>515.71</v>
       </c>
       <c r="D152" t="n">
-        <v>17.23446934021384</v>
+        <v>2.46093335070767</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5079435715103847</v>
+        <v>0.496540984990128</v>
       </c>
     </row>
     <row r="153">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>582.2529006525942</v>
+        <v>34.71694984463747</v>
       </c>
       <c r="C153" t="n">
-        <v>587.1900000000001</v>
+        <v>681.5700000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>4.462596722233931</v>
+        <v>14.97468341358631</v>
       </c>
       <c r="E153" t="n">
-        <v>0.4745026251718681</v>
+        <v>0.4845342494190175</v>
       </c>
     </row>
     <row r="154">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>575.9077550814968</v>
+        <v>30.51426392968339</v>
       </c>
       <c r="C154" t="n">
-        <v>592.45</v>
+        <v>653.8699999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>16.0300350510398</v>
+        <v>13.78596594075194</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5122098674634277</v>
+        <v>0.4932355084890687</v>
       </c>
     </row>
     <row r="155">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>563.1374606288526</v>
+        <v>29.68006709241109</v>
       </c>
       <c r="C155" t="n">
-        <v>574.53</v>
+        <v>657.38</v>
       </c>
       <c r="D155" t="n">
-        <v>10.91398176432279</v>
+        <v>14.31495503412474</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4785576068245577</v>
+        <v>0.4921511711396712</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>552.4032444521529</v>
+        <v>25.87721864901377</v>
       </c>
       <c r="C156" t="n">
-        <v>567.79</v>
+        <v>572.65</v>
       </c>
       <c r="D156" t="n">
-        <v>14.90611576616926</v>
+        <v>8.188046708768555</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4806397816778168</v>
+        <v>0.5183266422549011</v>
       </c>
     </row>
     <row r="157">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>549.2020968549398</v>
+        <v>24.76562802043772</v>
       </c>
       <c r="C157" t="n">
-        <v>555.38</v>
+        <v>645.05</v>
       </c>
       <c r="D157" t="n">
-        <v>5.693429566657034</v>
+        <v>14.63342674037231</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4844735784031799</v>
+        <v>0.4959602536234524</v>
       </c>
     </row>
     <row r="158">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>534.8875928490427</v>
+        <v>22.99233807601357</v>
       </c>
       <c r="C158" t="n">
-        <v>543.65</v>
+        <v>638.21</v>
       </c>
       <c r="D158" t="n">
-        <v>8.235121596129051</v>
+        <v>14.54567556930117</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5272855548282716</v>
+        <v>0.4980733212786886</v>
       </c>
     </row>
     <row r="159">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>529.4996168363851</v>
+        <v>22.36460498530344</v>
       </c>
       <c r="C159" t="n">
-        <v>544.75</v>
+        <v>647.73</v>
       </c>
       <c r="D159" t="n">
-        <v>14.72343742960835</v>
+        <v>15.52681110359949</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5269457340065231</v>
+        <v>0.495132326530465</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>524.0768031456688</v>
+        <v>22.18018433781424</v>
       </c>
       <c r="C160" t="n">
-        <v>541.13</v>
+        <v>473.5</v>
       </c>
       <c r="D160" t="n">
-        <v>16.52513280089309</v>
+        <v>2.686154977145518</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5280640534380956</v>
+        <v>0.5096246517396776</v>
       </c>
     </row>
     <row r="161">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>513.2276501086549</v>
+        <v>21.83830286316464</v>
       </c>
       <c r="C161" t="n">
-        <v>530.5</v>
+        <v>541.38</v>
       </c>
       <c r="D161" t="n">
-        <v>16.74100193305681</v>
+        <v>8.527958825143211</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5313479582882654</v>
+        <v>0.4887985706799793</v>
       </c>
     </row>
     <row r="162">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>492.3879058372617</v>
+        <v>19.86419984198361</v>
       </c>
       <c r="C162" t="n">
-        <v>517.96</v>
+        <v>461.77</v>
       </c>
       <c r="D162" t="n">
-        <v>25.03658471797884</v>
+        <v>2.327619520322249</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5355094447594787</v>
+        <v>0.5133923303339798</v>
       </c>
     </row>
     <row r="163">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>486.6671805211162</v>
+        <v>17.84529299308625</v>
       </c>
       <c r="C163" t="n">
-        <v>492.3399999999999</v>
+        <v>456.64</v>
       </c>
       <c r="D163" t="n">
-        <v>5.168871078114131</v>
+        <v>2.452967248343083</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5039484007695685</v>
+        <v>0.5149771310754071</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>486.6207534468163</v>
+        <v>14.14575616911939</v>
       </c>
       <c r="C164" t="n">
-        <v>511.2099999999999</v>
+        <v>624.9300000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>24.05193937339397</v>
+        <v>15.87467897498269</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5373071797896556</v>
+        <v>0.5021758853812527</v>
       </c>
     </row>
     <row r="165">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>478.7762354517741</v>
+        <v>9.8278394784802</v>
       </c>
       <c r="C165" t="n">
-        <v>489.0699999999999</v>
+        <v>439.66</v>
       </c>
       <c r="D165" t="n">
-        <v>9.788805952831583</v>
+        <v>3.238282667158698</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5049585953942209</v>
+        <v>0.5202227288511254</v>
       </c>
     </row>
     <row r="166">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>470.2076028840686</v>
+        <v>9.822778804821553</v>
       </c>
       <c r="C166" t="n">
-        <v>473.5</v>
+        <v>574.71</v>
       </c>
       <c r="D166" t="n">
-        <v>2.782772464191734</v>
+        <v>12.81731235665561</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5096246517396776</v>
+        <v>0.5176902505341722</v>
       </c>
     </row>
     <row r="167">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>453.4353261437972</v>
+        <v>9.665391040210494</v>
       </c>
       <c r="C167" t="n">
-        <v>457.81</v>
+        <v>586.2399999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>3.860227742254114</v>
+        <v>13.83831694441574</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5144461139487392</v>
+        <v>0.5141283104662079</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>443.7330404581288</v>
+        <v>4.807993640988272</v>
       </c>
       <c r="C168" t="n">
-        <v>448.17</v>
+        <v>407.65</v>
       </c>
       <c r="D168" t="n">
-        <v>3.919365790468253</v>
+        <v>1.917837642169292</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5175937514028709</v>
+        <v>0.5301115147640078</v>
       </c>
     </row>
     <row r="169">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>441.5937553565334</v>
+        <v>3.785458743901032</v>
       </c>
       <c r="C169" t="n">
-        <v>455.9299999999999</v>
+        <v>405.13</v>
       </c>
       <c r="D169" t="n">
-        <v>13.82104817349705</v>
+        <v>1.987955642808651</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5151964699694448</v>
+        <v>0.5308900133738316</v>
       </c>
     </row>
     <row r="170">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>416.7441886171728</v>
+        <v>2.535124708964943</v>
       </c>
       <c r="C170" t="n">
-        <v>422.14</v>
+        <v>627.3299999999999</v>
       </c>
       <c r="D170" t="n">
-        <v>4.87017623506965</v>
+        <v>19.29973396493357</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5256351477575202</v>
+        <v>0.5014344581338015</v>
       </c>
     </row>
     <row r="171">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>409.3788111633684</v>
+        <v>1.608990662296122</v>
       </c>
       <c r="C171" t="n">
-        <v>423.15</v>
+        <v>416.86</v>
       </c>
       <c r="D171" t="n">
-        <v>13.24586570617405</v>
+        <v>3.586150538541895</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5253231304575512</v>
+        <v>0.5272662877019131</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>383.5115434223612</v>
+        <v>1.526793280676003</v>
       </c>
       <c r="C172" t="n">
-        <v>388.17</v>
+        <v>568.38</v>
       </c>
       <c r="D172" t="n">
-        <v>4.122327145049604</v>
+        <v>14.58265374490056</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5361294325891545</v>
+        <v>0.5196457648993251</v>
       </c>
     </row>
     <row r="173">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>376.1460170431328</v>
+        <v>-3.065160941083391</v>
       </c>
       <c r="C173" t="n">
-        <v>378.65</v>
+        <v>458.04</v>
       </c>
       <c r="D173" t="n">
-        <v>1.964912529529789</v>
+        <v>8.373694305990995</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5390704273373781</v>
+        <v>0.5145446318477273</v>
       </c>
     </row>
     <row r="174">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>370.7580410304752</v>
+        <v>-24.7821944955482</v>
       </c>
       <c r="C174" t="n">
-        <v>379.7499999999999</v>
+        <v>370.23</v>
       </c>
       <c r="D174" t="n">
-        <v>8.453228363009091</v>
+        <v>6.956388895359675</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5387306065156297</v>
+        <v>0.5416716012638533</v>
       </c>
     </row>
     <row r="175">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>360.4263548116465</v>
+        <v>-28.55246702136567</v>
       </c>
       <c r="C175" t="n">
-        <v>365.5</v>
+        <v>374.6</v>
       </c>
       <c r="D175" t="n">
-        <v>4.530512357556052</v>
+        <v>8.372952986291731</v>
       </c>
       <c r="E175" t="n">
-        <v>0.543132830797372</v>
+        <v>0.5403215858174522</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>313.2967742462619</v>
+        <v>-31.7507363746778</v>
       </c>
       <c r="C176" t="n">
-        <v>323.11</v>
+        <v>557.8299999999999</v>
       </c>
       <c r="D176" t="n">
-        <v>9.256997464182636</v>
+        <v>22.92195791608091</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5562282895554812</v>
+        <v>0.5229049555079133</v>
       </c>
     </row>
     <row r="177">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>309.8715906408114</v>
+        <v>-45.46080628854239</v>
       </c>
       <c r="C177" t="n">
-        <v>317.55</v>
+        <v>527.9000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>7.120463429843161</v>
+        <v>24.17539414625575</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5579459293454102</v>
+        <v>0.532438700242951</v>
       </c>
     </row>
     <row r="178">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>727.4123485486037</v>
+        <v>23.45578040131691</v>
       </c>
       <c r="C178" t="n">
-        <v>734.24</v>
+        <v>563.29</v>
       </c>
       <c r="D178" t="n">
-        <v>6.398432738609342</v>
+        <v>9.936343572629161</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4292187127868684</v>
+        <v>0.482029957766788</v>
       </c>
     </row>
     <row r="179">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>676.2142439632809</v>
+        <v>13.79176032603561</v>
       </c>
       <c r="C179" t="n">
-        <v>691.0599999999999</v>
+        <v>481.8200000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>14.36400956128531</v>
+        <v>5.698356865114119</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4817464754337705</v>
+        <v>0.5074858526408433</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>663.8809172851566</v>
+        <v>11.95508758833681</v>
       </c>
       <c r="C180" t="n">
-        <v>668.36</v>
+        <v>501.34</v>
       </c>
       <c r="D180" t="n">
-        <v>4.029655777036434</v>
+        <v>7.862583169091344</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4494269378070241</v>
+        <v>0.5014555776949058</v>
       </c>
     </row>
     <row r="181">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>653.5867514554393</v>
+        <v>11.39406847296137</v>
       </c>
       <c r="C181" t="n">
-        <v>670.0599999999999</v>
+        <v>523.9400000000001</v>
       </c>
       <c r="D181" t="n">
-        <v>15.98501458071166</v>
+        <v>9.933926302476785</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4882339638489698</v>
+        <v>0.4944738044480723</v>
       </c>
     </row>
     <row r="182">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>651.204598535622</v>
+        <v>11.24038889349538</v>
       </c>
       <c r="C182" t="n">
-        <v>667.51</v>
+        <v>524.3099999999999</v>
       </c>
       <c r="D182" t="n">
-        <v>15.81637973407851</v>
+        <v>10.00793086091187</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4890217302993869</v>
+        <v>0.4943595010807568</v>
       </c>
     </row>
     <row r="183">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>649.980157214942</v>
+        <v>6.143976734304758</v>
       </c>
       <c r="C183" t="n">
-        <v>666.4000000000001</v>
+        <v>509.62</v>
       </c>
       <c r="D183" t="n">
-        <v>15.93047814465688</v>
+        <v>10.17685085797725</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4893646404013332</v>
+        <v>0.4988976536911986</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>647.4582932787556</v>
+        <v>5.094761992744878</v>
       </c>
       <c r="C184" t="n">
-        <v>653.6600000000001</v>
+        <v>463.22</v>
       </c>
       <c r="D184" t="n">
-        <v>5.747738541546857</v>
+        <v>6.53490827606196</v>
       </c>
       <c r="E184" t="n">
-        <v>0.4539681796976636</v>
+        <v>0.5132319138085913</v>
       </c>
     </row>
     <row r="185">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>639.5249376561744</v>
+        <v>4.505988866812388</v>
       </c>
       <c r="C185" t="n">
-        <v>650.38</v>
+        <v>491.09</v>
       </c>
       <c r="D185" t="n">
-        <v>10.36089262946989</v>
+        <v>9.060660940096897</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4941697143556871</v>
+        <v>0.5046220898975626</v>
       </c>
     </row>
     <row r="186">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>638.2573896454942</v>
+        <v>3.602854091047334</v>
       </c>
       <c r="C186" t="n">
-        <v>653.8699999999999</v>
+        <v>477.83</v>
       </c>
       <c r="D186" t="n">
-        <v>15.11937484601659</v>
+        <v>8.187278749635155</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4932355084890687</v>
+        <v>0.5087184754397313</v>
       </c>
     </row>
     <row r="187">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>629.4507023156061</v>
+        <v>2.656114264577809</v>
       </c>
       <c r="C187" t="n">
-        <v>647.03</v>
+        <v>460.15</v>
       </c>
       <c r="D187" t="n">
-        <v>17.08394910824955</v>
+        <v>6.951336911702064</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4953485761443051</v>
+        <v>0.5141803228292895</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>612.1390106944389</v>
+        <v>2.096791181988678</v>
       </c>
       <c r="C188" t="n">
-        <v>622.8099999999999</v>
+        <v>473.62</v>
       </c>
       <c r="D188" t="n">
-        <v>10.16815849277788</v>
+        <v>8.248310137324241</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5028308127831682</v>
+        <v>0.5100190624029688</v>
       </c>
     </row>
     <row r="189">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>609.7511827787491</v>
+        <v>0.3433767843201707</v>
       </c>
       <c r="C189" t="n">
-        <v>629.96</v>
+        <v>475.28</v>
       </c>
       <c r="D189" t="n">
-        <v>19.70819524380911</v>
+        <v>8.875541778492185</v>
       </c>
       <c r="E189" t="n">
-        <v>0.5006219774418027</v>
+        <v>0.5095062418901483</v>
       </c>
     </row>
     <row r="190">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>608.8089982973281</v>
+        <v>-1.317643223797006</v>
       </c>
       <c r="C190" t="n">
-        <v>624.0600000000001</v>
+        <v>519.38</v>
       </c>
       <c r="D190" t="n">
-        <v>14.78774530066669</v>
+        <v>13.07453929426299</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4632564020052806</v>
+        <v>0.4958825162182299</v>
       </c>
     </row>
     <row r="191">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>606.2966746452186</v>
+        <v>-7.616584961089885</v>
       </c>
       <c r="C191" t="n">
-        <v>622.05</v>
+        <v>433.75</v>
       </c>
       <c r="D191" t="n">
-        <v>15.28944800745642</v>
+        <v>7.563937944445856</v>
       </c>
       <c r="E191" t="n">
-        <v>0.463877347325021</v>
+        <v>0.5223360225512542</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>605.5567888675057</v>
+        <v>-11.68561368992353</v>
       </c>
       <c r="C192" t="n">
-        <v>627.33</v>
+        <v>394.25</v>
       </c>
       <c r="D192" t="n">
-        <v>21.27177667436062</v>
+        <v>5.344782556288235</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5014344581338015</v>
+        <v>0.5345386793322243</v>
       </c>
     </row>
     <row r="193">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>602.5937586716682</v>
+        <v>-13.38148113801664</v>
       </c>
       <c r="C193" t="n">
-        <v>607.4200000000001</v>
+        <v>560.09</v>
       </c>
       <c r="D193" t="n">
-        <v>4.357844364077707</v>
+        <v>18.00286009072913</v>
       </c>
       <c r="E193" t="n">
-        <v>0.4683969642542766</v>
+        <v>0.5224943072865098</v>
       </c>
     </row>
     <row r="194">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>596.5343357551372</v>
+        <v>-13.68082686599143</v>
       </c>
       <c r="C194" t="n">
-        <v>613.17</v>
+        <v>467.52</v>
       </c>
       <c r="D194" t="n">
-        <v>16.12985536596901</v>
+        <v>10.23927612193425</v>
       </c>
       <c r="E194" t="n">
-        <v>0.5058088788937645</v>
+        <v>0.5510917740767477</v>
       </c>
     </row>
     <row r="195">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>594.1744137654406</v>
+        <v>-15.4027562462765</v>
       </c>
       <c r="C195" t="n">
-        <v>616.37</v>
+        <v>381.26</v>
       </c>
       <c r="D195" t="n">
-        <v>21.69076592532899</v>
+        <v>5.275093969555684</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5048203092304959</v>
+        <v>0.5385516543090546</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>588.5175870882757</v>
+        <v>-15.80142331383816</v>
       </c>
       <c r="C196" t="n">
-        <v>606.26</v>
+        <v>392.9</v>
       </c>
       <c r="D196" t="n">
-        <v>17.23446934021384</v>
+        <v>6.372370796545882</v>
       </c>
       <c r="E196" t="n">
-        <v>0.5079435715103847</v>
+        <v>0.5349557321589157</v>
       </c>
     </row>
     <row r="197">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>582.2529006525942</v>
+        <v>-17.38798190531054</v>
       </c>
       <c r="C197" t="n">
-        <v>587.1900000000001</v>
+        <v>383.51</v>
       </c>
       <c r="D197" t="n">
-        <v>4.462596722233931</v>
+        <v>6.016657667030135</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4745026251718681</v>
+        <v>0.537856566264569</v>
       </c>
     </row>
     <row r="198">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>575.9077550814968</v>
+        <v>-19.69602099854305</v>
       </c>
       <c r="C198" t="n">
-        <v>592.45</v>
+        <v>544.98</v>
       </c>
       <c r="D198" t="n">
-        <v>16.0300350510398</v>
+        <v>18.47417485133212</v>
       </c>
       <c r="E198" t="n">
-        <v>0.5122098674634277</v>
+        <v>0.5271622096652556</v>
       </c>
     </row>
     <row r="199">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>563.1374606288526</v>
+        <v>-19.79274031706012</v>
       </c>
       <c r="C199" t="n">
-        <v>574.53</v>
+        <v>527.7</v>
       </c>
       <c r="D199" t="n">
-        <v>10.91398176432279</v>
+        <v>17.03628224840814</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4785576068245577</v>
+        <v>0.5325004858469052</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>552.4032444521529</v>
+        <v>-22.43753690985278</v>
       </c>
       <c r="C200" t="n">
-        <v>567.79</v>
+        <v>352.66</v>
       </c>
       <c r="D200" t="n">
-        <v>14.90611576616926</v>
+        <v>4.802782838326831</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4806397816778168</v>
+        <v>0.5473869956745164</v>
       </c>
     </row>
     <row r="201">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>549.2020968549398</v>
+        <v>-22.67350323855001</v>
       </c>
       <c r="C201" t="n">
-        <v>555.38</v>
+        <v>523.9300000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>5.693429566657034</v>
+        <v>17.51605018287842</v>
       </c>
       <c r="E201" t="n">
-        <v>0.4844735784031799</v>
+        <v>0.5336651444814433</v>
       </c>
     </row>
     <row r="202">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>534.8875928490427</v>
+        <v>-22.71922548863729</v>
       </c>
       <c r="C202" t="n">
-        <v>543.65</v>
+        <v>436.15</v>
       </c>
       <c r="D202" t="n">
-        <v>8.235121596129051</v>
+        <v>11.95792623353023</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5272855548282716</v>
+        <v>0.5215945953038028</v>
       </c>
     </row>
     <row r="203">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>529.4996168363851</v>
+        <v>-23.5528333769839</v>
       </c>
       <c r="C203" t="n">
-        <v>544.75</v>
+        <v>425.21</v>
       </c>
       <c r="D203" t="n">
-        <v>14.72343742960835</v>
+        <v>11.26190580033853</v>
       </c>
       <c r="E203" t="n">
-        <v>0.5269457340065231</v>
+        <v>0.5249742678401019</v>
       </c>
     </row>
     <row r="204">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>524.0768031456688</v>
+        <v>-25.75007952433612</v>
       </c>
       <c r="C204" t="n">
-        <v>541.13</v>
+        <v>324.33</v>
       </c>
       <c r="D204" t="n">
-        <v>16.52513280089309</v>
+        <v>3.320542804850042</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5280640534380956</v>
+        <v>0.5561389264746401</v>
       </c>
     </row>
     <row r="205">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>513.2276501086549</v>
+        <v>-27.28265413355209</v>
       </c>
       <c r="C205" t="n">
-        <v>530.5</v>
+        <v>347.11</v>
       </c>
       <c r="D205" t="n">
-        <v>16.74100193305681</v>
+        <v>5.676722581957187</v>
       </c>
       <c r="E205" t="n">
-        <v>0.5313479582882654</v>
+        <v>0.5491015461842478</v>
       </c>
     </row>
     <row r="206">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>492.3879058372617</v>
+        <v>-29.9657480276887</v>
       </c>
       <c r="C206" t="n">
-        <v>517.96</v>
+        <v>312.92</v>
       </c>
       <c r="D206" t="n">
-        <v>25.03658471797884</v>
+        <v>3.523108813938356</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5355094447594787</v>
+        <v>0.5596637951802317</v>
       </c>
     </row>
     <row r="207">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>486.6671805211162</v>
+        <v>-30.22795950016244</v>
       </c>
       <c r="C207" t="n">
-        <v>492.3399999999999</v>
+        <v>507.55</v>
       </c>
       <c r="D207" t="n">
-        <v>5.168871078114131</v>
+        <v>18.22375568095126</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5039484007695685</v>
+        <v>0.5387253854452988</v>
       </c>
     </row>
     <row r="208">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>486.6207534468163</v>
+        <v>-30.32600868829652</v>
       </c>
       <c r="C208" t="n">
-        <v>511.2099999999999</v>
+        <v>479.84</v>
       </c>
       <c r="D208" t="n">
-        <v>24.05193937339397</v>
+        <v>15.90213900452809</v>
       </c>
       <c r="E208" t="n">
-        <v>0.5373071797896556</v>
+        <v>0.5472857808731642</v>
       </c>
     </row>
     <row r="209">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>478.7762354517741</v>
+        <v>-31.04767124557814</v>
       </c>
       <c r="C209" t="n">
-        <v>489.0699999999999</v>
+        <v>492.5600000000001</v>
       </c>
       <c r="D209" t="n">
-        <v>9.788805952831583</v>
+        <v>17.1805834943832</v>
       </c>
       <c r="E209" t="n">
-        <v>0.5049585953942209</v>
+        <v>0.543356216461672</v>
       </c>
     </row>
     <row r="210">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>470.2076028840686</v>
+        <v>-33.06437067686262</v>
       </c>
       <c r="C210" t="n">
-        <v>473.5</v>
+        <v>482.14</v>
       </c>
       <c r="D210" t="n">
-        <v>2.782772464191734</v>
+        <v>16.8569148567178</v>
       </c>
       <c r="E210" t="n">
-        <v>0.5096246517396776</v>
+        <v>0.5465752464276898</v>
       </c>
     </row>
     <row r="211">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>453.3974348885291</v>
+        <v>-34.7500518740169</v>
       </c>
       <c r="C211" t="n">
-        <v>457.81</v>
+        <v>302.52</v>
       </c>
       <c r="D211" t="n">
-        <v>3.897949426178617</v>
+        <v>3.969067055334992</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5146156852922747</v>
+        <v>0.5628766465858541</v>
       </c>
     </row>
     <row r="212">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>443.7330404581288</v>
+        <v>-34.91796291005596</v>
       </c>
       <c r="C212" t="n">
-        <v>448.17</v>
+        <v>369.5</v>
       </c>
       <c r="D212" t="n">
-        <v>3.919365790468253</v>
+        <v>9.693179565618527</v>
       </c>
       <c r="E212" t="n">
-        <v>0.5175937514028709</v>
+        <v>0.5421846478215664</v>
       </c>
     </row>
     <row r="213">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>441.5937553565334</v>
+        <v>-35.2797086644463</v>
       </c>
       <c r="C213" t="n">
-        <v>455.9299999999999</v>
+        <v>318.58</v>
       </c>
       <c r="D213" t="n">
-        <v>13.82104817349705</v>
+        <v>5.477348618770803</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5151964699694448</v>
+        <v>0.5579152625883256</v>
       </c>
     </row>
     <row r="214">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>416.7441886171728</v>
+        <v>-35.81001457603764</v>
       </c>
       <c r="C214" t="n">
-        <v>422.14</v>
+        <v>301.65</v>
       </c>
       <c r="D214" t="n">
-        <v>4.87017623506965</v>
+        <v>4.189431528937757</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5256351477575202</v>
+        <v>0.5631454139630554</v>
       </c>
     </row>
     <row r="215">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>409.3788111633684</v>
+        <v>-36.0136992534657</v>
       </c>
       <c r="C215" t="n">
-        <v>423.15</v>
+        <v>461.74</v>
       </c>
       <c r="D215" t="n">
-        <v>13.24586570617405</v>
+        <v>15.94607523042791</v>
       </c>
       <c r="E215" t="n">
-        <v>0.5253231304575512</v>
+        <v>0.5528773780310263</v>
       </c>
     </row>
     <row r="216">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>383.5115434223612</v>
+        <v>-38.51548796611866</v>
       </c>
       <c r="C216" t="n">
-        <v>388.17</v>
+        <v>329.87</v>
       </c>
       <c r="D216" t="n">
-        <v>4.122327145049604</v>
+        <v>7.332175928145845</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5361294325891545</v>
+        <v>0.5544274652451066</v>
       </c>
     </row>
     <row r="217">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>376.1460170431328</v>
+        <v>-39.41238040539163</v>
       </c>
       <c r="C217" t="n">
-        <v>378.65</v>
+        <v>435.04</v>
       </c>
       <c r="D217" t="n">
-        <v>1.964912529529789</v>
+        <v>14.62590222545358</v>
       </c>
       <c r="E217" t="n">
-        <v>0.5390704273373781</v>
+        <v>0.5611257561589225</v>
       </c>
     </row>
     <row r="218">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>370.7580410304752</v>
+        <v>-45.70005931474599</v>
       </c>
       <c r="C218" t="n">
-        <v>379.7499999999999</v>
+        <v>308.47</v>
       </c>
       <c r="D218" t="n">
-        <v>8.453228363009091</v>
+        <v>7.511731400144043</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5387306065156297</v>
+        <v>0.5610385248682144</v>
       </c>
     </row>
     <row r="219">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>360.4263548116465</v>
+        <v>-46.2685505702739</v>
       </c>
       <c r="C219" t="n">
-        <v>365.5</v>
+        <v>490.46</v>
       </c>
       <c r="D219" t="n">
-        <v>4.530512357556052</v>
+        <v>21.22593972516127</v>
       </c>
       <c r="E219" t="n">
-        <v>0.543132830797372</v>
+        <v>0.544004965303192</v>
       </c>
     </row>
     <row r="220">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>313.2967742462619</v>
+        <v>-51.13272546396949</v>
       </c>
       <c r="C220" t="n">
-        <v>323.11</v>
+        <v>483.01</v>
       </c>
       <c r="D220" t="n">
-        <v>9.256997464182636</v>
+        <v>21.94411500105279</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5562282895554812</v>
+        <v>0.5463064790504888</v>
       </c>
     </row>
     <row r="221">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>309.8715906408114</v>
+        <v>-71.66675765786523</v>
       </c>
       <c r="C221" t="n">
-        <v>317.55</v>
+        <v>440.67</v>
       </c>
       <c r="D221" t="n">
-        <v>7.120463429843161</v>
+        <v>24.05279926067895</v>
       </c>
       <c r="E221" t="n">
-        <v>0.5579459293454102</v>
+        <v>0.5593864914076097</v>
       </c>
     </row>
     <row r="222">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>742.2490955460881</v>
+        <v>13.79176032603561</v>
       </c>
       <c r="C222" t="n">
-        <v>749.42</v>
+        <v>481.8200000000001</v>
       </c>
       <c r="D222" t="n">
-        <v>6.746375268465073</v>
+        <v>5.698356865114119</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4245291854467386</v>
+        <v>0.5074858526408433</v>
       </c>
     </row>
     <row r="223">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>676.2142439632809</v>
+        <v>10.00418051147989</v>
       </c>
       <c r="C223" t="n">
-        <v>691.0599999999999</v>
+        <v>501.34</v>
       </c>
       <c r="D223" t="n">
-        <v>14.36400956128531</v>
+        <v>8.403904452570439</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4817464754337705</v>
+        <v>0.5014555776949058</v>
       </c>
     </row>
     <row r="224">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>653.3116377861583</v>
+        <v>5.094761992744878</v>
       </c>
       <c r="C224" t="n">
-        <v>670.0599999999999</v>
+        <v>463.22</v>
       </c>
       <c r="D224" t="n">
-        <v>16.26012824999267</v>
+        <v>6.53490827606196</v>
       </c>
       <c r="E224" t="n">
-        <v>0.4882339638489698</v>
+        <v>0.5132319138085913</v>
       </c>
     </row>
     <row r="225">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>651.204598535622</v>
+        <v>-0.299350924793373</v>
       </c>
       <c r="C225" t="n">
-        <v>667.51</v>
+        <v>471.63</v>
       </c>
       <c r="D225" t="n">
-        <v>15.81637973407851</v>
+        <v>8.744490262335667</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4890217302993869</v>
+        <v>0.5106338291623138</v>
       </c>
     </row>
     <row r="226">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>649.980157214942</v>
+        <v>-0.7459856494117645</v>
       </c>
       <c r="C226" t="n">
-        <v>666.4000000000001</v>
+        <v>486.97</v>
       </c>
       <c r="D226" t="n">
-        <v>15.93047814465688</v>
+        <v>10.16870516697507</v>
       </c>
       <c r="E226" t="n">
-        <v>0.4893646404013332</v>
+        <v>0.5058948733390206</v>
       </c>
     </row>
     <row r="227">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>644.2117158033376</v>
+        <v>-2.69644929790077</v>
       </c>
       <c r="C227" t="n">
-        <v>649.37</v>
+        <v>471.63</v>
       </c>
       <c r="D227" t="n">
-        <v>4.702846762837591</v>
+        <v>9.409616953068005</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4554374338248665</v>
+        <v>0.5106338291623138</v>
       </c>
     </row>
     <row r="228">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>638.2573896454942</v>
+        <v>-11.08659462843015</v>
       </c>
       <c r="C228" t="n">
-        <v>653.8699999999999</v>
+        <v>492.3</v>
       </c>
       <c r="D228" t="n">
-        <v>15.11937484601659</v>
+        <v>11.61991312573865</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4932355084890687</v>
+        <v>0.5434365377468126</v>
       </c>
     </row>
     <row r="229">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>629.3264205272494</v>
+        <v>-13.21434184801308</v>
       </c>
       <c r="C229" t="n">
-        <v>647.03</v>
+        <v>558.38</v>
       </c>
       <c r="D229" t="n">
-        <v>17.20823089660618</v>
+        <v>17.82049558106485</v>
       </c>
       <c r="E229" t="n">
-        <v>0.4953485761443051</v>
+        <v>0.5228348062429359</v>
       </c>
     </row>
     <row r="230">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>614.5780029926832</v>
+        <v>-13.68082686599143</v>
       </c>
       <c r="C230" t="n">
-        <v>621.1600000000001</v>
+        <v>467.52</v>
       </c>
       <c r="D230" t="n">
-        <v>6.117844714054319</v>
+        <v>10.23927612193425</v>
       </c>
       <c r="E230" t="n">
-        <v>0.4641522932626176</v>
+        <v>0.5510917740767477</v>
       </c>
     </row>
     <row r="231">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>612.1390106944389</v>
+        <v>-15.4027562462765</v>
       </c>
       <c r="C231" t="n">
-        <v>622.8099999999999</v>
+        <v>381.26</v>
       </c>
       <c r="D231" t="n">
-        <v>10.16815849277788</v>
+        <v>5.275093969555684</v>
       </c>
       <c r="E231" t="n">
-        <v>0.5028308127831682</v>
+        <v>0.5385516543090546</v>
       </c>
     </row>
     <row r="232">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>609.7511827787491</v>
+        <v>-18.84292507742722</v>
       </c>
       <c r="C232" t="n">
-        <v>629.96</v>
+        <v>389.3299999999999</v>
       </c>
       <c r="D232" t="n">
-        <v>19.70819524380911</v>
+        <v>6.913692080024975</v>
       </c>
       <c r="E232" t="n">
-        <v>0.5006219774418027</v>
+        <v>0.5360586051894994</v>
       </c>
     </row>
     <row r="233">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>607.128423249139</v>
+        <v>-19.69602099854305</v>
       </c>
       <c r="C233" t="n">
-        <v>622.59</v>
+        <v>544.98</v>
       </c>
       <c r="D233" t="n">
-        <v>14.99786622466675</v>
+        <v>18.47417485133212</v>
       </c>
       <c r="E233" t="n">
-        <v>0.4637105261943445</v>
+        <v>0.5271622096652556</v>
       </c>
     </row>
     <row r="234">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>606.2966746452186</v>
+        <v>-19.71493774312951</v>
       </c>
       <c r="C234" t="n">
-        <v>622.05</v>
+        <v>490.2</v>
       </c>
       <c r="D234" t="n">
-        <v>15.28944800745642</v>
+        <v>13.83602786935829</v>
       </c>
       <c r="E234" t="n">
-        <v>0.463877347325021</v>
+        <v>0.5440852865883326</v>
       </c>
     </row>
     <row r="235">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>605.5567888675057</v>
+        <v>-22.43753690985278</v>
       </c>
       <c r="C235" t="n">
-        <v>627.33</v>
+        <v>352.66</v>
       </c>
       <c r="D235" t="n">
-        <v>21.27177667436062</v>
+        <v>4.802782838326831</v>
       </c>
       <c r="E235" t="n">
-        <v>0.5014344581338015</v>
+        <v>0.5473869956745164</v>
       </c>
     </row>
     <row r="236">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>602.7331195567842</v>
+        <v>-22.67350323855001</v>
       </c>
       <c r="C236" t="n">
-        <v>613.84</v>
+        <v>523.9300000000001</v>
       </c>
       <c r="D236" t="n">
-        <v>10.60127854609531</v>
+        <v>17.51605018287842</v>
       </c>
       <c r="E236" t="n">
-        <v>0.5056018971205176</v>
+        <v>0.5336651444814433</v>
       </c>
     </row>
     <row r="237">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>596.5343357551372</v>
+        <v>-24.30689196488892</v>
       </c>
       <c r="C237" t="n">
-        <v>613.17</v>
+        <v>379.86</v>
       </c>
       <c r="D237" t="n">
-        <v>16.12985536596901</v>
+        <v>7.62706843044872</v>
       </c>
       <c r="E237" t="n">
-        <v>0.5058088788937645</v>
+        <v>0.5389841535367347</v>
       </c>
     </row>
     <row r="238">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>594.1744137654406</v>
+        <v>-25.79697096469566</v>
       </c>
       <c r="C238" t="n">
-        <v>616.37</v>
+        <v>375.52</v>
       </c>
       <c r="D238" t="n">
-        <v>21.69076592532899</v>
+        <v>7.672645360696958</v>
       </c>
       <c r="E238" t="n">
-        <v>0.5048203092304959</v>
+        <v>0.5403249011425425</v>
       </c>
     </row>
     <row r="239">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>588.4394691556519</v>
+        <v>-27.86428598105142</v>
       </c>
       <c r="C239" t="n">
-        <v>606.26</v>
+        <v>512.11</v>
       </c>
       <c r="D239" t="n">
-        <v>17.31258727283772</v>
+        <v>17.95442926875931</v>
       </c>
       <c r="E239" t="n">
-        <v>0.5079435715103847</v>
+        <v>0.5373166736751412</v>
       </c>
     </row>
     <row r="240">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>587.3122099058157</v>
+        <v>-28.01355624353576</v>
       </c>
       <c r="C240" t="n">
-        <v>592.47</v>
+        <v>524.28</v>
       </c>
       <c r="D240" t="n">
-        <v>4.684774656034387</v>
+        <v>19.0274307197914</v>
       </c>
       <c r="E240" t="n">
-        <v>0.4730154381498588</v>
+        <v>0.5335570196745234</v>
       </c>
     </row>
     <row r="241">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>575.9077550814968</v>
+        <v>-28.79158128792518</v>
       </c>
       <c r="C241" t="n">
-        <v>592.45</v>
+        <v>320.76</v>
       </c>
       <c r="D241" t="n">
-        <v>16.0300350510398</v>
+        <v>3.861864088329136</v>
       </c>
       <c r="E241" t="n">
-        <v>0.5122098674634277</v>
+        <v>0.557241799505224</v>
       </c>
     </row>
     <row r="242">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>563.1374606288526</v>
+        <v>-30.32415589714115</v>
       </c>
       <c r="C242" t="n">
-        <v>574.53</v>
+        <v>343.54</v>
       </c>
       <c r="D242" t="n">
-        <v>10.91398176432279</v>
+        <v>6.218043865436281</v>
       </c>
       <c r="E242" t="n">
-        <v>0.4785576068245577</v>
+        <v>0.5502044192148317</v>
       </c>
     </row>
     <row r="243">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>552.4032444521529</v>
+        <v>-31.91665510454563</v>
       </c>
       <c r="C243" t="n">
-        <v>567.79</v>
+        <v>312.92</v>
       </c>
       <c r="D243" t="n">
-        <v>14.90611576616926</v>
+        <v>4.064430097417451</v>
       </c>
       <c r="E243" t="n">
-        <v>0.4806397816778168</v>
+        <v>0.5596637951802317</v>
       </c>
     </row>
     <row r="244">
@@ -5065,16 +5065,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>548.9195530295422</v>
+        <v>-33.6568995160535</v>
       </c>
       <c r="C244" t="n">
-        <v>555.38</v>
+        <v>332.05</v>
       </c>
       <c r="D244" t="n">
-        <v>5.975973392054668</v>
+        <v>6.168842150352751</v>
       </c>
       <c r="E244" t="n">
-        <v>0.4844735784031799</v>
+        <v>0.5537540021620049</v>
       </c>
     </row>
     <row r="245">
@@ -5084,16 +5084,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>545.1896478888174</v>
+        <v>-34.7500518740169</v>
       </c>
       <c r="C245" t="n">
-        <v>550.65</v>
+        <v>302.52</v>
       </c>
       <c r="D245" t="n">
-        <v>4.974417303245947</v>
+        <v>3.969067055334992</v>
       </c>
       <c r="E245" t="n">
-        <v>0.4859348079366986</v>
+        <v>0.5628766465858541</v>
       </c>
     </row>
     <row r="246">
@@ -5103,16 +5103,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>534.8875928490427</v>
+        <v>-35.2797086644463</v>
       </c>
       <c r="C246" t="n">
-        <v>543.65</v>
+        <v>318.58</v>
       </c>
       <c r="D246" t="n">
-        <v>8.235121596129051</v>
+        <v>5.477348618770803</v>
       </c>
       <c r="E246" t="n">
-        <v>0.5272855548282716</v>
+        <v>0.5579152625883256</v>
       </c>
     </row>
     <row r="247">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>529.4996168363851</v>
+        <v>-35.81001457603764</v>
       </c>
       <c r="C247" t="n">
-        <v>544.75</v>
+        <v>301.65</v>
       </c>
       <c r="D247" t="n">
-        <v>14.72343742960835</v>
+        <v>4.189431528937757</v>
       </c>
       <c r="E247" t="n">
-        <v>0.5269457340065231</v>
+        <v>0.5631454139630554</v>
       </c>
     </row>
     <row r="248">
@@ -5141,16 +5141,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>523.6926363131599</v>
+        <v>-36.17648097979892</v>
       </c>
       <c r="C248" t="n">
-        <v>541.13</v>
+        <v>476.91</v>
       </c>
       <c r="D248" t="n">
-        <v>16.90929963340195</v>
+        <v>17.27711903881083</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5280640534380956</v>
+        <v>0.5481909399710944</v>
       </c>
     </row>
     <row r="249">
@@ -5160,16 +5160,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>513.2276501086549</v>
+        <v>-37.65248931728567</v>
       </c>
       <c r="C249" t="n">
-        <v>530.5</v>
+        <v>453.43</v>
       </c>
       <c r="D249" t="n">
-        <v>16.74100193305681</v>
+        <v>17.56621211884502</v>
       </c>
       <c r="E249" t="n">
-        <v>0.5313479582882654</v>
+        <v>0.5162563191221532</v>
       </c>
     </row>
     <row r="250">
@@ -5179,16 +5179,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>492.3879058372617</v>
+        <v>-38.52316714417778</v>
       </c>
       <c r="C250" t="n">
-        <v>517.96</v>
+        <v>473.4399999999999</v>
       </c>
       <c r="D250" t="n">
-        <v>25.03658471797884</v>
+        <v>17.63412517869665</v>
       </c>
       <c r="E250" t="n">
-        <v>0.5355094447594787</v>
+        <v>0.549262920199701</v>
       </c>
     </row>
     <row r="251">
@@ -5198,16 +5198,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>486.6207534468163</v>
+        <v>-39.34036509192762</v>
       </c>
       <c r="C251" t="n">
-        <v>511.2099999999999</v>
+        <v>478.49</v>
       </c>
       <c r="D251" t="n">
-        <v>24.05193937339397</v>
+        <v>18.28893479569103</v>
       </c>
       <c r="E251" t="n">
-        <v>0.5373071797896556</v>
+        <v>0.5477028336998555</v>
       </c>
     </row>
     <row r="252">
@@ -5217,16 +5217,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>478.7762354517741</v>
+        <v>-43.90946395084861</v>
       </c>
       <c r="C252" t="n">
-        <v>489.0699999999999</v>
+        <v>431.1</v>
       </c>
       <c r="D252" t="n">
-        <v>9.788805952831583</v>
+        <v>15.53974325496319</v>
       </c>
       <c r="E252" t="n">
-        <v>0.5049585953942209</v>
+        <v>0.5623429325568219</v>
       </c>
     </row>
     <row r="253">
@@ -5236,16 +5236,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>468.6443698688666</v>
+        <v>-45.85048392169058</v>
       </c>
       <c r="C253" t="n">
-        <v>474.8199999999999</v>
+        <v>431.1</v>
       </c>
       <c r="D253" t="n">
-        <v>5.666269311457306</v>
+        <v>16.07832114744156</v>
       </c>
       <c r="E253" t="n">
-        <v>0.5093608196759633</v>
+        <v>0.5623429325568219</v>
       </c>
     </row>
     <row r="254">
@@ -5255,16 +5255,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>453.3974348885291</v>
+        <v>-48.80752061577908</v>
       </c>
       <c r="C254" t="n">
-        <v>457.81</v>
+        <v>384.66</v>
       </c>
       <c r="D254" t="n">
-        <v>3.897949426178617</v>
+        <v>14.83216605047595</v>
       </c>
       <c r="E254" t="n">
-        <v>0.5146156852922747</v>
+        <v>0.5375012990418321</v>
       </c>
     </row>
     <row r="255">
@@ -5274,16 +5274,16 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>445.6177157319878</v>
+        <v>-54.2151423003879</v>
       </c>
       <c r="C255" t="n">
-        <v>449.36</v>
+        <v>401.05</v>
       </c>
       <c r="D255" t="n">
-        <v>3.225058140952838</v>
+        <v>15.85210486369043</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5172261270593429</v>
+        <v>0.5716262195509523</v>
       </c>
     </row>
     <row r="256">
@@ -5293,16 +5293,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>443.7330404581288</v>
+        <v>-54.25318528778901</v>
       </c>
       <c r="C256" t="n">
-        <v>448.17</v>
+        <v>270.19</v>
       </c>
       <c r="D256" t="n">
-        <v>3.919365790468253</v>
+        <v>6.64019820512368</v>
       </c>
       <c r="E256" t="n">
-        <v>0.5175937514028709</v>
+        <v>0.5728642894650634</v>
       </c>
     </row>
     <row r="257">
@@ -5312,16 +5312,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>441.5937553565334</v>
+        <v>-56.74993063568323</v>
       </c>
       <c r="C257" t="n">
-        <v>455.9299999999999</v>
+        <v>438.06</v>
       </c>
       <c r="D257" t="n">
-        <v>13.82104817349705</v>
+        <v>19.69256840818608</v>
       </c>
       <c r="E257" t="n">
-        <v>0.5151964699694448</v>
+        <v>0.5601927935392129</v>
       </c>
     </row>
     <row r="258">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>416.7441886171728</v>
+        <v>-57.56185240046199</v>
       </c>
       <c r="C258" t="n">
-        <v>422.14</v>
+        <v>360.75</v>
       </c>
       <c r="D258" t="n">
-        <v>4.87017623506965</v>
+        <v>15.23452670644187</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5256351477575202</v>
+        <v>0.544887767994566</v>
       </c>
     </row>
     <row r="259">
@@ -5350,16 +5350,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>409.3788111633684</v>
+        <v>-61.34188485744266</v>
       </c>
       <c r="C259" t="n">
-        <v>423.15</v>
+        <v>327.72</v>
       </c>
       <c r="D259" t="n">
-        <v>13.24586570617405</v>
+        <v>13.48360896927652</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5253231304575512</v>
+        <v>0.5550916604876152</v>
       </c>
     </row>
     <row r="260">
@@ -5369,16 +5369,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>383.5115434223612</v>
+        <v>-62.31866560715804</v>
       </c>
       <c r="C260" t="n">
-        <v>388.17</v>
+        <v>490.74</v>
       </c>
       <c r="D260" t="n">
-        <v>4.122327145049604</v>
+        <v>25.70312466461572</v>
       </c>
       <c r="E260" t="n">
-        <v>0.5361294325891545</v>
+        <v>0.5439184654576561</v>
       </c>
     </row>
     <row r="261">
@@ -5388,16 +5388,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>376.1460170431328</v>
+        <v>-71.44924410263525</v>
       </c>
       <c r="C261" t="n">
-        <v>378.65</v>
+        <v>455.34</v>
       </c>
       <c r="D261" t="n">
-        <v>1.964912529529789</v>
+        <v>25.23593971526893</v>
       </c>
       <c r="E261" t="n">
-        <v>0.5390704273373781</v>
+        <v>0.5548545173575633</v>
       </c>
     </row>
     <row r="262">
@@ -5407,16 +5407,16 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>370.7580410304752</v>
+        <v>-71.54463481943829</v>
       </c>
       <c r="C262" t="n">
-        <v>379.7499999999999</v>
+        <v>441.55</v>
       </c>
       <c r="D262" t="n">
-        <v>8.453228363009091</v>
+        <v>24.09350634711829</v>
       </c>
       <c r="E262" t="n">
-        <v>0.5387306065156297</v>
+        <v>0.5591146347502108</v>
       </c>
     </row>
     <row r="263">
@@ -5426,16 +5426,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>360.4263548116465</v>
+        <v>-71.66675765786523</v>
       </c>
       <c r="C263" t="n">
-        <v>365.5</v>
+        <v>440.67</v>
       </c>
       <c r="D263" t="n">
-        <v>4.530512357556052</v>
+        <v>24.05279926067895</v>
       </c>
       <c r="E263" t="n">
-        <v>0.543132830797372</v>
+        <v>0.5593864914076097</v>
       </c>
     </row>
     <row r="264">
@@ -5445,16 +5445,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>313.2967742462619</v>
+        <v>-78.80677271480556</v>
       </c>
       <c r="C264" t="n">
-        <v>323.11</v>
+        <v>242.12</v>
       </c>
       <c r="D264" t="n">
-        <v>9.256997464182636</v>
+        <v>11.07378334728237</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5562282895554812</v>
+        <v>0.5815358989800464</v>
       </c>
     </row>
     <row r="265">
@@ -5464,16 +5464,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>309.8715906408114</v>
+        <v>-79.00093570192074</v>
       </c>
       <c r="C265" t="n">
-        <v>317.55</v>
+        <v>409.53</v>
       </c>
       <c r="D265" t="n">
-        <v>7.120463429843161</v>
+        <v>23.44826072671654</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5579459293454102</v>
+        <v>0.5690065099432908</v>
       </c>
     </row>
     <row r="266">
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>742.2490955460881</v>
+        <v>91.81295196131509</v>
       </c>
       <c r="C266" t="n">
         <v>749.42</v>
@@ -5502,16 +5502,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>676.2142439632809</v>
+        <v>68.61362750355693</v>
       </c>
       <c r="C267" t="n">
-        <v>691.0599999999999</v>
+        <v>649.37</v>
       </c>
       <c r="D267" t="n">
-        <v>14.36400956128531</v>
+        <v>4.702846762837591</v>
       </c>
       <c r="E267" t="n">
-        <v>0.4817464754337705</v>
+        <v>0.4554374338248665</v>
       </c>
     </row>
     <row r="268">
@@ -5521,16 +5521,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>653.5867514554393</v>
+        <v>57.04175540691753</v>
       </c>
       <c r="C268" t="n">
-        <v>670.0599999999999</v>
+        <v>607.4200000000001</v>
       </c>
       <c r="D268" t="n">
-        <v>15.98501458071166</v>
+        <v>4.357844364077707</v>
       </c>
       <c r="E268" t="n">
-        <v>0.4882339638489698</v>
+        <v>0.4683969642542766</v>
       </c>
     </row>
     <row r="269">
@@ -5540,16 +5540,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>651.204598535622</v>
+        <v>39.79213559794012</v>
       </c>
       <c r="C269" t="n">
-        <v>667.51</v>
+        <v>691.0599999999999</v>
       </c>
       <c r="D269" t="n">
-        <v>15.81637973407851</v>
+        <v>14.36400956128531</v>
       </c>
       <c r="E269" t="n">
-        <v>0.4890217302993869</v>
+        <v>0.4817464754337705</v>
       </c>
     </row>
     <row r="270">
@@ -5559,16 +5559,16 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>649.980157214942</v>
+        <v>36.3307105712116</v>
       </c>
       <c r="C270" t="n">
-        <v>666.4000000000001</v>
+        <v>555.38</v>
       </c>
       <c r="D270" t="n">
-        <v>15.93047814465688</v>
+        <v>5.693429566657034</v>
       </c>
       <c r="E270" t="n">
-        <v>0.4893646404013332</v>
+        <v>0.4844735784031799</v>
       </c>
     </row>
     <row r="271">
@@ -5578,16 +5578,16 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>644.2117158033376</v>
+        <v>34.06426360371314</v>
       </c>
       <c r="C271" t="n">
-        <v>649.37</v>
+        <v>622.8099999999999</v>
       </c>
       <c r="D271" t="n">
-        <v>4.702846762837591</v>
+        <v>10.16815849277788</v>
       </c>
       <c r="E271" t="n">
-        <v>0.4554374338248665</v>
+        <v>0.5028308127831682</v>
       </c>
     </row>
     <row r="272">
@@ -5597,16 +5597,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>638.2573896454942</v>
+        <v>27.53481505014911</v>
       </c>
       <c r="C272" t="n">
-        <v>653.8699999999999</v>
+        <v>670.0599999999999</v>
       </c>
       <c r="D272" t="n">
-        <v>15.11937484601659</v>
+        <v>15.98501458071166</v>
       </c>
       <c r="E272" t="n">
-        <v>0.4932355084890687</v>
+        <v>0.4882339638489698</v>
       </c>
     </row>
     <row r="273">
@@ -5616,16 +5616,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>629.4507023156061</v>
+        <v>27.36357421307116</v>
       </c>
       <c r="C273" t="n">
-        <v>647.03</v>
+        <v>667.51</v>
       </c>
       <c r="D273" t="n">
-        <v>17.08394910824955</v>
+        <v>15.81637973407851</v>
       </c>
       <c r="E273" t="n">
-        <v>0.4953485761443051</v>
+        <v>0.4890217302993869</v>
       </c>
     </row>
     <row r="274">
@@ -5635,16 +5635,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>612.1390106944389</v>
+        <v>26.61327420130364</v>
       </c>
       <c r="C274" t="n">
-        <v>622.8099999999999</v>
+        <v>666.4000000000001</v>
       </c>
       <c r="D274" t="n">
-        <v>10.16815849277788</v>
+        <v>15.93047814465688</v>
       </c>
       <c r="E274" t="n">
-        <v>0.5028308127831682</v>
+        <v>0.4893646404013332</v>
       </c>
     </row>
     <row r="275">
@@ -5654,16 +5654,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>609.7511827787491</v>
+        <v>25.70869476213502</v>
       </c>
       <c r="C275" t="n">
-        <v>629.96</v>
+        <v>653.8699999999999</v>
       </c>
       <c r="D275" t="n">
-        <v>19.70819524380911</v>
+        <v>15.11937484601659</v>
       </c>
       <c r="E275" t="n">
-        <v>0.5006219774418027</v>
+        <v>0.4932355084890687</v>
       </c>
     </row>
     <row r="276">
@@ -5673,7 +5673,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>608.8089982973281</v>
+        <v>24.53601024246083</v>
       </c>
       <c r="C276" t="n">
         <v>624.0600000000001</v>
@@ -5692,16 +5692,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>606.2966746452186</v>
+        <v>23.36609221491001</v>
       </c>
       <c r="C277" t="n">
-        <v>622.05</v>
+        <v>574.53</v>
       </c>
       <c r="D277" t="n">
-        <v>15.28944800745642</v>
+        <v>10.91398176432279</v>
       </c>
       <c r="E277" t="n">
-        <v>0.463877347325021</v>
+        <v>0.4785576068245577</v>
       </c>
     </row>
     <row r="278">
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>605.5567888675057</v>
+        <v>22.1138551280784</v>
       </c>
       <c r="C278" t="n">
-        <v>627.33</v>
+        <v>622.05</v>
       </c>
       <c r="D278" t="n">
-        <v>21.27177667436062</v>
+        <v>15.28944800745642</v>
       </c>
       <c r="E278" t="n">
-        <v>0.5014344581338015</v>
+        <v>0.463877347325021</v>
       </c>
     </row>
     <row r="279">
@@ -5730,16 +5730,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>602.5937586716682</v>
+        <v>18.96319685661217</v>
       </c>
       <c r="C279" t="n">
-        <v>607.4200000000001</v>
+        <v>492.3399999999999</v>
       </c>
       <c r="D279" t="n">
-        <v>4.357844364077707</v>
+        <v>5.168871078114131</v>
       </c>
       <c r="E279" t="n">
-        <v>0.4683969642542766</v>
+        <v>0.5039484007695685</v>
       </c>
     </row>
     <row r="280">
@@ -5749,16 +5749,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>596.5343357551372</v>
+        <v>18.56893003984167</v>
       </c>
       <c r="C280" t="n">
-        <v>613.17</v>
+        <v>530.55</v>
       </c>
       <c r="D280" t="n">
-        <v>16.12985536596901</v>
+        <v>8.517118043019188</v>
       </c>
       <c r="E280" t="n">
-        <v>0.5058088788937645</v>
+        <v>0.4921442611341035</v>
       </c>
     </row>
     <row r="281">
@@ -5768,16 +5768,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>594.1744137654406</v>
+        <v>16.8483895192475</v>
       </c>
       <c r="C281" t="n">
-        <v>616.37</v>
+        <v>543.65</v>
       </c>
       <c r="D281" t="n">
-        <v>21.69076592532899</v>
+        <v>8.235121596129051</v>
       </c>
       <c r="E281" t="n">
-        <v>0.5048203092304959</v>
+        <v>0.5272855548282716</v>
       </c>
     </row>
     <row r="282">
@@ -5787,16 +5787,16 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>588.5175870882757</v>
+        <v>16.53888017690386</v>
       </c>
       <c r="C282" t="n">
-        <v>606.26</v>
+        <v>647.03</v>
       </c>
       <c r="D282" t="n">
-        <v>17.23446934021384</v>
+        <v>17.08394910824955</v>
       </c>
       <c r="E282" t="n">
-        <v>0.5079435715103847</v>
+        <v>0.4953485761443051</v>
       </c>
     </row>
     <row r="283">
@@ -5806,16 +5806,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>575.9077550814968</v>
+        <v>12.99503859568766</v>
       </c>
       <c r="C283" t="n">
-        <v>592.45</v>
+        <v>457.81</v>
       </c>
       <c r="D283" t="n">
-        <v>16.0300350510398</v>
+        <v>3.897949426178617</v>
       </c>
       <c r="E283" t="n">
-        <v>0.5122098674634277</v>
+        <v>0.5146156852922747</v>
       </c>
     </row>
     <row r="284">
@@ -5825,16 +5825,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>563.1374606288526</v>
+        <v>12.83874077400783</v>
       </c>
       <c r="C284" t="n">
-        <v>574.53</v>
+        <v>449.36</v>
       </c>
       <c r="D284" t="n">
-        <v>10.91398176432279</v>
+        <v>3.225058140952838</v>
       </c>
       <c r="E284" t="n">
-        <v>0.4785576068245577</v>
+        <v>0.5172261270593429</v>
       </c>
     </row>
     <row r="285">
@@ -5844,16 +5844,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>552.4032444521529</v>
+        <v>9.972943462577064</v>
       </c>
       <c r="C285" t="n">
-        <v>567.79</v>
+        <v>448.17</v>
       </c>
       <c r="D285" t="n">
-        <v>14.90611576616926</v>
+        <v>3.919365790468253</v>
       </c>
       <c r="E285" t="n">
-        <v>0.4806397816778168</v>
+        <v>0.5175937514028709</v>
       </c>
     </row>
     <row r="286">
@@ -5863,16 +5863,16 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>549.2020968549398</v>
+        <v>9.633560242881344</v>
       </c>
       <c r="C286" t="n">
-        <v>555.38</v>
+        <v>613.17</v>
       </c>
       <c r="D286" t="n">
-        <v>5.693429566657034</v>
+        <v>16.12985536596901</v>
       </c>
       <c r="E286" t="n">
-        <v>0.4844735784031799</v>
+        <v>0.5058088788937645</v>
       </c>
     </row>
     <row r="287">
@@ -5882,16 +5882,16 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>534.8875928490427</v>
+        <v>6.919556741285078</v>
       </c>
       <c r="C287" t="n">
-        <v>543.65</v>
+        <v>567.79</v>
       </c>
       <c r="D287" t="n">
-        <v>8.235121596129051</v>
+        <v>14.90611576616926</v>
       </c>
       <c r="E287" t="n">
-        <v>0.5272855548282716</v>
+        <v>0.4806397816778168</v>
       </c>
     </row>
     <row r="288">
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>533.954865535614</v>
+        <v>4.116009595271947</v>
       </c>
       <c r="C288" t="n">
         <v>546.49</v>
@@ -5920,16 +5920,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>529.4996168363851</v>
+        <v>3.663583898481633</v>
       </c>
       <c r="C289" t="n">
-        <v>544.75</v>
+        <v>592.45</v>
       </c>
       <c r="D289" t="n">
-        <v>14.72343742960835</v>
+        <v>16.0300350510398</v>
       </c>
       <c r="E289" t="n">
-        <v>0.5269457340065231</v>
+        <v>0.5122098674634277</v>
       </c>
     </row>
     <row r="290">
@@ -5939,16 +5939,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>524.0768031456688</v>
+        <v>3.54163476850735</v>
       </c>
       <c r="C290" t="n">
-        <v>541.13</v>
+        <v>606.26</v>
       </c>
       <c r="D290" t="n">
-        <v>16.52513280089309</v>
+        <v>17.23446934021384</v>
       </c>
       <c r="E290" t="n">
-        <v>0.5280640534380956</v>
+        <v>0.5079435715103847</v>
       </c>
     </row>
     <row r="291">
@@ -5958,16 +5958,16 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>521.5407376958467</v>
+        <v>1.866476750600128</v>
       </c>
       <c r="C291" t="n">
-        <v>530.55</v>
+        <v>629.96</v>
       </c>
       <c r="D291" t="n">
-        <v>8.517118043019188</v>
+        <v>19.70819524380911</v>
       </c>
       <c r="E291" t="n">
-        <v>0.4921442611341035</v>
+        <v>0.5006219774418027</v>
       </c>
     </row>
     <row r="292">
@@ -5977,16 +5977,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>513.2276501086549</v>
+        <v>1.31413005091467</v>
       </c>
       <c r="C292" t="n">
-        <v>530.5</v>
+        <v>489.0699999999999</v>
       </c>
       <c r="D292" t="n">
-        <v>16.74100193305681</v>
+        <v>9.788805952831583</v>
       </c>
       <c r="E292" t="n">
-        <v>0.5313479582882654</v>
+        <v>0.5049585953942209</v>
       </c>
     </row>
     <row r="293">
@@ -5996,16 +5996,16 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>492.3879058372617</v>
+        <v>-1.405622396738494</v>
       </c>
       <c r="C293" t="n">
-        <v>517.96</v>
+        <v>422.14</v>
       </c>
       <c r="D293" t="n">
-        <v>25.03658471797884</v>
+        <v>4.87017623506965</v>
       </c>
       <c r="E293" t="n">
-        <v>0.5355094447594787</v>
+        <v>0.5256351477575202</v>
       </c>
     </row>
     <row r="294">
@@ -6015,16 +6015,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>486.6671805211162</v>
+        <v>-4.220835488777979</v>
       </c>
       <c r="C294" t="n">
-        <v>492.3399999999999</v>
+        <v>378.65</v>
       </c>
       <c r="D294" t="n">
-        <v>5.168871078114131</v>
+        <v>1.964912529529789</v>
       </c>
       <c r="E294" t="n">
-        <v>0.5039484007695685</v>
+        <v>0.5390704273373781</v>
       </c>
     </row>
     <row r="295">
@@ -6034,16 +6034,16 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>486.6207534468163</v>
+        <v>-4.572063194231333</v>
       </c>
       <c r="C295" t="n">
-        <v>511.2099999999999</v>
+        <v>627.33</v>
       </c>
       <c r="D295" t="n">
-        <v>24.05193937339397</v>
+        <v>21.27177667436062</v>
       </c>
       <c r="E295" t="n">
-        <v>0.5373071797896556</v>
+        <v>0.5014344581338015</v>
       </c>
     </row>
     <row r="296">
@@ -6053,16 +6053,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>478.7762354517741</v>
+        <v>-5.54258258937945</v>
       </c>
       <c r="C296" t="n">
-        <v>489.0699999999999</v>
+        <v>443.69</v>
       </c>
       <c r="D296" t="n">
-        <v>9.788805952831583</v>
+        <v>7.844738757091271</v>
       </c>
       <c r="E296" t="n">
-        <v>0.5049585953942209</v>
+        <v>0.5189777489314467</v>
       </c>
     </row>
     <row r="297">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>453.3974348885291</v>
+        <v>-6.199285426982897</v>
       </c>
       <c r="C297" t="n">
-        <v>457.81</v>
+        <v>544.75</v>
       </c>
       <c r="D297" t="n">
-        <v>3.897949426178617</v>
+        <v>14.72343742960835</v>
       </c>
       <c r="E297" t="n">
-        <v>0.5146156852922747</v>
+        <v>0.5269457340065231</v>
       </c>
     </row>
     <row r="298">
@@ -6091,16 +6091,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>445.6177157319878</v>
+        <v>-9.08784616555478</v>
       </c>
       <c r="C298" t="n">
-        <v>449.36</v>
+        <v>388.17</v>
       </c>
       <c r="D298" t="n">
-        <v>3.225058140952838</v>
+        <v>4.122327145049604</v>
       </c>
       <c r="E298" t="n">
-        <v>0.5172261270593429</v>
+        <v>0.5361294325891545</v>
       </c>
     </row>
     <row r="299">
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>443.7330404581288</v>
+        <v>-9.430245214187067</v>
       </c>
       <c r="C299" t="n">
-        <v>448.17</v>
+        <v>616.37</v>
       </c>
       <c r="D299" t="n">
-        <v>3.919365790468253</v>
+        <v>21.69076592532899</v>
       </c>
       <c r="E299" t="n">
-        <v>0.5175937514028709</v>
+        <v>0.5048203092304959</v>
       </c>
     </row>
     <row r="300">
@@ -6129,16 +6129,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>441.5937553565334</v>
+        <v>-13.79841531208156</v>
       </c>
       <c r="C300" t="n">
-        <v>455.9299999999999</v>
+        <v>541.13</v>
       </c>
       <c r="D300" t="n">
-        <v>13.82104817349705</v>
+        <v>16.52513280089309</v>
       </c>
       <c r="E300" t="n">
-        <v>0.5151964699694448</v>
+        <v>0.5280640534380956</v>
       </c>
     </row>
     <row r="301">
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>435.3262834939773</v>
+        <v>-17.48436349482108</v>
       </c>
       <c r="C301" t="n">
-        <v>443.69</v>
+        <v>365.5</v>
       </c>
       <c r="D301" t="n">
-        <v>7.844738757091271</v>
+        <v>4.530512357556052</v>
       </c>
       <c r="E301" t="n">
-        <v>0.5189777489314467</v>
+        <v>0.543132830797372</v>
       </c>
     </row>
     <row r="302">
@@ -6167,16 +6167,16 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>416.7441886171728</v>
+        <v>-17.82374671451682</v>
       </c>
       <c r="C302" t="n">
-        <v>422.14</v>
+        <v>530.5</v>
       </c>
       <c r="D302" t="n">
-        <v>4.87017623506965</v>
+        <v>16.74100193305681</v>
       </c>
       <c r="E302" t="n">
-        <v>0.5256351477575202</v>
+        <v>0.5313479582882654</v>
       </c>
     </row>
     <row r="303">
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>409.3788111633684</v>
+        <v>-23.34185622969875</v>
       </c>
       <c r="C303" t="n">
-        <v>423.15</v>
+        <v>455.9299999999999</v>
       </c>
       <c r="D303" t="n">
-        <v>13.24586570617405</v>
+        <v>13.82104817349705</v>
       </c>
       <c r="E303" t="n">
-        <v>0.5253231304575512</v>
+        <v>0.5151964699694448</v>
       </c>
     </row>
     <row r="304">
@@ -6205,16 +6205,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>383.5115434223612</v>
+        <v>-27.26851043500841</v>
       </c>
       <c r="C304" t="n">
-        <v>388.17</v>
+        <v>379.7499999999999</v>
       </c>
       <c r="D304" t="n">
-        <v>4.122327145049604</v>
+        <v>8.453228363009091</v>
       </c>
       <c r="E304" t="n">
-        <v>0.5361294325891545</v>
+        <v>0.5387306065156297</v>
       </c>
     </row>
     <row r="305">
@@ -6224,16 +6224,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>376.1460170431328</v>
+        <v>-31.28283421449068</v>
       </c>
       <c r="C305" t="n">
-        <v>378.65</v>
+        <v>423.15</v>
       </c>
       <c r="D305" t="n">
-        <v>1.964912529529789</v>
+        <v>13.24586570617405</v>
       </c>
       <c r="E305" t="n">
-        <v>0.5390704273373781</v>
+        <v>0.5253231304575512</v>
       </c>
     </row>
     <row r="306">
@@ -6243,16 +6243,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>370.7580410304752</v>
+        <v>-41.46665974843935</v>
       </c>
       <c r="C306" t="n">
-        <v>379.7499999999999</v>
+        <v>317.55</v>
       </c>
       <c r="D306" t="n">
-        <v>8.453228363009091</v>
+        <v>7.120463429843161</v>
       </c>
       <c r="E306" t="n">
-        <v>0.5387306065156297</v>
+        <v>0.5579459293454102</v>
       </c>
     </row>
     <row r="307">
@@ -6262,16 +6262,16 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>360.4263548116465</v>
+        <v>-47.46815266540062</v>
       </c>
       <c r="C307" t="n">
-        <v>365.5</v>
+        <v>323.11</v>
       </c>
       <c r="D307" t="n">
-        <v>4.530512357556052</v>
+        <v>9.256997464182636</v>
       </c>
       <c r="E307" t="n">
-        <v>0.543132830797372</v>
+        <v>0.5562282895554812</v>
       </c>
     </row>
     <row r="308">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>313.2967742462619</v>
+        <v>-50.06504214859163</v>
       </c>
       <c r="C308" t="n">
-        <v>323.11</v>
+        <v>511.2099999999999</v>
       </c>
       <c r="D308" t="n">
-        <v>9.256997464182636</v>
+        <v>24.05193937339397</v>
       </c>
       <c r="E308" t="n">
-        <v>0.5562282895554812</v>
+        <v>0.5373071797896556</v>
       </c>
     </row>
     <row r="309">
@@ -6300,16 +6300,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>309.8715906408114</v>
+        <v>-51.60107127303709</v>
       </c>
       <c r="C309" t="n">
-        <v>317.55</v>
+        <v>517.96</v>
       </c>
       <c r="D309" t="n">
-        <v>7.120463429843161</v>
+        <v>25.03658471797884</v>
       </c>
       <c r="E309" t="n">
-        <v>0.5579459293454102</v>
+        <v>0.5355094447594787</v>
       </c>
     </row>
     <row r="310">
@@ -6319,16 +6319,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>627.1553439001847</v>
+        <v>76.65587045979419</v>
       </c>
       <c r="C310" t="n">
-        <v>636.61</v>
+        <v>702.05</v>
       </c>
       <c r="D310" t="n">
-        <v>8.995174647515157</v>
+        <v>6.954550080729848</v>
       </c>
       <c r="E310" t="n">
-        <v>0.4594814523002691</v>
+        <v>0.4387899056257662</v>
       </c>
     </row>
     <row r="311">
@@ -6338,16 +6338,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>609.0967110859133</v>
+        <v>50.12162675495475</v>
       </c>
       <c r="C311" t="n">
-        <v>620.83</v>
+        <v>623.52</v>
       </c>
       <c r="D311" t="n">
-        <v>11.26893491343175</v>
+        <v>7.637819466109246</v>
       </c>
       <c r="E311" t="n">
-        <v>0.464354000655039</v>
+        <v>0.4635253200790767</v>
       </c>
     </row>
     <row r="312">
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>584.4358509684787</v>
+        <v>36.96484405002781</v>
       </c>
       <c r="C312" t="n">
-        <v>591.09</v>
+        <v>564.8700000000001</v>
       </c>
       <c r="D312" t="n">
-        <v>6.180605175761106</v>
+        <v>6.308171005298584</v>
       </c>
       <c r="E312" t="n">
-        <v>0.4735438557602629</v>
+        <v>0.4818293805988292</v>
       </c>
     </row>
     <row r="313">
@@ -6376,16 +6376,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>572.6080871030852</v>
+        <v>36.19189512885946</v>
       </c>
       <c r="C313" t="n">
-        <v>585.8399999999999</v>
+        <v>562.95</v>
       </c>
       <c r="D313" t="n">
-        <v>12.75656173689055</v>
+        <v>6.373613693440559</v>
       </c>
       <c r="E313" t="n">
-        <v>0.4753511600242231</v>
+        <v>0.4821349932935104</v>
       </c>
     </row>
     <row r="314">
@@ -6395,16 +6395,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>558.9912909248171</v>
+        <v>36.04723678089081</v>
       </c>
       <c r="C314" t="n">
-        <v>568.33</v>
+        <v>605.26</v>
       </c>
       <c r="D314" t="n">
-        <v>8.858236114635829</v>
+        <v>10.00909467181763</v>
       </c>
       <c r="E314" t="n">
-        <v>0.4804729605471402</v>
+        <v>0.4688764808195997</v>
       </c>
     </row>
     <row r="315">
@@ -6414,16 +6414,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>558.049989848301</v>
+        <v>27.86188355350163</v>
       </c>
       <c r="C315" t="n">
-        <v>575.4400000000001</v>
+        <v>551.62</v>
       </c>
       <c r="D315" t="n">
-        <v>16.91144614026916</v>
+        <v>7.724574160747185</v>
       </c>
       <c r="E315" t="n">
-        <v>0.4785640114298456</v>
+        <v>0.4856351477575204</v>
       </c>
     </row>
     <row r="316">
@@ -6433,16 +6433,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>557.7376509980057</v>
+        <v>26.50346144481878</v>
       </c>
       <c r="C316" t="n">
-        <v>569.74</v>
+        <v>595.35</v>
       </c>
       <c r="D316" t="n">
-        <v>11.52221186880916</v>
+        <v>11.80348655418744</v>
       </c>
       <c r="E316" t="n">
-        <v>0.4801371331851594</v>
+        <v>0.4722254865988141</v>
       </c>
     </row>
     <row r="317">
@@ -6452,16 +6452,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>552.8757790727258</v>
+        <v>19.9753121426016</v>
       </c>
       <c r="C317" t="n">
-        <v>569.8200000000001</v>
+        <v>548.1900000000001</v>
       </c>
       <c r="D317" t="n">
-        <v>16.46392074037324</v>
+        <v>9.608412589021174</v>
       </c>
       <c r="E317" t="n">
-        <v>0.4803001869009608</v>
+        <v>0.4869822999686161</v>
       </c>
     </row>
     <row r="318">
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>539.3035407820731</v>
+        <v>14.76977218384961</v>
       </c>
       <c r="C318" t="n">
-        <v>557.1900000000001</v>
+        <v>584.1999999999999</v>
       </c>
       <c r="D318" t="n">
-        <v>17.36335654848627</v>
+        <v>14.10516938934365</v>
       </c>
       <c r="E318" t="n">
-        <v>0.523102669440567</v>
+        <v>0.4758578019766482</v>
       </c>
     </row>
     <row r="319">
@@ -6490,16 +6490,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>537.8512194620693</v>
+        <v>11.6165941126152</v>
       </c>
       <c r="C319" t="n">
-        <v>554.24</v>
+        <v>478.03</v>
       </c>
       <c r="D319" t="n">
-        <v>15.90414021374527</v>
+        <v>5.991972951018108</v>
       </c>
       <c r="E319" t="n">
-        <v>0.4846403241855589</v>
+        <v>0.5084193050244868</v>
       </c>
     </row>
     <row r="320">
@@ -6509,16 +6509,16 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>528.7332652436335</v>
+        <v>5.84960206669669</v>
       </c>
       <c r="C320" t="n">
-        <v>536.25</v>
+        <v>572.8299999999999</v>
       </c>
       <c r="D320" t="n">
-        <v>7.02624928800193</v>
+        <v>15.62545058775659</v>
       </c>
       <c r="E320" t="n">
-        <v>0.4904854683645262</v>
+        <v>0.479182545604066</v>
       </c>
     </row>
     <row r="321">
@@ -6528,16 +6528,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>526.8065958354078</v>
+        <v>5.35401503557992</v>
       </c>
       <c r="C321" t="n">
-        <v>541.67</v>
+        <v>499.98</v>
       </c>
       <c r="D321" t="n">
-        <v>14.33521940318149</v>
+        <v>9.578913614946448</v>
       </c>
       <c r="E321" t="n">
-        <v>0.5281847614106989</v>
+        <v>0.5018757198017949</v>
       </c>
     </row>
     <row r="322">
@@ -6547,16 +6547,16 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>514.1894056602163</v>
+        <v>-2.157384011071443</v>
       </c>
       <c r="C322" t="n">
-        <v>532.9100000000001</v>
+        <v>547.6900000000001</v>
       </c>
       <c r="D322" t="n">
-        <v>18.18970336891993</v>
+        <v>15.70722470581327</v>
       </c>
       <c r="E322" t="n">
-        <v>0.5308909708638962</v>
+        <v>0.4871367639785018</v>
       </c>
     </row>
     <row r="323">
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>510.2207128710572</v>
+        <v>-3.301324523324013</v>
       </c>
       <c r="C323" t="n">
-        <v>522.7</v>
+        <v>549.38</v>
       </c>
       <c r="D323" t="n">
-        <v>11.98443025375033</v>
+        <v>16.16788759361826</v>
       </c>
       <c r="E323" t="n">
-        <v>0.4948568751925889</v>
+        <v>0.486614675625088</v>
       </c>
     </row>
     <row r="324">
@@ -6585,16 +6585,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>508.9124732323004</v>
+        <v>-3.932387091603303</v>
       </c>
       <c r="C324" t="n">
-        <v>533.05</v>
+        <v>483.4399999999999</v>
       </c>
       <c r="D324" t="n">
-        <v>23.60686681471574</v>
+        <v>10.7673416141834</v>
       </c>
       <c r="E324" t="n">
-        <v>0.5306599529837452</v>
+        <v>0.5066978601455339</v>
       </c>
     </row>
     <row r="325">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>505.7544143234502</v>
+        <v>-4.877030261764588</v>
       </c>
       <c r="C325" t="n">
-        <v>515.16</v>
+        <v>514.64</v>
       </c>
       <c r="D325" t="n">
-        <v>8.908399484088136</v>
+        <v>13.66038463600215</v>
       </c>
       <c r="E325" t="n">
-        <v>0.4971861924616652</v>
+        <v>0.4973468350319463</v>
       </c>
     </row>
     <row r="326">
@@ -6623,16 +6623,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>504.7172665555827</v>
+        <v>-5.034222953422685</v>
       </c>
       <c r="C326" t="n">
-        <v>521.29</v>
+        <v>515.09</v>
       </c>
       <c r="D326" t="n">
-        <v>16.07762641287687</v>
+        <v>13.75099277010967</v>
       </c>
       <c r="E326" t="n">
-        <v>0.4951070315403061</v>
+        <v>0.4970223852628887</v>
       </c>
     </row>
     <row r="327">
@@ -6642,16 +6642,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>496.3469367550051</v>
+        <v>-7.172572176978818</v>
       </c>
       <c r="C327" t="n">
-        <v>511.1</v>
+        <v>566.27</v>
       </c>
       <c r="D327" t="n">
-        <v>14.25491033387631</v>
+        <v>16.81286756513255</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4981529111186572</v>
+        <v>0.5203973641669397</v>
       </c>
     </row>
     <row r="328">
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>490.0656418442728</v>
+        <v>-7.981300195144328</v>
       </c>
       <c r="C328" t="n">
-        <v>502.21</v>
+        <v>416.86</v>
       </c>
       <c r="D328" t="n">
-        <v>11.64335911336694</v>
+        <v>6.242434590502011</v>
       </c>
       <c r="E328" t="n">
-        <v>0.5009990423603217</v>
+        <v>0.5273658228029175</v>
       </c>
     </row>
     <row r="329">
@@ -6680,16 +6680,16 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>486.4715281151111</v>
+        <v>-8.486486986792812</v>
       </c>
       <c r="C329" t="n">
-        <v>505.98</v>
+        <v>573.5</v>
       </c>
       <c r="D329" t="n">
-        <v>19.00844973320576</v>
+        <v>17.79504843154614</v>
       </c>
       <c r="E329" t="n">
-        <v>0.5000221516831663</v>
+        <v>0.5180640534380955</v>
       </c>
     </row>
     <row r="330">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>481.1299300786791</v>
+        <v>-8.826415808751378</v>
       </c>
       <c r="C330" t="n">
-        <v>503.33</v>
+        <v>532.79</v>
       </c>
       <c r="D330" t="n">
-        <v>21.69922911038535</v>
+        <v>14.42488976186142</v>
       </c>
       <c r="E330" t="n">
-        <v>0.5008408109355607</v>
+        <v>0.5309280422262689</v>
       </c>
     </row>
     <row r="331">
@@ -6718,16 +6718,16 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>471.6015138479924</v>
+        <v>-8.917836378368676</v>
       </c>
       <c r="C331" t="n">
-        <v>487.72</v>
+        <v>481.57</v>
       </c>
       <c r="D331" t="n">
-        <v>15.61282297468347</v>
+        <v>11.99215264508381</v>
       </c>
       <c r="E331" t="n">
-        <v>0.5056631773241923</v>
+        <v>0.5072755555425064</v>
       </c>
     </row>
     <row r="332">
@@ -6737,16 +6737,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>461.9793780511955</v>
+        <v>-9.731004542708234</v>
       </c>
       <c r="C332" t="n">
-        <v>469.78</v>
+        <v>541.8</v>
       </c>
       <c r="D332" t="n">
-        <v>7.289416602805537</v>
+        <v>17.32314572747158</v>
       </c>
       <c r="E332" t="n">
-        <v>0.5112053459988909</v>
+        <v>0.4886688209116753</v>
       </c>
     </row>
     <row r="333">
@@ -6756,16 +6756,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>458.8421225324726</v>
+        <v>-10.78632117584965</v>
       </c>
       <c r="C333" t="n">
-        <v>477.43</v>
+        <v>400.5</v>
       </c>
       <c r="D333" t="n">
-        <v>18.07940862099735</v>
+        <v>5.633879796022085</v>
       </c>
       <c r="E333" t="n">
-        <v>0.5084688465300964</v>
+        <v>0.5324224470484926</v>
       </c>
     </row>
     <row r="334">
@@ -6775,16 +6775,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>456.8794009988778</v>
+        <v>-11.53238796202146</v>
       </c>
       <c r="C334" t="n">
-        <v>471.52</v>
+        <v>494.14</v>
       </c>
       <c r="D334" t="n">
-        <v>14.12993118987768</v>
+        <v>13.77834543108925</v>
       </c>
       <c r="E334" t="n">
-        <v>0.5106678112444888</v>
+        <v>0.5034920914798768</v>
       </c>
     </row>
     <row r="335">
@@ -6794,16 +6794,16 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>456.6325452015376</v>
+        <v>-12.85809502482226</v>
       </c>
       <c r="C335" t="n">
-        <v>463.1799999999999</v>
+        <v>585.8700000000001</v>
       </c>
       <c r="D335" t="n">
-        <v>6.034210527532984</v>
+        <v>20.05182157375797</v>
       </c>
       <c r="E335" t="n">
-        <v>0.5132442709293822</v>
+        <v>0.5143423749794204</v>
       </c>
     </row>
     <row r="336">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>441.541339221392</v>
+        <v>-22.15828989384642</v>
       </c>
       <c r="C336" t="n">
-        <v>445.5599999999999</v>
+        <v>341.25</v>
       </c>
       <c r="D336" t="n">
-        <v>3.500160963927577</v>
+        <v>3.780704177392968</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5184998146803712</v>
+        <v>0.5504389031166678</v>
       </c>
     </row>
     <row r="337">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>438.6176343698962</v>
+        <v>-25.90916797771452</v>
       </c>
       <c r="C337" t="n">
-        <v>453.23</v>
+        <v>502.14</v>
       </c>
       <c r="D337" t="n">
-        <v>14.09633505448101</v>
+        <v>18.4456088971075</v>
       </c>
       <c r="E337" t="n">
-        <v>0.5160305756228275</v>
+        <v>0.5010206673217057</v>
       </c>
     </row>
     <row r="338">
@@ -6851,16 +6851,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>434.8624321627834</v>
+        <v>-33.37812399618968</v>
       </c>
       <c r="C338" t="n">
-        <v>452.8</v>
+        <v>391.02</v>
       </c>
       <c r="D338" t="n">
-        <v>17.42130466139935</v>
+        <v>11.09889632704636</v>
       </c>
       <c r="E338" t="n">
-        <v>0.5162631758172262</v>
+        <v>0.5353510846759256</v>
       </c>
     </row>
     <row r="339">
@@ -6870,16 +6870,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>432.1967002886268</v>
+        <v>-33.6429837671107</v>
       </c>
       <c r="C339" t="n">
-        <v>448.94</v>
+        <v>361.1799999999999</v>
       </c>
       <c r="D339" t="n">
-        <v>16.22565630544227</v>
+        <v>8.634168965781685</v>
       </c>
       <c r="E339" t="n">
-        <v>0.5176434059309267</v>
+        <v>0.5447549289460643</v>
       </c>
     </row>
     <row r="340">
@@ -6889,16 +6889,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>418.9336488907095</v>
+        <v>-38.91950294061288</v>
       </c>
       <c r="C340" t="n">
-        <v>433.25</v>
+        <v>346.48</v>
       </c>
       <c r="D340" t="n">
-        <v>13.79386062272928</v>
+        <v>8.852215897642623</v>
       </c>
       <c r="E340" t="n">
-        <v>0.5224904865611399</v>
+        <v>0.5492961708367038</v>
       </c>
     </row>
     <row r="341">
@@ -6908,16 +6908,16 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>411.3698403512595</v>
+        <v>-42.02003942851513</v>
       </c>
       <c r="C341" t="n">
-        <v>416.86</v>
+        <v>373.9</v>
       </c>
       <c r="D341" t="n">
-        <v>4.96260583193528</v>
+        <v>12.04572661354978</v>
       </c>
       <c r="E341" t="n">
-        <v>0.5275538168051931</v>
+        <v>0.5406375965771891</v>
       </c>
     </row>
     <row r="342">
@@ -6927,16 +6927,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>401.3314769442262</v>
+        <v>-44.28323414433097</v>
       </c>
       <c r="C342" t="n">
-        <v>407.01</v>
+        <v>340.47</v>
       </c>
       <c r="D342" t="n">
-        <v>5.148399259237285</v>
+        <v>9.831064644683901</v>
       </c>
       <c r="E342" t="n">
-        <v>0.5301237965365011</v>
+        <v>0.5511528282355298</v>
       </c>
     </row>
     <row r="343">
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>377.7079028263333</v>
+        <v>-45.99467872951132</v>
       </c>
       <c r="C343" t="n">
-        <v>389.5</v>
+        <v>475.05</v>
       </c>
       <c r="D343" t="n">
-        <v>11.25609108624059</v>
+        <v>21.72249885952514</v>
       </c>
       <c r="E343" t="n">
-        <v>0.5360060874261383</v>
+        <v>0.5093895273773127</v>
       </c>
     </row>
     <row r="344">
@@ -6965,16 +6965,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>371.7111935172037</v>
+        <v>-52.85971226399525</v>
       </c>
       <c r="C344" t="n">
-        <v>374.55</v>
+        <v>268.24</v>
       </c>
       <c r="D344" t="n">
-        <v>2.298657218535246</v>
+        <v>6.088258381698445</v>
       </c>
       <c r="E344" t="n">
-        <v>0.5401492642610578</v>
+        <v>0.5734666991036175</v>
       </c>
     </row>
     <row r="345">
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>353.0140021478315</v>
+        <v>-54.21090744440907</v>
       </c>
       <c r="C345" t="n">
-        <v>367.49</v>
+        <v>279.78</v>
       </c>
       <c r="D345" t="n">
-        <v>13.93319225902725</v>
+        <v>7.450205884455824</v>
       </c>
       <c r="E345" t="n">
-        <v>0.5428055931413068</v>
+        <v>0.5697162375952954</v>
       </c>
     </row>
     <row r="346">
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>342.3799424838564</v>
+        <v>-54.30581821485657</v>
       </c>
       <c r="C346" t="n">
-        <v>346.87</v>
+        <v>484.49</v>
       </c>
       <c r="D346" t="n">
-        <v>3.941169356337864</v>
+        <v>22.95000944987942</v>
       </c>
       <c r="E346" t="n">
-        <v>0.548888159805713</v>
+        <v>0.5458492655812271</v>
       </c>
     </row>
     <row r="347">
@@ -7022,16 +7022,16 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>340.908256749863</v>
+        <v>-55.082983175386</v>
       </c>
       <c r="C347" t="n">
-        <v>361.01</v>
+        <v>321.9</v>
       </c>
       <c r="D347" t="n">
-        <v>19.5571235713849</v>
+        <v>11.25361256274037</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5446196787520424</v>
+        <v>0.5568896215626846</v>
       </c>
     </row>
     <row r="348">
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>333.8450341417757</v>
+        <v>-55.45318530940057</v>
       </c>
       <c r="C348" t="n">
-        <v>348.03</v>
+        <v>357.83</v>
       </c>
       <c r="D348" t="n">
-        <v>13.63614852581825</v>
+        <v>14.41087842746489</v>
       </c>
       <c r="E348" t="n">
-        <v>0.548817332406058</v>
+        <v>0.5456020698549154</v>
       </c>
     </row>
     <row r="349">
@@ -7060,16 +7060,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>325.2917982461992</v>
+        <v>-62.15260822466198</v>
       </c>
       <c r="C349" t="n">
-        <v>334.3200000000001</v>
+        <v>373.17</v>
       </c>
       <c r="D349" t="n">
-        <v>8.475149018243693</v>
+        <v>17.56110531585213</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5530527355571239</v>
+        <v>0.5410508819890052</v>
       </c>
     </row>
     <row r="350">
@@ -7079,16 +7079,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>270.3291587308363</v>
+        <v>-70.33305749099853</v>
       </c>
       <c r="C350" t="n">
-        <v>288.82</v>
+        <v>272.6</v>
       </c>
       <c r="D350" t="n">
-        <v>17.923732308707</v>
+        <v>11.3151472440409</v>
       </c>
       <c r="E350" t="n">
-        <v>0.5671089604567222</v>
+        <v>0.5719320049800313</v>
       </c>
     </row>
     <row r="351">
@@ -7098,16 +7098,16 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>263.4977074189962</v>
+        <v>-79.08946211793651</v>
       </c>
       <c r="C351" t="n">
-        <v>275.23</v>
+        <v>374.3199999999999</v>
       </c>
       <c r="D351" t="n">
-        <v>11.16098528875838</v>
+        <v>22.35808015330392</v>
       </c>
       <c r="E351" t="n">
-        <v>0.5713072922454155</v>
+        <v>0.5406956147662683</v>
       </c>
     </row>
     <row r="352">
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>244.6514147574422</v>
+        <v>-80.61123652377623</v>
       </c>
       <c r="C352" t="n">
-        <v>252.84</v>
+        <v>409.76</v>
       </c>
       <c r="D352" t="n">
-        <v>7.61036105194968</v>
+        <v>25.78438094915684</v>
       </c>
       <c r="E352" t="n">
-        <v>0.5782241906080972</v>
+        <v>0.5297472057455699</v>
       </c>
     </row>
     <row r="353">
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>238.030424531538</v>
+        <v>-82.23219756354055</v>
       </c>
       <c r="C353" t="n">
-        <v>248.96</v>
+        <v>222.89</v>
       </c>
       <c r="D353" t="n">
-        <v>10.35015263713723</v>
+        <v>10.39422130028577</v>
       </c>
       <c r="E353" t="n">
-        <v>0.57942283132481</v>
+        <v>0.5874765848002503</v>
       </c>
     </row>
     <row r="354">
@@ -7155,16 +7155,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>717.0551929966092</v>
+        <v>75.82894920906583</v>
       </c>
       <c r="C354" t="n">
-        <v>723.9299999999999</v>
+        <v>676.6799999999999</v>
       </c>
       <c r="D354" t="n">
-        <v>6.442746265844429</v>
+        <v>5.019804431919096</v>
       </c>
       <c r="E354" t="n">
-        <v>0.432060737546319</v>
+        <v>0.4469149385906465</v>
       </c>
     </row>
     <row r="355">
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>663.3831792179114</v>
+        <v>67.52737565167875</v>
       </c>
       <c r="C355" t="n">
-        <v>678.8399999999999</v>
+        <v>629.4000000000001</v>
       </c>
       <c r="D355" t="n">
-        <v>14.97148463841326</v>
+        <v>3.311504988067072</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4853361436752167</v>
+        <v>0.4616067263797012</v>
       </c>
     </row>
     <row r="356">
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>662.761349931494</v>
+        <v>63.66625665234878</v>
       </c>
       <c r="C356" t="n">
-        <v>679.2099999999999</v>
+        <v>638.99</v>
       </c>
       <c r="D356" t="n">
-        <v>15.96295526693459</v>
+        <v>5.202572121076784</v>
       </c>
       <c r="E356" t="n">
-        <v>0.4856948015713415</v>
+        <v>0.45850105792728</v>
       </c>
     </row>
     <row r="357">
@@ -7212,16 +7212,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>644.4814966066718</v>
+        <v>62.43092367350212</v>
       </c>
       <c r="C357" t="n">
-        <v>660.97</v>
+        <v>660</v>
       </c>
       <c r="D357" t="n">
-        <v>15.99761426849764</v>
+        <v>7.328265002756772</v>
       </c>
       <c r="E357" t="n">
-        <v>0.4908891248306074</v>
+        <v>0.4519680968145363</v>
       </c>
     </row>
     <row r="358">
@@ -7231,16 +7231,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>630.4719818673692</v>
+        <v>59.27939876265626</v>
       </c>
       <c r="C358" t="n">
-        <v>641.49</v>
+        <v>621.48</v>
       </c>
       <c r="D358" t="n">
-        <v>10.52095809525707</v>
+        <v>4.937597521722177</v>
       </c>
       <c r="E358" t="n">
-        <v>0.4970600373738385</v>
+        <v>0.4638680041361303</v>
       </c>
     </row>
     <row r="359">
@@ -7250,16 +7250,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>614.396230769149</v>
+        <v>58.98498327234894</v>
       </c>
       <c r="C359" t="n">
-        <v>631.3099999999999</v>
+        <v>645.23</v>
       </c>
       <c r="D359" t="n">
-        <v>16.413704416395</v>
+        <v>7.032444826231862</v>
       </c>
       <c r="E359" t="n">
-        <v>0.5000648144559003</v>
+        <v>0.4565309636665597</v>
       </c>
     </row>
     <row r="360">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>612.8605404437512</v>
+        <v>50.96273463735542</v>
       </c>
       <c r="C360" t="n">
-        <v>628.78</v>
+        <v>650.97</v>
       </c>
       <c r="D360" t="n">
-        <v>15.4186584759037</v>
+        <v>9.7223720816478</v>
       </c>
       <c r="E360" t="n">
-        <v>0.5008010803449725</v>
+        <v>0.4552306780965122</v>
       </c>
     </row>
     <row r="361">
@@ -7288,16 +7288,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>611.752550496246</v>
+        <v>48.82972338358364</v>
       </c>
       <c r="C361" t="n">
-        <v>616.87</v>
+        <v>599.26</v>
       </c>
       <c r="D361" t="n">
-        <v>4.651971909286539</v>
+        <v>5.944772122067477</v>
       </c>
       <c r="E361" t="n">
-        <v>0.4654775944674369</v>
+        <v>0.4709178168956112</v>
       </c>
     </row>
     <row r="362">
@@ -7307,16 +7307,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>605.6305686102169</v>
+        <v>47.88808911944821</v>
       </c>
       <c r="C362" t="n">
-        <v>616.51</v>
+        <v>649.14</v>
       </c>
       <c r="D362" t="n">
-        <v>10.37436680137215</v>
+        <v>8.775186042973081</v>
       </c>
       <c r="E362" t="n">
-        <v>0.5050645884110079</v>
+        <v>0.4902766389838617</v>
       </c>
     </row>
     <row r="363">
@@ -7326,16 +7326,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>603.1285697060425</v>
+        <v>46.42252311326192</v>
       </c>
       <c r="C363" t="n">
-        <v>618.55</v>
+        <v>608.79</v>
       </c>
       <c r="D363" t="n">
-        <v>14.91736911882439</v>
+        <v>7.426307637175049</v>
       </c>
       <c r="E363" t="n">
-        <v>0.504061175133131</v>
+        <v>0.4678521583891651</v>
       </c>
     </row>
     <row r="364">
@@ -7345,16 +7345,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>602.6812631291263</v>
+        <v>44.54399063931662</v>
       </c>
       <c r="C364" t="n">
-        <v>613.9000000000001</v>
+        <v>636.2</v>
       </c>
       <c r="D364" t="n">
-        <v>10.75234176018776</v>
+        <v>8.395327803818491</v>
       </c>
       <c r="E364" t="n">
-        <v>0.4663951106861579</v>
+        <v>0.4986942665984292</v>
       </c>
     </row>
     <row r="365">
@@ -7364,16 +7364,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>600.9695987979092</v>
+        <v>40.90383952501443</v>
       </c>
       <c r="C365" t="n">
-        <v>606.79</v>
+        <v>571.9499999999999</v>
       </c>
       <c r="D365" t="n">
-        <v>5.351809613184013</v>
+        <v>5.829062932199946</v>
       </c>
       <c r="E365" t="n">
-        <v>0.4685915889067325</v>
+        <v>0.4793546411155679</v>
       </c>
     </row>
     <row r="366">
@@ -7383,16 +7383,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>594.9378409121887</v>
+        <v>37.66148517595489</v>
       </c>
       <c r="C366" t="n">
-        <v>610.04</v>
+        <v>698.9300000000001</v>
       </c>
       <c r="D366" t="n">
-        <v>14.63475928292624</v>
+        <v>15.63125971386862</v>
       </c>
       <c r="E366" t="n">
-        <v>0.4673998048850925</v>
+        <v>0.4791274439607867</v>
       </c>
     </row>
     <row r="367">
@@ -7402,16 +7402,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>593.8706596801818</v>
+        <v>35.71295997253438</v>
       </c>
       <c r="C367" t="n">
-        <v>607.74</v>
+        <v>543.0599999999999</v>
       </c>
       <c r="D367" t="n">
-        <v>13.40122764469043</v>
+        <v>4.820539946036439</v>
       </c>
       <c r="E367" t="n">
-        <v>0.4681126751277894</v>
+        <v>0.4882795716067634</v>
       </c>
     </row>
     <row r="368">
@@ -7421,16 +7421,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>588.8006428587677</v>
+        <v>32.7214382256517</v>
       </c>
       <c r="C368" t="n">
-        <v>592.3199999999999</v>
+        <v>677.23</v>
       </c>
       <c r="D368" t="n">
-        <v>3.046483131836777</v>
+        <v>15.15363502594445</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4728740093954416</v>
+        <v>0.4860189499472091</v>
       </c>
     </row>
     <row r="369">
@@ -7440,16 +7440,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>580.4991243156704</v>
+        <v>32.49318840460332</v>
       </c>
       <c r="C369" t="n">
-        <v>595.41</v>
+        <v>519.0699999999999</v>
       </c>
       <c r="D369" t="n">
-        <v>14.43848096545461</v>
+        <v>3.689283870104741</v>
       </c>
       <c r="E369" t="n">
-        <v>0.4723947188750109</v>
+        <v>0.4955053226409187</v>
       </c>
     </row>
     <row r="370">
@@ -7459,16 +7459,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>571.5911004120742</v>
+        <v>32.13830564778395</v>
       </c>
       <c r="C370" t="n">
-        <v>579.8000000000001</v>
+        <v>532.6799999999999</v>
       </c>
       <c r="D370" t="n">
-        <v>7.732155463925638</v>
+        <v>4.941509184386364</v>
       </c>
       <c r="E370" t="n">
-        <v>0.4767441240002021</v>
+        <v>0.4912984764946075</v>
       </c>
     </row>
     <row r="371">
@@ -7478,16 +7478,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>565.2946647905536</v>
+        <v>24.82200566437923</v>
       </c>
       <c r="C371" t="n">
-        <v>581.86</v>
+        <v>646.64</v>
       </c>
       <c r="D371" t="n">
-        <v>16.0498537942536</v>
+        <v>14.76140663225101</v>
       </c>
       <c r="E371" t="n">
-        <v>0.5154814151928068</v>
+        <v>0.4952836259118555</v>
       </c>
     </row>
     <row r="372">
@@ -7497,16 +7497,16 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>557.71371143612</v>
+        <v>24.07485807082796</v>
       </c>
       <c r="C372" t="n">
-        <v>564.38</v>
+        <v>522.09</v>
       </c>
       <c r="D372" t="n">
-        <v>6.184595337654709</v>
+        <v>6.272272317888314</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4816932262252372</v>
+        <v>0.4947577921813695</v>
       </c>
     </row>
     <row r="373">
@@ -7516,16 +7516,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>557.5123854051848</v>
+        <v>17.82850801179497</v>
       </c>
       <c r="C373" t="n">
-        <v>564.12</v>
+        <v>495.06</v>
       </c>
       <c r="D373" t="n">
-        <v>6.12584104730486</v>
+        <v>5.723233342011967</v>
       </c>
       <c r="E373" t="n">
-        <v>0.4817735475103778</v>
+        <v>0.5029203485984073</v>
       </c>
     </row>
     <row r="374">
@@ -7535,16 +7535,16 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>547.2303088262014</v>
+        <v>15.46567708359184</v>
       </c>
       <c r="C374" t="n">
-        <v>568.24</v>
+        <v>542.72</v>
       </c>
       <c r="D374" t="n">
-        <v>20.48971462987317</v>
+        <v>10.41872484239871</v>
       </c>
       <c r="E374" t="n">
-        <v>0.519976543925373</v>
+        <v>0.4881968391761027</v>
       </c>
     </row>
     <row r="375">
@@ -7554,16 +7554,16 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>545.7992916059023</v>
+        <v>14.03267834232534</v>
       </c>
       <c r="C375" t="n">
-        <v>561.0799999999999</v>
+        <v>456.41</v>
       </c>
       <c r="D375" t="n">
-        <v>14.79799570540702</v>
+        <v>3.49136366718638</v>
       </c>
       <c r="E375" t="n">
-        <v>0.4827126886904828</v>
+        <v>0.5150481845199547</v>
       </c>
     </row>
     <row r="376">
@@ -7573,16 +7573,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>541.9746007629006</v>
+        <v>13.86222983736232</v>
       </c>
       <c r="C376" t="n">
-        <v>553.98</v>
+        <v>590.27</v>
       </c>
       <c r="D376" t="n">
-        <v>11.52049315946846</v>
+        <v>14.88522577790495</v>
       </c>
       <c r="E376" t="n">
-        <v>0.4849060776308599</v>
+        <v>0.4736950797933558</v>
       </c>
     </row>
     <row r="377">
@@ -7592,16 +7592,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>534.9334397280622</v>
+        <v>13.76199863903318</v>
       </c>
       <c r="C377" t="n">
-        <v>557.95</v>
+        <v>551.59</v>
       </c>
       <c r="D377" t="n">
-        <v>22.49340485868897</v>
+        <v>9.750817957771053</v>
       </c>
       <c r="E377" t="n">
-        <v>0.5231554132488206</v>
+        <v>0.5251201954545667</v>
       </c>
     </row>
     <row r="378">
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>528.9533607724338</v>
+        <v>2.686662653058121</v>
       </c>
       <c r="C378" t="n">
-        <v>554.63</v>
+        <v>599.3499999999999</v>
       </c>
       <c r="D378" t="n">
-        <v>25.15245817329173</v>
+        <v>16.88597755283493</v>
       </c>
       <c r="E378" t="n">
-        <v>0.5241810542744617</v>
+        <v>0.510078264127005</v>
       </c>
     </row>
     <row r="379">
@@ -7630,16 +7630,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>527.1009138994933</v>
+        <v>0.2902226269555825</v>
       </c>
       <c r="C379" t="n">
-        <v>543.08</v>
+        <v>478.28</v>
       </c>
       <c r="D379" t="n">
-        <v>15.45162445670708</v>
+        <v>9.167261980534285</v>
       </c>
       <c r="E379" t="n">
-        <v>0.5274616437995413</v>
+        <v>0.5081041607701713</v>
       </c>
     </row>
     <row r="380">
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>515.6268221104812</v>
+        <v>-0.5612107470383165</v>
       </c>
       <c r="C380" t="n">
-        <v>539.21</v>
+        <v>561.3099999999999</v>
       </c>
       <c r="D380" t="n">
-        <v>23.05423316517954</v>
+        <v>14.54901192723344</v>
       </c>
       <c r="E380" t="n">
-        <v>0.5289447243393365</v>
+        <v>0.5221174151023888</v>
       </c>
     </row>
     <row r="381">
@@ -7668,16 +7668,16 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>512.1138715570468</v>
+        <v>-1.261245776152876</v>
       </c>
       <c r="C381" t="n">
-        <v>529.03</v>
+        <v>416.86</v>
       </c>
       <c r="D381" t="n">
-        <v>16.38432636047578</v>
+        <v>4.391407231244067</v>
       </c>
       <c r="E381" t="n">
-        <v>0.5318020824773294</v>
+        <v>0.5270808555417529</v>
       </c>
     </row>
     <row r="382">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>485.0787347898672</v>
+        <v>-1.884839768619045</v>
       </c>
       <c r="C382" t="n">
-        <v>501.4</v>
+        <v>494.3799999999999</v>
       </c>
       <c r="D382" t="n">
-        <v>15.78111287862943</v>
+        <v>11.1353759773643</v>
       </c>
       <c r="E382" t="n">
-        <v>0.5401523315034528</v>
+        <v>0.5031327554490745</v>
       </c>
     </row>
     <row r="383">
@@ -7706,16 +7706,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>475.0219922835103</v>
+        <v>-2.033641060326076</v>
       </c>
       <c r="C383" t="n">
-        <v>495</v>
+        <v>413.9</v>
       </c>
       <c r="D383" t="n">
-        <v>19.43540528439633</v>
+        <v>4.354822244279815</v>
       </c>
       <c r="E383" t="n">
-        <v>0.5426024320934298</v>
+        <v>0.5279952824802763</v>
       </c>
     </row>
     <row r="384">
@@ -7725,16 +7725,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>458.0889434609245</v>
+        <v>-3.308149387507399</v>
       </c>
       <c r="C384" t="n">
-        <v>468.52</v>
+        <v>480.9299999999999</v>
       </c>
       <c r="D384" t="n">
-        <v>9.91974947287498</v>
+        <v>10.36765560903062</v>
       </c>
       <c r="E384" t="n">
-        <v>0.511307066200523</v>
+        <v>0.5077607985784399</v>
       </c>
     </row>
     <row r="385">
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>457.7598100393229</v>
+        <v>-4.643401164875741</v>
       </c>
       <c r="C385" t="n">
-        <v>469.24</v>
+        <v>549.4400000000001</v>
       </c>
       <c r="D385" t="n">
-        <v>10.96924927557321</v>
+        <v>16.55432067712403</v>
       </c>
       <c r="E385" t="n">
-        <v>0.5109406851039039</v>
+        <v>0.4864083719865188</v>
       </c>
     </row>
     <row r="386">
@@ -7763,16 +7763,16 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>457.2519235029352</v>
+        <v>-4.981249767076307</v>
       </c>
       <c r="C386" t="n">
-        <v>460.1</v>
+        <v>546.49</v>
       </c>
       <c r="D386" t="n">
-        <v>2.334356024895209</v>
+        <v>14.5192382189377</v>
       </c>
       <c r="E386" t="n">
-        <v>0.5137204721696151</v>
+        <v>0.5266957283554007</v>
       </c>
     </row>
     <row r="387">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>455.0003918816723</v>
+        <v>-5.761222975580807</v>
       </c>
       <c r="C387" t="n">
-        <v>457.0599999999999</v>
+        <v>602.4400000000001</v>
       </c>
       <c r="D387" t="n">
-        <v>1.544760737020516</v>
+        <v>19.49194789768928</v>
       </c>
       <c r="E387" t="n">
-        <v>0.5148473813071033</v>
+        <v>0.5091236765459114</v>
       </c>
     </row>
     <row r="388">
@@ -7801,16 +7801,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>436.4756652370761</v>
+        <v>-6.658753182565604</v>
       </c>
       <c r="C388" t="n">
-        <v>450.78</v>
+        <v>577.14</v>
       </c>
       <c r="D388" t="n">
-        <v>13.78754731365261</v>
+        <v>17.59644678104986</v>
       </c>
       <c r="E388" t="n">
-        <v>0.5167874492712675</v>
+        <v>0.5169395554461277</v>
       </c>
     </row>
     <row r="389">
@@ -7820,16 +7820,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>413.4276262800998</v>
+        <v>-7.400406153318514</v>
       </c>
       <c r="C389" t="n">
-        <v>416.86</v>
+        <v>391.28</v>
       </c>
       <c r="D389" t="n">
-        <v>2.905107432198304</v>
+        <v>3.917727884280571</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5272662877019132</v>
+        <v>0.5351686664476654</v>
       </c>
     </row>
     <row r="390">
@@ -7839,16 +7839,16 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>410.6332995373216</v>
+        <v>-12.98723575332448</v>
       </c>
       <c r="C390" t="n">
-        <v>416.86</v>
+        <v>364.09</v>
       </c>
       <c r="D390" t="n">
-        <v>5.699434174976477</v>
+        <v>3.163169328683463</v>
       </c>
       <c r="E390" t="n">
-        <v>0.5272662877019132</v>
+        <v>0.5435684193052496</v>
       </c>
     </row>
     <row r="391">
@@ -7858,16 +7858,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>389.554600820956</v>
+        <v>-21.52405526670339</v>
       </c>
       <c r="C391" t="n">
-        <v>394.5</v>
+        <v>330.54</v>
       </c>
       <c r="D391" t="n">
-        <v>4.411225260820015</v>
+        <v>2.696894971815405</v>
       </c>
       <c r="E391" t="n">
-        <v>0.5341739182240016</v>
+        <v>0.5537475222084195</v>
       </c>
     </row>
     <row r="392">
@@ -7877,16 +7877,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>380.3724473536572</v>
+        <v>-23.61915107361139</v>
       </c>
       <c r="C392" t="n">
-        <v>385.9</v>
+        <v>384.66</v>
       </c>
       <c r="D392" t="n">
-        <v>4.990907379308956</v>
+        <v>7.843109169674067</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5366452670338752</v>
+        <v>0.5375012990418319</v>
       </c>
     </row>
     <row r="393">
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>375.7495286593128</v>
+        <v>-38.93215648075249</v>
       </c>
       <c r="C393" t="n">
-        <v>384.66</v>
+        <v>315.76</v>
       </c>
       <c r="D393" t="n">
-        <v>8.372970041645328</v>
+        <v>6.265482443245362</v>
       </c>
       <c r="E393" t="n">
-        <v>0.537501299041832</v>
+        <v>0.558498910500801</v>
       </c>
     </row>
     <row r="394">
@@ -7915,16 +7915,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>359.5634793736703</v>
+        <v>-39.21221026044461</v>
       </c>
       <c r="C394" t="n">
-        <v>364.03</v>
+        <v>322.91</v>
       </c>
       <c r="D394" t="n">
-        <v>3.922933671343226</v>
+        <v>6.935536089860781</v>
       </c>
       <c r="E394" t="n">
-        <v>0.5435869549864359</v>
+        <v>0.5565776042627155</v>
       </c>
     </row>
     <row r="395">
@@ -7934,16 +7934,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>357.317122608014</v>
+        <v>-48.9775279036147</v>
       </c>
       <c r="C395" t="n">
-        <v>361.08</v>
+        <v>506.56</v>
       </c>
       <c r="D395" t="n">
-        <v>3.218379099341276</v>
+        <v>23.34231139655216</v>
       </c>
       <c r="E395" t="n">
-        <v>0.5444982926447615</v>
+        <v>0.5390312241848725</v>
       </c>
     </row>
     <row r="396">
@@ -7953,16 +7953,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>313.2967742462619</v>
+        <v>-53.47533058276701</v>
       </c>
       <c r="C396" t="n">
-        <v>323.11</v>
+        <v>270.53</v>
       </c>
       <c r="D396" t="n">
-        <v>9.256997464182636</v>
+        <v>6.462033165748753</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5562282895554812</v>
+        <v>0.5725738217781807</v>
       </c>
     </row>
     <row r="397">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>270.264132553103</v>
+        <v>-61.57679707380075</v>
       </c>
       <c r="C397" t="n">
-        <v>278.32</v>
+        <v>479.65</v>
       </c>
       <c r="D397" t="n">
-        <v>7.485514742232686</v>
+        <v>24.56552641285081</v>
       </c>
       <c r="E397" t="n">
-        <v>0.5703527046643219</v>
+        <v>0.5471707993711712</v>
       </c>
     </row>
   </sheetData>

--- a/results/current_run/values.xlsx
+++ b/results/current_run/values.xlsx
@@ -6319,16 +6319,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>76.65587045979419</v>
+        <v>66.09951043576271</v>
       </c>
       <c r="C310" t="n">
-        <v>702.05</v>
+        <v>682.8</v>
       </c>
       <c r="D310" t="n">
-        <v>6.954550080729848</v>
+        <v>8.229357973363987</v>
       </c>
       <c r="E310" t="n">
-        <v>0.4387899056257662</v>
+        <v>0.4452097312698058</v>
       </c>
     </row>
     <row r="311">
@@ -6338,16 +6338,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>50.12162675495475</v>
+        <v>57.43473074433918</v>
       </c>
       <c r="C311" t="n">
-        <v>623.52</v>
+        <v>660</v>
       </c>
       <c r="D311" t="n">
-        <v>7.637819466109246</v>
+        <v>8.700958992569113</v>
       </c>
       <c r="E311" t="n">
-        <v>0.4635253200790767</v>
+        <v>0.4522532901205935</v>
       </c>
     </row>
     <row r="312">
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>36.96484405002781</v>
+        <v>45.92659121118042</v>
       </c>
       <c r="C312" t="n">
-        <v>564.8700000000001</v>
+        <v>618.92</v>
       </c>
       <c r="D312" t="n">
-        <v>6.308171005298584</v>
+        <v>8.425625271342742</v>
       </c>
       <c r="E312" t="n">
-        <v>0.4818293805988292</v>
+        <v>0.4646588598667452</v>
       </c>
     </row>
     <row r="313">
@@ -6376,16 +6376,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>36.19189512885946</v>
+        <v>43.86415499852652</v>
       </c>
       <c r="C313" t="n">
-        <v>562.95</v>
+        <v>583.8</v>
       </c>
       <c r="D313" t="n">
-        <v>6.373613693440559</v>
+        <v>6.012118073182361</v>
       </c>
       <c r="E313" t="n">
-        <v>0.4821349932935104</v>
+        <v>0.4756938440812769</v>
       </c>
     </row>
     <row r="314">
@@ -6395,16 +6395,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>36.04723678089081</v>
+        <v>25.19339456541681</v>
       </c>
       <c r="C314" t="n">
-        <v>605.26</v>
+        <v>572.3200000000001</v>
       </c>
       <c r="D314" t="n">
-        <v>10.00909467181763</v>
+        <v>10.21296249159869</v>
       </c>
       <c r="E314" t="n">
-        <v>0.4688764808195997</v>
+        <v>0.4793800334918271</v>
       </c>
     </row>
     <row r="315">
@@ -6414,16 +6414,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>27.86188355350163</v>
+        <v>24.51760723600155</v>
       </c>
       <c r="C315" t="n">
-        <v>551.62</v>
+        <v>543.29</v>
       </c>
       <c r="D315" t="n">
-        <v>7.724574160747185</v>
+        <v>7.950515732404853</v>
       </c>
       <c r="E315" t="n">
-        <v>0.4856351477575204</v>
+        <v>0.4881228471479525</v>
       </c>
     </row>
     <row r="316">
@@ -6433,16 +6433,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>26.50346144481878</v>
+        <v>23.5290021660076</v>
       </c>
       <c r="C316" t="n">
-        <v>595.35</v>
+        <v>589.23</v>
       </c>
       <c r="D316" t="n">
-        <v>11.80348655418744</v>
+        <v>12.12377518189496</v>
       </c>
       <c r="E316" t="n">
-        <v>0.4722254865988141</v>
+        <v>0.4738285969765352</v>
       </c>
     </row>
     <row r="317">
@@ -6452,16 +6452,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>19.9753121426016</v>
+        <v>23.07371207718292</v>
       </c>
       <c r="C317" t="n">
-        <v>548.1900000000001</v>
+        <v>578.1099999999999</v>
       </c>
       <c r="D317" t="n">
-        <v>9.608412589021174</v>
+        <v>11.30752470972774</v>
       </c>
       <c r="E317" t="n">
-        <v>0.4869822999686161</v>
+        <v>0.477263876556393</v>
       </c>
     </row>
     <row r="318">
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>14.76977218384961</v>
+        <v>15.33025115404227</v>
       </c>
       <c r="C318" t="n">
-        <v>584.1999999999999</v>
+        <v>514.33</v>
       </c>
       <c r="D318" t="n">
-        <v>14.10516938934365</v>
+        <v>8.027161209215212</v>
       </c>
       <c r="E318" t="n">
-        <v>0.4758578019766482</v>
+        <v>0.4974426027180754</v>
       </c>
     </row>
     <row r="319">
@@ -6490,16 +6490,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>11.6165941126152</v>
+        <v>12.51119133644852</v>
       </c>
       <c r="C319" t="n">
-        <v>478.03</v>
+        <v>571.0899999999999</v>
       </c>
       <c r="D319" t="n">
-        <v>5.991972951018108</v>
+        <v>13.65212539302539</v>
       </c>
       <c r="E319" t="n">
-        <v>0.5084193050244868</v>
+        <v>0.4792471190950278</v>
       </c>
     </row>
     <row r="320">
@@ -6509,16 +6509,16 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>5.84960206669669</v>
+        <v>4.385965334991511</v>
       </c>
       <c r="C320" t="n">
-        <v>572.8299999999999</v>
+        <v>540.02</v>
       </c>
       <c r="D320" t="n">
-        <v>15.62545058775659</v>
+        <v>13.2641660701558</v>
       </c>
       <c r="E320" t="n">
-        <v>0.479182545604066</v>
+        <v>0.4890309448294854</v>
       </c>
     </row>
     <row r="321">
@@ -6528,16 +6528,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>5.35401503557992</v>
+        <v>2.365319243965601</v>
       </c>
       <c r="C321" t="n">
-        <v>499.98</v>
+        <v>595.09</v>
       </c>
       <c r="D321" t="n">
-        <v>9.578913614946448</v>
+        <v>16.61404471841468</v>
       </c>
       <c r="E321" t="n">
-        <v>0.5018757198017949</v>
+        <v>0.5113942974912312</v>
       </c>
     </row>
     <row r="322">
@@ -6547,16 +6547,16 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-2.157384011071443</v>
+        <v>-0.03854021439498467</v>
       </c>
       <c r="C322" t="n">
-        <v>547.6900000000001</v>
+        <v>537.39</v>
       </c>
       <c r="D322" t="n">
-        <v>15.70722470581327</v>
+        <v>14.2599510987658</v>
       </c>
       <c r="E322" t="n">
-        <v>0.4871367639785018</v>
+        <v>0.4900311934788672</v>
       </c>
     </row>
     <row r="323">
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-3.301324523324013</v>
+        <v>-0.2229872402362503</v>
       </c>
       <c r="C323" t="n">
-        <v>549.38</v>
+        <v>558.3</v>
       </c>
       <c r="D323" t="n">
-        <v>16.16788759361826</v>
+        <v>16.07868286821065</v>
       </c>
       <c r="E323" t="n">
-        <v>0.486614675625088</v>
+        <v>0.4836736055285669</v>
       </c>
     </row>
     <row r="324">
@@ -6585,16 +6585,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-3.932387091603303</v>
+        <v>-0.407847174458027</v>
       </c>
       <c r="C324" t="n">
-        <v>483.4399999999999</v>
+        <v>537.51</v>
       </c>
       <c r="D324" t="n">
-        <v>10.7673416141834</v>
+        <v>14.36783505835092</v>
       </c>
       <c r="E324" t="n">
-        <v>0.5066978601455339</v>
+        <v>0.4900938832623916</v>
       </c>
     </row>
     <row r="325">
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-4.877030261764588</v>
+        <v>-2.057569780070622</v>
       </c>
       <c r="C325" t="n">
-        <v>514.64</v>
+        <v>434.67</v>
       </c>
       <c r="D325" t="n">
-        <v>13.66038463600215</v>
+        <v>6.09945245954777</v>
       </c>
       <c r="E325" t="n">
-        <v>0.4973468350319463</v>
+        <v>0.5220518087730647</v>
       </c>
     </row>
     <row r="326">
@@ -6623,16 +6623,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-5.034222953422685</v>
+        <v>-8.24213766986081</v>
       </c>
       <c r="C326" t="n">
-        <v>515.09</v>
+        <v>540.22</v>
       </c>
       <c r="D326" t="n">
-        <v>13.75099277010967</v>
+        <v>16.76238062046464</v>
       </c>
       <c r="E326" t="n">
-        <v>0.4970223852628887</v>
+        <v>0.4894444562861939</v>
       </c>
     </row>
     <row r="327">
@@ -6642,16 +6642,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-7.172572176978818</v>
+        <v>-9.707494128591222</v>
       </c>
       <c r="C327" t="n">
-        <v>566.27</v>
+        <v>366.78</v>
       </c>
       <c r="D327" t="n">
-        <v>16.81286756513255</v>
+        <v>2.481150548476439</v>
       </c>
       <c r="E327" t="n">
-        <v>0.5203973641669397</v>
+        <v>0.5427374029320645</v>
       </c>
     </row>
     <row r="328">
@@ -6661,16 +6661,16 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-7.981300195144328</v>
+        <v>-10.82434874988037</v>
       </c>
       <c r="C328" t="n">
-        <v>416.86</v>
+        <v>513.29</v>
       </c>
       <c r="D328" t="n">
-        <v>6.242434590502011</v>
+        <v>15.19616454814095</v>
       </c>
       <c r="E328" t="n">
-        <v>0.5273658228029175</v>
+        <v>0.4977638878586377</v>
       </c>
     </row>
     <row r="329">
@@ -6680,16 +6680,16 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-8.486486986792812</v>
+        <v>-11.09144437008008</v>
       </c>
       <c r="C329" t="n">
-        <v>573.5</v>
+        <v>383.46</v>
       </c>
       <c r="D329" t="n">
-        <v>17.79504843154614</v>
+        <v>4.265309180192544</v>
       </c>
       <c r="E329" t="n">
-        <v>0.5180640534380955</v>
+        <v>0.5378720126655576</v>
       </c>
     </row>
     <row r="330">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-8.826415808751378</v>
+        <v>-14.28159789894612</v>
       </c>
       <c r="C330" t="n">
-        <v>532.79</v>
+        <v>542.16</v>
       </c>
       <c r="D330" t="n">
-        <v>14.42488976186142</v>
+        <v>16.74174964878798</v>
       </c>
       <c r="E330" t="n">
-        <v>0.5309280422262689</v>
+        <v>0.5278456187236279</v>
       </c>
     </row>
     <row r="331">
@@ -6718,16 +6718,16 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-8.917836378368676</v>
+        <v>-15.62918515720246</v>
       </c>
       <c r="C331" t="n">
-        <v>481.57</v>
+        <v>422.75</v>
       </c>
       <c r="D331" t="n">
-        <v>11.99215264508381</v>
+        <v>8.854798036598652</v>
       </c>
       <c r="E331" t="n">
-        <v>0.5072755555425064</v>
+        <v>0.5257342307687397</v>
       </c>
     </row>
     <row r="332">
@@ -6737,16 +6737,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-9.731004542708234</v>
+        <v>-15.74297074250397</v>
       </c>
       <c r="C332" t="n">
-        <v>541.8</v>
+        <v>380.46</v>
       </c>
       <c r="D332" t="n">
-        <v>17.32314572747158</v>
+        <v>5.301682276538346</v>
       </c>
       <c r="E332" t="n">
-        <v>0.4886688209116753</v>
+        <v>0.5387987967248719</v>
       </c>
     </row>
     <row r="333">
@@ -6756,16 +6756,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>-10.78632117584965</v>
+        <v>-16.12001021138217</v>
       </c>
       <c r="C333" t="n">
-        <v>400.5</v>
+        <v>472.87</v>
       </c>
       <c r="D333" t="n">
-        <v>5.633879796022085</v>
+        <v>13.2531006521546</v>
       </c>
       <c r="E333" t="n">
-        <v>0.5324224470484926</v>
+        <v>0.5099632293145174</v>
       </c>
     </row>
     <row r="334">
@@ -6775,16 +6775,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-11.53238796202146</v>
+        <v>-16.23122674001067</v>
       </c>
       <c r="C334" t="n">
-        <v>494.14</v>
+        <v>384.66</v>
       </c>
       <c r="D334" t="n">
-        <v>13.77834543108925</v>
+        <v>5.793170077262592</v>
       </c>
       <c r="E334" t="n">
-        <v>0.5034920914798768</v>
+        <v>0.537501299041832</v>
       </c>
     </row>
     <row r="335">
@@ -6794,16 +6794,16 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-12.85809502482226</v>
+        <v>-16.52557274167806</v>
       </c>
       <c r="C335" t="n">
-        <v>585.8700000000001</v>
+        <v>385.97</v>
       </c>
       <c r="D335" t="n">
-        <v>20.05182157375797</v>
+        <v>5.99960318406207</v>
       </c>
       <c r="E335" t="n">
-        <v>0.5143423749794204</v>
+        <v>0.5368090742326515</v>
       </c>
     </row>
     <row r="336">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-22.15828989384642</v>
+        <v>-19.0696284380256</v>
       </c>
       <c r="C336" t="n">
-        <v>341.25</v>
+        <v>491.21</v>
       </c>
       <c r="D336" t="n">
-        <v>3.780704177392968</v>
+        <v>15.62124426185203</v>
       </c>
       <c r="E336" t="n">
-        <v>0.5504389031166678</v>
+        <v>0.5043995863750297</v>
       </c>
     </row>
     <row r="337">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-25.90916797771452</v>
+        <v>-24.66618329319597</v>
       </c>
       <c r="C337" t="n">
-        <v>502.14</v>
+        <v>487.83</v>
       </c>
       <c r="D337" t="n">
-        <v>18.4456088971075</v>
+        <v>16.87877779358204</v>
       </c>
       <c r="E337" t="n">
-        <v>0.5010206673217057</v>
+        <v>0.5056291952420173</v>
       </c>
     </row>
     <row r="338">
@@ -6851,16 +6851,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>-33.37812399618968</v>
+        <v>-24.93429866948093</v>
       </c>
       <c r="C338" t="n">
-        <v>391.02</v>
+        <v>493.47</v>
       </c>
       <c r="D338" t="n">
-        <v>11.09889632704636</v>
+        <v>17.43124361549912</v>
       </c>
       <c r="E338" t="n">
-        <v>0.5353510846759256</v>
+        <v>0.5038868412105066</v>
       </c>
     </row>
     <row r="339">
@@ -6870,16 +6870,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>-33.6429837671107</v>
+        <v>-33.19335425586944</v>
       </c>
       <c r="C339" t="n">
-        <v>361.1799999999999</v>
+        <v>428.1</v>
       </c>
       <c r="D339" t="n">
-        <v>8.634168965781685</v>
+        <v>14.19080473509461</v>
       </c>
       <c r="E339" t="n">
-        <v>0.5447549289460643</v>
+        <v>0.5238936979055796</v>
       </c>
     </row>
     <row r="340">
@@ -6889,16 +6889,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>-38.91950294061288</v>
+        <v>-34.84334462261191</v>
       </c>
       <c r="C340" t="n">
-        <v>346.48</v>
+        <v>408.17</v>
       </c>
       <c r="D340" t="n">
-        <v>8.852215897642623</v>
+        <v>12.95031587722152</v>
       </c>
       <c r="E340" t="n">
-        <v>0.5492961708367038</v>
+        <v>0.5302384012970065</v>
       </c>
     </row>
     <row r="341">
@@ -6908,16 +6908,16 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>-42.02003942851513</v>
+        <v>-35.6084602311592</v>
       </c>
       <c r="C341" t="n">
-        <v>373.9</v>
+        <v>473.37</v>
       </c>
       <c r="D341" t="n">
-        <v>12.04572661354978</v>
+        <v>16.8194433141777</v>
       </c>
       <c r="E341" t="n">
-        <v>0.5406375965771891</v>
+        <v>0.5492845451610849</v>
       </c>
     </row>
     <row r="342">
@@ -6927,16 +6927,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-44.28323414433097</v>
+        <v>-37.85645731597992</v>
       </c>
       <c r="C342" t="n">
-        <v>340.47</v>
+        <v>357.5699999999999</v>
       </c>
       <c r="D342" t="n">
-        <v>9.831064644683901</v>
+        <v>9.506136175361309</v>
       </c>
       <c r="E342" t="n">
-        <v>0.5511528282355298</v>
+        <v>0.5456847269372788</v>
       </c>
     </row>
     <row r="343">
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>-45.99467872951132</v>
+        <v>-43.05996041070797</v>
       </c>
       <c r="C343" t="n">
-        <v>475.05</v>
+        <v>388.02</v>
       </c>
       <c r="D343" t="n">
-        <v>21.72249885952514</v>
+        <v>13.52218990394839</v>
       </c>
       <c r="E343" t="n">
-        <v>0.5093895273773127</v>
+        <v>0.5364633008954</v>
       </c>
     </row>
     <row r="344">
@@ -6965,16 +6965,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>-52.85971226399525</v>
+        <v>-43.16694465104592</v>
       </c>
       <c r="C344" t="n">
-        <v>268.24</v>
+        <v>416.86</v>
       </c>
       <c r="D344" t="n">
-        <v>6.088258381698445</v>
+        <v>16.00532897660488</v>
       </c>
       <c r="E344" t="n">
-        <v>0.5734666991036175</v>
+        <v>0.5273683846450327</v>
       </c>
     </row>
     <row r="345">
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-54.21090744440907</v>
+        <v>-46.15948792650669</v>
       </c>
       <c r="C345" t="n">
-        <v>279.78</v>
+        <v>452.78</v>
       </c>
       <c r="D345" t="n">
-        <v>7.450205884455824</v>
+        <v>18.00175396631001</v>
       </c>
       <c r="E345" t="n">
-        <v>0.5697162375952954</v>
+        <v>0.5556453730881781</v>
       </c>
     </row>
     <row r="346">
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>-54.30581821485657</v>
+        <v>-47.87183843666716</v>
       </c>
       <c r="C346" t="n">
-        <v>484.49</v>
+        <v>293.91</v>
       </c>
       <c r="D346" t="n">
-        <v>22.95000944987942</v>
+        <v>6.880168202573117</v>
       </c>
       <c r="E346" t="n">
-        <v>0.5458492655812271</v>
+        <v>0.5655365168360859</v>
       </c>
     </row>
     <row r="347">
@@ -7022,16 +7022,16 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-55.082983175386</v>
+        <v>-48.40247738150441</v>
       </c>
       <c r="C347" t="n">
-        <v>321.9</v>
+        <v>372.53</v>
       </c>
       <c r="D347" t="n">
-        <v>11.25361256274037</v>
+        <v>13.70054452558074</v>
       </c>
       <c r="E347" t="n">
-        <v>0.5568896215626846</v>
+        <v>0.541060827964276</v>
       </c>
     </row>
     <row r="348">
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>-55.45318530940057</v>
+        <v>-49.27413778243631</v>
       </c>
       <c r="C348" t="n">
-        <v>357.83</v>
+        <v>302.69</v>
       </c>
       <c r="D348" t="n">
-        <v>14.41087842746489</v>
+        <v>8.013498182066233</v>
       </c>
       <c r="E348" t="n">
-        <v>0.5456020698549154</v>
+        <v>0.5628241288224931</v>
       </c>
     </row>
     <row r="349">
@@ -7060,16 +7060,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>-62.15260822466198</v>
+        <v>-59.34702915950498</v>
       </c>
       <c r="C349" t="n">
-        <v>373.17</v>
+        <v>365.76</v>
       </c>
       <c r="D349" t="n">
-        <v>17.56110531585213</v>
+        <v>16.16825140573226</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5410508819890052</v>
+        <v>0.5430525095122313</v>
       </c>
     </row>
     <row r="350">
@@ -7079,16 +7079,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>-70.33305749099853</v>
+        <v>-60.49923690372225</v>
       </c>
       <c r="C350" t="n">
-        <v>272.6</v>
+        <v>269.14</v>
       </c>
       <c r="D350" t="n">
-        <v>11.3151472440409</v>
+        <v>8.284297403448866</v>
       </c>
       <c r="E350" t="n">
-        <v>0.5719320049800313</v>
+        <v>0.5731886638858232</v>
       </c>
     </row>
     <row r="351">
@@ -7098,16 +7098,16 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-79.08946211793651</v>
+        <v>-61.59863135204995</v>
       </c>
       <c r="C351" t="n">
-        <v>374.3199999999999</v>
+        <v>472.2300000000001</v>
       </c>
       <c r="D351" t="n">
-        <v>22.35808015330392</v>
+        <v>23.94330497515994</v>
       </c>
       <c r="E351" t="n">
-        <v>0.5406956147662683</v>
+        <v>0.5494489551462415</v>
       </c>
     </row>
     <row r="352">
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>-80.61123652377623</v>
+        <v>-62.2314919502705</v>
       </c>
       <c r="C352" t="n">
-        <v>409.76</v>
+        <v>267.78</v>
       </c>
       <c r="D352" t="n">
-        <v>25.78438094915684</v>
+        <v>8.658516959032712</v>
       </c>
       <c r="E352" t="n">
-        <v>0.5297472057455699</v>
+        <v>0.5734233738325519</v>
       </c>
     </row>
     <row r="353">
@@ -7136,16 +7136,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>-82.23219756354055</v>
+        <v>-74.15569078672092</v>
       </c>
       <c r="C353" t="n">
-        <v>222.89</v>
+        <v>458.21</v>
       </c>
       <c r="D353" t="n">
-        <v>10.39422130028577</v>
+        <v>26.23913478733335</v>
       </c>
       <c r="E353" t="n">
-        <v>0.5874765848002503</v>
+        <v>0.5537801259834363</v>
       </c>
     </row>
     <row r="354">
@@ -7155,16 +7155,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>75.82894920906583</v>
+        <v>75.23193388278605</v>
       </c>
       <c r="C354" t="n">
-        <v>676.6799999999999</v>
+        <v>710.3099999999999</v>
       </c>
       <c r="D354" t="n">
-        <v>5.019804431919096</v>
+        <v>8.04084718888439</v>
       </c>
       <c r="E354" t="n">
-        <v>0.4469149385906465</v>
+        <v>0.4364259281398375</v>
       </c>
     </row>
     <row r="355">
@@ -7174,16 +7174,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>67.52737565167875</v>
+        <v>62.91897611503325</v>
       </c>
       <c r="C355" t="n">
-        <v>629.4000000000001</v>
+        <v>652.6</v>
       </c>
       <c r="D355" t="n">
-        <v>3.311504988067072</v>
+        <v>6.565587485668327</v>
       </c>
       <c r="E355" t="n">
-        <v>0.4616067263797012</v>
+        <v>0.4542541641608446</v>
       </c>
     </row>
     <row r="356">
@@ -7193,16 +7193,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>63.66625665234878</v>
+        <v>57.95682016862885</v>
       </c>
       <c r="C356" t="n">
-        <v>638.99</v>
+        <v>608.5</v>
       </c>
       <c r="D356" t="n">
-        <v>5.202572121076784</v>
+        <v>4.204333115606786</v>
       </c>
       <c r="E356" t="n">
-        <v>0.45850105792728</v>
+        <v>0.467877889832763</v>
       </c>
     </row>
     <row r="357">
@@ -7212,16 +7212,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>62.43092367350212</v>
+        <v>55.93262396126846</v>
       </c>
       <c r="C357" t="n">
-        <v>660</v>
+        <v>599.9</v>
       </c>
       <c r="D357" t="n">
-        <v>7.328265002756772</v>
+        <v>4.035288431767667</v>
       </c>
       <c r="E357" t="n">
-        <v>0.4519680968145363</v>
+        <v>0.4705708756597484</v>
       </c>
     </row>
     <row r="358">
@@ -7231,16 +7231,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>59.27939876265626</v>
+        <v>48.8302051151138</v>
       </c>
       <c r="C358" t="n">
-        <v>621.48</v>
+        <v>598.4100000000001</v>
       </c>
       <c r="D358" t="n">
-        <v>4.937597521722177</v>
+        <v>5.872588684080336</v>
       </c>
       <c r="E358" t="n">
-        <v>0.4638680041361303</v>
+        <v>0.4711804057124168</v>
       </c>
     </row>
     <row r="359">
@@ -7250,16 +7250,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>58.98498327234894</v>
+        <v>47.87676059696057</v>
       </c>
       <c r="C359" t="n">
-        <v>645.23</v>
+        <v>645.08</v>
       </c>
       <c r="D359" t="n">
-        <v>7.032444826231862</v>
+        <v>10.07937966527855</v>
       </c>
       <c r="E359" t="n">
-        <v>0.4565309636665597</v>
+        <v>0.4570502641329658</v>
       </c>
     </row>
     <row r="360">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>50.96273463735542</v>
+        <v>43.90063692705695</v>
       </c>
       <c r="C360" t="n">
-        <v>650.97</v>
+        <v>594.9699999999999</v>
       </c>
       <c r="D360" t="n">
-        <v>9.7223720816478</v>
+        <v>6.957661764156624</v>
       </c>
       <c r="E360" t="n">
-        <v>0.4552306780965122</v>
+        <v>0.47205768594027</v>
       </c>
     </row>
     <row r="361">
@@ -7288,16 +7288,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>48.82972338358364</v>
+        <v>42.97630043820152</v>
       </c>
       <c r="C361" t="n">
-        <v>599.26</v>
+        <v>645.5600000000001</v>
       </c>
       <c r="D361" t="n">
-        <v>5.944772122067477</v>
+        <v>11.49352409653576</v>
       </c>
       <c r="E361" t="n">
-        <v>0.4709178168956112</v>
+        <v>0.4566144495801956</v>
       </c>
     </row>
     <row r="362">
@@ -7307,16 +7307,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>47.88808911944821</v>
+        <v>36.2226517462673</v>
       </c>
       <c r="C362" t="n">
-        <v>649.14</v>
+        <v>619.14</v>
       </c>
       <c r="D362" t="n">
-        <v>8.775186042973081</v>
+        <v>9.275988339130693</v>
       </c>
       <c r="E362" t="n">
-        <v>0.4902766389838617</v>
+        <v>0.5035913784981858</v>
       </c>
     </row>
     <row r="363">
@@ -7326,16 +7326,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>46.42252311326192</v>
+        <v>35.14751243500058</v>
       </c>
       <c r="C363" t="n">
-        <v>608.79</v>
+        <v>561.26</v>
       </c>
       <c r="D363" t="n">
-        <v>7.426307637175049</v>
+        <v>6.528995951294179</v>
       </c>
       <c r="E363" t="n">
-        <v>0.4678521583891651</v>
+        <v>0.4824716494867637</v>
       </c>
     </row>
     <row r="364">
@@ -7345,16 +7345,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>44.54399063931662</v>
+        <v>33.14382636972537</v>
       </c>
       <c r="C364" t="n">
-        <v>636.2</v>
+        <v>676.41</v>
       </c>
       <c r="D364" t="n">
-        <v>8.395327803818491</v>
+        <v>14.96692747903626</v>
       </c>
       <c r="E364" t="n">
-        <v>0.4986942665984292</v>
+        <v>0.4862722709234215</v>
       </c>
     </row>
     <row r="365">
@@ -7364,16 +7364,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>40.90383952501443</v>
+        <v>29.28541396193434</v>
       </c>
       <c r="C365" t="n">
-        <v>571.9499999999999</v>
+        <v>538.03</v>
       </c>
       <c r="D365" t="n">
-        <v>5.829062932199946</v>
+        <v>6.186483856103802</v>
       </c>
       <c r="E365" t="n">
-        <v>0.4793546411155679</v>
+        <v>0.4896480473860531</v>
       </c>
     </row>
     <row r="366">
@@ -7383,16 +7383,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>37.66148517595489</v>
+        <v>24.91298548688539</v>
       </c>
       <c r="C366" t="n">
-        <v>698.9300000000001</v>
+        <v>625.3499999999999</v>
       </c>
       <c r="D366" t="n">
-        <v>15.63125971386862</v>
+        <v>12.92267982772103</v>
       </c>
       <c r="E366" t="n">
-        <v>0.4791274439607867</v>
+        <v>0.5020461356129488</v>
       </c>
     </row>
     <row r="367">
@@ -7402,16 +7402,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>35.71295997253438</v>
+        <v>22.32105951419732</v>
       </c>
       <c r="C367" t="n">
-        <v>543.0599999999999</v>
+        <v>648.35</v>
       </c>
       <c r="D367" t="n">
-        <v>4.820539946036439</v>
+        <v>15.60029531725216</v>
       </c>
       <c r="E367" t="n">
-        <v>0.4882795716067634</v>
+        <v>0.4947553589980465</v>
       </c>
     </row>
     <row r="368">
@@ -7421,16 +7421,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>32.7214382256517</v>
+        <v>20.24955512584572</v>
       </c>
       <c r="C368" t="n">
-        <v>677.23</v>
+        <v>641.61</v>
       </c>
       <c r="D368" t="n">
-        <v>15.15363502594445</v>
+        <v>15.60997183128678</v>
       </c>
       <c r="E368" t="n">
-        <v>0.4860189499472091</v>
+        <v>0.4967074826898116</v>
       </c>
     </row>
     <row r="369">
@@ -7440,16 +7440,16 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>32.49318840460332</v>
+        <v>13.8623938548284</v>
       </c>
       <c r="C369" t="n">
-        <v>519.0699999999999</v>
+        <v>616.5999999999999</v>
       </c>
       <c r="D369" t="n">
-        <v>3.689283870104741</v>
+        <v>15.2472162086246</v>
       </c>
       <c r="E369" t="n">
-        <v>0.4955053226409187</v>
+        <v>0.5047492557859485</v>
       </c>
     </row>
     <row r="370">
@@ -7459,16 +7459,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>32.13830564778395</v>
+        <v>13.04760635731985</v>
       </c>
       <c r="C370" t="n">
-        <v>532.6799999999999</v>
+        <v>540.0700000000001</v>
       </c>
       <c r="D370" t="n">
-        <v>4.941509184386364</v>
+        <v>10.85608592689743</v>
       </c>
       <c r="E370" t="n">
-        <v>0.4912984764946075</v>
+        <v>0.4892032663858799</v>
       </c>
     </row>
     <row r="371">
@@ -7478,16 +7478,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>24.82200566437923</v>
+        <v>12.21159483409136</v>
       </c>
       <c r="C371" t="n">
-        <v>646.64</v>
+        <v>540.1900000000001</v>
       </c>
       <c r="D371" t="n">
-        <v>14.76140663225101</v>
+        <v>9.237263058874266</v>
       </c>
       <c r="E371" t="n">
-        <v>0.4952836259118555</v>
+        <v>0.5281690136165202</v>
       </c>
     </row>
     <row r="372">
@@ -7497,16 +7497,16 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>24.07485807082796</v>
+        <v>10.90046292924164</v>
       </c>
       <c r="C372" t="n">
-        <v>522.09</v>
+        <v>624.9300000000001</v>
       </c>
       <c r="D372" t="n">
-        <v>6.272272317888314</v>
+        <v>16.78377678011628</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4947577921813695</v>
+        <v>0.5019952001638354</v>
       </c>
     </row>
     <row r="373">
@@ -7516,16 +7516,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>17.82850801179497</v>
+        <v>7.108199704744024</v>
       </c>
       <c r="C373" t="n">
-        <v>495.06</v>
+        <v>562.63</v>
       </c>
       <c r="D373" t="n">
-        <v>5.723233342011967</v>
+        <v>14.41151679989242</v>
       </c>
       <c r="E373" t="n">
-        <v>0.5029203485984073</v>
+        <v>0.4823359472029568</v>
       </c>
     </row>
     <row r="374">
@@ -7535,16 +7535,16 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>15.46567708359184</v>
+        <v>6.473603121033491</v>
       </c>
       <c r="C374" t="n">
-        <v>542.72</v>
+        <v>576.8399999999999</v>
       </c>
       <c r="D374" t="n">
-        <v>10.41872484239871</v>
+        <v>13.92716170022729</v>
       </c>
       <c r="E374" t="n">
-        <v>0.4881968391761027</v>
+        <v>0.5170322338520591</v>
       </c>
     </row>
     <row r="375">
@@ -7554,16 +7554,16 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>14.03267834232534</v>
+        <v>5.275548437935015</v>
       </c>
       <c r="C375" t="n">
-        <v>456.41</v>
+        <v>416.86</v>
       </c>
       <c r="D375" t="n">
-        <v>3.49136366718638</v>
+        <v>2.568784932253371</v>
       </c>
       <c r="E375" t="n">
-        <v>0.5150481845199547</v>
+        <v>0.5272662877019132</v>
       </c>
     </row>
     <row r="376">
@@ -7573,16 +7573,16 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>13.86222983736232</v>
+        <v>3.055406262186892</v>
       </c>
       <c r="C376" t="n">
-        <v>590.27</v>
+        <v>596.0599999999999</v>
       </c>
       <c r="D376" t="n">
-        <v>14.88522577790495</v>
+        <v>16.50478668160282</v>
       </c>
       <c r="E376" t="n">
-        <v>0.4736950797933558</v>
+        <v>0.511094637312053</v>
       </c>
     </row>
     <row r="377">
@@ -7592,16 +7592,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>13.76199863903318</v>
+        <v>-0.34628306806664</v>
       </c>
       <c r="C377" t="n">
-        <v>551.59</v>
+        <v>390.8</v>
       </c>
       <c r="D377" t="n">
-        <v>9.750817957771053</v>
+        <v>1.919722224518901</v>
       </c>
       <c r="E377" t="n">
-        <v>0.5251201954545667</v>
+        <v>0.5353169518971558</v>
       </c>
     </row>
     <row r="378">
@@ -7611,16 +7611,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>2.686662653058121</v>
+        <v>-0.6808284856649891</v>
       </c>
       <c r="C378" t="n">
-        <v>599.3499999999999</v>
+        <v>486.9</v>
       </c>
       <c r="D378" t="n">
-        <v>16.88597755283493</v>
+        <v>10.16725906910139</v>
       </c>
       <c r="E378" t="n">
-        <v>0.510078264127005</v>
+        <v>0.5054435370369644</v>
       </c>
     </row>
     <row r="379">
@@ -7630,16 +7630,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.2902226269555825</v>
+        <v>-3.953597298191681</v>
       </c>
       <c r="C379" t="n">
-        <v>478.28</v>
+        <v>566.87</v>
       </c>
       <c r="D379" t="n">
-        <v>9.167261980534285</v>
+        <v>15.96159307656517</v>
       </c>
       <c r="E379" t="n">
-        <v>0.5081041607701713</v>
+        <v>0.5203997753124597</v>
       </c>
     </row>
     <row r="380">
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-0.5612107470383165</v>
+        <v>-4.394197526783216</v>
       </c>
       <c r="C380" t="n">
-        <v>561.3099999999999</v>
+        <v>397.88</v>
       </c>
       <c r="D380" t="n">
-        <v>14.54901192723344</v>
+        <v>3.643035686692907</v>
       </c>
       <c r="E380" t="n">
-        <v>0.5221174151023888</v>
+        <v>0.5331297415171742</v>
       </c>
     </row>
     <row r="381">
@@ -7668,16 +7668,16 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>-1.261245776152876</v>
+        <v>-5.490380952224186</v>
       </c>
       <c r="C381" t="n">
-        <v>416.86</v>
+        <v>390.26</v>
       </c>
       <c r="D381" t="n">
-        <v>4.391407231244067</v>
+        <v>3.29641902384993</v>
       </c>
       <c r="E381" t="n">
-        <v>0.5270808555417529</v>
+        <v>0.5355858699709517</v>
       </c>
     </row>
     <row r="382">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>-1.884839768619045</v>
+        <v>-5.51624726720739</v>
       </c>
       <c r="C382" t="n">
-        <v>494.3799999999999</v>
+        <v>461.11</v>
       </c>
       <c r="D382" t="n">
-        <v>11.1353759773643</v>
+        <v>9.314027940343101</v>
       </c>
       <c r="E382" t="n">
-        <v>0.5031327554490745</v>
+        <v>0.5135962228270292</v>
       </c>
     </row>
     <row r="383">
@@ -7706,16 +7706,16 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>-2.033641060326076</v>
+        <v>-8.958227227866473</v>
       </c>
       <c r="C383" t="n">
-        <v>413.9</v>
+        <v>613.2</v>
       </c>
       <c r="D383" t="n">
-        <v>4.354822244279815</v>
+        <v>21.29993871304287</v>
       </c>
       <c r="E383" t="n">
-        <v>0.5279952824802763</v>
+        <v>0.505614178893011</v>
       </c>
     </row>
     <row r="384">
@@ -7725,16 +7725,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>-3.308149387507399</v>
+        <v>-9.162835811029353</v>
       </c>
       <c r="C384" t="n">
-        <v>480.9299999999999</v>
+        <v>394.22</v>
       </c>
       <c r="D384" t="n">
-        <v>10.36765560903062</v>
+        <v>4.651088072403376</v>
       </c>
       <c r="E384" t="n">
-        <v>0.5077607985784399</v>
+        <v>0.5343625150126572</v>
       </c>
     </row>
     <row r="385">
@@ -7744,16 +7744,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>-4.643401164875741</v>
+        <v>-10.25368502516757</v>
       </c>
       <c r="C385" t="n">
-        <v>549.4400000000001</v>
+        <v>507.52</v>
       </c>
       <c r="D385" t="n">
-        <v>16.55432067712403</v>
+        <v>14.57129745330218</v>
       </c>
       <c r="E385" t="n">
-        <v>0.4864083719865188</v>
+        <v>0.4990734412692783</v>
       </c>
     </row>
     <row r="386">
@@ -7763,16 +7763,16 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>-4.981249767076307</v>
+        <v>-14.01521607527935</v>
       </c>
       <c r="C386" t="n">
-        <v>546.49</v>
+        <v>549.01</v>
       </c>
       <c r="D386" t="n">
-        <v>14.5192382189377</v>
+        <v>17.25323261381492</v>
       </c>
       <c r="E386" t="n">
-        <v>0.5266957283554007</v>
+        <v>0.5256297006422971</v>
       </c>
     </row>
     <row r="387">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>-5.761222975580807</v>
+        <v>-16.13469438962528</v>
       </c>
       <c r="C387" t="n">
-        <v>602.4400000000001</v>
+        <v>355.59</v>
       </c>
       <c r="D387" t="n">
-        <v>19.49194789768928</v>
+        <v>3.316001961015786</v>
       </c>
       <c r="E387" t="n">
-        <v>0.5091236765459114</v>
+        <v>0.5461943074733063</v>
       </c>
     </row>
     <row r="388">
@@ -7801,16 +7801,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-6.658753182565604</v>
+        <v>-20.01132360387908</v>
       </c>
       <c r="C388" t="n">
-        <v>577.14</v>
+        <v>564.24</v>
       </c>
       <c r="D388" t="n">
-        <v>17.59644678104986</v>
+        <v>20.19422541612881</v>
       </c>
       <c r="E388" t="n">
-        <v>0.5169395554461277</v>
+        <v>0.5212122560044585</v>
       </c>
     </row>
     <row r="389">
@@ -7820,16 +7820,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>-7.400406153318514</v>
+        <v>-20.11629977341828</v>
       </c>
       <c r="C389" t="n">
-        <v>391.28</v>
+        <v>392.2</v>
       </c>
       <c r="D389" t="n">
-        <v>3.917727884280571</v>
+        <v>7.532857985881981</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5351686664476654</v>
+        <v>0.5346990205093153</v>
       </c>
     </row>
     <row r="390">
@@ -7839,16 +7839,16 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-12.98723575332448</v>
+        <v>-20.65281170802513</v>
       </c>
       <c r="C390" t="n">
-        <v>364.09</v>
+        <v>584.5599999999999</v>
       </c>
       <c r="D390" t="n">
-        <v>3.163169328683463</v>
+        <v>22.10835253436997</v>
       </c>
       <c r="E390" t="n">
-        <v>0.5435684193052496</v>
+        <v>0.5146473095394238</v>
       </c>
     </row>
     <row r="391">
@@ -7858,16 +7858,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>-21.52405526670339</v>
+        <v>-21.40823983202783</v>
       </c>
       <c r="C391" t="n">
-        <v>330.54</v>
+        <v>380.24</v>
       </c>
       <c r="D391" t="n">
-        <v>2.696894971815405</v>
+        <v>6.868704350196757</v>
       </c>
       <c r="E391" t="n">
-        <v>0.5537475222084195</v>
+        <v>0.5385792317859416</v>
       </c>
     </row>
     <row r="392">
@@ -7877,16 +7877,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>-23.61915107361139</v>
+        <v>-26.23038018845446</v>
       </c>
       <c r="C392" t="n">
-        <v>384.66</v>
+        <v>337.78</v>
       </c>
       <c r="D392" t="n">
-        <v>7.843109169674067</v>
+        <v>4.602741897767332</v>
       </c>
       <c r="E392" t="n">
-        <v>0.5375012990418319</v>
+        <v>0.5517984124485544</v>
       </c>
     </row>
     <row r="393">
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>-38.93215648075249</v>
+        <v>-31.79057306178367</v>
       </c>
       <c r="C393" t="n">
-        <v>315.76</v>
+        <v>426.82</v>
       </c>
       <c r="D393" t="n">
-        <v>6.265482443245362</v>
+        <v>13.69783429271713</v>
       </c>
       <c r="E393" t="n">
-        <v>0.558498910500801</v>
+        <v>0.5241893646249901</v>
       </c>
     </row>
     <row r="394">
@@ -7915,16 +7915,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>-39.21221026044461</v>
+        <v>-34.63316482015441</v>
       </c>
       <c r="C394" t="n">
-        <v>322.91</v>
+        <v>398.02</v>
       </c>
       <c r="D394" t="n">
-        <v>6.935536089860781</v>
+        <v>12.04535696395849</v>
       </c>
       <c r="E394" t="n">
-        <v>0.5565776042627155</v>
+        <v>0.5330864915944062</v>
       </c>
     </row>
     <row r="395">
@@ -7934,16 +7934,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>-48.9775279036147</v>
+        <v>-42.94624711375849</v>
       </c>
       <c r="C395" t="n">
-        <v>506.56</v>
+        <v>543.79</v>
       </c>
       <c r="D395" t="n">
-        <v>23.34231139655216</v>
+        <v>24.82458231921026</v>
       </c>
       <c r="E395" t="n">
-        <v>0.5390312241848725</v>
+        <v>0.5275298340087835</v>
       </c>
     </row>
     <row r="396">
@@ -7953,16 +7953,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-53.47533058276701</v>
+        <v>-57.4074203605837</v>
       </c>
       <c r="C396" t="n">
-        <v>270.53</v>
+        <v>263.43</v>
       </c>
       <c r="D396" t="n">
-        <v>6.462033165748753</v>
+        <v>6.951360307029161</v>
       </c>
       <c r="E396" t="n">
-        <v>0.5725738217781807</v>
+        <v>0.5747648749213349</v>
       </c>
     </row>
     <row r="397">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>-61.57679707380075</v>
+        <v>-60.8936440021947</v>
       </c>
       <c r="C397" t="n">
-        <v>479.65</v>
+        <v>332.25</v>
       </c>
       <c r="D397" t="n">
-        <v>24.56552641285081</v>
+        <v>13.743217765778</v>
       </c>
       <c r="E397" t="n">
-        <v>0.5471707993711712</v>
+        <v>0.5536922165580506</v>
       </c>
     </row>
   </sheetData>
